--- a/document/叨叨帮表设计.xlsx
+++ b/document/叨叨帮表设计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="13480" windowHeight="13920"/>
+    <workbookView windowWidth="28060" windowHeight="12000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222">
   <si>
     <t>用户信息表 user_info</t>
   </si>
@@ -118,6 +118,9 @@
     <t>varchar(16)</t>
   </si>
   <si>
+    <t>unbind/normal/forbidden</t>
+  </si>
+  <si>
     <t>机构编号</t>
   </si>
   <si>
@@ -184,6 +187,18 @@
     <t>系统为当前账号设定的状态 available/forbidden</t>
   </si>
   <si>
+    <t>账号截图</t>
+  </si>
+  <si>
+    <t>account_img</t>
+  </si>
+  <si>
+    <t>varchar(2048)</t>
+  </si>
+  <si>
+    <t>上传截图的地址</t>
+  </si>
+  <si>
     <t>外部账号类型表 ex_account_type_info</t>
   </si>
   <si>
@@ -205,9 +220,6 @@
     <t>valid_url</t>
   </si>
   <si>
-    <t>varchar(2048)</t>
-  </si>
-  <si>
     <t>系统管理员控制当前配置项是否可用 yes/no</t>
   </si>
   <si>
@@ -320,11 +332,17 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <charset val="134"/>
+      </rPr>
       <t>bigint</t>
     </r>
     <r>
       <rPr>
         <sz val="9"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>(20)</t>
@@ -337,6 +355,24 @@
     <t>order_id</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>bigint</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(20)</t>
+    </r>
+  </si>
+  <si>
     <t>任务id</t>
   </si>
   <si>
@@ -482,6 +518,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <charset val="134"/>
+      </rPr>
       <t>'是否放款 0:未放款/1:已放款'</t>
     </r>
     <r>
@@ -499,11 +540,17 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>varchar</t>
     </r>
     <r>
       <rPr>
         <sz val="9"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>(128)</t>
@@ -701,12 +748,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="25">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -736,7 +783,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -750,107 +812,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -879,11 +842,99 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color rgb="FFD4D4D4"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFD4D4D4"/>
+      <name val="Menlo"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="33">
@@ -895,7 +946,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -907,13 +970,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -925,7 +982,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -937,19 +1012,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -961,31 +1054,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -997,55 +1072,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1063,19 +1090,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1104,11 +1155,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1122,26 +1179,26 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1162,16 +1219,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1187,17 +1244,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1206,152 +1257,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1367,29 +1418,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1719,10 +1764,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:E201"/>
+  <dimension ref="A1:E202"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="91" zoomScaleNormal="91" topLeftCell="A86" workbookViewId="0">
-      <selection activeCell="C97" sqref="C97"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelCol="4"/>
@@ -1898,17 +1943,19 @@
       <c r="D11" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="4"/>
+      <c r="E11" s="4" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>34</v>
-      </c>
-      <c r="B12" s="5" t="s">
         <v>35</v>
       </c>
+      <c r="B12" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="C12" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>9</v>
@@ -1917,40 +1964,38 @@
     </row>
     <row r="13" ht="18" spans="1:5">
       <c r="A13" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D13" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="5" t="s">
         <v>22</v>
       </c>
       <c r="E13" s="4"/>
     </row>
     <row r="14" ht="18" spans="1:5">
       <c r="A14" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D14" s="6" t="s">
+      <c r="D14" s="5" t="s">
         <v>22</v>
       </c>
       <c r="E14" s="4"/>
     </row>
-    <row r="15" s="1" customFormat="1" spans="5:5">
-      <c r="E15" s="9"/>
-    </row>
+    <row r="15" s="1" customFormat="1"/>
     <row r="17" spans="1:5">
       <c r="A17" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -1993,7 +2038,7 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>12</v>
@@ -2005,15 +2050,15 @@
         <v>9</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>30</v>
@@ -2022,15 +2067,15 @@
         <v>9</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>15</v>
@@ -2042,10 +2087,10 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>33</v>
@@ -2054,15 +2099,15 @@
         <v>9</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>33</v>
@@ -2071,337 +2116,337 @@
         <v>9</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" t="s">
-        <v>34</v>
-      </c>
-      <c r="B25" t="s">
+      <c r="A25" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="B26" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="D25" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E25" s="4"/>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="4" t="s">
+      <c r="C26" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="D26" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26" s="4"/>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="B27" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D26" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E26" s="4"/>
-    </row>
-    <row r="27" ht="18" spans="1:5">
-      <c r="A27" s="4" t="s">
+      <c r="C27" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="D27" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E27" s="4"/>
+    </row>
+    <row r="28" ht="18" spans="1:5">
+      <c r="A28" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="B28" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28" s="4"/>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+    </row>
+    <row r="31" ht="21" spans="1:5">
+      <c r="A31" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" ht="18" spans="1:5">
+      <c r="A32" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" ht="18" spans="1:5">
+      <c r="A33" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E33" s="5"/>
+    </row>
+    <row r="34" ht="18" spans="1:5">
+      <c r="A34" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E34" s="5"/>
+    </row>
+    <row r="35" ht="18" spans="1:5">
+      <c r="A35" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E35" s="5"/>
+    </row>
+    <row r="36" ht="18" spans="1:5">
+      <c r="A36" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E36" s="5"/>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" t="s">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>36</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E37" s="4"/>
+    </row>
+    <row r="38" ht="18" spans="1:5">
+      <c r="A38" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B39" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D27" s="6" t="s">
+      <c r="C39" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E39" s="4"/>
+    </row>
+    <row r="40" ht="18" spans="1:5">
+      <c r="A40" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D40" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E27" s="4"/>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="B29" s="7"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-    </row>
-    <row r="30" ht="21" spans="1:5">
-      <c r="A30" s="8" t="s">
+      <c r="E40" s="4"/>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B42" s="7"/>
+      <c r="C42" s="7"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="7"/>
+    </row>
+    <row r="43" ht="21" spans="1:5">
+      <c r="A43" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B30" s="8" t="s">
+      <c r="B43" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C30" s="8" t="s">
+      <c r="C43" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D30" s="8" t="s">
+      <c r="D43" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E30" s="8" t="s">
+      <c r="E43" s="8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="31" ht="18" spans="1:5">
-      <c r="A31" s="6" t="s">
+    <row r="44" ht="18" spans="1:5">
+      <c r="A44" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B31" s="6" t="s">
+      <c r="B44" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="C44" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D31" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E31" s="6" t="s">
+      <c r="D44" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E44" s="5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="32" ht="18" spans="1:5">
-      <c r="A32" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D32" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E32" s="6"/>
-    </row>
-    <row r="33" ht="18" spans="1:5">
-      <c r="A33" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D33" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E33" s="6"/>
-    </row>
-    <row r="34" ht="18" spans="1:5">
-      <c r="A34" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D34" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E34" s="6"/>
-    </row>
-    <row r="35" ht="18" spans="1:5">
-      <c r="A35" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="D35" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E35" s="6"/>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="A36" t="s">
-        <v>34</v>
-      </c>
-      <c r="B36" t="s">
-        <v>35</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E36" s="4"/>
-    </row>
-    <row r="37" ht="18" spans="1:5">
-      <c r="A37" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="B37" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D37" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E37" s="6" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="A38" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E38" s="4"/>
-    </row>
-    <row r="39" ht="18" spans="1:5">
-      <c r="A39" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D39" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E39" s="4"/>
-    </row>
-    <row r="41" spans="1:5">
-      <c r="A41" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="B41" s="7"/>
-      <c r="C41" s="7"/>
-      <c r="D41" s="7"/>
-      <c r="E41" s="7"/>
-    </row>
-    <row r="42" ht="21" spans="1:5">
-      <c r="A42" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B42" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C42" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D42" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E42" s="8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="43" ht="18" spans="1:5">
-      <c r="A43" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B43" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D43" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E43" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
-      <c r="A44" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D44" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E44" s="4"/>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D45" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E45" s="4" t="s">
-        <v>70</v>
-      </c>
+      <c r="E45" s="4"/>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C46" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C47" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D46" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E46" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="47" ht="18" spans="1:5">
-      <c r="A47" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C47" s="6" t="s">
-        <v>63</v>
-      </c>
       <c r="D47" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="48" ht="18" spans="1:5">
       <c r="A48" s="4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="C48" s="4" t="s">
         <v>79</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>59</v>
       </c>
       <c r="D48" s="4" t="s">
         <v>9</v>
@@ -2418,433 +2463,435 @@
         <v>82</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="D49" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D50" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E49" s="4"/>
-    </row>
-    <row r="50" ht="18" spans="1:5">
-      <c r="A50" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="B50" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="C50" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D50" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E50" s="4" t="s">
-        <v>85</v>
-      </c>
+      <c r="E50" s="4"/>
     </row>
     <row r="51" ht="18" spans="1:5">
       <c r="A51" s="4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="C51" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C51" s="5" t="s">
         <v>33</v>
       </c>
       <c r="D51" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E51" s="15" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+      <c r="E51" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="52" ht="18" spans="1:5">
       <c r="A52" s="4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>39</v>
+        <v>91</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="D52" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E52" s="4"/>
+      <c r="E52" s="13" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="4" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C53" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E53" s="4"/>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E54" s="4"/>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" t="s">
+        <v>35</v>
+      </c>
+      <c r="B55" t="s">
+        <v>36</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E55" s="4"/>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B56" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D53" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E53" s="4"/>
-    </row>
-    <row r="54" spans="1:5">
-      <c r="A54" t="s">
-        <v>34</v>
-      </c>
-      <c r="B54" t="s">
-        <v>35</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D54" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E54" s="4"/>
-    </row>
-    <row r="55" spans="1:5">
-      <c r="A55" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B55" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D55" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E55" s="4"/>
-    </row>
-    <row r="56" ht="18" spans="1:5">
-      <c r="A56" s="4" t="s">
+      <c r="C56" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B56" s="4" t="s">
+      <c r="D56" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E56" s="4"/>
+    </row>
+    <row r="57" ht="18" spans="1:5">
+      <c r="A57" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C56" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D56" s="6" t="s">
+      <c r="B57" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D57" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E56" s="4"/>
-    </row>
-    <row r="60" spans="1:5">
-      <c r="A60" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="B60" s="7"/>
-      <c r="C60" s="7"/>
-      <c r="D60" s="7"/>
-      <c r="E60" s="7"/>
-    </row>
-    <row r="61" ht="21" spans="1:5">
-      <c r="A61" s="8" t="s">
+      <c r="E57" s="4"/>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="B61" s="7"/>
+      <c r="C61" s="7"/>
+      <c r="D61" s="7"/>
+      <c r="E61" s="7"/>
+    </row>
+    <row r="62" ht="21" spans="1:5">
+      <c r="A62" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B61" s="8" t="s">
+      <c r="B62" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C61" s="8" t="s">
+      <c r="C62" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D61" s="8" t="s">
+      <c r="D62" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E61" s="8" t="s">
+      <c r="E62" s="8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="62" ht="18" spans="1:5">
-      <c r="A62" s="6" t="s">
+    <row r="63" ht="18" spans="1:5">
+      <c r="A63" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B62" s="6" t="s">
+      <c r="B63" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C62" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="D62" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E62" s="6" t="s">
+      <c r="C63" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E63" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="63" ht="18" spans="1:5">
-      <c r="A63" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="B63" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="C63" s="6" t="s">
+    <row r="64" ht="18" spans="1:5">
+      <c r="A64" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C64" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D63" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E63" s="4"/>
-    </row>
-    <row r="64" ht="18" spans="1:5">
-      <c r="A64" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="B64" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="C64" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="D64" s="6" t="s">
+      <c r="D64" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E64" s="4"/>
     </row>
     <row r="65" ht="18" spans="1:5">
       <c r="A65" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="C65" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D65" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E65" s="4"/>
+    </row>
+    <row r="66" ht="18" spans="1:5">
+      <c r="A66" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C66" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D65" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E65" s="4"/>
-    </row>
-    <row r="66" ht="18" spans="1:5">
-      <c r="A66" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="B66" s="6" t="s">
+      <c r="D66" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E66" s="4"/>
+    </row>
+    <row r="67" ht="18" spans="1:5">
+      <c r="A67" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C66" s="6" t="s">
+      <c r="B67" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C67" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D66" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E66" s="4" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
-      <c r="A67" t="s">
-        <v>34</v>
-      </c>
-      <c r="B67" t="s">
+      <c r="D67" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E67" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" t="s">
         <v>35</v>
       </c>
-      <c r="C67" s="4" t="s">
+      <c r="B68" t="s">
         <v>36</v>
       </c>
-      <c r="D67" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E67" s="4"/>
-    </row>
-    <row r="68" spans="1:5">
-      <c r="A68" s="4" t="s">
+      <c r="C68" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B68" s="4" t="s">
+      <c r="D68" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E68" s="4"/>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C68" s="4" t="s">
+      <c r="B69" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D68" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E68" s="4"/>
-    </row>
-    <row r="69" ht="18" spans="1:5">
-      <c r="A69" s="4" t="s">
+      <c r="C69" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B69" s="4" t="s">
+      <c r="D69" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E69" s="4"/>
+    </row>
+    <row r="70" ht="18" spans="1:5">
+      <c r="A70" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C69" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D69" s="6" t="s">
+      <c r="B70" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D70" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E69" s="4"/>
-    </row>
-    <row r="71" spans="1:5">
-      <c r="A71" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="B71" s="7"/>
-      <c r="C71" s="7"/>
-      <c r="D71" s="7"/>
-      <c r="E71" s="7"/>
-    </row>
-    <row r="72" ht="21" spans="1:5">
-      <c r="A72" s="8" t="s">
+      <c r="E70" s="4"/>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="B72" s="7"/>
+      <c r="C72" s="7"/>
+      <c r="D72" s="7"/>
+      <c r="E72" s="7"/>
+    </row>
+    <row r="73" ht="21" spans="1:5">
+      <c r="A73" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B72" s="8" t="s">
+      <c r="B73" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C72" s="8" t="s">
+      <c r="C73" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D72" s="8" t="s">
+      <c r="D73" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E72" s="8" t="s">
+      <c r="E73" s="8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="73" ht="18" spans="1:5">
-      <c r="A73" s="6" t="s">
+    <row r="74" ht="18" spans="1:5">
+      <c r="A74" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B73" s="6" t="s">
+      <c r="B74" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C73" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="D73" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E73" s="6" t="s">
+      <c r="C74" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="D74" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E74" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="74" ht="18" spans="1:5">
-      <c r="A74" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="B74" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="C74" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="D74" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E74" s="4"/>
-    </row>
     <row r="75" ht="18" spans="1:5">
-      <c r="A75" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B75" s="6" t="s">
+      <c r="A75" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B75" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="C75" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="D75" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E75" s="4"/>
+    </row>
+    <row r="76" ht="18" spans="1:5">
+      <c r="A76" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B76" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C75" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="D75" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E75" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="76" ht="18" spans="1:5">
-      <c r="A76" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="B76" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C76" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="D76" s="6" t="s">
+      <c r="C76" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="D76" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>105</v>
+        <v>45</v>
       </c>
     </row>
     <row r="77" ht="18" spans="1:5">
       <c r="A77" s="4" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="C77" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="D77" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E77" s="4"/>
+        <v>71</v>
+      </c>
+      <c r="C77" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="D77" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E77" s="4" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="78" ht="18" spans="1:5">
       <c r="A78" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C78" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="B78" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="C78" s="11" t="s">
-        <v>101</v>
-      </c>
       <c r="D78" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E78" s="4"/>
     </row>
-    <row r="79" spans="1:5">
+    <row r="79" ht="18" spans="1:5">
       <c r="A79" s="4" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="C79" s="4" t="s">
-        <v>112</v>
+        <v>114</v>
+      </c>
+      <c r="C79" s="10" t="s">
+        <v>108</v>
       </c>
       <c r="D79" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E79" s="4"/>
     </row>
-    <row r="80" ht="18" spans="1:5">
+    <row r="80" spans="1:5">
       <c r="A80" s="4" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="C80" s="10" t="s">
-        <v>101</v>
+        <v>116</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>117</v>
       </c>
       <c r="D80" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E80" s="4"/>
     </row>
-    <row r="81" spans="1:5">
+    <row r="81" ht="18" spans="1:5">
       <c r="A81" s="4" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="C81" s="4" t="s">
-        <v>117</v>
+        <v>119</v>
+      </c>
+      <c r="C81" s="9" t="s">
+        <v>105</v>
       </c>
       <c r="D81" s="4" t="s">
         <v>9</v>
@@ -2853,13 +2900,13 @@
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="4" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>92</v>
+        <v>121</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>39</v>
+        <v>122</v>
       </c>
       <c r="D82" s="4" t="s">
         <v>9</v>
@@ -2867,14 +2914,14 @@
       <c r="E82" s="4"/>
     </row>
     <row r="83" spans="1:5">
-      <c r="A83" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B83" t="s">
-        <v>35</v>
+      <c r="A83" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>96</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D83" s="4" t="s">
         <v>9</v>
@@ -2883,638 +2930,638 @@
     </row>
     <row r="84" spans="1:5">
       <c r="A84" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B84" t="s">
+        <v>36</v>
+      </c>
+      <c r="C84" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B84" s="4" t="s">
+      <c r="D84" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E84" s="4"/>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C84" s="4" t="s">
+      <c r="B85" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D84" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E84" s="4"/>
-    </row>
-    <row r="85" ht="18" spans="1:5">
-      <c r="A85" s="4" t="s">
+      <c r="C85" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B85" s="4" t="s">
+      <c r="D85" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E85" s="4"/>
+    </row>
+    <row r="86" ht="18" spans="1:5">
+      <c r="A86" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C85" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D85" s="6" t="s">
+      <c r="B86" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D86" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E85" s="4"/>
-    </row>
-    <row r="87" spans="1:5">
-      <c r="A87" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="B87" s="7"/>
-      <c r="C87" s="7"/>
-      <c r="D87" s="7"/>
-      <c r="E87" s="7"/>
-    </row>
-    <row r="88" ht="21" spans="1:5">
-      <c r="A88" s="8" t="s">
+      <c r="E86" s="4"/>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="B88" s="7"/>
+      <c r="C88" s="7"/>
+      <c r="D88" s="7"/>
+      <c r="E88" s="7"/>
+    </row>
+    <row r="89" ht="21" spans="1:5">
+      <c r="A89" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B88" s="8" t="s">
+      <c r="B89" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C88" s="8" t="s">
+      <c r="C89" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D88" s="8" t="s">
+      <c r="D89" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E88" s="8" t="s">
+      <c r="E89" s="8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="89" ht="18" spans="1:5">
-      <c r="A89" s="6" t="s">
+    <row r="90" ht="18" spans="1:5">
+      <c r="A90" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B89" s="6" t="s">
+      <c r="B90" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C89" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="D89" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E89" s="6" t="s">
+      <c r="C90" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D90" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E90" s="5" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
-      <c r="A90" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="B90" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="C90" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="D90" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E90" s="4" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="91" spans="1:5">
       <c r="A91" s="4" t="s">
-        <v>43</v>
+        <v>125</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>12</v>
+        <v>107</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="D91" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E91" s="4" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
     </row>
     <row r="92" spans="1:5">
       <c r="A92" s="4" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>15</v>
+        <v>83</v>
       </c>
       <c r="D92" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E92" s="4" t="s">
-        <v>44</v>
+        <v>126</v>
       </c>
     </row>
     <row r="93" spans="1:5">
       <c r="A93" s="4" t="s">
-        <v>122</v>
+        <v>13</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>123</v>
+        <v>14</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="D93" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E93" s="4"/>
+      <c r="E93" s="4" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="94" spans="1:5">
       <c r="A94" s="4" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D94" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E94" s="4" t="s">
-        <v>126</v>
-      </c>
+      <c r="E94" s="4"/>
     </row>
     <row r="95" spans="1:5">
       <c r="A95" s="4" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>79</v>
+        <v>30</v>
       </c>
       <c r="D95" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E95" s="4"/>
+      <c r="E95" s="4" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="96" spans="1:5">
       <c r="A96" s="4" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>33</v>
+        <v>83</v>
       </c>
       <c r="D96" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E96" s="4" t="s">
-        <v>131</v>
-      </c>
+      <c r="E96" s="4"/>
     </row>
     <row r="97" spans="1:5">
       <c r="A97" s="4" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="D97" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E97" s="4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="B98" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C98" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D98" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E97" s="4"/>
-    </row>
-    <row r="98" spans="1:5">
-      <c r="A98" t="s">
-        <v>34</v>
-      </c>
-      <c r="B98" t="s">
+      <c r="E98" s="4"/>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99" t="s">
         <v>35</v>
       </c>
-      <c r="C98" s="4" t="s">
+      <c r="B99" t="s">
         <v>36</v>
       </c>
-      <c r="D98" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E98" s="4"/>
-    </row>
-    <row r="99" spans="1:5">
-      <c r="A99" s="4" t="s">
+      <c r="C99" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B99" s="4" t="s">
+      <c r="D99" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E99" s="4"/>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C99" s="4" t="s">
+      <c r="B100" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D99" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E99" s="4"/>
-    </row>
-    <row r="100" ht="18" spans="1:5">
-      <c r="A100" s="4" t="s">
+      <c r="C100" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B100" s="4" t="s">
+      <c r="D100" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E100" s="4"/>
+    </row>
+    <row r="101" ht="18" spans="1:5">
+      <c r="A101" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C100" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D100" s="6" t="s">
+      <c r="B101" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C101" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D101" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E100" s="4"/>
-    </row>
-    <row r="102" spans="1:5">
-      <c r="A102" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="B102" s="7"/>
-      <c r="C102" s="7"/>
-      <c r="D102" s="7"/>
-      <c r="E102" s="7"/>
-    </row>
-    <row r="103" ht="21" spans="1:5">
-      <c r="A103" s="8" t="s">
+      <c r="E101" s="4"/>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="A103" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="B103" s="7"/>
+      <c r="C103" s="7"/>
+      <c r="D103" s="7"/>
+      <c r="E103" s="7"/>
+    </row>
+    <row r="104" ht="21" spans="1:5">
+      <c r="A104" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B103" s="8" t="s">
+      <c r="B104" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C103" s="8" t="s">
+      <c r="C104" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D103" s="8" t="s">
+      <c r="D104" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E103" s="8" t="s">
+      <c r="E104" s="8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="104" ht="18" spans="1:5">
-      <c r="A104" s="6" t="s">
+    <row r="105" ht="18" spans="1:5">
+      <c r="A105" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B104" s="6" t="s">
+      <c r="B105" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C104" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="D104" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E104" s="6" t="s">
+      <c r="C105" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D105" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E105" s="5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="105" ht="18" spans="1:5">
-      <c r="A105" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="B105" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="C105" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="D105" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E105" s="4"/>
     </row>
     <row r="106" ht="18" spans="1:5">
       <c r="A106" s="4" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C106" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="D106" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="C106" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D106" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E106" s="4"/>
     </row>
     <row r="107" ht="18" spans="1:5">
       <c r="A107" s="4" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="C107" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="D107" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C107" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D107" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E107" s="4"/>
     </row>
     <row r="108" ht="18" spans="1:5">
       <c r="A108" s="4" t="s">
-        <v>43</v>
+        <v>143</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C108" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="D108" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="C108" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D108" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E108" s="4"/>
     </row>
     <row r="109" ht="18" spans="1:5">
       <c r="A109" s="4" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C109" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D109" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C109" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D109" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E109" s="4"/>
     </row>
     <row r="110" ht="18" spans="1:5">
       <c r="A110" s="4" t="s">
-        <v>140</v>
+        <v>13</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>141</v>
+        <v>14</v>
       </c>
       <c r="C110" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D110" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E110" s="4"/>
+    </row>
+    <row r="111" ht="18" spans="1:5">
+      <c r="A111" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="B111" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C111" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D110" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E110" s="4" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5">
-      <c r="A111" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="B111" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="C111" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="D111" s="4" t="s">
+      <c r="D111" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E111" s="4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5">
+      <c r="A112" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="B112" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C112" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D112" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E111" s="4"/>
-    </row>
-    <row r="112" spans="1:5">
-      <c r="A112" t="s">
-        <v>34</v>
-      </c>
-      <c r="B112" t="s">
+      <c r="E112" s="4"/>
+    </row>
+    <row r="113" spans="1:5">
+      <c r="A113" t="s">
         <v>35</v>
       </c>
-      <c r="C112" s="4" t="s">
+      <c r="B113" t="s">
         <v>36</v>
       </c>
-      <c r="D112" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E112" s="4"/>
-    </row>
-    <row r="113" spans="1:5">
-      <c r="A113" s="4" t="s">
+      <c r="C113" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B113" s="4" t="s">
+      <c r="D113" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E113" s="4"/>
+    </row>
+    <row r="114" spans="1:5">
+      <c r="A114" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C113" s="4" t="s">
+      <c r="B114" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D113" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E113" s="4"/>
-    </row>
-    <row r="114" ht="18" spans="1:5">
-      <c r="A114" s="4" t="s">
+      <c r="C114" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B114" s="4" t="s">
+      <c r="D114" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E114" s="4"/>
+    </row>
+    <row r="115" ht="18" spans="1:5">
+      <c r="A115" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C114" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D114" s="6" t="s">
+      <c r="B115" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C115" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D115" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E114" s="4"/>
-    </row>
-    <row r="116" spans="1:5">
-      <c r="A116" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="B116" s="7"/>
-      <c r="C116" s="7"/>
-      <c r="D116" s="7"/>
-      <c r="E116" s="7"/>
-    </row>
-    <row r="117" ht="21" spans="1:5">
-      <c r="A117" s="8" t="s">
+      <c r="E115" s="4"/>
+    </row>
+    <row r="117" spans="1:5">
+      <c r="A117" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="B117" s="7"/>
+      <c r="C117" s="7"/>
+      <c r="D117" s="7"/>
+      <c r="E117" s="7"/>
+    </row>
+    <row r="118" ht="21" spans="1:5">
+      <c r="A118" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B117" s="8" t="s">
+      <c r="B118" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C117" s="8" t="s">
+      <c r="C118" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D117" s="8" t="s">
+      <c r="D118" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E117" s="8" t="s">
+      <c r="E118" s="8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="118" ht="18" spans="1:5">
-      <c r="A118" s="6" t="s">
+    <row r="119" ht="18" spans="1:5">
+      <c r="A119" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B118" s="6" t="s">
+      <c r="B119" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C118" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="D118" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E118" s="6" t="s">
+      <c r="C119" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D119" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E119" s="5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="119" ht="18" spans="1:5">
-      <c r="A119" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="B119" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C119" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="D119" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E119" s="4"/>
     </row>
     <row r="120" ht="18" spans="1:5">
       <c r="A120" s="4" t="s">
-        <v>43</v>
+        <v>109</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="D120" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D120" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E120" s="4"/>
     </row>
     <row r="121" ht="18" spans="1:5">
       <c r="A121" s="4" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="D121" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D121" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E121" s="4"/>
     </row>
     <row r="122" ht="18" spans="1:5">
       <c r="A122" s="4" t="s">
-        <v>143</v>
+        <v>13</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>144</v>
+        <v>14</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="D122" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D122" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E122" s="4"/>
     </row>
-    <row r="123" ht="36" spans="1:5">
+    <row r="123" ht="18" spans="1:5">
       <c r="A123" s="4" t="s">
-        <v>86</v>
+        <v>148</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>87</v>
+        <v>149</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D123" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E123" s="12" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="124" ht="18" spans="1:5">
+        <v>59</v>
+      </c>
+      <c r="D123" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E123" s="4"/>
+    </row>
+    <row r="124" ht="36" spans="1:5">
       <c r="A124" s="4" t="s">
-        <v>146</v>
+        <v>90</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>147</v>
+        <v>91</v>
       </c>
       <c r="C124" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D124" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E124" s="4"/>
+      <c r="D124" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E124" s="5" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="125" ht="18" spans="1:5">
       <c r="A125" s="4" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="D125" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D125" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E125" s="4"/>
     </row>
     <row r="126" ht="18" spans="1:5">
       <c r="A126" s="4" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="D126" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E126" s="12" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5">
+        <v>83</v>
+      </c>
+      <c r="D126" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E126" s="4"/>
+    </row>
+    <row r="127" ht="18" spans="1:5">
       <c r="A127" s="4" t="s">
-        <v>91</v>
+        <v>155</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>92</v>
+        <v>156</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D127" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E127" s="4"/>
+        <v>122</v>
+      </c>
+      <c r="D127" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E127" s="5" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="128" spans="1:5">
       <c r="A128" s="4" t="s">
-        <v>34</v>
+        <v>95</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>35</v>
+        <v>96</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D128" s="4" t="s">
         <v>9</v>
@@ -3523,517 +3570,517 @@
     </row>
     <row r="129" spans="1:5">
       <c r="A129" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B129" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C129" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B129" s="4" t="s">
+      <c r="D129" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E129" s="4"/>
+    </row>
+    <row r="130" spans="1:5">
+      <c r="A130" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C129" s="4" t="s">
+      <c r="B130" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D129" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E129" s="4"/>
-    </row>
-    <row r="130" ht="18" spans="1:5">
-      <c r="A130" s="4" t="s">
+      <c r="C130" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B130" s="4" t="s">
+      <c r="D130" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E130" s="4"/>
+    </row>
+    <row r="131" ht="18" spans="1:5">
+      <c r="A131" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C130" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D130" s="6" t="s">
+      <c r="B131" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C131" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D131" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E130" s="4"/>
-    </row>
-    <row r="132" spans="1:5">
-      <c r="A132" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="B132" s="7"/>
-      <c r="C132" s="7"/>
-      <c r="D132" s="7"/>
-      <c r="E132" s="7"/>
-    </row>
-    <row r="133" ht="21" spans="1:5">
-      <c r="A133" s="8" t="s">
+      <c r="E131" s="4"/>
+    </row>
+    <row r="133" spans="1:5">
+      <c r="A133" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="B133" s="7"/>
+      <c r="C133" s="7"/>
+      <c r="D133" s="7"/>
+      <c r="E133" s="7"/>
+    </row>
+    <row r="134" ht="21" spans="1:5">
+      <c r="A134" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B133" s="8" t="s">
+      <c r="B134" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C133" s="8" t="s">
+      <c r="C134" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D133" s="8" t="s">
+      <c r="D134" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E133" s="8" t="s">
+      <c r="E134" s="8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="134" ht="19" customHeight="1" spans="1:5">
-      <c r="A134" s="6" t="s">
+    <row r="135" ht="19" customHeight="1" spans="1:5">
+      <c r="A135" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B134" s="4" t="s">
+      <c r="B135" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C134" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="D134" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E134" s="6" t="s">
+      <c r="C135" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="D135" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E135" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="135" ht="18" spans="1:5">
-      <c r="A135" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B135" s="4" t="s">
+    <row r="136" ht="18" spans="1:5">
+      <c r="A136" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B136" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C135" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="D135" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E135" s="4"/>
-    </row>
-    <row r="136" ht="18" spans="1:5">
-      <c r="A136" s="11" t="s">
+      <c r="C136" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="D136" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E136" s="4"/>
+    </row>
+    <row r="137" ht="18" spans="1:5">
+      <c r="A137" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B136" s="11" t="s">
+      <c r="B137" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C136" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="D136" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E136" s="4"/>
-    </row>
-    <row r="137" ht="18" spans="1:5">
-      <c r="A137" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="B137" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="C137" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="D137" s="6" t="s">
-        <v>22</v>
+      <c r="C137" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="D137" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="E137" s="4"/>
     </row>
     <row r="138" ht="18" spans="1:5">
       <c r="A138" s="4" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="C138" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="D138" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="C138" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="D138" s="5" t="s">
         <v>22</v>
       </c>
       <c r="E138" s="4"/>
     </row>
     <row r="139" ht="18" spans="1:5">
       <c r="A139" s="4" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="C139" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D139" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="C139" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="D139" s="5" t="s">
         <v>22</v>
       </c>
       <c r="E139" s="4"/>
     </row>
     <row r="140" ht="18" spans="1:5">
       <c r="A140" s="4" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="C140" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D140" s="6" t="s">
+      <c r="D140" s="5" t="s">
         <v>22</v>
       </c>
       <c r="E140" s="4"/>
     </row>
     <row r="141" ht="18" spans="1:5">
       <c r="A141" s="4" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="C141" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D141" s="6" t="s">
+      <c r="D141" s="5" t="s">
         <v>22</v>
       </c>
       <c r="E141" s="4"/>
     </row>
     <row r="142" ht="18" spans="1:5">
       <c r="A142" s="4" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="C142" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D142" s="6" t="s">
+      <c r="D142" s="5" t="s">
         <v>22</v>
       </c>
       <c r="E142" s="4"/>
     </row>
-    <row r="143" spans="1:5">
+    <row r="143" ht="18" spans="1:5">
       <c r="A143" s="4" t="s">
-        <v>34</v>
+        <v>170</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>35</v>
+        <v>171</v>
       </c>
       <c r="C143" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D143" s="4" t="s">
-        <v>9</v>
+        <v>18</v>
+      </c>
+      <c r="D143" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="E143" s="4"/>
     </row>
     <row r="144" spans="1:5">
       <c r="A144" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B144" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C144" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B144" s="4" t="s">
+      <c r="D144" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E144" s="4"/>
+    </row>
+    <row r="145" spans="1:5">
+      <c r="A145" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C144" s="4" t="s">
+      <c r="B145" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D144" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E144" s="4"/>
-    </row>
-    <row r="145" ht="18" spans="1:5">
-      <c r="A145" s="4" t="s">
+      <c r="C145" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B145" s="4" t="s">
+      <c r="D145" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E145" s="4"/>
+    </row>
+    <row r="146" ht="18" spans="1:5">
+      <c r="A146" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C145" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D145" s="6" t="s">
+      <c r="B146" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C146" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D146" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E145" s="4"/>
-    </row>
-    <row r="147" spans="1:5">
-      <c r="A147" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="B147" s="7"/>
-      <c r="C147" s="7"/>
-      <c r="D147" s="7"/>
-      <c r="E147" s="7"/>
-    </row>
-    <row r="148" ht="21" spans="1:5">
-      <c r="A148" s="8" t="s">
+      <c r="E146" s="4"/>
+    </row>
+    <row r="148" spans="1:5">
+      <c r="A148" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="B148" s="7"/>
+      <c r="C148" s="7"/>
+      <c r="D148" s="7"/>
+      <c r="E148" s="7"/>
+    </row>
+    <row r="149" ht="21" spans="1:5">
+      <c r="A149" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B148" s="8" t="s">
+      <c r="B149" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C148" s="8" t="s">
+      <c r="C149" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D148" s="8" t="s">
+      <c r="D149" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E148" s="8" t="s">
+      <c r="E149" s="8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="149" ht="18" spans="1:5">
-      <c r="A149" s="6" t="s">
+    <row r="150" ht="18" spans="1:5">
+      <c r="A150" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B149" s="4" t="s">
+      <c r="B150" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C149" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="D149" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E149" s="6" t="s">
+      <c r="C150" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="D150" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E150" s="5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="150" ht="18" spans="1:5">
-      <c r="A150" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="B150" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="C150" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="D150" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E150" s="4"/>
     </row>
     <row r="151" ht="18" spans="1:5">
       <c r="A151" s="4" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="C151" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D151" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="C151" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="D151" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E151" s="4"/>
     </row>
     <row r="152" ht="18" spans="1:5">
       <c r="A152" s="4" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="C152" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D152" s="6" t="s">
+      <c r="D152" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E152" s="4"/>
     </row>
     <row r="153" ht="18" spans="1:5">
       <c r="A153" s="4" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="C153" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D153" s="6" t="s">
+      <c r="D153" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E153" s="4"/>
     </row>
-    <row r="154" spans="1:5">
+    <row r="154" ht="18" spans="1:5">
       <c r="A154" s="4" t="s">
-        <v>34</v>
+        <v>179</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>35</v>
+        <v>180</v>
       </c>
       <c r="C154" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D154" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D154" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E154" s="4"/>
     </row>
     <row r="155" spans="1:5">
       <c r="A155" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B155" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C155" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B155" s="4" t="s">
+      <c r="D155" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E155" s="4"/>
+    </row>
+    <row r="156" spans="1:5">
+      <c r="A156" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C155" s="4" t="s">
+      <c r="B156" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D155" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E155" s="4"/>
-    </row>
-    <row r="156" ht="18" spans="1:5">
-      <c r="A156" s="4" t="s">
+      <c r="C156" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B156" s="4" t="s">
+      <c r="D156" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E156" s="4"/>
+    </row>
+    <row r="157" ht="18" spans="1:5">
+      <c r="A157" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C156" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D156" s="6" t="s">
+      <c r="B157" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C157" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D157" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E156" s="4"/>
-    </row>
-    <row r="158" spans="1:5">
-      <c r="A158" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="B158" s="7"/>
-      <c r="C158" s="7"/>
-      <c r="D158" s="7"/>
-      <c r="E158" s="7"/>
-    </row>
-    <row r="159" ht="21" spans="1:5">
-      <c r="A159" s="8" t="s">
+      <c r="E157" s="4"/>
+    </row>
+    <row r="159" spans="1:5">
+      <c r="A159" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="B159" s="7"/>
+      <c r="C159" s="7"/>
+      <c r="D159" s="7"/>
+      <c r="E159" s="7"/>
+    </row>
+    <row r="160" ht="21" spans="1:5">
+      <c r="A160" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B159" s="8" t="s">
+      <c r="B160" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C159" s="8" t="s">
+      <c r="C160" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D159" s="8" t="s">
+      <c r="D160" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E159" s="8" t="s">
+      <c r="E160" s="8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="160" ht="18" spans="1:5">
-      <c r="A160" s="6" t="s">
+    <row r="161" ht="18" spans="1:5">
+      <c r="A161" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B160" s="4" t="s">
+      <c r="B161" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C160" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="D160" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E160" s="6" t="s">
+      <c r="C161" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="D161" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E161" s="5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="161" ht="18" spans="1:5">
-      <c r="A161" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="B161" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C161" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="D161" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E161" s="4"/>
     </row>
     <row r="162" ht="18" spans="1:5">
       <c r="A162" s="4" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="C162" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="D162" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C162" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="D162" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E162" s="4"/>
     </row>
     <row r="163" ht="18" spans="1:5">
       <c r="A163" s="4" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="C163" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D163" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D163" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E163" s="4"/>
     </row>
     <row r="164" ht="18" spans="1:5">
       <c r="A164" s="4" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="B164" s="4" t="s">
-        <v>92</v>
+        <v>185</v>
       </c>
       <c r="C164" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D164" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D164" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E164" s="4"/>
     </row>
-    <row r="165" spans="1:5">
+    <row r="165" ht="18" spans="1:5">
       <c r="A165" s="4" t="s">
-        <v>34</v>
+        <v>186</v>
       </c>
       <c r="B165" s="4" t="s">
-        <v>35</v>
+        <v>96</v>
       </c>
       <c r="C165" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="D165" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D165" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E165" s="4"/>
     </row>
     <row r="166" spans="1:5">
       <c r="A166" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B166" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C166" s="4" t="s">
-        <v>39</v>
+        <v>187</v>
       </c>
       <c r="D166" s="4" t="s">
         <v>9</v>
@@ -4042,176 +4089,176 @@
     </row>
     <row r="167" spans="1:5">
       <c r="A167" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B167" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C167" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B167" s="4" t="s">
+      <c r="D167" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E167" s="4"/>
+    </row>
+    <row r="168" spans="1:5">
+      <c r="A168" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C167" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D167" s="4" t="s">
+      <c r="B168" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C168" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D168" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E167" s="4"/>
-    </row>
-    <row r="169" spans="1:5">
-      <c r="A169" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="B169" s="7"/>
-      <c r="C169" s="7"/>
-      <c r="D169" s="7"/>
-      <c r="E169" s="7"/>
-    </row>
-    <row r="170" ht="21" spans="1:5">
-      <c r="A170" s="8" t="s">
+      <c r="E168" s="4"/>
+    </row>
+    <row r="170" spans="1:5">
+      <c r="A170" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="B170" s="7"/>
+      <c r="C170" s="7"/>
+      <c r="D170" s="7"/>
+      <c r="E170" s="7"/>
+    </row>
+    <row r="171" ht="21" spans="1:5">
+      <c r="A171" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B170" s="8" t="s">
+      <c r="B171" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C170" s="8" t="s">
+      <c r="C171" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D170" s="8" t="s">
+      <c r="D171" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E170" s="8" t="s">
+      <c r="E171" s="8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="171" ht="18" spans="1:5">
-      <c r="A171" s="6" t="s">
+    <row r="172" ht="18" spans="1:5">
+      <c r="A172" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B171" s="4" t="s">
+      <c r="B172" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C171" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="D171" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E171" s="6" t="s">
+      <c r="C172" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="D172" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E172" s="5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="172" ht="18" spans="1:5">
-      <c r="A172" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="B172" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="C172" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="D172" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E172" s="4"/>
     </row>
     <row r="173" ht="18" spans="1:5">
       <c r="A173" s="4" t="s">
-        <v>104</v>
+        <v>189</v>
       </c>
       <c r="B173" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C173" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="D173" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="C173" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="D173" s="5" t="s">
         <v>22</v>
       </c>
       <c r="E173" s="4"/>
     </row>
     <row r="174" ht="18" spans="1:5">
       <c r="A174" s="4" t="s">
-        <v>186</v>
+        <v>109</v>
       </c>
       <c r="B174" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="C174" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D174" s="6" t="s">
-        <v>9</v>
+        <v>71</v>
+      </c>
+      <c r="C174" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="D174" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="E174" s="4"/>
     </row>
     <row r="175" ht="18" spans="1:5">
       <c r="A175" s="4" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B175" s="4" t="s">
-        <v>92</v>
+        <v>192</v>
       </c>
       <c r="C175" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D175" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D175" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E175" s="4"/>
     </row>
     <row r="176" ht="18" spans="1:5">
       <c r="A176" s="4" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="B176" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="C176" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="D176" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C176" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D176" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E176" s="4"/>
     </row>
-    <row r="177" spans="1:5">
+    <row r="177" ht="18" spans="1:5">
       <c r="A177" s="4" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="B177" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="C177" s="4" t="s">
-        <v>63</v>
+        <v>154</v>
+      </c>
+      <c r="C177" s="10" t="s">
+        <v>108</v>
       </c>
       <c r="D177" s="4" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="E177" s="4"/>
     </row>
     <row r="178" spans="1:5">
       <c r="A178" s="4" t="s">
-        <v>34</v>
+        <v>195</v>
       </c>
       <c r="B178" s="4" t="s">
-        <v>35</v>
+        <v>196</v>
       </c>
       <c r="C178" s="4" t="s">
-        <v>182</v>
+        <v>59</v>
       </c>
       <c r="D178" s="4" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="E178" s="4"/>
     </row>
     <row r="179" spans="1:5">
       <c r="A179" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B179" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C179" s="4" t="s">
-        <v>39</v>
+        <v>187</v>
       </c>
       <c r="D179" s="4" t="s">
         <v>9</v>
@@ -4220,161 +4267,161 @@
     </row>
     <row r="180" spans="1:5">
       <c r="A180" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B180" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C180" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B180" s="4" t="s">
+      <c r="D180" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E180" s="4"/>
+    </row>
+    <row r="181" spans="1:5">
+      <c r="A181" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C180" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D180" s="4" t="s">
+      <c r="B181" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C181" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D181" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E180" s="4"/>
-    </row>
-    <row r="182" spans="1:5">
-      <c r="A182" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="B182" s="7"/>
-      <c r="C182" s="7"/>
-      <c r="D182" s="7"/>
-      <c r="E182" s="7"/>
-    </row>
-    <row r="183" ht="21" spans="1:5">
-      <c r="A183" s="8" t="s">
+      <c r="E181" s="4"/>
+    </row>
+    <row r="183" spans="1:5">
+      <c r="A183" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="B183" s="7"/>
+      <c r="C183" s="7"/>
+      <c r="D183" s="7"/>
+      <c r="E183" s="7"/>
+    </row>
+    <row r="184" ht="21" spans="1:5">
+      <c r="A184" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B183" s="8" t="s">
+      <c r="B184" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C183" s="8" t="s">
+      <c r="C184" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D183" s="8" t="s">
+      <c r="D184" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E183" s="8" t="s">
+      <c r="E184" s="8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="184" ht="18" spans="1:5">
-      <c r="A184" s="6" t="s">
+    <row r="185" ht="18" spans="1:5">
+      <c r="A185" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B184" s="4" t="s">
+      <c r="B185" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C184" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="D184" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E184" s="6" t="s">
+      <c r="C185" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="D185" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E185" s="5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="185" ht="18" spans="1:5">
-      <c r="A185" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="B185" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="C185" s="14" t="s">
-        <v>195</v>
-      </c>
-      <c r="D185" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E185" s="4"/>
     </row>
     <row r="186" ht="18" spans="1:5">
       <c r="A186" s="4" t="s">
-        <v>43</v>
+        <v>198</v>
       </c>
       <c r="B186" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C186" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="D186" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="C186" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="D186" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E186" s="4"/>
     </row>
     <row r="187" ht="18" spans="1:5">
       <c r="A187" s="4" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="B187" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C187" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C187" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D187" s="6" t="s">
+      <c r="D187" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E187" s="4"/>
     </row>
     <row r="188" ht="18" spans="1:5">
       <c r="A188" s="4" t="s">
-        <v>196</v>
+        <v>13</v>
       </c>
       <c r="B188" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="C188" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="D188" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C188" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D188" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E188" s="4"/>
     </row>
     <row r="189" ht="18" spans="1:5">
       <c r="A189" s="4" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="B189" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="C189" s="14" t="s">
-        <v>195</v>
-      </c>
-      <c r="D189" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="C189" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D189" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E189" s="4"/>
     </row>
-    <row r="190" spans="1:5">
+    <row r="190" ht="18" spans="1:5">
       <c r="A190" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="B190" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="C190" s="12" t="s">
         <v>200</v>
       </c>
-      <c r="B190" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="C190" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="D190" s="4" t="s">
-        <v>22</v>
+      <c r="D190" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="E190" s="4"/>
     </row>
     <row r="191" spans="1:5">
       <c r="A191" s="4" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="B191" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="C191" s="14" t="s">
-        <v>63</v>
+        <v>206</v>
+      </c>
+      <c r="C191" s="12" t="s">
+        <v>59</v>
       </c>
       <c r="D191" s="4" t="s">
         <v>22</v>
@@ -4383,13 +4430,13 @@
     </row>
     <row r="192" spans="1:5">
       <c r="A192" s="4" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="B192" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="C192" s="14" t="s">
-        <v>63</v>
+        <v>208</v>
+      </c>
+      <c r="C192" s="12" t="s">
+        <v>59</v>
       </c>
       <c r="D192" s="4" t="s">
         <v>22</v>
@@ -4398,13 +4445,13 @@
     </row>
     <row r="193" spans="1:5">
       <c r="A193" s="4" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="B193" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="C193" s="14" t="s">
-        <v>63</v>
+        <v>210</v>
+      </c>
+      <c r="C193" s="12" t="s">
+        <v>59</v>
       </c>
       <c r="D193" s="4" t="s">
         <v>22</v>
@@ -4413,53 +4460,55 @@
     </row>
     <row r="194" spans="1:5">
       <c r="A194" s="4" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="B194" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="C194" s="14" t="s">
-        <v>63</v>
+        <v>212</v>
+      </c>
+      <c r="C194" s="12" t="s">
+        <v>59</v>
       </c>
       <c r="D194" s="4" t="s">
         <v>22</v>
       </c>
       <c r="E194" s="4"/>
     </row>
-    <row r="195" ht="18" spans="1:5">
+    <row r="195" spans="1:5">
       <c r="A195" s="4" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="B195" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="C195" s="14" t="s">
+        <v>214</v>
+      </c>
+      <c r="C195" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="D195" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E195" s="4"/>
+    </row>
+    <row r="196" ht="18" spans="1:5">
+      <c r="A196" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="B196" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="C196" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="D195" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E195" s="4"/>
-    </row>
-    <row r="196" spans="1:5">
-      <c r="A196" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="B196" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="C196" s="4"/>
-      <c r="D196" s="4" t="s">
-        <v>22</v>
+      <c r="D196" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="E196" s="4"/>
     </row>
     <row r="197" spans="1:5">
       <c r="A197" s="4" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="B197" s="4" t="s">
-        <v>214</v>
+        <v>154</v>
       </c>
       <c r="C197" s="4"/>
       <c r="D197" s="4" t="s">
@@ -4469,10 +4518,10 @@
     </row>
     <row r="198" spans="1:5">
       <c r="A198" s="4" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="B198" s="4" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="C198" s="4"/>
       <c r="D198" s="4" t="s">
@@ -4482,28 +4531,26 @@
     </row>
     <row r="199" spans="1:5">
       <c r="A199" s="4" t="s">
-        <v>34</v>
+        <v>220</v>
       </c>
       <c r="B199" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C199" s="4" t="s">
-        <v>182</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="C199" s="4"/>
       <c r="D199" s="4" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="E199" s="4"/>
     </row>
     <row r="200" spans="1:5">
       <c r="A200" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B200" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C200" s="4" t="s">
-        <v>39</v>
+        <v>187</v>
       </c>
       <c r="D200" s="4" t="s">
         <v>9</v>
@@ -4512,35 +4559,50 @@
     </row>
     <row r="201" spans="1:5">
       <c r="A201" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B201" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C201" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B201" s="4" t="s">
+      <c r="D201" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E201" s="4"/>
+    </row>
+    <row r="202" spans="1:5">
+      <c r="A202" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C201" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D201" s="4" t="s">
+      <c r="B202" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C202" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D202" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E201" s="4"/>
+      <c r="E202" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="14">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A17:E17"/>
-    <mergeCell ref="A29:E29"/>
-    <mergeCell ref="A41:E41"/>
-    <mergeCell ref="A60:E60"/>
-    <mergeCell ref="A71:E71"/>
-    <mergeCell ref="A87:E87"/>
-    <mergeCell ref="A102:E102"/>
-    <mergeCell ref="A116:E116"/>
-    <mergeCell ref="A132:E132"/>
-    <mergeCell ref="A147:E147"/>
-    <mergeCell ref="A158:E158"/>
-    <mergeCell ref="A169:E169"/>
-    <mergeCell ref="A182:E182"/>
+    <mergeCell ref="A30:E30"/>
+    <mergeCell ref="A42:E42"/>
+    <mergeCell ref="A61:E61"/>
+    <mergeCell ref="A72:E72"/>
+    <mergeCell ref="A88:E88"/>
+    <mergeCell ref="A103:E103"/>
+    <mergeCell ref="A117:E117"/>
+    <mergeCell ref="A133:E133"/>
+    <mergeCell ref="A148:E148"/>
+    <mergeCell ref="A159:E159"/>
+    <mergeCell ref="A170:E170"/>
+    <mergeCell ref="A183:E183"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/document/叨叨帮表设计.xlsx
+++ b/document/叨叨帮表设计.xlsx
@@ -1766,8 +1766,8 @@
   <sheetPr/>
   <dimension ref="A1:E202"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelCol="4"/>
@@ -2285,7 +2285,7 @@
       <c r="E36" s="5"/>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" t="s">
+      <c r="A37" s="6" t="s">
         <v>35</v>
       </c>
       <c r="B37" t="s">

--- a/document/叨叨帮表设计.xlsx
+++ b/document/叨叨帮表设计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28060" windowHeight="12000"/>
+    <workbookView windowWidth="13700" windowHeight="13920"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -184,7 +184,7 @@
     <t>account_status</t>
   </si>
   <si>
-    <t>系统为当前账号设定的状态 available/forbidden</t>
+    <t>系统为当前账号设定的状态 available/forbidden/</t>
   </si>
   <si>
     <t>账号截图</t>
@@ -335,6 +335,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>bigint</t>
@@ -521,6 +522,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>'是否放款 0:未放款/1:已放款'</t>
@@ -748,12 +750,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="27">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -783,15 +785,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -805,53 +806,16 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -873,8 +837,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -889,21 +884,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -911,22 +891,55 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -952,13 +965,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -970,7 +995,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -982,49 +1055,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1036,7 +1067,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1054,7 +1103,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1066,67 +1139,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1155,17 +1168,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1174,31 +1181,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1248,7 +1231,37 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1257,152 +1270,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1420,9 +1433,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1766,8 +1776,8 @@
   <sheetPr/>
   <dimension ref="A1:E202"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:E17"/>
+    <sheetView tabSelected="1" topLeftCell="C15" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelCol="4"/>
@@ -2120,10 +2130,10 @@
       </c>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="6" t="s">
+      <c r="A25" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="4" t="s">
         <v>58</v>
       </c>
       <c r="C25" s="4" t="s">
@@ -2137,10 +2147,10 @@
       </c>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="6" t="s">
+      <c r="A26" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="4" t="s">
         <v>36</v>
       </c>
       <c r="C26" s="4" t="s">
@@ -2182,28 +2192,28 @@
       <c r="E28" s="4"/>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="7" t="s">
+      <c r="A30" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="B30" s="7"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
     </row>
     <row r="31" ht="21" spans="1:5">
-      <c r="A31" s="8" t="s">
+      <c r="A31" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B31" s="8" t="s">
+      <c r="B31" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C31" s="8" t="s">
+      <c r="C31" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D31" s="8" t="s">
+      <c r="D31" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E31" s="8" t="s">
+      <c r="E31" s="7" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2285,7 +2295,7 @@
       <c r="E36" s="5"/>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="6" t="s">
+      <c r="A37" s="4" t="s">
         <v>35</v>
       </c>
       <c r="B37" t="s">
@@ -2347,28 +2357,28 @@
       <c r="E40" s="4"/>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42" s="7" t="s">
+      <c r="A42" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="B42" s="7"/>
-      <c r="C42" s="7"/>
-      <c r="D42" s="7"/>
-      <c r="E42" s="7"/>
+      <c r="B42" s="6"/>
+      <c r="C42" s="6"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="6"/>
     </row>
     <row r="43" ht="21" spans="1:5">
-      <c r="A43" s="8" t="s">
+      <c r="A43" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B43" s="8" t="s">
+      <c r="B43" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C43" s="8" t="s">
+      <c r="C43" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D43" s="8" t="s">
+      <c r="D43" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E43" s="8" t="s">
+      <c r="E43" s="7" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2517,7 +2527,7 @@
       <c r="D52" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E52" s="13" t="s">
+      <c r="E52" s="12" t="s">
         <v>92</v>
       </c>
     </row>
@@ -2597,28 +2607,28 @@
       <c r="E57" s="4"/>
     </row>
     <row r="61" spans="1:5">
-      <c r="A61" s="7" t="s">
+      <c r="A61" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="B61" s="7"/>
-      <c r="C61" s="7"/>
-      <c r="D61" s="7"/>
-      <c r="E61" s="7"/>
+      <c r="B61" s="6"/>
+      <c r="C61" s="6"/>
+      <c r="D61" s="6"/>
+      <c r="E61" s="6"/>
     </row>
     <row r="62" ht="21" spans="1:5">
-      <c r="A62" s="8" t="s">
+      <c r="A62" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B62" s="8" t="s">
+      <c r="B62" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C62" s="8" t="s">
+      <c r="C62" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D62" s="8" t="s">
+      <c r="D62" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E62" s="8" t="s">
+      <c r="E62" s="7" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2747,28 +2757,28 @@
       <c r="E70" s="4"/>
     </row>
     <row r="72" spans="1:5">
-      <c r="A72" s="7" t="s">
+      <c r="A72" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="B72" s="7"/>
-      <c r="C72" s="7"/>
-      <c r="D72" s="7"/>
-      <c r="E72" s="7"/>
+      <c r="B72" s="6"/>
+      <c r="C72" s="6"/>
+      <c r="D72" s="6"/>
+      <c r="E72" s="6"/>
     </row>
     <row r="73" ht="21" spans="1:5">
-      <c r="A73" s="8" t="s">
+      <c r="A73" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B73" s="8" t="s">
+      <c r="B73" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C73" s="8" t="s">
+      <c r="C73" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D73" s="8" t="s">
+      <c r="D73" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E73" s="8" t="s">
+      <c r="E73" s="7" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2779,7 +2789,7 @@
       <c r="B74" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C74" s="9" t="s">
+      <c r="C74" s="8" t="s">
         <v>105</v>
       </c>
       <c r="D74" s="5" t="s">
@@ -2796,7 +2806,7 @@
       <c r="B75" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="C75" s="10" t="s">
+      <c r="C75" s="9" t="s">
         <v>108</v>
       </c>
       <c r="D75" s="5" t="s">
@@ -2811,7 +2821,7 @@
       <c r="B76" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C76" s="10" t="s">
+      <c r="C76" s="9" t="s">
         <v>108</v>
       </c>
       <c r="D76" s="5" t="s">
@@ -2828,7 +2838,7 @@
       <c r="B77" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C77" s="10" t="s">
+      <c r="C77" s="9" t="s">
         <v>108</v>
       </c>
       <c r="D77" s="5" t="s">
@@ -2845,7 +2855,7 @@
       <c r="B78" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="C78" s="10" t="s">
+      <c r="C78" s="9" t="s">
         <v>108</v>
       </c>
       <c r="D78" s="4" t="s">
@@ -2860,7 +2870,7 @@
       <c r="B79" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="C79" s="10" t="s">
+      <c r="C79" s="9" t="s">
         <v>108</v>
       </c>
       <c r="D79" s="4" t="s">
@@ -2890,7 +2900,7 @@
       <c r="B81" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="C81" s="9" t="s">
+      <c r="C81" s="8" t="s">
         <v>105</v>
       </c>
       <c r="D81" s="4" t="s">
@@ -2974,28 +2984,28 @@
       <c r="E86" s="4"/>
     </row>
     <row r="88" spans="1:5">
-      <c r="A88" s="7" t="s">
+      <c r="A88" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="B88" s="7"/>
-      <c r="C88" s="7"/>
-      <c r="D88" s="7"/>
-      <c r="E88" s="7"/>
+      <c r="B88" s="6"/>
+      <c r="C88" s="6"/>
+      <c r="D88" s="6"/>
+      <c r="E88" s="6"/>
     </row>
     <row r="89" ht="21" spans="1:5">
-      <c r="A89" s="8" t="s">
+      <c r="A89" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B89" s="8" t="s">
+      <c r="B89" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C89" s="8" t="s">
+      <c r="C89" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D89" s="8" t="s">
+      <c r="D89" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E89" s="8" t="s">
+      <c r="E89" s="7" t="s">
         <v>5</v>
       </c>
     </row>
@@ -3192,28 +3202,28 @@
       <c r="E101" s="4"/>
     </row>
     <row r="103" spans="1:5">
-      <c r="A103" s="7" t="s">
+      <c r="A103" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="B103" s="7"/>
-      <c r="C103" s="7"/>
-      <c r="D103" s="7"/>
-      <c r="E103" s="7"/>
+      <c r="B103" s="6"/>
+      <c r="C103" s="6"/>
+      <c r="D103" s="6"/>
+      <c r="E103" s="6"/>
     </row>
     <row r="104" ht="21" spans="1:5">
-      <c r="A104" s="8" t="s">
+      <c r="A104" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B104" s="8" t="s">
+      <c r="B104" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C104" s="8" t="s">
+      <c r="C104" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D104" s="8" t="s">
+      <c r="D104" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E104" s="8" t="s">
+      <c r="E104" s="7" t="s">
         <v>5</v>
       </c>
     </row>
@@ -3387,28 +3397,28 @@
       <c r="E115" s="4"/>
     </row>
     <row r="117" spans="1:5">
-      <c r="A117" s="7" t="s">
+      <c r="A117" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="B117" s="7"/>
-      <c r="C117" s="7"/>
-      <c r="D117" s="7"/>
-      <c r="E117" s="7"/>
+      <c r="B117" s="6"/>
+      <c r="C117" s="6"/>
+      <c r="D117" s="6"/>
+      <c r="E117" s="6"/>
     </row>
     <row r="118" ht="21" spans="1:5">
-      <c r="A118" s="8" t="s">
+      <c r="A118" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B118" s="8" t="s">
+      <c r="B118" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C118" s="8" t="s">
+      <c r="C118" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D118" s="8" t="s">
+      <c r="D118" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E118" s="8" t="s">
+      <c r="E118" s="7" t="s">
         <v>5</v>
       </c>
     </row>
@@ -3614,28 +3624,28 @@
       <c r="E131" s="4"/>
     </row>
     <row r="133" spans="1:5">
-      <c r="A133" s="7" t="s">
+      <c r="A133" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="B133" s="7"/>
-      <c r="C133" s="7"/>
-      <c r="D133" s="7"/>
-      <c r="E133" s="7"/>
+      <c r="B133" s="6"/>
+      <c r="C133" s="6"/>
+      <c r="D133" s="6"/>
+      <c r="E133" s="6"/>
     </row>
     <row r="134" ht="21" spans="1:5">
-      <c r="A134" s="8" t="s">
+      <c r="A134" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B134" s="8" t="s">
+      <c r="B134" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C134" s="8" t="s">
+      <c r="C134" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D134" s="8" t="s">
+      <c r="D134" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E134" s="8" t="s">
+      <c r="E134" s="7" t="s">
         <v>5</v>
       </c>
     </row>
@@ -3646,7 +3656,7 @@
       <c r="B135" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C135" s="10" t="s">
+      <c r="C135" s="9" t="s">
         <v>108</v>
       </c>
       <c r="D135" s="5" t="s">
@@ -3663,7 +3673,7 @@
       <c r="B136" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C136" s="10" t="s">
+      <c r="C136" s="9" t="s">
         <v>108</v>
       </c>
       <c r="D136" s="5" t="s">
@@ -3672,13 +3682,13 @@
       <c r="E136" s="4"/>
     </row>
     <row r="137" ht="18" spans="1:5">
-      <c r="A137" s="10" t="s">
+      <c r="A137" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B137" s="10" t="s">
+      <c r="B137" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C137" s="10" t="s">
+      <c r="C137" s="9" t="s">
         <v>159</v>
       </c>
       <c r="D137" s="5" t="s">
@@ -3693,7 +3703,7 @@
       <c r="B138" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="C138" s="10" t="s">
+      <c r="C138" s="9" t="s">
         <v>108</v>
       </c>
       <c r="D138" s="5" t="s">
@@ -3708,7 +3718,7 @@
       <c r="B139" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="C139" s="10" t="s">
+      <c r="C139" s="9" t="s">
         <v>108</v>
       </c>
       <c r="D139" s="5" t="s">
@@ -3822,28 +3832,28 @@
       <c r="E146" s="4"/>
     </row>
     <row r="148" spans="1:5">
-      <c r="A148" s="7" t="s">
+      <c r="A148" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="B148" s="7"/>
-      <c r="C148" s="7"/>
-      <c r="D148" s="7"/>
-      <c r="E148" s="7"/>
+      <c r="B148" s="6"/>
+      <c r="C148" s="6"/>
+      <c r="D148" s="6"/>
+      <c r="E148" s="6"/>
     </row>
     <row r="149" ht="21" spans="1:5">
-      <c r="A149" s="8" t="s">
+      <c r="A149" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B149" s="8" t="s">
+      <c r="B149" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C149" s="8" t="s">
+      <c r="C149" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D149" s="8" t="s">
+      <c r="D149" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E149" s="8" t="s">
+      <c r="E149" s="7" t="s">
         <v>5</v>
       </c>
     </row>
@@ -3854,7 +3864,7 @@
       <c r="B150" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C150" s="10" t="s">
+      <c r="C150" s="9" t="s">
         <v>108</v>
       </c>
       <c r="D150" s="5" t="s">
@@ -3871,7 +3881,7 @@
       <c r="B151" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="C151" s="10" t="s">
+      <c r="C151" s="9" t="s">
         <v>108</v>
       </c>
       <c r="D151" s="5" t="s">
@@ -3970,28 +3980,28 @@
       <c r="E157" s="4"/>
     </row>
     <row r="159" spans="1:5">
-      <c r="A159" s="7" t="s">
+      <c r="A159" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="B159" s="7"/>
-      <c r="C159" s="7"/>
-      <c r="D159" s="7"/>
-      <c r="E159" s="7"/>
+      <c r="B159" s="6"/>
+      <c r="C159" s="6"/>
+      <c r="D159" s="6"/>
+      <c r="E159" s="6"/>
     </row>
     <row r="160" ht="21" spans="1:5">
-      <c r="A160" s="8" t="s">
+      <c r="A160" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B160" s="8" t="s">
+      <c r="B160" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C160" s="8" t="s">
+      <c r="C160" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D160" s="8" t="s">
+      <c r="D160" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E160" s="8" t="s">
+      <c r="E160" s="7" t="s">
         <v>5</v>
       </c>
     </row>
@@ -4002,7 +4012,7 @@
       <c r="B161" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C161" s="10" t="s">
+      <c r="C161" s="9" t="s">
         <v>108</v>
       </c>
       <c r="D161" s="5" t="s">
@@ -4019,7 +4029,7 @@
       <c r="B162" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C162" s="10" t="s">
+      <c r="C162" s="9" t="s">
         <v>108</v>
       </c>
       <c r="D162" s="5" t="s">
@@ -4118,28 +4128,28 @@
       <c r="E168" s="4"/>
     </row>
     <row r="170" spans="1:5">
-      <c r="A170" s="7" t="s">
+      <c r="A170" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="B170" s="7"/>
-      <c r="C170" s="7"/>
-      <c r="D170" s="7"/>
-      <c r="E170" s="7"/>
+      <c r="B170" s="6"/>
+      <c r="C170" s="6"/>
+      <c r="D170" s="6"/>
+      <c r="E170" s="6"/>
     </row>
     <row r="171" ht="21" spans="1:5">
-      <c r="A171" s="8" t="s">
+      <c r="A171" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B171" s="8" t="s">
+      <c r="B171" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C171" s="8" t="s">
+      <c r="C171" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D171" s="8" t="s">
+      <c r="D171" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E171" s="8" t="s">
+      <c r="E171" s="7" t="s">
         <v>5</v>
       </c>
     </row>
@@ -4150,7 +4160,7 @@
       <c r="B172" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C172" s="10" t="s">
+      <c r="C172" s="9" t="s">
         <v>108</v>
       </c>
       <c r="D172" s="5" t="s">
@@ -4167,7 +4177,7 @@
       <c r="B173" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="C173" s="10" t="s">
+      <c r="C173" s="9" t="s">
         <v>108</v>
       </c>
       <c r="D173" s="5" t="s">
@@ -4182,7 +4192,7 @@
       <c r="B174" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C174" s="10" t="s">
+      <c r="C174" s="9" t="s">
         <v>108</v>
       </c>
       <c r="D174" s="5" t="s">
@@ -4227,7 +4237,7 @@
       <c r="B177" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="C177" s="10" t="s">
+      <c r="C177" s="9" t="s">
         <v>108</v>
       </c>
       <c r="D177" s="4" t="s">
@@ -4296,28 +4306,28 @@
       <c r="E181" s="4"/>
     </row>
     <row r="183" spans="1:5">
-      <c r="A183" s="7" t="s">
+      <c r="A183" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="B183" s="7"/>
-      <c r="C183" s="7"/>
-      <c r="D183" s="7"/>
-      <c r="E183" s="7"/>
+      <c r="B183" s="6"/>
+      <c r="C183" s="6"/>
+      <c r="D183" s="6"/>
+      <c r="E183" s="6"/>
     </row>
     <row r="184" ht="21" spans="1:5">
-      <c r="A184" s="8" t="s">
+      <c r="A184" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B184" s="8" t="s">
+      <c r="B184" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C184" s="8" t="s">
+      <c r="C184" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D184" s="8" t="s">
+      <c r="D184" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E184" s="8" t="s">
+      <c r="E184" s="7" t="s">
         <v>5</v>
       </c>
     </row>
@@ -4328,7 +4338,7 @@
       <c r="B185" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C185" s="11" t="s">
+      <c r="C185" s="10" t="s">
         <v>83</v>
       </c>
       <c r="D185" s="5" t="s">
@@ -4345,7 +4355,7 @@
       <c r="B186" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="C186" s="12" t="s">
+      <c r="C186" s="11" t="s">
         <v>200</v>
       </c>
       <c r="D186" s="5" t="s">
@@ -4360,7 +4370,7 @@
       <c r="B187" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C187" s="12" t="s">
+      <c r="C187" s="11" t="s">
         <v>8</v>
       </c>
       <c r="D187" s="5" t="s">
@@ -4375,7 +4385,7 @@
       <c r="B188" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C188" s="12" t="s">
+      <c r="C188" s="11" t="s">
         <v>8</v>
       </c>
       <c r="D188" s="5" t="s">
@@ -4390,7 +4400,7 @@
       <c r="B189" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="C189" s="12" t="s">
+      <c r="C189" s="11" t="s">
         <v>30</v>
       </c>
       <c r="D189" s="5" t="s">
@@ -4405,7 +4415,7 @@
       <c r="B190" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="C190" s="12" t="s">
+      <c r="C190" s="11" t="s">
         <v>200</v>
       </c>
       <c r="D190" s="5" t="s">
@@ -4420,7 +4430,7 @@
       <c r="B191" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="C191" s="12" t="s">
+      <c r="C191" s="11" t="s">
         <v>59</v>
       </c>
       <c r="D191" s="4" t="s">
@@ -4435,7 +4445,7 @@
       <c r="B192" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="C192" s="12" t="s">
+      <c r="C192" s="11" t="s">
         <v>59</v>
       </c>
       <c r="D192" s="4" t="s">
@@ -4450,7 +4460,7 @@
       <c r="B193" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="C193" s="12" t="s">
+      <c r="C193" s="11" t="s">
         <v>59</v>
       </c>
       <c r="D193" s="4" t="s">
@@ -4465,7 +4475,7 @@
       <c r="B194" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="C194" s="12" t="s">
+      <c r="C194" s="11" t="s">
         <v>59</v>
       </c>
       <c r="D194" s="4" t="s">
@@ -4480,7 +4490,7 @@
       <c r="B195" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="C195" s="12" t="s">
+      <c r="C195" s="11" t="s">
         <v>59</v>
       </c>
       <c r="D195" s="4" t="s">
@@ -4495,7 +4505,7 @@
       <c r="B196" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="C196" s="12" t="s">
+      <c r="C196" s="11" t="s">
         <v>30</v>
       </c>
       <c r="D196" s="5" t="s">

--- a/document/叨叨帮表设计.xlsx
+++ b/document/叨叨帮表设计.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224">
   <si>
     <t>用户信息表 user_info</t>
   </si>
@@ -184,7 +184,7 @@
     <t>account_status</t>
   </si>
   <si>
-    <t>系统为当前账号设定的状态 available/forbidden/</t>
+    <t>系统为当前账号设定的状态 available/forbidden/verifying</t>
   </si>
   <si>
     <t>账号截图</t>
@@ -323,6 +323,12 @@
   </si>
   <si>
     <t>task_type</t>
+  </si>
+  <si>
+    <t>任务链接</t>
+  </si>
+  <si>
+    <t>task_img</t>
   </si>
   <si>
     <t>是否启用: yes/no</t>
@@ -1774,10 +1780,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:E202"/>
+  <dimension ref="A1:E203"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C15" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="B67" sqref="B67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelCol="4"/>
@@ -1786,7 +1792,7 @@
     <col min="2" max="2" width="20.5" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
     <col min="4" max="4" width="11.9285714285714" customWidth="1"/>
-    <col min="5" max="5" width="49.5714285714286" customWidth="1"/>
+    <col min="5" max="5" width="59.2857142857143" customWidth="1"/>
     <col min="8" max="8" width="11.2857142857143" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2696,156 +2702,154 @@
     </row>
     <row r="67" ht="18" spans="1:5">
       <c r="A67" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E67" s="4"/>
+    </row>
+    <row r="68" ht="18" spans="1:5">
+      <c r="A68" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B67" s="5" t="s">
+      <c r="B68" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C67" s="5" t="s">
+      <c r="C68" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D67" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E67" s="4" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
-      <c r="A68" t="s">
+      <c r="D68" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E68" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" t="s">
         <v>35</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B69" t="s">
         <v>36</v>
       </c>
-      <c r="C68" s="4" t="s">
+      <c r="C69" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D68" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E68" s="4"/>
-    </row>
-    <row r="69" spans="1:5">
-      <c r="A69" s="4" t="s">
+      <c r="D69" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E69" s="4"/>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B69" s="4" t="s">
+      <c r="B70" s="4" t="s">
         <v>39</v>
-      </c>
-      <c r="C69" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D69" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E69" s="4"/>
-    </row>
-    <row r="70" ht="18" spans="1:5">
-      <c r="A70" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B70" s="4" t="s">
-        <v>42</v>
       </c>
       <c r="C70" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D70" s="5" t="s">
+      <c r="D70" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E70" s="4"/>
+    </row>
+    <row r="71" ht="18" spans="1:5">
+      <c r="A71" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D71" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E70" s="4"/>
-    </row>
-    <row r="72" spans="1:5">
-      <c r="A72" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="B72" s="6"/>
-      <c r="C72" s="6"/>
-      <c r="D72" s="6"/>
-      <c r="E72" s="6"/>
-    </row>
-    <row r="73" ht="21" spans="1:5">
-      <c r="A73" s="7" t="s">
+      <c r="E71" s="4"/>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="B73" s="6"/>
+      <c r="C73" s="6"/>
+      <c r="D73" s="6"/>
+      <c r="E73" s="6"/>
+    </row>
+    <row r="74" ht="21" spans="1:5">
+      <c r="A74" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B73" s="7" t="s">
+      <c r="B74" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C73" s="7" t="s">
+      <c r="C74" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D73" s="7" t="s">
+      <c r="D74" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E73" s="7" t="s">
+      <c r="E74" s="7" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="74" ht="18" spans="1:5">
-      <c r="A74" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B74" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C74" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="D74" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E74" s="5" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="75" ht="18" spans="1:5">
       <c r="A75" s="5" t="s">
-        <v>106</v>
+        <v>6</v>
       </c>
       <c r="B75" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C75" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="C75" s="9" t="s">
-        <v>108</v>
-      </c>
       <c r="D75" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E75" s="4"/>
+      <c r="E75" s="5" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="76" ht="18" spans="1:5">
       <c r="A76" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="C76" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="D76" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E76" s="4"/>
+    </row>
+    <row r="77" ht="18" spans="1:5">
+      <c r="A77" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B76" s="5" t="s">
+      <c r="B77" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C76" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="D76" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E76" s="4" t="s">
+      <c r="C77" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="D77" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E77" s="4" t="s">
         <v>45</v>
-      </c>
-    </row>
-    <row r="77" ht="18" spans="1:5">
-      <c r="A77" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="B77" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C77" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="D77" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E77" s="4" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="78" ht="18" spans="1:5">
@@ -2853,15 +2857,17 @@
         <v>111</v>
       </c>
       <c r="B78" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C78" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="D78" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E78" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="C78" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="D78" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E78" s="4"/>
     </row>
     <row r="79" ht="18" spans="1:5">
       <c r="A79" s="4" t="s">
@@ -2871,52 +2877,52 @@
         <v>114</v>
       </c>
       <c r="C79" s="9" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D79" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E79" s="4"/>
     </row>
-    <row r="80" spans="1:5">
+    <row r="80" ht="18" spans="1:5">
       <c r="A80" s="4" t="s">
         <v>115</v>
       </c>
       <c r="B80" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="C80" s="4" t="s">
+      <c r="C80" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="D80" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E80" s="4"/>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="D80" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E80" s="4"/>
-    </row>
-    <row r="81" ht="18" spans="1:5">
-      <c r="A81" s="4" t="s">
+      <c r="B81" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="B81" s="4" t="s">
+      <c r="C81" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="C81" s="8" t="s">
-        <v>105</v>
-      </c>
       <c r="D81" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E81" s="4"/>
     </row>
-    <row r="82" spans="1:5">
+    <row r="82" ht="18" spans="1:5">
       <c r="A82" s="4" t="s">
         <v>120</v>
       </c>
       <c r="B82" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="C82" s="4" t="s">
-        <v>122</v>
+      <c r="C82" s="8" t="s">
+        <v>107</v>
       </c>
       <c r="D82" s="4" t="s">
         <v>9</v>
@@ -2925,13 +2931,13 @@
     </row>
     <row r="83" spans="1:5">
       <c r="A83" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B83" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="B83" s="4" t="s">
-        <v>96</v>
-      </c>
       <c r="C83" s="4" t="s">
-        <v>40</v>
+        <v>124</v>
       </c>
       <c r="D83" s="4" t="s">
         <v>9</v>
@@ -2940,13 +2946,13 @@
     </row>
     <row r="84" spans="1:5">
       <c r="A84" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B84" t="s">
-        <v>36</v>
+        <v>125</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>96</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D84" s="4" t="s">
         <v>9</v>
@@ -2955,100 +2961,98 @@
     </row>
     <row r="85" spans="1:5">
       <c r="A85" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B85" t="s">
+        <v>36</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D85" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E85" s="4"/>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B85" s="4" t="s">
+      <c r="B86" s="4" t="s">
         <v>39</v>
-      </c>
-      <c r="C85" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D85" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E85" s="4"/>
-    </row>
-    <row r="86" ht="18" spans="1:5">
-      <c r="A86" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B86" s="4" t="s">
-        <v>42</v>
       </c>
       <c r="C86" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D86" s="5" t="s">
+      <c r="D86" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E86" s="4"/>
+    </row>
+    <row r="87" ht="18" spans="1:5">
+      <c r="A87" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D87" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E86" s="4"/>
-    </row>
-    <row r="88" spans="1:5">
-      <c r="A88" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="B88" s="6"/>
-      <c r="C88" s="6"/>
-      <c r="D88" s="6"/>
-      <c r="E88" s="6"/>
-    </row>
-    <row r="89" ht="21" spans="1:5">
-      <c r="A89" s="7" t="s">
+      <c r="E87" s="4"/>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="B89" s="6"/>
+      <c r="C89" s="6"/>
+      <c r="D89" s="6"/>
+      <c r="E89" s="6"/>
+    </row>
+    <row r="90" ht="21" spans="1:5">
+      <c r="A90" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B89" s="7" t="s">
+      <c r="B90" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C89" s="7" t="s">
+      <c r="C90" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D89" s="7" t="s">
+      <c r="D90" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E89" s="7" t="s">
+      <c r="E90" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="90" ht="18" spans="1:5">
-      <c r="A90" s="5" t="s">
+    <row r="91" ht="18" spans="1:5">
+      <c r="A91" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B90" s="5" t="s">
+      <c r="B91" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C90" s="5" t="s">
+      <c r="C91" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="D90" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E90" s="5" t="s">
+      <c r="D91" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E91" s="5" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
-      <c r="A91" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="B91" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="C91" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="D91" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E91" s="4" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="92" spans="1:5">
       <c r="A92" s="4" t="s">
-        <v>44</v>
+        <v>127</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>12</v>
+        <v>109</v>
       </c>
       <c r="C92" s="4" t="s">
         <v>83</v>
@@ -3057,40 +3061,42 @@
         <v>9</v>
       </c>
       <c r="E92" s="4" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="93" spans="1:5">
       <c r="A93" s="4" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>15</v>
+        <v>83</v>
       </c>
       <c r="D93" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E93" s="4" t="s">
-        <v>45</v>
+        <v>128</v>
       </c>
     </row>
     <row r="94" spans="1:5">
       <c r="A94" s="4" t="s">
-        <v>127</v>
+        <v>13</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>128</v>
+        <v>14</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="D94" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E94" s="4"/>
+      <c r="E94" s="4" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="95" spans="1:5">
       <c r="A95" s="4" t="s">
@@ -3100,29 +3106,29 @@
         <v>130</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D95" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E95" s="4" t="s">
-        <v>131</v>
-      </c>
+      <c r="E95" s="4"/>
     </row>
     <row r="96" spans="1:5">
       <c r="A96" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B96" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="B96" s="4" t="s">
+      <c r="C96" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D96" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E96" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="C96" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="D96" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E96" s="4"/>
     </row>
     <row r="97" spans="1:5">
       <c r="A97" s="4" t="s">
@@ -3132,124 +3138,122 @@
         <v>135</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>33</v>
+        <v>83</v>
       </c>
       <c r="D97" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E97" s="4" t="s">
-        <v>136</v>
-      </c>
+      <c r="E97" s="4"/>
     </row>
     <row r="98" spans="1:5">
       <c r="A98" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="B98" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="B98" s="4" t="s">
+      <c r="C98" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D98" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E98" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="C98" s="4" t="s">
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C99" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="D98" s="4" t="s">
+      <c r="D99" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E98" s="4"/>
-    </row>
-    <row r="99" spans="1:5">
-      <c r="A99" t="s">
+      <c r="E99" s="4"/>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100" t="s">
         <v>35</v>
       </c>
-      <c r="B99" t="s">
+      <c r="B100" t="s">
         <v>36</v>
       </c>
-      <c r="C99" s="4" t="s">
+      <c r="C100" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D99" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E99" s="4"/>
-    </row>
-    <row r="100" spans="1:5">
-      <c r="A100" s="4" t="s">
+      <c r="D100" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E100" s="4"/>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B100" s="4" t="s">
+      <c r="B101" s="4" t="s">
         <v>39</v>
-      </c>
-      <c r="C100" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D100" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E100" s="4"/>
-    </row>
-    <row r="101" ht="18" spans="1:5">
-      <c r="A101" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B101" s="4" t="s">
-        <v>42</v>
       </c>
       <c r="C101" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D101" s="5" t="s">
+      <c r="D101" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E101" s="4"/>
+    </row>
+    <row r="102" ht="18" spans="1:5">
+      <c r="A102" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B102" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C102" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D102" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E101" s="4"/>
-    </row>
-    <row r="103" spans="1:5">
-      <c r="A103" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="B103" s="6"/>
-      <c r="C103" s="6"/>
-      <c r="D103" s="6"/>
-      <c r="E103" s="6"/>
-    </row>
-    <row r="104" ht="21" spans="1:5">
-      <c r="A104" s="7" t="s">
+      <c r="E102" s="4"/>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="A104" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="B104" s="6"/>
+      <c r="C104" s="6"/>
+      <c r="D104" s="6"/>
+      <c r="E104" s="6"/>
+    </row>
+    <row r="105" ht="21" spans="1:5">
+      <c r="A105" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B104" s="7" t="s">
+      <c r="B105" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C104" s="7" t="s">
+      <c r="C105" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D104" s="7" t="s">
+      <c r="D105" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E104" s="7" t="s">
+      <c r="E105" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="105" ht="18" spans="1:5">
-      <c r="A105" s="5" t="s">
+    <row r="106" ht="18" spans="1:5">
+      <c r="A106" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B105" s="5" t="s">
+      <c r="B106" s="5" t="s">
         <v>7</v>
-      </c>
-      <c r="C105" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="D105" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E105" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="106" ht="18" spans="1:5">
-      <c r="A106" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="B106" s="4" t="s">
-        <v>141</v>
       </c>
       <c r="C106" s="5" t="s">
         <v>83</v>
@@ -3257,14 +3261,16 @@
       <c r="D106" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E106" s="4"/>
+      <c r="E106" s="5" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="107" ht="18" spans="1:5">
       <c r="A107" s="4" t="s">
         <v>142</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>71</v>
+        <v>143</v>
       </c>
       <c r="C107" s="5" t="s">
         <v>83</v>
@@ -3276,10 +3282,10 @@
     </row>
     <row r="108" ht="18" spans="1:5">
       <c r="A108" s="4" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>144</v>
+        <v>71</v>
       </c>
       <c r="C108" s="5" t="s">
         <v>83</v>
@@ -3291,10 +3297,10 @@
     </row>
     <row r="109" ht="18" spans="1:5">
       <c r="A109" s="4" t="s">
-        <v>44</v>
+        <v>145</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>12</v>
+        <v>146</v>
       </c>
       <c r="C109" s="5" t="s">
         <v>83</v>
@@ -3306,13 +3312,13 @@
     </row>
     <row r="110" ht="18" spans="1:5">
       <c r="A110" s="4" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C110" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
+      </c>
+      <c r="C110" s="5" t="s">
+        <v>83</v>
       </c>
       <c r="D110" s="5" t="s">
         <v>9</v>
@@ -3321,145 +3327,145 @@
     </row>
     <row r="111" ht="18" spans="1:5">
       <c r="A111" s="4" t="s">
-        <v>145</v>
+        <v>13</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>146</v>
+        <v>14</v>
       </c>
       <c r="C111" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D111" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E111" s="4"/>
+    </row>
+    <row r="112" ht="18" spans="1:5">
+      <c r="A112" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="B112" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C112" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D111" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E111" s="4" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5">
-      <c r="A112" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="B112" s="4" t="s">
+      <c r="D112" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E112" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="C112" s="4" t="s">
+    </row>
+    <row r="113" spans="1:5">
+      <c r="A113" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="B113" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C113" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="D112" s="4" t="s">
+      <c r="D113" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E112" s="4"/>
-    </row>
-    <row r="113" spans="1:5">
-      <c r="A113" t="s">
+      <c r="E113" s="4"/>
+    </row>
+    <row r="114" spans="1:5">
+      <c r="A114" t="s">
         <v>35</v>
       </c>
-      <c r="B113" t="s">
+      <c r="B114" t="s">
         <v>36</v>
       </c>
-      <c r="C113" s="4" t="s">
+      <c r="C114" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D113" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E113" s="4"/>
-    </row>
-    <row r="114" spans="1:5">
-      <c r="A114" s="4" t="s">
+      <c r="D114" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E114" s="4"/>
+    </row>
+    <row r="115" spans="1:5">
+      <c r="A115" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B114" s="4" t="s">
+      <c r="B115" s="4" t="s">
         <v>39</v>
-      </c>
-      <c r="C114" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D114" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E114" s="4"/>
-    </row>
-    <row r="115" ht="18" spans="1:5">
-      <c r="A115" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B115" s="4" t="s">
-        <v>42</v>
       </c>
       <c r="C115" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D115" s="5" t="s">
+      <c r="D115" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E115" s="4"/>
+    </row>
+    <row r="116" ht="18" spans="1:5">
+      <c r="A116" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B116" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C116" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D116" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E115" s="4"/>
-    </row>
-    <row r="117" spans="1:5">
-      <c r="A117" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="B117" s="6"/>
-      <c r="C117" s="6"/>
-      <c r="D117" s="6"/>
-      <c r="E117" s="6"/>
-    </row>
-    <row r="118" ht="21" spans="1:5">
-      <c r="A118" s="7" t="s">
+      <c r="E116" s="4"/>
+    </row>
+    <row r="118" spans="1:5">
+      <c r="A118" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="B118" s="6"/>
+      <c r="C118" s="6"/>
+      <c r="D118" s="6"/>
+      <c r="E118" s="6"/>
+    </row>
+    <row r="119" ht="21" spans="1:5">
+      <c r="A119" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B118" s="7" t="s">
+      <c r="B119" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C118" s="7" t="s">
+      <c r="C119" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D118" s="7" t="s">
+      <c r="D119" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E118" s="7" t="s">
+      <c r="E119" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="119" ht="18" spans="1:5">
-      <c r="A119" s="5" t="s">
+    <row r="120" ht="18" spans="1:5">
+      <c r="A120" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B119" s="5" t="s">
+      <c r="B120" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C119" s="5" t="s">
+      <c r="C120" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="D119" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E119" s="5" t="s">
+      <c r="D120" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E120" s="5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="120" ht="18" spans="1:5">
-      <c r="A120" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="B120" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C120" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="D120" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E120" s="4"/>
     </row>
     <row r="121" ht="18" spans="1:5">
       <c r="A121" s="4" t="s">
-        <v>44</v>
+        <v>111</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="C121" s="4" t="s">
         <v>83</v>
@@ -3471,10 +3477,10 @@
     </row>
     <row r="122" ht="18" spans="1:5">
       <c r="A122" s="4" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C122" s="4" t="s">
         <v>83</v>
@@ -3486,42 +3492,40 @@
     </row>
     <row r="123" ht="18" spans="1:5">
       <c r="A123" s="4" t="s">
-        <v>148</v>
+        <v>13</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>149</v>
+        <v>14</v>
       </c>
       <c r="C123" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D123" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E123" s="4"/>
+    </row>
+    <row r="124" ht="18" spans="1:5">
+      <c r="A124" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="B124" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C124" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="D123" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E123" s="4"/>
-    </row>
-    <row r="124" ht="36" spans="1:5">
-      <c r="A124" s="4" t="s">
+      <c r="D124" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E124" s="4"/>
+    </row>
+    <row r="125" ht="36" spans="1:5">
+      <c r="A125" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="B124" s="4" t="s">
+      <c r="B125" s="4" t="s">
         <v>91</v>
-      </c>
-      <c r="C124" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D124" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E124" s="5" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="125" ht="18" spans="1:5">
-      <c r="A125" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="B125" s="4" t="s">
-        <v>152</v>
       </c>
       <c r="C125" s="4" t="s">
         <v>33</v>
@@ -3529,7 +3533,9 @@
       <c r="D125" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E125" s="4"/>
+      <c r="E125" s="5" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="126" ht="18" spans="1:5">
       <c r="A126" s="4" t="s">
@@ -3539,7 +3545,7 @@
         <v>154</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>83</v>
+        <v>33</v>
       </c>
       <c r="D126" s="5" t="s">
         <v>9</v>
@@ -3554,39 +3560,39 @@
         <v>156</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>122</v>
+        <v>83</v>
       </c>
       <c r="D127" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E127" s="5" t="s">
+      <c r="E127" s="4"/>
+    </row>
+    <row r="128" ht="18" spans="1:5">
+      <c r="A128" s="4" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="128" spans="1:5">
-      <c r="A128" s="4" t="s">
-        <v>95</v>
-      </c>
       <c r="B128" s="4" t="s">
-        <v>96</v>
+        <v>158</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D128" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E128" s="4"/>
+        <v>124</v>
+      </c>
+      <c r="D128" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E128" s="5" t="s">
+        <v>159</v>
+      </c>
     </row>
     <row r="129" spans="1:5">
       <c r="A129" s="4" t="s">
-        <v>35</v>
+        <v>95</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>36</v>
+        <v>96</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D129" s="4" t="s">
         <v>9</v>
@@ -3595,119 +3601,119 @@
     </row>
     <row r="130" spans="1:5">
       <c r="A130" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B130" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C130" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D130" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E130" s="4"/>
+    </row>
+    <row r="131" spans="1:5">
+      <c r="A131" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B130" s="4" t="s">
+      <c r="B131" s="4" t="s">
         <v>39</v>
-      </c>
-      <c r="C130" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D130" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E130" s="4"/>
-    </row>
-    <row r="131" ht="18" spans="1:5">
-      <c r="A131" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B131" s="4" t="s">
-        <v>42</v>
       </c>
       <c r="C131" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D131" s="5" t="s">
+      <c r="D131" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E131" s="4"/>
+    </row>
+    <row r="132" ht="18" spans="1:5">
+      <c r="A132" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B132" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C132" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D132" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E131" s="4"/>
-    </row>
-    <row r="133" spans="1:5">
-      <c r="A133" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="B133" s="6"/>
-      <c r="C133" s="6"/>
-      <c r="D133" s="6"/>
-      <c r="E133" s="6"/>
-    </row>
-    <row r="134" ht="21" spans="1:5">
-      <c r="A134" s="7" t="s">
+      <c r="E132" s="4"/>
+    </row>
+    <row r="134" spans="1:5">
+      <c r="A134" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="B134" s="6"/>
+      <c r="C134" s="6"/>
+      <c r="D134" s="6"/>
+      <c r="E134" s="6"/>
+    </row>
+    <row r="135" ht="21" spans="1:5">
+      <c r="A135" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B134" s="7" t="s">
+      <c r="B135" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C134" s="7" t="s">
+      <c r="C135" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D134" s="7" t="s">
+      <c r="D135" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E134" s="7" t="s">
+      <c r="E135" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="135" ht="19" customHeight="1" spans="1:5">
-      <c r="A135" s="5" t="s">
+    <row r="136" ht="19" customHeight="1" spans="1:5">
+      <c r="A136" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B135" s="4" t="s">
+      <c r="B136" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C135" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="D135" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E135" s="5" t="s">
+      <c r="C136" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="D136" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E136" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="136" ht="18" spans="1:5">
-      <c r="A136" s="4" t="s">
+    <row r="137" ht="18" spans="1:5">
+      <c r="A137" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B136" s="4" t="s">
+      <c r="B137" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C136" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="D136" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E136" s="4"/>
-    </row>
-    <row r="137" ht="18" spans="1:5">
-      <c r="A137" s="9" t="s">
+      <c r="C137" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="D137" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E137" s="4"/>
+    </row>
+    <row r="138" ht="18" spans="1:5">
+      <c r="A138" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B137" s="9" t="s">
+      <c r="B138" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C137" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="D137" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E137" s="4"/>
-    </row>
-    <row r="138" ht="18" spans="1:5">
-      <c r="A138" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="B138" s="4" t="s">
+      <c r="C138" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="C138" s="9" t="s">
-        <v>108</v>
-      </c>
       <c r="D138" s="5" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="E138" s="4"/>
     </row>
@@ -3719,7 +3725,7 @@
         <v>163</v>
       </c>
       <c r="C139" s="9" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D139" s="5" t="s">
         <v>22</v>
@@ -3733,8 +3739,8 @@
       <c r="B140" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="C140" s="4" t="s">
-        <v>18</v>
+      <c r="C140" s="9" t="s">
+        <v>110</v>
       </c>
       <c r="D140" s="5" t="s">
         <v>22</v>
@@ -3786,108 +3792,108 @@
       </c>
       <c r="E143" s="4"/>
     </row>
-    <row r="144" spans="1:5">
+    <row r="144" ht="18" spans="1:5">
       <c r="A144" s="4" t="s">
-        <v>35</v>
+        <v>172</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>36</v>
+        <v>173</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D144" s="4" t="s">
-        <v>9</v>
+        <v>18</v>
+      </c>
+      <c r="D144" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="E144" s="4"/>
     </row>
     <row r="145" spans="1:5">
       <c r="A145" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B145" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C145" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D145" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E145" s="4"/>
+    </row>
+    <row r="146" spans="1:5">
+      <c r="A146" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B145" s="4" t="s">
+      <c r="B146" s="4" t="s">
         <v>39</v>
-      </c>
-      <c r="C145" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D145" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E145" s="4"/>
-    </row>
-    <row r="146" ht="18" spans="1:5">
-      <c r="A146" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B146" s="4" t="s">
-        <v>42</v>
       </c>
       <c r="C146" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D146" s="5" t="s">
+      <c r="D146" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E146" s="4"/>
+    </row>
+    <row r="147" ht="18" spans="1:5">
+      <c r="A147" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B147" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C147" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D147" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E146" s="4"/>
-    </row>
-    <row r="148" spans="1:5">
-      <c r="A148" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="B148" s="6"/>
-      <c r="C148" s="6"/>
-      <c r="D148" s="6"/>
-      <c r="E148" s="6"/>
-    </row>
-    <row r="149" ht="21" spans="1:5">
-      <c r="A149" s="7" t="s">
+      <c r="E147" s="4"/>
+    </row>
+    <row r="149" spans="1:5">
+      <c r="A149" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="B149" s="6"/>
+      <c r="C149" s="6"/>
+      <c r="D149" s="6"/>
+      <c r="E149" s="6"/>
+    </row>
+    <row r="150" ht="21" spans="1:5">
+      <c r="A150" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B149" s="7" t="s">
+      <c r="B150" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C149" s="7" t="s">
+      <c r="C150" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D149" s="7" t="s">
+      <c r="D150" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E149" s="7" t="s">
+      <c r="E150" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="150" ht="18" spans="1:5">
-      <c r="A150" s="5" t="s">
+    <row r="151" ht="18" spans="1:5">
+      <c r="A151" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B150" s="4" t="s">
+      <c r="B151" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C150" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="D150" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E150" s="5" t="s">
+      <c r="C151" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="D151" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E151" s="5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="151" ht="18" spans="1:5">
-      <c r="A151" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="B151" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="C151" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="D151" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E151" s="4"/>
     </row>
     <row r="152" ht="18" spans="1:5">
       <c r="A152" s="4" t="s">
@@ -3896,8 +3902,8 @@
       <c r="B152" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="C152" s="4" t="s">
-        <v>18</v>
+      <c r="C152" s="9" t="s">
+        <v>110</v>
       </c>
       <c r="D152" s="5" t="s">
         <v>9</v>
@@ -3934,118 +3940,118 @@
       </c>
       <c r="E154" s="4"/>
     </row>
-    <row r="155" spans="1:5">
+    <row r="155" ht="18" spans="1:5">
       <c r="A155" s="4" t="s">
-        <v>35</v>
+        <v>181</v>
       </c>
       <c r="B155" s="4" t="s">
-        <v>36</v>
+        <v>182</v>
       </c>
       <c r="C155" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D155" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D155" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E155" s="4"/>
     </row>
     <row r="156" spans="1:5">
       <c r="A156" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B156" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C156" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D156" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E156" s="4"/>
+    </row>
+    <row r="157" spans="1:5">
+      <c r="A157" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B156" s="4" t="s">
+      <c r="B157" s="4" t="s">
         <v>39</v>
-      </c>
-      <c r="C156" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D156" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E156" s="4"/>
-    </row>
-    <row r="157" ht="18" spans="1:5">
-      <c r="A157" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B157" s="4" t="s">
-        <v>42</v>
       </c>
       <c r="C157" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D157" s="5" t="s">
+      <c r="D157" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E157" s="4"/>
+    </row>
+    <row r="158" ht="18" spans="1:5">
+      <c r="A158" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B158" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C158" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D158" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E157" s="4"/>
-    </row>
-    <row r="159" spans="1:5">
-      <c r="A159" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="B159" s="6"/>
-      <c r="C159" s="6"/>
-      <c r="D159" s="6"/>
-      <c r="E159" s="6"/>
-    </row>
-    <row r="160" ht="21" spans="1:5">
-      <c r="A160" s="7" t="s">
+      <c r="E158" s="4"/>
+    </row>
+    <row r="160" spans="1:5">
+      <c r="A160" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="B160" s="6"/>
+      <c r="C160" s="6"/>
+      <c r="D160" s="6"/>
+      <c r="E160" s="6"/>
+    </row>
+    <row r="161" ht="21" spans="1:5">
+      <c r="A161" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B160" s="7" t="s">
+      <c r="B161" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C160" s="7" t="s">
+      <c r="C161" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D160" s="7" t="s">
+      <c r="D161" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E160" s="7" t="s">
+      <c r="E161" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="161" ht="18" spans="1:5">
-      <c r="A161" s="5" t="s">
+    <row r="162" ht="18" spans="1:5">
+      <c r="A162" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B161" s="4" t="s">
+      <c r="B162" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C161" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="D161" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E161" s="5" t="s">
+      <c r="C162" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="D162" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E162" s="5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="162" ht="18" spans="1:5">
-      <c r="A162" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="B162" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C162" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="D162" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E162" s="4"/>
     </row>
     <row r="163" ht="18" spans="1:5">
       <c r="A163" s="4" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="C163" s="4" t="s">
-        <v>83</v>
+        <v>71</v>
+      </c>
+      <c r="C163" s="9" t="s">
+        <v>110</v>
       </c>
       <c r="D163" s="5" t="s">
         <v>9</v>
@@ -4060,7 +4066,7 @@
         <v>185</v>
       </c>
       <c r="C164" s="4" t="s">
-        <v>40</v>
+        <v>83</v>
       </c>
       <c r="D164" s="5" t="s">
         <v>9</v>
@@ -4072,7 +4078,7 @@
         <v>186</v>
       </c>
       <c r="B165" s="4" t="s">
-        <v>96</v>
+        <v>187</v>
       </c>
       <c r="C165" s="4" t="s">
         <v>40</v>
@@ -4082,30 +4088,30 @@
       </c>
       <c r="E165" s="4"/>
     </row>
-    <row r="166" spans="1:5">
+    <row r="166" ht="18" spans="1:5">
       <c r="A166" s="4" t="s">
-        <v>35</v>
+        <v>188</v>
       </c>
       <c r="B166" s="4" t="s">
-        <v>36</v>
+        <v>96</v>
       </c>
       <c r="C166" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="D166" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D166" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E166" s="4"/>
     </row>
     <row r="167" spans="1:5">
       <c r="A167" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B167" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C167" s="4" t="s">
-        <v>40</v>
+        <v>189</v>
       </c>
       <c r="D167" s="4" t="s">
         <v>9</v>
@@ -4114,86 +4120,86 @@
     </row>
     <row r="168" spans="1:5">
       <c r="A168" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B168" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C168" s="4" t="s">
         <v>40</v>
       </c>
       <c r="D168" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E168" s="4"/>
+    </row>
+    <row r="169" spans="1:5">
+      <c r="A169" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B169" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C169" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D169" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E168" s="4"/>
-    </row>
-    <row r="170" spans="1:5">
-      <c r="A170" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="B170" s="6"/>
-      <c r="C170" s="6"/>
-      <c r="D170" s="6"/>
-      <c r="E170" s="6"/>
-    </row>
-    <row r="171" ht="21" spans="1:5">
-      <c r="A171" s="7" t="s">
+      <c r="E169" s="4"/>
+    </row>
+    <row r="171" spans="1:5">
+      <c r="A171" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B171" s="6"/>
+      <c r="C171" s="6"/>
+      <c r="D171" s="6"/>
+      <c r="E171" s="6"/>
+    </row>
+    <row r="172" ht="21" spans="1:5">
+      <c r="A172" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B171" s="7" t="s">
+      <c r="B172" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C171" s="7" t="s">
+      <c r="C172" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D171" s="7" t="s">
+      <c r="D172" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E171" s="7" t="s">
+      <c r="E172" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="172" ht="18" spans="1:5">
-      <c r="A172" s="5" t="s">
+    <row r="173" ht="18" spans="1:5">
+      <c r="A173" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B172" s="4" t="s">
+      <c r="B173" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C172" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="D172" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E172" s="5" t="s">
+      <c r="C173" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="D173" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E173" s="5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="173" ht="18" spans="1:5">
-      <c r="A173" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="B173" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="C173" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="D173" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E173" s="4"/>
     </row>
     <row r="174" ht="18" spans="1:5">
       <c r="A174" s="4" t="s">
-        <v>109</v>
+        <v>191</v>
       </c>
       <c r="B174" s="4" t="s">
-        <v>71</v>
+        <v>192</v>
       </c>
       <c r="C174" s="9" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D174" s="5" t="s">
         <v>22</v>
@@ -4202,16 +4208,16 @@
     </row>
     <row r="175" ht="18" spans="1:5">
       <c r="A175" s="4" t="s">
-        <v>191</v>
+        <v>111</v>
       </c>
       <c r="B175" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="C175" s="4" t="s">
-        <v>18</v>
+        <v>71</v>
+      </c>
+      <c r="C175" s="9" t="s">
+        <v>110</v>
       </c>
       <c r="D175" s="5" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="E175" s="4"/>
     </row>
@@ -4220,10 +4226,10 @@
         <v>193</v>
       </c>
       <c r="B176" s="4" t="s">
-        <v>96</v>
+        <v>194</v>
       </c>
       <c r="C176" s="4" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="D176" s="5" t="s">
         <v>9</v>
@@ -4232,58 +4238,58 @@
     </row>
     <row r="177" ht="18" spans="1:5">
       <c r="A177" s="4" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B177" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="C177" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="D177" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C177" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D177" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E177" s="4"/>
     </row>
-    <row r="178" spans="1:5">
+    <row r="178" ht="18" spans="1:5">
       <c r="A178" s="4" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B178" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="C178" s="4" t="s">
-        <v>59</v>
+        <v>156</v>
+      </c>
+      <c r="C178" s="9" t="s">
+        <v>110</v>
       </c>
       <c r="D178" s="4" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="E178" s="4"/>
     </row>
     <row r="179" spans="1:5">
       <c r="A179" s="4" t="s">
-        <v>35</v>
+        <v>197</v>
       </c>
       <c r="B179" s="4" t="s">
-        <v>36</v>
+        <v>198</v>
       </c>
       <c r="C179" s="4" t="s">
-        <v>187</v>
+        <v>59</v>
       </c>
       <c r="D179" s="4" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="E179" s="4"/>
     </row>
     <row r="180" spans="1:5">
       <c r="A180" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B180" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C180" s="4" t="s">
-        <v>40</v>
+        <v>189</v>
       </c>
       <c r="D180" s="4" t="s">
         <v>9</v>
@@ -4292,86 +4298,86 @@
     </row>
     <row r="181" spans="1:5">
       <c r="A181" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B181" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C181" s="4" t="s">
         <v>40</v>
       </c>
       <c r="D181" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E181" s="4"/>
+    </row>
+    <row r="182" spans="1:5">
+      <c r="A182" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B182" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C182" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D182" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E181" s="4"/>
-    </row>
-    <row r="183" spans="1:5">
-      <c r="A183" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="B183" s="6"/>
-      <c r="C183" s="6"/>
-      <c r="D183" s="6"/>
-      <c r="E183" s="6"/>
-    </row>
-    <row r="184" ht="21" spans="1:5">
-      <c r="A184" s="7" t="s">
+      <c r="E182" s="4"/>
+    </row>
+    <row r="184" spans="1:5">
+      <c r="A184" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="B184" s="6"/>
+      <c r="C184" s="6"/>
+      <c r="D184" s="6"/>
+      <c r="E184" s="6"/>
+    </row>
+    <row r="185" ht="21" spans="1:5">
+      <c r="A185" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B184" s="7" t="s">
+      <c r="B185" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C184" s="7" t="s">
+      <c r="C185" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D184" s="7" t="s">
+      <c r="D185" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E184" s="7" t="s">
+      <c r="E185" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="185" ht="18" spans="1:5">
-      <c r="A185" s="5" t="s">
+    <row r="186" ht="18" spans="1:5">
+      <c r="A186" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B185" s="4" t="s">
+      <c r="B186" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C185" s="10" t="s">
+      <c r="C186" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="D185" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E185" s="5" t="s">
+      <c r="D186" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E186" s="5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="186" ht="18" spans="1:5">
-      <c r="A186" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="B186" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="C186" s="11" t="s">
-        <v>200</v>
-      </c>
-      <c r="D186" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E186" s="4"/>
     </row>
     <row r="187" ht="18" spans="1:5">
       <c r="A187" s="4" t="s">
-        <v>44</v>
+        <v>200</v>
       </c>
       <c r="B187" s="4" t="s">
-        <v>12</v>
+        <v>201</v>
       </c>
       <c r="C187" s="11" t="s">
-        <v>8</v>
+        <v>202</v>
       </c>
       <c r="D187" s="5" t="s">
         <v>9</v>
@@ -4380,10 +4386,10 @@
     </row>
     <row r="188" ht="18" spans="1:5">
       <c r="A188" s="4" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="B188" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C188" s="11" t="s">
         <v>8</v>
@@ -4395,13 +4401,13 @@
     </row>
     <row r="189" ht="18" spans="1:5">
       <c r="A189" s="4" t="s">
-        <v>201</v>
+        <v>13</v>
       </c>
       <c r="B189" s="4" t="s">
-        <v>202</v>
+        <v>14</v>
       </c>
       <c r="C189" s="11" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="D189" s="5" t="s">
         <v>9</v>
@@ -4416,14 +4422,14 @@
         <v>204</v>
       </c>
       <c r="C190" s="11" t="s">
-        <v>200</v>
+        <v>30</v>
       </c>
       <c r="D190" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E190" s="4"/>
     </row>
-    <row r="191" spans="1:5">
+    <row r="191" ht="18" spans="1:5">
       <c r="A191" s="4" t="s">
         <v>205</v>
       </c>
@@ -4431,10 +4437,10 @@
         <v>206</v>
       </c>
       <c r="C191" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="D191" s="4" t="s">
-        <v>22</v>
+        <v>202</v>
+      </c>
+      <c r="D191" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="E191" s="4"/>
     </row>
@@ -4498,7 +4504,7 @@
       </c>
       <c r="E195" s="4"/>
     </row>
-    <row r="196" ht="18" spans="1:5">
+    <row r="196" spans="1:5">
       <c r="A196" s="4" t="s">
         <v>215</v>
       </c>
@@ -4506,32 +4512,34 @@
         <v>216</v>
       </c>
       <c r="C196" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D196" s="5" t="s">
-        <v>9</v>
+        <v>59</v>
+      </c>
+      <c r="D196" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="E196" s="4"/>
     </row>
-    <row r="197" spans="1:5">
+    <row r="197" ht="18" spans="1:5">
       <c r="A197" s="4" t="s">
         <v>217</v>
       </c>
       <c r="B197" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="C197" s="4"/>
-      <c r="D197" s="4" t="s">
-        <v>22</v>
+        <v>218</v>
+      </c>
+      <c r="C197" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D197" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="E197" s="4"/>
     </row>
     <row r="198" spans="1:5">
       <c r="A198" s="4" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B198" s="4" t="s">
-        <v>219</v>
+        <v>156</v>
       </c>
       <c r="C198" s="4"/>
       <c r="D198" s="4" t="s">
@@ -4554,28 +4562,26 @@
     </row>
     <row r="200" spans="1:5">
       <c r="A200" s="4" t="s">
-        <v>35</v>
+        <v>222</v>
       </c>
       <c r="B200" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C200" s="4" t="s">
-        <v>187</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="C200" s="4"/>
       <c r="D200" s="4" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="E200" s="4"/>
     </row>
     <row r="201" spans="1:5">
       <c r="A201" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B201" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C201" s="4" t="s">
-        <v>40</v>
+        <v>189</v>
       </c>
       <c r="D201" s="4" t="s">
         <v>9</v>
@@ -4584,18 +4590,33 @@
     </row>
     <row r="202" spans="1:5">
       <c r="A202" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B202" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C202" s="4" t="s">
         <v>40</v>
       </c>
       <c r="D202" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E202" s="4"/>
+    </row>
+    <row r="203" spans="1:5">
+      <c r="A203" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B203" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C203" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D203" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E202" s="4"/>
+      <c r="E203" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -4604,15 +4625,15 @@
     <mergeCell ref="A30:E30"/>
     <mergeCell ref="A42:E42"/>
     <mergeCell ref="A61:E61"/>
-    <mergeCell ref="A72:E72"/>
-    <mergeCell ref="A88:E88"/>
-    <mergeCell ref="A103:E103"/>
-    <mergeCell ref="A117:E117"/>
-    <mergeCell ref="A133:E133"/>
-    <mergeCell ref="A148:E148"/>
-    <mergeCell ref="A159:E159"/>
-    <mergeCell ref="A170:E170"/>
-    <mergeCell ref="A183:E183"/>
+    <mergeCell ref="A73:E73"/>
+    <mergeCell ref="A89:E89"/>
+    <mergeCell ref="A104:E104"/>
+    <mergeCell ref="A118:E118"/>
+    <mergeCell ref="A134:E134"/>
+    <mergeCell ref="A149:E149"/>
+    <mergeCell ref="A160:E160"/>
+    <mergeCell ref="A171:E171"/>
+    <mergeCell ref="A184:E184"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/document/叨叨帮表设计.xlsx
+++ b/document/叨叨帮表设计.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226">
   <si>
     <t>用户信息表 user_info</t>
   </si>
@@ -329,6 +329,12 @@
   </si>
   <si>
     <t>task_img</t>
+  </si>
+  <si>
+    <t>expirt_time</t>
+  </si>
+  <si>
+    <t>任务过期时间 单位（分钟），最大值600分钟</t>
   </si>
   <si>
     <t>是否启用: yes/no</t>
@@ -1780,10 +1786,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:E203"/>
+  <dimension ref="A1:E204"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="B67" sqref="B67"/>
+    <sheetView tabSelected="1" zoomScale="105" zoomScaleNormal="105" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="C68" sqref="C68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelCol="4"/>
@@ -2717,156 +2723,156 @@
     </row>
     <row r="68" ht="18" spans="1:5">
       <c r="A68" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D68" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E68" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="69" ht="18" spans="1:5">
+      <c r="A69" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B68" s="5" t="s">
+      <c r="B69" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C68" s="5" t="s">
+      <c r="C69" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D68" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E68" s="4" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
-      <c r="A69" t="s">
+      <c r="D69" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E69" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" t="s">
         <v>35</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B70" t="s">
         <v>36</v>
       </c>
-      <c r="C69" s="4" t="s">
+      <c r="C70" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D69" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E69" s="4"/>
-    </row>
-    <row r="70" spans="1:5">
-      <c r="A70" s="4" t="s">
+      <c r="D70" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E70" s="4"/>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B70" s="4" t="s">
+      <c r="B71" s="4" t="s">
         <v>39</v>
-      </c>
-      <c r="C70" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D70" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E70" s="4"/>
-    </row>
-    <row r="71" ht="18" spans="1:5">
-      <c r="A71" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B71" s="4" t="s">
-        <v>42</v>
       </c>
       <c r="C71" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D71" s="5" t="s">
+      <c r="D71" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E71" s="4"/>
+    </row>
+    <row r="72" ht="18" spans="1:5">
+      <c r="A72" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D72" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E71" s="4"/>
-    </row>
-    <row r="73" spans="1:5">
-      <c r="A73" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="B73" s="6"/>
-      <c r="C73" s="6"/>
-      <c r="D73" s="6"/>
-      <c r="E73" s="6"/>
-    </row>
-    <row r="74" ht="21" spans="1:5">
-      <c r="A74" s="7" t="s">
+      <c r="E72" s="4"/>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="B74" s="6"/>
+      <c r="C74" s="6"/>
+      <c r="D74" s="6"/>
+      <c r="E74" s="6"/>
+    </row>
+    <row r="75" ht="21" spans="1:5">
+      <c r="A75" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B74" s="7" t="s">
+      <c r="B75" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C74" s="7" t="s">
+      <c r="C75" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D74" s="7" t="s">
+      <c r="D75" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E74" s="7" t="s">
+      <c r="E75" s="7" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="75" ht="18" spans="1:5">
-      <c r="A75" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B75" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C75" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="D75" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E75" s="5" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="76" ht="18" spans="1:5">
       <c r="A76" s="5" t="s">
-        <v>108</v>
+        <v>6</v>
       </c>
       <c r="B76" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C76" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="C76" s="9" t="s">
-        <v>110</v>
-      </c>
       <c r="D76" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E76" s="4"/>
+      <c r="E76" s="5" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="77" ht="18" spans="1:5">
       <c r="A77" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="C77" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="D77" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E77" s="4"/>
+    </row>
+    <row r="78" ht="18" spans="1:5">
+      <c r="A78" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B77" s="5" t="s">
+      <c r="B78" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C77" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="D77" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E77" s="4" t="s">
+      <c r="C78" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="D78" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E78" s="4" t="s">
         <v>45</v>
-      </c>
-    </row>
-    <row r="78" ht="18" spans="1:5">
-      <c r="A78" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="B78" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C78" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="D78" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E78" s="4" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="79" ht="18" spans="1:5">
@@ -2874,15 +2880,17 @@
         <v>113</v>
       </c>
       <c r="B79" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C79" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="D79" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E79" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="C79" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="D79" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E79" s="4"/>
     </row>
     <row r="80" ht="18" spans="1:5">
       <c r="A80" s="4" t="s">
@@ -2892,52 +2900,52 @@
         <v>116</v>
       </c>
       <c r="C80" s="9" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D80" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E80" s="4"/>
     </row>
-    <row r="81" spans="1:5">
+    <row r="81" ht="18" spans="1:5">
       <c r="A81" s="4" t="s">
         <v>117</v>
       </c>
       <c r="B81" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="C81" s="4" t="s">
+      <c r="C81" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="D81" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E81" s="4"/>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="D81" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E81" s="4"/>
-    </row>
-    <row r="82" ht="18" spans="1:5">
-      <c r="A82" s="4" t="s">
+      <c r="B82" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="B82" s="4" t="s">
+      <c r="C82" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="C82" s="8" t="s">
-        <v>107</v>
-      </c>
       <c r="D82" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E82" s="4"/>
     </row>
-    <row r="83" spans="1:5">
+    <row r="83" ht="18" spans="1:5">
       <c r="A83" s="4" t="s">
         <v>122</v>
       </c>
       <c r="B83" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="C83" s="4" t="s">
-        <v>124</v>
+      <c r="C83" s="8" t="s">
+        <v>109</v>
       </c>
       <c r="D83" s="4" t="s">
         <v>9</v>
@@ -2946,13 +2954,13 @@
     </row>
     <row r="84" spans="1:5">
       <c r="A84" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="B84" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="B84" s="4" t="s">
-        <v>96</v>
-      </c>
       <c r="C84" s="4" t="s">
-        <v>40</v>
+        <v>126</v>
       </c>
       <c r="D84" s="4" t="s">
         <v>9</v>
@@ -2961,13 +2969,13 @@
     </row>
     <row r="85" spans="1:5">
       <c r="A85" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B85" t="s">
-        <v>36</v>
+        <v>127</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>96</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D85" s="4" t="s">
         <v>9</v>
@@ -2976,100 +2984,98 @@
     </row>
     <row r="86" spans="1:5">
       <c r="A86" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B86" t="s">
+        <v>36</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D86" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E86" s="4"/>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B86" s="4" t="s">
+      <c r="B87" s="4" t="s">
         <v>39</v>
-      </c>
-      <c r="C86" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D86" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E86" s="4"/>
-    </row>
-    <row r="87" ht="18" spans="1:5">
-      <c r="A87" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B87" s="4" t="s">
-        <v>42</v>
       </c>
       <c r="C87" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D87" s="5" t="s">
+      <c r="D87" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E87" s="4"/>
+    </row>
+    <row r="88" ht="18" spans="1:5">
+      <c r="A88" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C88" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D88" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E87" s="4"/>
-    </row>
-    <row r="89" spans="1:5">
-      <c r="A89" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="B89" s="6"/>
-      <c r="C89" s="6"/>
-      <c r="D89" s="6"/>
-      <c r="E89" s="6"/>
-    </row>
-    <row r="90" ht="21" spans="1:5">
-      <c r="A90" s="7" t="s">
+      <c r="E88" s="4"/>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="B90" s="6"/>
+      <c r="C90" s="6"/>
+      <c r="D90" s="6"/>
+      <c r="E90" s="6"/>
+    </row>
+    <row r="91" ht="21" spans="1:5">
+      <c r="A91" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B90" s="7" t="s">
+      <c r="B91" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C90" s="7" t="s">
+      <c r="C91" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D90" s="7" t="s">
+      <c r="D91" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E90" s="7" t="s">
+      <c r="E91" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="91" ht="18" spans="1:5">
-      <c r="A91" s="5" t="s">
+    <row r="92" ht="18" spans="1:5">
+      <c r="A92" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B91" s="5" t="s">
+      <c r="B92" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C91" s="5" t="s">
+      <c r="C92" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="D91" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E91" s="5" t="s">
+      <c r="D92" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E92" s="5" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
-      <c r="A92" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="B92" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="C92" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="D92" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E92" s="4" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="93" spans="1:5">
       <c r="A93" s="4" t="s">
-        <v>44</v>
+        <v>129</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>12</v>
+        <v>111</v>
       </c>
       <c r="C93" s="4" t="s">
         <v>83</v>
@@ -3078,40 +3084,42 @@
         <v>9</v>
       </c>
       <c r="E93" s="4" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="94" spans="1:5">
       <c r="A94" s="4" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>15</v>
+        <v>83</v>
       </c>
       <c r="D94" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E94" s="4" t="s">
-        <v>45</v>
+        <v>130</v>
       </c>
     </row>
     <row r="95" spans="1:5">
       <c r="A95" s="4" t="s">
-        <v>129</v>
+        <v>13</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>130</v>
+        <v>14</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="D95" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E95" s="4"/>
+      <c r="E95" s="4" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="96" spans="1:5">
       <c r="A96" s="4" t="s">
@@ -3121,29 +3129,29 @@
         <v>132</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D96" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E96" s="4" t="s">
-        <v>133</v>
-      </c>
+      <c r="E96" s="4"/>
     </row>
     <row r="97" spans="1:5">
       <c r="A97" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="B97" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="B97" s="4" t="s">
+      <c r="C97" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D97" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E97" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="C97" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="D97" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E97" s="4"/>
     </row>
     <row r="98" spans="1:5">
       <c r="A98" s="4" t="s">
@@ -3153,124 +3161,122 @@
         <v>137</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>33</v>
+        <v>83</v>
       </c>
       <c r="D98" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E98" s="4" t="s">
-        <v>138</v>
-      </c>
+      <c r="E98" s="4"/>
     </row>
     <row r="99" spans="1:5">
       <c r="A99" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="B99" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="B99" s="4" t="s">
+      <c r="C99" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D99" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E99" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="C99" s="4" t="s">
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="B100" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C100" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="D99" s="4" t="s">
+      <c r="D100" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E99" s="4"/>
-    </row>
-    <row r="100" spans="1:5">
-      <c r="A100" t="s">
+      <c r="E100" s="4"/>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101" t="s">
         <v>35</v>
       </c>
-      <c r="B100" t="s">
+      <c r="B101" t="s">
         <v>36</v>
       </c>
-      <c r="C100" s="4" t="s">
+      <c r="C101" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D100" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E100" s="4"/>
-    </row>
-    <row r="101" spans="1:5">
-      <c r="A101" s="4" t="s">
+      <c r="D101" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E101" s="4"/>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="A102" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B101" s="4" t="s">
+      <c r="B102" s="4" t="s">
         <v>39</v>
-      </c>
-      <c r="C101" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D101" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E101" s="4"/>
-    </row>
-    <row r="102" ht="18" spans="1:5">
-      <c r="A102" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B102" s="4" t="s">
-        <v>42</v>
       </c>
       <c r="C102" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D102" s="5" t="s">
+      <c r="D102" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E102" s="4"/>
+    </row>
+    <row r="103" ht="18" spans="1:5">
+      <c r="A103" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B103" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C103" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D103" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E102" s="4"/>
-    </row>
-    <row r="104" spans="1:5">
-      <c r="A104" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="B104" s="6"/>
-      <c r="C104" s="6"/>
-      <c r="D104" s="6"/>
-      <c r="E104" s="6"/>
-    </row>
-    <row r="105" ht="21" spans="1:5">
-      <c r="A105" s="7" t="s">
+      <c r="E103" s="4"/>
+    </row>
+    <row r="105" spans="1:5">
+      <c r="A105" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="B105" s="6"/>
+      <c r="C105" s="6"/>
+      <c r="D105" s="6"/>
+      <c r="E105" s="6"/>
+    </row>
+    <row r="106" ht="21" spans="1:5">
+      <c r="A106" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B105" s="7" t="s">
+      <c r="B106" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C105" s="7" t="s">
+      <c r="C106" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D105" s="7" t="s">
+      <c r="D106" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E105" s="7" t="s">
+      <c r="E106" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="106" ht="18" spans="1:5">
-      <c r="A106" s="5" t="s">
+    <row r="107" ht="18" spans="1:5">
+      <c r="A107" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B106" s="5" t="s">
+      <c r="B107" s="5" t="s">
         <v>7</v>
-      </c>
-      <c r="C106" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="D106" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E106" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="107" ht="18" spans="1:5">
-      <c r="A107" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="B107" s="4" t="s">
-        <v>143</v>
       </c>
       <c r="C107" s="5" t="s">
         <v>83</v>
@@ -3278,14 +3284,16 @@
       <c r="D107" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E107" s="4"/>
+      <c r="E107" s="5" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="108" ht="18" spans="1:5">
       <c r="A108" s="4" t="s">
         <v>144</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>71</v>
+        <v>145</v>
       </c>
       <c r="C108" s="5" t="s">
         <v>83</v>
@@ -3297,10 +3305,10 @@
     </row>
     <row r="109" ht="18" spans="1:5">
       <c r="A109" s="4" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>146</v>
+        <v>71</v>
       </c>
       <c r="C109" s="5" t="s">
         <v>83</v>
@@ -3312,10 +3320,10 @@
     </row>
     <row r="110" ht="18" spans="1:5">
       <c r="A110" s="4" t="s">
-        <v>44</v>
+        <v>147</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>12</v>
+        <v>148</v>
       </c>
       <c r="C110" s="5" t="s">
         <v>83</v>
@@ -3327,13 +3335,13 @@
     </row>
     <row r="111" ht="18" spans="1:5">
       <c r="A111" s="4" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C111" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
+      </c>
+      <c r="C111" s="5" t="s">
+        <v>83</v>
       </c>
       <c r="D111" s="5" t="s">
         <v>9</v>
@@ -3342,145 +3350,145 @@
     </row>
     <row r="112" ht="18" spans="1:5">
       <c r="A112" s="4" t="s">
-        <v>147</v>
+        <v>13</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>148</v>
+        <v>14</v>
       </c>
       <c r="C112" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D112" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E112" s="4"/>
+    </row>
+    <row r="113" ht="18" spans="1:5">
+      <c r="A113" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="B113" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C113" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D112" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E112" s="4" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5">
-      <c r="A113" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="B113" s="4" t="s">
+      <c r="D113" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E113" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="C113" s="4" t="s">
+    </row>
+    <row r="114" spans="1:5">
+      <c r="A114" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="B114" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C114" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="D113" s="4" t="s">
+      <c r="D114" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E113" s="4"/>
-    </row>
-    <row r="114" spans="1:5">
-      <c r="A114" t="s">
+      <c r="E114" s="4"/>
+    </row>
+    <row r="115" spans="1:5">
+      <c r="A115" t="s">
         <v>35</v>
       </c>
-      <c r="B114" t="s">
+      <c r="B115" t="s">
         <v>36</v>
       </c>
-      <c r="C114" s="4" t="s">
+      <c r="C115" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D114" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E114" s="4"/>
-    </row>
-    <row r="115" spans="1:5">
-      <c r="A115" s="4" t="s">
+      <c r="D115" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E115" s="4"/>
+    </row>
+    <row r="116" spans="1:5">
+      <c r="A116" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B115" s="4" t="s">
+      <c r="B116" s="4" t="s">
         <v>39</v>
-      </c>
-      <c r="C115" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D115" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E115" s="4"/>
-    </row>
-    <row r="116" ht="18" spans="1:5">
-      <c r="A116" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B116" s="4" t="s">
-        <v>42</v>
       </c>
       <c r="C116" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D116" s="5" t="s">
+      <c r="D116" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E116" s="4"/>
+    </row>
+    <row r="117" ht="18" spans="1:5">
+      <c r="A117" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B117" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C117" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D117" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E116" s="4"/>
-    </row>
-    <row r="118" spans="1:5">
-      <c r="A118" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="B118" s="6"/>
-      <c r="C118" s="6"/>
-      <c r="D118" s="6"/>
-      <c r="E118" s="6"/>
-    </row>
-    <row r="119" ht="21" spans="1:5">
-      <c r="A119" s="7" t="s">
+      <c r="E117" s="4"/>
+    </row>
+    <row r="119" spans="1:5">
+      <c r="A119" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="B119" s="6"/>
+      <c r="C119" s="6"/>
+      <c r="D119" s="6"/>
+      <c r="E119" s="6"/>
+    </row>
+    <row r="120" ht="21" spans="1:5">
+      <c r="A120" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B119" s="7" t="s">
+      <c r="B120" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C119" s="7" t="s">
+      <c r="C120" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D119" s="7" t="s">
+      <c r="D120" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E119" s="7" t="s">
+      <c r="E120" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="120" ht="18" spans="1:5">
-      <c r="A120" s="5" t="s">
+    <row r="121" ht="18" spans="1:5">
+      <c r="A121" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B120" s="5" t="s">
+      <c r="B121" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C120" s="5" t="s">
+      <c r="C121" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="D120" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E120" s="5" t="s">
+      <c r="D121" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E121" s="5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="121" ht="18" spans="1:5">
-      <c r="A121" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="B121" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C121" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="D121" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E121" s="4"/>
     </row>
     <row r="122" ht="18" spans="1:5">
       <c r="A122" s="4" t="s">
-        <v>44</v>
+        <v>113</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="C122" s="4" t="s">
         <v>83</v>
@@ -3492,10 +3500,10 @@
     </row>
     <row r="123" ht="18" spans="1:5">
       <c r="A123" s="4" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C123" s="4" t="s">
         <v>83</v>
@@ -3507,42 +3515,40 @@
     </row>
     <row r="124" ht="18" spans="1:5">
       <c r="A124" s="4" t="s">
-        <v>150</v>
+        <v>13</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>151</v>
+        <v>14</v>
       </c>
       <c r="C124" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D124" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E124" s="4"/>
+    </row>
+    <row r="125" ht="18" spans="1:5">
+      <c r="A125" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="B125" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C125" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="D124" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E124" s="4"/>
-    </row>
-    <row r="125" ht="36" spans="1:5">
-      <c r="A125" s="4" t="s">
+      <c r="D125" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E125" s="4"/>
+    </row>
+    <row r="126" ht="36" spans="1:5">
+      <c r="A126" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="B125" s="4" t="s">
+      <c r="B126" s="4" t="s">
         <v>91</v>
-      </c>
-      <c r="C125" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D125" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E125" s="5" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="126" ht="18" spans="1:5">
-      <c r="A126" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="B126" s="4" t="s">
-        <v>154</v>
       </c>
       <c r="C126" s="4" t="s">
         <v>33</v>
@@ -3550,7 +3556,9 @@
       <c r="D126" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E126" s="4"/>
+      <c r="E126" s="5" t="s">
+        <v>154</v>
+      </c>
     </row>
     <row r="127" ht="18" spans="1:5">
       <c r="A127" s="4" t="s">
@@ -3560,7 +3568,7 @@
         <v>156</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>83</v>
+        <v>33</v>
       </c>
       <c r="D127" s="5" t="s">
         <v>9</v>
@@ -3575,39 +3583,39 @@
         <v>158</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>124</v>
+        <v>83</v>
       </c>
       <c r="D128" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E128" s="5" t="s">
+      <c r="E128" s="4"/>
+    </row>
+    <row r="129" ht="18" spans="1:5">
+      <c r="A129" s="4" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="129" spans="1:5">
-      <c r="A129" s="4" t="s">
-        <v>95</v>
-      </c>
       <c r="B129" s="4" t="s">
-        <v>96</v>
+        <v>160</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D129" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E129" s="4"/>
+        <v>126</v>
+      </c>
+      <c r="D129" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E129" s="5" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="130" spans="1:5">
       <c r="A130" s="4" t="s">
-        <v>35</v>
+        <v>95</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>36</v>
+        <v>96</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D130" s="4" t="s">
         <v>9</v>
@@ -3616,119 +3624,119 @@
     </row>
     <row r="131" spans="1:5">
       <c r="A131" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B131" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C131" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D131" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E131" s="4"/>
+    </row>
+    <row r="132" spans="1:5">
+      <c r="A132" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B131" s="4" t="s">
+      <c r="B132" s="4" t="s">
         <v>39</v>
-      </c>
-      <c r="C131" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D131" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E131" s="4"/>
-    </row>
-    <row r="132" ht="18" spans="1:5">
-      <c r="A132" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B132" s="4" t="s">
-        <v>42</v>
       </c>
       <c r="C132" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D132" s="5" t="s">
+      <c r="D132" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E132" s="4"/>
+    </row>
+    <row r="133" ht="18" spans="1:5">
+      <c r="A133" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B133" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C133" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D133" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E132" s="4"/>
-    </row>
-    <row r="134" spans="1:5">
-      <c r="A134" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="B134" s="6"/>
-      <c r="C134" s="6"/>
-      <c r="D134" s="6"/>
-      <c r="E134" s="6"/>
-    </row>
-    <row r="135" ht="21" spans="1:5">
-      <c r="A135" s="7" t="s">
+      <c r="E133" s="4"/>
+    </row>
+    <row r="135" spans="1:5">
+      <c r="A135" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="B135" s="6"/>
+      <c r="C135" s="6"/>
+      <c r="D135" s="6"/>
+      <c r="E135" s="6"/>
+    </row>
+    <row r="136" ht="21" spans="1:5">
+      <c r="A136" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B135" s="7" t="s">
+      <c r="B136" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C135" s="7" t="s">
+      <c r="C136" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D135" s="7" t="s">
+      <c r="D136" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E135" s="7" t="s">
+      <c r="E136" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="136" ht="19" customHeight="1" spans="1:5">
-      <c r="A136" s="5" t="s">
+    <row r="137" ht="19" customHeight="1" spans="1:5">
+      <c r="A137" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B136" s="4" t="s">
+      <c r="B137" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C136" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="D136" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E136" s="5" t="s">
+      <c r="C137" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="D137" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E137" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="137" ht="18" spans="1:5">
-      <c r="A137" s="4" t="s">
+    <row r="138" ht="18" spans="1:5">
+      <c r="A138" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B137" s="4" t="s">
+      <c r="B138" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C137" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="D137" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E137" s="4"/>
-    </row>
-    <row r="138" ht="18" spans="1:5">
-      <c r="A138" s="9" t="s">
+      <c r="C138" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="D138" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E138" s="4"/>
+    </row>
+    <row r="139" ht="18" spans="1:5">
+      <c r="A139" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B138" s="9" t="s">
+      <c r="B139" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C138" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="D138" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E138" s="4"/>
-    </row>
-    <row r="139" ht="18" spans="1:5">
-      <c r="A139" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="B139" s="4" t="s">
+      <c r="C139" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="C139" s="9" t="s">
-        <v>110</v>
-      </c>
       <c r="D139" s="5" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="E139" s="4"/>
     </row>
@@ -3740,7 +3748,7 @@
         <v>165</v>
       </c>
       <c r="C140" s="9" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D140" s="5" t="s">
         <v>22</v>
@@ -3754,8 +3762,8 @@
       <c r="B141" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="C141" s="4" t="s">
-        <v>18</v>
+      <c r="C141" s="9" t="s">
+        <v>112</v>
       </c>
       <c r="D141" s="5" t="s">
         <v>22</v>
@@ -3807,108 +3815,108 @@
       </c>
       <c r="E144" s="4"/>
     </row>
-    <row r="145" spans="1:5">
+    <row r="145" ht="18" spans="1:5">
       <c r="A145" s="4" t="s">
-        <v>35</v>
+        <v>174</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>36</v>
+        <v>175</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D145" s="4" t="s">
-        <v>9</v>
+        <v>18</v>
+      </c>
+      <c r="D145" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="E145" s="4"/>
     </row>
     <row r="146" spans="1:5">
       <c r="A146" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B146" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C146" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D146" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E146" s="4"/>
+    </row>
+    <row r="147" spans="1:5">
+      <c r="A147" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B146" s="4" t="s">
+      <c r="B147" s="4" t="s">
         <v>39</v>
-      </c>
-      <c r="C146" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D146" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E146" s="4"/>
-    </row>
-    <row r="147" ht="18" spans="1:5">
-      <c r="A147" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B147" s="4" t="s">
-        <v>42</v>
       </c>
       <c r="C147" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D147" s="5" t="s">
+      <c r="D147" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E147" s="4"/>
+    </row>
+    <row r="148" ht="18" spans="1:5">
+      <c r="A148" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B148" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C148" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D148" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E147" s="4"/>
-    </row>
-    <row r="149" spans="1:5">
-      <c r="A149" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="B149" s="6"/>
-      <c r="C149" s="6"/>
-      <c r="D149" s="6"/>
-      <c r="E149" s="6"/>
-    </row>
-    <row r="150" ht="21" spans="1:5">
-      <c r="A150" s="7" t="s">
+      <c r="E148" s="4"/>
+    </row>
+    <row r="150" spans="1:5">
+      <c r="A150" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="B150" s="6"/>
+      <c r="C150" s="6"/>
+      <c r="D150" s="6"/>
+      <c r="E150" s="6"/>
+    </row>
+    <row r="151" ht="21" spans="1:5">
+      <c r="A151" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B150" s="7" t="s">
+      <c r="B151" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C150" s="7" t="s">
+      <c r="C151" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D150" s="7" t="s">
+      <c r="D151" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E150" s="7" t="s">
+      <c r="E151" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="151" ht="18" spans="1:5">
-      <c r="A151" s="5" t="s">
+    <row r="152" ht="18" spans="1:5">
+      <c r="A152" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B151" s="4" t="s">
+      <c r="B152" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C151" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="D151" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E151" s="5" t="s">
+      <c r="C152" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="D152" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E152" s="5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="152" ht="18" spans="1:5">
-      <c r="A152" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="B152" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="C152" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="D152" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E152" s="4"/>
     </row>
     <row r="153" ht="18" spans="1:5">
       <c r="A153" s="4" t="s">
@@ -3917,8 +3925,8 @@
       <c r="B153" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="C153" s="4" t="s">
-        <v>18</v>
+      <c r="C153" s="9" t="s">
+        <v>112</v>
       </c>
       <c r="D153" s="5" t="s">
         <v>9</v>
@@ -3955,118 +3963,118 @@
       </c>
       <c r="E155" s="4"/>
     </row>
-    <row r="156" spans="1:5">
+    <row r="156" ht="18" spans="1:5">
       <c r="A156" s="4" t="s">
-        <v>35</v>
+        <v>183</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>36</v>
+        <v>184</v>
       </c>
       <c r="C156" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D156" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D156" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E156" s="4"/>
     </row>
     <row r="157" spans="1:5">
       <c r="A157" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B157" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C157" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D157" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E157" s="4"/>
+    </row>
+    <row r="158" spans="1:5">
+      <c r="A158" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B157" s="4" t="s">
+      <c r="B158" s="4" t="s">
         <v>39</v>
-      </c>
-      <c r="C157" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D157" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E157" s="4"/>
-    </row>
-    <row r="158" ht="18" spans="1:5">
-      <c r="A158" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B158" s="4" t="s">
-        <v>42</v>
       </c>
       <c r="C158" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D158" s="5" t="s">
+      <c r="D158" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E158" s="4"/>
+    </row>
+    <row r="159" ht="18" spans="1:5">
+      <c r="A159" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B159" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C159" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D159" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E158" s="4"/>
-    </row>
-    <row r="160" spans="1:5">
-      <c r="A160" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="B160" s="6"/>
-      <c r="C160" s="6"/>
-      <c r="D160" s="6"/>
-      <c r="E160" s="6"/>
-    </row>
-    <row r="161" ht="21" spans="1:5">
-      <c r="A161" s="7" t="s">
+      <c r="E159" s="4"/>
+    </row>
+    <row r="161" spans="1:5">
+      <c r="A161" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="B161" s="6"/>
+      <c r="C161" s="6"/>
+      <c r="D161" s="6"/>
+      <c r="E161" s="6"/>
+    </row>
+    <row r="162" ht="21" spans="1:5">
+      <c r="A162" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B161" s="7" t="s">
+      <c r="B162" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C161" s="7" t="s">
+      <c r="C162" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D161" s="7" t="s">
+      <c r="D162" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E161" s="7" t="s">
+      <c r="E162" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="162" ht="18" spans="1:5">
-      <c r="A162" s="5" t="s">
+    <row r="163" ht="18" spans="1:5">
+      <c r="A163" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B162" s="4" t="s">
+      <c r="B163" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C162" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="D162" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E162" s="5" t="s">
+      <c r="C163" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="D163" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E163" s="5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="163" ht="18" spans="1:5">
-      <c r="A163" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="B163" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C163" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="D163" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E163" s="4"/>
     </row>
     <row r="164" ht="18" spans="1:5">
       <c r="A164" s="4" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="B164" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="C164" s="4" t="s">
-        <v>83</v>
+        <v>71</v>
+      </c>
+      <c r="C164" s="9" t="s">
+        <v>112</v>
       </c>
       <c r="D164" s="5" t="s">
         <v>9</v>
@@ -4081,7 +4089,7 @@
         <v>187</v>
       </c>
       <c r="C165" s="4" t="s">
-        <v>40</v>
+        <v>83</v>
       </c>
       <c r="D165" s="5" t="s">
         <v>9</v>
@@ -4093,7 +4101,7 @@
         <v>188</v>
       </c>
       <c r="B166" s="4" t="s">
-        <v>96</v>
+        <v>189</v>
       </c>
       <c r="C166" s="4" t="s">
         <v>40</v>
@@ -4103,30 +4111,30 @@
       </c>
       <c r="E166" s="4"/>
     </row>
-    <row r="167" spans="1:5">
+    <row r="167" ht="18" spans="1:5">
       <c r="A167" s="4" t="s">
-        <v>35</v>
+        <v>190</v>
       </c>
       <c r="B167" s="4" t="s">
-        <v>36</v>
+        <v>96</v>
       </c>
       <c r="C167" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="D167" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D167" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E167" s="4"/>
     </row>
     <row r="168" spans="1:5">
       <c r="A168" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B168" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C168" s="4" t="s">
-        <v>40</v>
+        <v>191</v>
       </c>
       <c r="D168" s="4" t="s">
         <v>9</v>
@@ -4135,86 +4143,86 @@
     </row>
     <row r="169" spans="1:5">
       <c r="A169" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B169" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C169" s="4" t="s">
         <v>40</v>
       </c>
       <c r="D169" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E169" s="4"/>
+    </row>
+    <row r="170" spans="1:5">
+      <c r="A170" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B170" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C170" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D170" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E169" s="4"/>
-    </row>
-    <row r="171" spans="1:5">
-      <c r="A171" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="B171" s="6"/>
-      <c r="C171" s="6"/>
-      <c r="D171" s="6"/>
-      <c r="E171" s="6"/>
-    </row>
-    <row r="172" ht="21" spans="1:5">
-      <c r="A172" s="7" t="s">
+      <c r="E170" s="4"/>
+    </row>
+    <row r="172" spans="1:5">
+      <c r="A172" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="B172" s="6"/>
+      <c r="C172" s="6"/>
+      <c r="D172" s="6"/>
+      <c r="E172" s="6"/>
+    </row>
+    <row r="173" ht="21" spans="1:5">
+      <c r="A173" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B172" s="7" t="s">
+      <c r="B173" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C172" s="7" t="s">
+      <c r="C173" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D172" s="7" t="s">
+      <c r="D173" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E172" s="7" t="s">
+      <c r="E173" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="173" ht="18" spans="1:5">
-      <c r="A173" s="5" t="s">
+    <row r="174" ht="18" spans="1:5">
+      <c r="A174" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B173" s="4" t="s">
+      <c r="B174" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C173" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="D173" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E173" s="5" t="s">
+      <c r="C174" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="D174" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E174" s="5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="174" ht="18" spans="1:5">
-      <c r="A174" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="B174" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="C174" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="D174" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E174" s="4"/>
     </row>
     <row r="175" ht="18" spans="1:5">
       <c r="A175" s="4" t="s">
-        <v>111</v>
+        <v>193</v>
       </c>
       <c r="B175" s="4" t="s">
-        <v>71</v>
+        <v>194</v>
       </c>
       <c r="C175" s="9" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D175" s="5" t="s">
         <v>22</v>
@@ -4223,16 +4231,16 @@
     </row>
     <row r="176" ht="18" spans="1:5">
       <c r="A176" s="4" t="s">
-        <v>193</v>
+        <v>113</v>
       </c>
       <c r="B176" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="C176" s="4" t="s">
-        <v>18</v>
+        <v>71</v>
+      </c>
+      <c r="C176" s="9" t="s">
+        <v>112</v>
       </c>
       <c r="D176" s="5" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="E176" s="4"/>
     </row>
@@ -4241,10 +4249,10 @@
         <v>195</v>
       </c>
       <c r="B177" s="4" t="s">
-        <v>96</v>
+        <v>196</v>
       </c>
       <c r="C177" s="4" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="D177" s="5" t="s">
         <v>9</v>
@@ -4253,58 +4261,58 @@
     </row>
     <row r="178" ht="18" spans="1:5">
       <c r="A178" s="4" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B178" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="C178" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="D178" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C178" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D178" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E178" s="4"/>
     </row>
-    <row r="179" spans="1:5">
+    <row r="179" ht="18" spans="1:5">
       <c r="A179" s="4" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B179" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="C179" s="4" t="s">
-        <v>59</v>
+        <v>158</v>
+      </c>
+      <c r="C179" s="9" t="s">
+        <v>112</v>
       </c>
       <c r="D179" s="4" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="E179" s="4"/>
     </row>
     <row r="180" spans="1:5">
       <c r="A180" s="4" t="s">
-        <v>35</v>
+        <v>199</v>
       </c>
       <c r="B180" s="4" t="s">
-        <v>36</v>
+        <v>200</v>
       </c>
       <c r="C180" s="4" t="s">
-        <v>189</v>
+        <v>59</v>
       </c>
       <c r="D180" s="4" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="E180" s="4"/>
     </row>
     <row r="181" spans="1:5">
       <c r="A181" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B181" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C181" s="4" t="s">
-        <v>40</v>
+        <v>191</v>
       </c>
       <c r="D181" s="4" t="s">
         <v>9</v>
@@ -4313,86 +4321,86 @@
     </row>
     <row r="182" spans="1:5">
       <c r="A182" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B182" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C182" s="4" t="s">
         <v>40</v>
       </c>
       <c r="D182" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E182" s="4"/>
+    </row>
+    <row r="183" spans="1:5">
+      <c r="A183" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B183" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C183" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D183" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E182" s="4"/>
-    </row>
-    <row r="184" spans="1:5">
-      <c r="A184" s="6" t="s">
-        <v>199</v>
-      </c>
-      <c r="B184" s="6"/>
-      <c r="C184" s="6"/>
-      <c r="D184" s="6"/>
-      <c r="E184" s="6"/>
-    </row>
-    <row r="185" ht="21" spans="1:5">
-      <c r="A185" s="7" t="s">
+      <c r="E183" s="4"/>
+    </row>
+    <row r="185" spans="1:5">
+      <c r="A185" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="B185" s="6"/>
+      <c r="C185" s="6"/>
+      <c r="D185" s="6"/>
+      <c r="E185" s="6"/>
+    </row>
+    <row r="186" ht="21" spans="1:5">
+      <c r="A186" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B185" s="7" t="s">
+      <c r="B186" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C185" s="7" t="s">
+      <c r="C186" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D185" s="7" t="s">
+      <c r="D186" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E185" s="7" t="s">
+      <c r="E186" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="186" ht="18" spans="1:5">
-      <c r="A186" s="5" t="s">
+    <row r="187" ht="18" spans="1:5">
+      <c r="A187" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B186" s="4" t="s">
+      <c r="B187" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C186" s="10" t="s">
+      <c r="C187" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="D186" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E186" s="5" t="s">
+      <c r="D187" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E187" s="5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="187" ht="18" spans="1:5">
-      <c r="A187" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="B187" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="C187" s="11" t="s">
-        <v>202</v>
-      </c>
-      <c r="D187" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E187" s="4"/>
     </row>
     <row r="188" ht="18" spans="1:5">
       <c r="A188" s="4" t="s">
-        <v>44</v>
+        <v>202</v>
       </c>
       <c r="B188" s="4" t="s">
-        <v>12</v>
+        <v>203</v>
       </c>
       <c r="C188" s="11" t="s">
-        <v>8</v>
+        <v>204</v>
       </c>
       <c r="D188" s="5" t="s">
         <v>9</v>
@@ -4401,10 +4409,10 @@
     </row>
     <row r="189" ht="18" spans="1:5">
       <c r="A189" s="4" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="B189" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C189" s="11" t="s">
         <v>8</v>
@@ -4416,13 +4424,13 @@
     </row>
     <row r="190" ht="18" spans="1:5">
       <c r="A190" s="4" t="s">
-        <v>203</v>
+        <v>13</v>
       </c>
       <c r="B190" s="4" t="s">
-        <v>204</v>
+        <v>14</v>
       </c>
       <c r="C190" s="11" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="D190" s="5" t="s">
         <v>9</v>
@@ -4437,14 +4445,14 @@
         <v>206</v>
       </c>
       <c r="C191" s="11" t="s">
-        <v>202</v>
+        <v>30</v>
       </c>
       <c r="D191" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E191" s="4"/>
     </row>
-    <row r="192" spans="1:5">
+    <row r="192" ht="18" spans="1:5">
       <c r="A192" s="4" t="s">
         <v>207</v>
       </c>
@@ -4452,10 +4460,10 @@
         <v>208</v>
       </c>
       <c r="C192" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="D192" s="4" t="s">
-        <v>22</v>
+        <v>204</v>
+      </c>
+      <c r="D192" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="E192" s="4"/>
     </row>
@@ -4519,7 +4527,7 @@
       </c>
       <c r="E196" s="4"/>
     </row>
-    <row r="197" ht="18" spans="1:5">
+    <row r="197" spans="1:5">
       <c r="A197" s="4" t="s">
         <v>217</v>
       </c>
@@ -4527,32 +4535,34 @@
         <v>218</v>
       </c>
       <c r="C197" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D197" s="5" t="s">
-        <v>9</v>
+        <v>59</v>
+      </c>
+      <c r="D197" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="E197" s="4"/>
     </row>
-    <row r="198" spans="1:5">
+    <row r="198" ht="18" spans="1:5">
       <c r="A198" s="4" t="s">
         <v>219</v>
       </c>
       <c r="B198" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="C198" s="4"/>
-      <c r="D198" s="4" t="s">
-        <v>22</v>
+        <v>220</v>
+      </c>
+      <c r="C198" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D198" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="E198" s="4"/>
     </row>
     <row r="199" spans="1:5">
       <c r="A199" s="4" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B199" s="4" t="s">
-        <v>221</v>
+        <v>158</v>
       </c>
       <c r="C199" s="4"/>
       <c r="D199" s="4" t="s">
@@ -4575,28 +4585,26 @@
     </row>
     <row r="201" spans="1:5">
       <c r="A201" s="4" t="s">
-        <v>35</v>
+        <v>224</v>
       </c>
       <c r="B201" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C201" s="4" t="s">
-        <v>189</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="C201" s="4"/>
       <c r="D201" s="4" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="E201" s="4"/>
     </row>
     <row r="202" spans="1:5">
       <c r="A202" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B202" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C202" s="4" t="s">
-        <v>40</v>
+        <v>191</v>
       </c>
       <c r="D202" s="4" t="s">
         <v>9</v>
@@ -4605,18 +4613,33 @@
     </row>
     <row r="203" spans="1:5">
       <c r="A203" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B203" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C203" s="4" t="s">
         <v>40</v>
       </c>
       <c r="D203" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E203" s="4"/>
+    </row>
+    <row r="204" spans="1:5">
+      <c r="A204" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B204" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C204" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D204" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E203" s="4"/>
+      <c r="E204" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -4625,15 +4648,15 @@
     <mergeCell ref="A30:E30"/>
     <mergeCell ref="A42:E42"/>
     <mergeCell ref="A61:E61"/>
-    <mergeCell ref="A73:E73"/>
-    <mergeCell ref="A89:E89"/>
-    <mergeCell ref="A104:E104"/>
-    <mergeCell ref="A118:E118"/>
-    <mergeCell ref="A134:E134"/>
-    <mergeCell ref="A149:E149"/>
-    <mergeCell ref="A160:E160"/>
-    <mergeCell ref="A171:E171"/>
-    <mergeCell ref="A184:E184"/>
+    <mergeCell ref="A74:E74"/>
+    <mergeCell ref="A90:E90"/>
+    <mergeCell ref="A105:E105"/>
+    <mergeCell ref="A119:E119"/>
+    <mergeCell ref="A135:E135"/>
+    <mergeCell ref="A150:E150"/>
+    <mergeCell ref="A161:E161"/>
+    <mergeCell ref="A172:E172"/>
+    <mergeCell ref="A185:E185"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/document/叨叨帮表设计.xlsx
+++ b/document/叨叨帮表设计.xlsx
@@ -1788,7 +1788,7 @@
   <sheetPr/>
   <dimension ref="A1:E204"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="105" zoomScaleNormal="105" topLeftCell="A51" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="105" zoomScaleNormal="105" topLeftCell="A56" workbookViewId="0">
       <selection activeCell="C68" sqref="C68"/>
     </sheetView>
   </sheetViews>

--- a/document/叨叨帮表设计.xlsx
+++ b/document/叨叨帮表设计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="13700" windowHeight="13920"/>
+    <workbookView windowWidth="28060" windowHeight="13920"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1786,10 +1786,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:E204"/>
+  <dimension ref="A1:E205"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="105" zoomScaleNormal="105" topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="C68" sqref="C68"/>
+    <sheetView tabSelected="1" zoomScale="105" zoomScaleNormal="105" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelCol="4"/>
@@ -2419,7 +2419,7 @@
         <v>71</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D45" s="4" t="s">
         <v>9</v>
@@ -2428,10 +2428,10 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="4" t="s">
-        <v>72</v>
+        <v>44</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>73</v>
+        <v>12</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>8</v>
@@ -2440,98 +2440,98 @@
         <v>9</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>74</v>
+        <v>45</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="B47" s="4" t="s">
+      <c r="B48" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="C47" s="4" t="s">
+      <c r="C48" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D47" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E47" s="4" t="s">
+      <c r="D48" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E48" s="4" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="48" ht="18" spans="1:5">
-      <c r="A48" s="4" t="s">
+    <row r="49" ht="18" spans="1:5">
+      <c r="A49" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="B48" s="4" t="s">
+      <c r="B49" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="C48" s="5" t="s">
+      <c r="C49" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="D48" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E48" s="4" t="s">
+      <c r="D49" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E49" s="4" t="s">
         <v>80</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
-      <c r="A49" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="D49" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E49" s="4" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="4" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>83</v>
       </c>
       <c r="D50" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D51" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E50" s="4"/>
-    </row>
-    <row r="51" ht="18" spans="1:5">
-      <c r="A51" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="C51" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D51" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E51" s="4" t="s">
-        <v>89</v>
-      </c>
+      <c r="E51" s="4"/>
     </row>
     <row r="52" ht="18" spans="1:5">
       <c r="A52" s="4" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C52" s="5" t="s">
         <v>33</v>
@@ -2539,31 +2539,33 @@
       <c r="D52" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E52" s="12" t="s">
+      <c r="E52" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="53" ht="18" spans="1:5">
+      <c r="A53" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E53" s="12" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
-      <c r="A53" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="B53" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D53" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E53" s="4"/>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C54" s="4" t="s">
         <v>40</v>
@@ -2574,117 +2576,117 @@
       <c r="E54" s="4"/>
     </row>
     <row r="55" spans="1:5">
-      <c r="A55" t="s">
+      <c r="A55" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E55" s="4"/>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" t="s">
         <v>35</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B56" t="s">
         <v>36</v>
       </c>
-      <c r="C55" s="4" t="s">
+      <c r="C56" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D55" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E55" s="4"/>
-    </row>
-    <row r="56" spans="1:5">
-      <c r="A56" s="4" t="s">
+      <c r="D56" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E56" s="4"/>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B56" s="4" t="s">
+      <c r="B57" s="4" t="s">
         <v>39</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D56" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E56" s="4"/>
-    </row>
-    <row r="57" ht="18" spans="1:5">
-      <c r="A57" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B57" s="4" t="s">
-        <v>42</v>
       </c>
       <c r="C57" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D57" s="5" t="s">
+      <c r="D57" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E57" s="4"/>
+    </row>
+    <row r="58" ht="18" spans="1:5">
+      <c r="A58" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D58" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E57" s="4"/>
-    </row>
-    <row r="61" spans="1:5">
-      <c r="A61" s="6" t="s">
+      <c r="E58" s="4"/>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="B61" s="6"/>
-      <c r="C61" s="6"/>
-      <c r="D61" s="6"/>
-      <c r="E61" s="6"/>
-    </row>
-    <row r="62" ht="21" spans="1:5">
-      <c r="A62" s="7" t="s">
+      <c r="B62" s="6"/>
+      <c r="C62" s="6"/>
+      <c r="D62" s="6"/>
+      <c r="E62" s="6"/>
+    </row>
+    <row r="63" ht="21" spans="1:5">
+      <c r="A63" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B62" s="7" t="s">
+      <c r="B63" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C62" s="7" t="s">
+      <c r="C63" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D62" s="7" t="s">
+      <c r="D63" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E62" s="7" t="s">
+      <c r="E63" s="7" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="63" ht="18" spans="1:5">
-      <c r="A63" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B63" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C63" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="D63" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E63" s="5" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="64" ht="18" spans="1:5">
       <c r="A64" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E64" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65" ht="18" spans="1:5">
+      <c r="A65" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B64" s="5" t="s">
+      <c r="B65" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C64" s="5" t="s">
+      <c r="C65" s="5" t="s">
         <v>30</v>
-      </c>
-      <c r="D64" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E64" s="4"/>
-    </row>
-    <row r="65" ht="18" spans="1:5">
-      <c r="A65" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="B65" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="C65" s="5" t="s">
-        <v>100</v>
       </c>
       <c r="D65" s="5" t="s">
         <v>9</v>
@@ -2693,177 +2695,177 @@
     </row>
     <row r="66" ht="18" spans="1:5">
       <c r="A66" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E66" s="4"/>
+    </row>
+    <row r="67" ht="18" spans="1:5">
+      <c r="A67" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="B66" s="4" t="s">
+      <c r="B67" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="C66" s="5" t="s">
+      <c r="C67" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D66" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E66" s="4"/>
-    </row>
-    <row r="67" ht="18" spans="1:5">
-      <c r="A67" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="B67" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="C67" s="5" t="s">
-        <v>59</v>
-      </c>
       <c r="D67" s="5" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="E67" s="4"/>
     </row>
     <row r="68" ht="18" spans="1:5">
       <c r="A68" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="B68" s="5" t="s">
-        <v>105</v>
+        <v>103</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>104</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E68" s="4" t="s">
-        <v>106</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="E68" s="4"/>
     </row>
     <row r="69" ht="18" spans="1:5">
       <c r="A69" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D69" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E69" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="70" ht="18" spans="1:5">
+      <c r="A70" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B69" s="5" t="s">
+      <c r="B70" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C69" s="5" t="s">
+      <c r="C70" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D69" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E69" s="4" t="s">
+      <c r="D70" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E70" s="4" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="70" spans="1:5">
-      <c r="A70" t="s">
+    <row r="71" spans="1:5">
+      <c r="A71" t="s">
         <v>35</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B71" t="s">
         <v>36</v>
       </c>
-      <c r="C70" s="4" t="s">
+      <c r="C71" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D70" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E70" s="4"/>
-    </row>
-    <row r="71" spans="1:5">
-      <c r="A71" s="4" t="s">
+      <c r="D71" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E71" s="4"/>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B71" s="4" t="s">
+      <c r="B72" s="4" t="s">
         <v>39</v>
-      </c>
-      <c r="C71" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D71" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E71" s="4"/>
-    </row>
-    <row r="72" ht="18" spans="1:5">
-      <c r="A72" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B72" s="4" t="s">
-        <v>42</v>
       </c>
       <c r="C72" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D72" s="5" t="s">
+      <c r="D72" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E72" s="4"/>
+    </row>
+    <row r="73" ht="18" spans="1:5">
+      <c r="A73" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D73" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E72" s="4"/>
-    </row>
-    <row r="74" spans="1:5">
-      <c r="A74" s="6" t="s">
+      <c r="E73" s="4"/>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="B74" s="6"/>
-      <c r="C74" s="6"/>
-      <c r="D74" s="6"/>
-      <c r="E74" s="6"/>
-    </row>
-    <row r="75" ht="21" spans="1:5">
-      <c r="A75" s="7" t="s">
+      <c r="B75" s="6"/>
+      <c r="C75" s="6"/>
+      <c r="D75" s="6"/>
+      <c r="E75" s="6"/>
+    </row>
+    <row r="76" ht="21" spans="1:5">
+      <c r="A76" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B75" s="7" t="s">
+      <c r="B76" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C75" s="7" t="s">
+      <c r="C76" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D75" s="7" t="s">
+      <c r="D76" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E75" s="7" t="s">
+      <c r="E76" s="7" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="76" ht="18" spans="1:5">
-      <c r="A76" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B76" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C76" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="D76" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E76" s="5" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="77" ht="18" spans="1:5">
       <c r="A77" s="5" t="s">
-        <v>110</v>
+        <v>6</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="C77" s="9" t="s">
-        <v>112</v>
+        <v>7</v>
+      </c>
+      <c r="C77" s="8" t="s">
+        <v>109</v>
       </c>
       <c r="D77" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E77" s="4"/>
+      <c r="E77" s="5" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="78" ht="18" spans="1:5">
       <c r="A78" s="5" t="s">
-        <v>44</v>
+        <v>110</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>12</v>
+        <v>111</v>
       </c>
       <c r="C78" s="9" t="s">
         <v>112</v>
@@ -2871,16 +2873,14 @@
       <c r="D78" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E78" s="4" t="s">
-        <v>45</v>
-      </c>
+      <c r="E78" s="4"/>
     </row>
     <row r="79" ht="18" spans="1:5">
-      <c r="A79" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="B79" s="4" t="s">
-        <v>71</v>
+      <c r="A79" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B79" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="C79" s="9" t="s">
         <v>112</v>
@@ -2889,30 +2889,32 @@
         <v>9</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>114</v>
+        <v>45</v>
       </c>
     </row>
     <row r="80" ht="18" spans="1:5">
       <c r="A80" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>116</v>
+        <v>71</v>
       </c>
       <c r="C80" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="D80" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E80" s="4"/>
+      <c r="D80" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E80" s="4" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="81" ht="18" spans="1:5">
       <c r="A81" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C81" s="9" t="s">
         <v>112</v>
@@ -2922,45 +2924,45 @@
       </c>
       <c r="E81" s="4"/>
     </row>
-    <row r="82" spans="1:5">
+    <row r="82" ht="18" spans="1:5">
       <c r="A82" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C82" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="D82" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E82" s="4"/>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="B82" s="4" t="s">
+      <c r="B83" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="C82" s="4" t="s">
+      <c r="C83" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="D82" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E82" s="4"/>
-    </row>
-    <row r="83" ht="18" spans="1:5">
-      <c r="A83" s="4" t="s">
+      <c r="D83" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E83" s="4"/>
+    </row>
+    <row r="84" ht="18" spans="1:5">
+      <c r="A84" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="B83" s="4" t="s">
+      <c r="B84" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="C83" s="8" t="s">
+      <c r="C84" s="8" t="s">
         <v>109</v>
-      </c>
-      <c r="D83" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E83" s="4"/>
-    </row>
-    <row r="84" spans="1:5">
-      <c r="A84" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="B84" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="C84" s="4" t="s">
-        <v>126</v>
       </c>
       <c r="D84" s="4" t="s">
         <v>9</v>
@@ -2969,13 +2971,13 @@
     </row>
     <row r="85" spans="1:5">
       <c r="A85" s="4" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>96</v>
+        <v>125</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>40</v>
+        <v>126</v>
       </c>
       <c r="D85" s="4" t="s">
         <v>9</v>
@@ -2984,13 +2986,13 @@
     </row>
     <row r="86" spans="1:5">
       <c r="A86" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B86" t="s">
-        <v>36</v>
+        <v>127</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>96</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D86" s="4" t="s">
         <v>9</v>
@@ -2999,100 +3001,98 @@
     </row>
     <row r="87" spans="1:5">
       <c r="A87" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B87" t="s">
+        <v>36</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D87" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E87" s="4"/>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B87" s="4" t="s">
+      <c r="B88" s="4" t="s">
         <v>39</v>
-      </c>
-      <c r="C87" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D87" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E87" s="4"/>
-    </row>
-    <row r="88" ht="18" spans="1:5">
-      <c r="A88" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B88" s="4" t="s">
-        <v>42</v>
       </c>
       <c r="C88" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D88" s="5" t="s">
+      <c r="D88" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E88" s="4"/>
+    </row>
+    <row r="89" ht="18" spans="1:5">
+      <c r="A89" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D89" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E88" s="4"/>
-    </row>
-    <row r="90" spans="1:5">
-      <c r="A90" s="6" t="s">
+      <c r="E89" s="4"/>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="B90" s="6"/>
-      <c r="C90" s="6"/>
-      <c r="D90" s="6"/>
-      <c r="E90" s="6"/>
-    </row>
-    <row r="91" ht="21" spans="1:5">
-      <c r="A91" s="7" t="s">
+      <c r="B91" s="6"/>
+      <c r="C91" s="6"/>
+      <c r="D91" s="6"/>
+      <c r="E91" s="6"/>
+    </row>
+    <row r="92" ht="21" spans="1:5">
+      <c r="A92" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B91" s="7" t="s">
+      <c r="B92" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C91" s="7" t="s">
+      <c r="C92" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D91" s="7" t="s">
+      <c r="D92" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E91" s="7" t="s">
+      <c r="E92" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="92" ht="18" spans="1:5">
-      <c r="A92" s="5" t="s">
+    <row r="93" ht="18" spans="1:5">
+      <c r="A93" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B92" s="5" t="s">
+      <c r="B93" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C92" s="5" t="s">
+      <c r="C93" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="D92" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E92" s="5" t="s">
+      <c r="D93" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E93" s="5" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
-      <c r="A93" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="B93" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="C93" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="D93" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E93" s="4" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="94" spans="1:5">
       <c r="A94" s="4" t="s">
-        <v>44</v>
+        <v>129</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>12</v>
+        <v>111</v>
       </c>
       <c r="C94" s="4" t="s">
         <v>83</v>
@@ -3106,194 +3106,194 @@
     </row>
     <row r="95" spans="1:5">
       <c r="A95" s="4" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>15</v>
+        <v>83</v>
       </c>
       <c r="D95" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E95" s="4" t="s">
-        <v>45</v>
+        <v>130</v>
       </c>
     </row>
     <row r="96" spans="1:5">
       <c r="A96" s="4" t="s">
-        <v>131</v>
+        <v>13</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>132</v>
+        <v>14</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="D96" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E96" s="4"/>
+      <c r="E96" s="4" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="97" spans="1:5">
       <c r="A97" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D97" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E97" s="4" t="s">
-        <v>135</v>
-      </c>
+      <c r="E97" s="4"/>
     </row>
     <row r="98" spans="1:5">
       <c r="A98" s="4" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>83</v>
+        <v>30</v>
       </c>
       <c r="D98" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E98" s="4"/>
+      <c r="E98" s="4" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="99" spans="1:5">
       <c r="A99" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>33</v>
+        <v>83</v>
       </c>
       <c r="D99" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E99" s="4" t="s">
-        <v>140</v>
-      </c>
+      <c r="E99" s="4"/>
     </row>
     <row r="100" spans="1:5">
       <c r="A100" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="B100" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="C100" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D100" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E100" s="4" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="B100" s="4" t="s">
+      <c r="B101" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="C100" s="4" t="s">
+      <c r="C101" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="D100" s="4" t="s">
+      <c r="D101" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E100" s="4"/>
-    </row>
-    <row r="101" spans="1:5">
-      <c r="A101" t="s">
+      <c r="E101" s="4"/>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="A102" t="s">
         <v>35</v>
       </c>
-      <c r="B101" t="s">
+      <c r="B102" t="s">
         <v>36</v>
       </c>
-      <c r="C101" s="4" t="s">
+      <c r="C102" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D101" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E101" s="4"/>
-    </row>
-    <row r="102" spans="1:5">
-      <c r="A102" s="4" t="s">
+      <c r="D102" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E102" s="4"/>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="A103" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B102" s="4" t="s">
+      <c r="B103" s="4" t="s">
         <v>39</v>
-      </c>
-      <c r="C102" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D102" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E102" s="4"/>
-    </row>
-    <row r="103" ht="18" spans="1:5">
-      <c r="A103" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B103" s="4" t="s">
-        <v>42</v>
       </c>
       <c r="C103" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D103" s="5" t="s">
+      <c r="D103" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E103" s="4"/>
+    </row>
+    <row r="104" ht="18" spans="1:5">
+      <c r="A104" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B104" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C104" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D104" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E103" s="4"/>
-    </row>
-    <row r="105" spans="1:5">
-      <c r="A105" s="6" t="s">
+      <c r="E104" s="4"/>
+    </row>
+    <row r="106" spans="1:5">
+      <c r="A106" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="B105" s="6"/>
-      <c r="C105" s="6"/>
-      <c r="D105" s="6"/>
-      <c r="E105" s="6"/>
-    </row>
-    <row r="106" ht="21" spans="1:5">
-      <c r="A106" s="7" t="s">
+      <c r="B106" s="6"/>
+      <c r="C106" s="6"/>
+      <c r="D106" s="6"/>
+      <c r="E106" s="6"/>
+    </row>
+    <row r="107" ht="21" spans="1:5">
+      <c r="A107" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B106" s="7" t="s">
+      <c r="B107" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C106" s="7" t="s">
+      <c r="C107" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D106" s="7" t="s">
+      <c r="D107" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E106" s="7" t="s">
+      <c r="E107" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="107" ht="18" spans="1:5">
-      <c r="A107" s="5" t="s">
+    <row r="108" ht="18" spans="1:5">
+      <c r="A108" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B107" s="5" t="s">
+      <c r="B108" s="5" t="s">
         <v>7</v>
-      </c>
-      <c r="C107" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="D107" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E107" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="108" ht="18" spans="1:5">
-      <c r="A108" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="B108" s="4" t="s">
-        <v>145</v>
       </c>
       <c r="C108" s="5" t="s">
         <v>83</v>
@@ -3301,14 +3301,16 @@
       <c r="D108" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E108" s="4"/>
+      <c r="E108" s="5" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="109" ht="18" spans="1:5">
       <c r="A109" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>71</v>
+        <v>145</v>
       </c>
       <c r="C109" s="5" t="s">
         <v>83</v>
@@ -3320,10 +3322,10 @@
     </row>
     <row r="110" ht="18" spans="1:5">
       <c r="A110" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>148</v>
+        <v>71</v>
       </c>
       <c r="C110" s="5" t="s">
         <v>83</v>
@@ -3335,10 +3337,10 @@
     </row>
     <row r="111" ht="18" spans="1:5">
       <c r="A111" s="4" t="s">
-        <v>44</v>
+        <v>147</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>12</v>
+        <v>148</v>
       </c>
       <c r="C111" s="5" t="s">
         <v>83</v>
@@ -3350,13 +3352,13 @@
     </row>
     <row r="112" ht="18" spans="1:5">
       <c r="A112" s="4" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C112" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
+      </c>
+      <c r="C112" s="5" t="s">
+        <v>83</v>
       </c>
       <c r="D112" s="5" t="s">
         <v>9</v>
@@ -3365,145 +3367,145 @@
     </row>
     <row r="113" ht="18" spans="1:5">
       <c r="A113" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B113" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C113" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D113" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E113" s="4"/>
+    </row>
+    <row r="114" ht="18" spans="1:5">
+      <c r="A114" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="B113" s="4" t="s">
+      <c r="B114" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="C113" s="4" t="s">
+      <c r="C114" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D113" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E113" s="4" t="s">
+      <c r="D114" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E114" s="4" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="114" spans="1:5">
-      <c r="A114" s="4" t="s">
+    <row r="115" spans="1:5">
+      <c r="A115" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="B114" s="4" t="s">
+      <c r="B115" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="C114" s="4" t="s">
+      <c r="C115" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="D114" s="4" t="s">
+      <c r="D115" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E114" s="4"/>
-    </row>
-    <row r="115" spans="1:5">
-      <c r="A115" t="s">
+      <c r="E115" s="4"/>
+    </row>
+    <row r="116" spans="1:5">
+      <c r="A116" t="s">
         <v>35</v>
       </c>
-      <c r="B115" t="s">
+      <c r="B116" t="s">
         <v>36</v>
       </c>
-      <c r="C115" s="4" t="s">
+      <c r="C116" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D115" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E115" s="4"/>
-    </row>
-    <row r="116" spans="1:5">
-      <c r="A116" s="4" t="s">
+      <c r="D116" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E116" s="4"/>
+    </row>
+    <row r="117" spans="1:5">
+      <c r="A117" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B116" s="4" t="s">
+      <c r="B117" s="4" t="s">
         <v>39</v>
-      </c>
-      <c r="C116" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D116" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E116" s="4"/>
-    </row>
-    <row r="117" ht="18" spans="1:5">
-      <c r="A117" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B117" s="4" t="s">
-        <v>42</v>
       </c>
       <c r="C117" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D117" s="5" t="s">
+      <c r="D117" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E117" s="4"/>
+    </row>
+    <row r="118" ht="18" spans="1:5">
+      <c r="A118" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B118" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C118" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D118" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E117" s="4"/>
-    </row>
-    <row r="119" spans="1:5">
-      <c r="A119" s="6" t="s">
+      <c r="E118" s="4"/>
+    </row>
+    <row r="120" spans="1:5">
+      <c r="A120" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="B119" s="6"/>
-      <c r="C119" s="6"/>
-      <c r="D119" s="6"/>
-      <c r="E119" s="6"/>
-    </row>
-    <row r="120" ht="21" spans="1:5">
-      <c r="A120" s="7" t="s">
+      <c r="B120" s="6"/>
+      <c r="C120" s="6"/>
+      <c r="D120" s="6"/>
+      <c r="E120" s="6"/>
+    </row>
+    <row r="121" ht="21" spans="1:5">
+      <c r="A121" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B120" s="7" t="s">
+      <c r="B121" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C120" s="7" t="s">
+      <c r="C121" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D120" s="7" t="s">
+      <c r="D121" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E120" s="7" t="s">
+      <c r="E121" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="121" ht="18" spans="1:5">
-      <c r="A121" s="5" t="s">
+    <row r="122" ht="18" spans="1:5">
+      <c r="A122" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B121" s="5" t="s">
+      <c r="B122" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C121" s="5" t="s">
+      <c r="C122" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="D121" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E121" s="5" t="s">
+      <c r="D122" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E122" s="5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="122" ht="18" spans="1:5">
-      <c r="A122" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="B122" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C122" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="D122" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E122" s="4"/>
     </row>
     <row r="123" ht="18" spans="1:5">
       <c r="A123" s="4" t="s">
-        <v>44</v>
+        <v>113</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="C123" s="4" t="s">
         <v>83</v>
@@ -3515,10 +3517,10 @@
     </row>
     <row r="124" ht="18" spans="1:5">
       <c r="A124" s="4" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C124" s="4" t="s">
         <v>83</v>
@@ -3530,42 +3532,40 @@
     </row>
     <row r="125" ht="18" spans="1:5">
       <c r="A125" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B125" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C125" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D125" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E125" s="4"/>
+    </row>
+    <row r="126" ht="18" spans="1:5">
+      <c r="A126" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="B125" s="4" t="s">
+      <c r="B126" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="C125" s="4" t="s">
+      <c r="C126" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="D125" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E125" s="4"/>
-    </row>
-    <row r="126" ht="36" spans="1:5">
-      <c r="A126" s="4" t="s">
+      <c r="D126" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E126" s="4"/>
+    </row>
+    <row r="127" ht="36" spans="1:5">
+      <c r="A127" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="B126" s="4" t="s">
+      <c r="B127" s="4" t="s">
         <v>91</v>
-      </c>
-      <c r="C126" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D126" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E126" s="5" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="127" ht="18" spans="1:5">
-      <c r="A127" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="B127" s="4" t="s">
-        <v>156</v>
       </c>
       <c r="C127" s="4" t="s">
         <v>33</v>
@@ -3573,17 +3573,19 @@
       <c r="D127" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E127" s="4"/>
+      <c r="E127" s="5" t="s">
+        <v>154</v>
+      </c>
     </row>
     <row r="128" ht="18" spans="1:5">
       <c r="A128" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>83</v>
+        <v>33</v>
       </c>
       <c r="D128" s="5" t="s">
         <v>9</v>
@@ -3592,45 +3594,45 @@
     </row>
     <row r="129" ht="18" spans="1:5">
       <c r="A129" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="B129" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C129" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D129" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E129" s="4"/>
+    </row>
+    <row r="130" ht="18" spans="1:5">
+      <c r="A130" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="B129" s="4" t="s">
+      <c r="B130" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="C129" s="4" t="s">
+      <c r="C130" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="D129" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E129" s="5" t="s">
+      <c r="D130" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E130" s="5" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="130" spans="1:5">
-      <c r="A130" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="B130" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="C130" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D130" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E130" s="4"/>
     </row>
     <row r="131" spans="1:5">
       <c r="A131" s="4" t="s">
-        <v>35</v>
+        <v>95</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>36</v>
+        <v>96</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D131" s="4" t="s">
         <v>9</v>
@@ -3639,83 +3641,81 @@
     </row>
     <row r="132" spans="1:5">
       <c r="A132" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B132" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C132" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D132" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E132" s="4"/>
+    </row>
+    <row r="133" spans="1:5">
+      <c r="A133" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B132" s="4" t="s">
+      <c r="B133" s="4" t="s">
         <v>39</v>
-      </c>
-      <c r="C132" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D132" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E132" s="4"/>
-    </row>
-    <row r="133" ht="18" spans="1:5">
-      <c r="A133" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B133" s="4" t="s">
-        <v>42</v>
       </c>
       <c r="C133" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D133" s="5" t="s">
+      <c r="D133" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E133" s="4"/>
+    </row>
+    <row r="134" ht="18" spans="1:5">
+      <c r="A134" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B134" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C134" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D134" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E133" s="4"/>
-    </row>
-    <row r="135" spans="1:5">
-      <c r="A135" s="6" t="s">
+      <c r="E134" s="4"/>
+    </row>
+    <row r="136" spans="1:5">
+      <c r="A136" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="B135" s="6"/>
-      <c r="C135" s="6"/>
-      <c r="D135" s="6"/>
-      <c r="E135" s="6"/>
-    </row>
-    <row r="136" ht="21" spans="1:5">
-      <c r="A136" s="7" t="s">
+      <c r="B136" s="6"/>
+      <c r="C136" s="6"/>
+      <c r="D136" s="6"/>
+      <c r="E136" s="6"/>
+    </row>
+    <row r="137" ht="21" spans="1:5">
+      <c r="A137" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B136" s="7" t="s">
+      <c r="B137" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C136" s="7" t="s">
+      <c r="C137" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D136" s="7" t="s">
+      <c r="D137" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E136" s="7" t="s">
+      <c r="E137" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="137" ht="19" customHeight="1" spans="1:5">
-      <c r="A137" s="5" t="s">
+    <row r="138" ht="19" customHeight="1" spans="1:5">
+      <c r="A138" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B137" s="4" t="s">
+      <c r="B138" s="4" t="s">
         <v>7</v>
-      </c>
-      <c r="C137" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="D137" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E137" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="138" ht="18" spans="1:5">
-      <c r="A138" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B138" s="4" t="s">
-        <v>12</v>
       </c>
       <c r="C138" s="9" t="s">
         <v>112</v>
@@ -3723,44 +3723,46 @@
       <c r="D138" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E138" s="4"/>
+      <c r="E138" s="5" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="139" ht="18" spans="1:5">
-      <c r="A139" s="9" t="s">
+      <c r="A139" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B139" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C139" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="D139" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E139" s="4"/>
+    </row>
+    <row r="140" ht="18" spans="1:5">
+      <c r="A140" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B139" s="9" t="s">
+      <c r="B140" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C139" s="9" t="s">
+      <c r="C140" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="D139" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E139" s="4"/>
-    </row>
-    <row r="140" ht="18" spans="1:5">
-      <c r="A140" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="B140" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="C140" s="9" t="s">
-        <v>112</v>
-      </c>
       <c r="D140" s="5" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="E140" s="4"/>
     </row>
     <row r="141" ht="18" spans="1:5">
       <c r="A141" s="4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C141" s="9" t="s">
         <v>112</v>
@@ -3772,13 +3774,13 @@
     </row>
     <row r="142" ht="18" spans="1:5">
       <c r="A142" s="4" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="C142" s="4" t="s">
-        <v>18</v>
+        <v>167</v>
+      </c>
+      <c r="C142" s="9" t="s">
+        <v>112</v>
       </c>
       <c r="D142" s="5" t="s">
         <v>22</v>
@@ -3787,10 +3789,10 @@
     </row>
     <row r="143" ht="18" spans="1:5">
       <c r="A143" s="4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C143" s="4" t="s">
         <v>18</v>
@@ -3802,10 +3804,10 @@
     </row>
     <row r="144" ht="18" spans="1:5">
       <c r="A144" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C144" s="4" t="s">
         <v>18</v>
@@ -3817,10 +3819,10 @@
     </row>
     <row r="145" ht="18" spans="1:5">
       <c r="A145" s="4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C145" s="4" t="s">
         <v>18</v>
@@ -3830,100 +3832,98 @@
       </c>
       <c r="E145" s="4"/>
     </row>
-    <row r="146" spans="1:5">
+    <row r="146" ht="18" spans="1:5">
       <c r="A146" s="4" t="s">
-        <v>35</v>
+        <v>174</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>36</v>
+        <v>175</v>
       </c>
       <c r="C146" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D146" s="4" t="s">
-        <v>9</v>
+        <v>18</v>
+      </c>
+      <c r="D146" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="E146" s="4"/>
     </row>
     <row r="147" spans="1:5">
       <c r="A147" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B147" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C147" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D147" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E147" s="4"/>
+    </row>
+    <row r="148" spans="1:5">
+      <c r="A148" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B147" s="4" t="s">
+      <c r="B148" s="4" t="s">
         <v>39</v>
-      </c>
-      <c r="C147" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D147" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E147" s="4"/>
-    </row>
-    <row r="148" ht="18" spans="1:5">
-      <c r="A148" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B148" s="4" t="s">
-        <v>42</v>
       </c>
       <c r="C148" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D148" s="5" t="s">
+      <c r="D148" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E148" s="4"/>
+    </row>
+    <row r="149" ht="18" spans="1:5">
+      <c r="A149" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B149" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C149" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D149" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E148" s="4"/>
-    </row>
-    <row r="150" spans="1:5">
-      <c r="A150" s="6" t="s">
+      <c r="E149" s="4"/>
+    </row>
+    <row r="151" spans="1:5">
+      <c r="A151" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="B150" s="6"/>
-      <c r="C150" s="6"/>
-      <c r="D150" s="6"/>
-      <c r="E150" s="6"/>
-    </row>
-    <row r="151" ht="21" spans="1:5">
-      <c r="A151" s="7" t="s">
+      <c r="B151" s="6"/>
+      <c r="C151" s="6"/>
+      <c r="D151" s="6"/>
+      <c r="E151" s="6"/>
+    </row>
+    <row r="152" ht="21" spans="1:5">
+      <c r="A152" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B151" s="7" t="s">
+      <c r="B152" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C151" s="7" t="s">
+      <c r="C152" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D151" s="7" t="s">
+      <c r="D152" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E151" s="7" t="s">
+      <c r="E152" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="152" ht="18" spans="1:5">
-      <c r="A152" s="5" t="s">
+    <row r="153" ht="18" spans="1:5">
+      <c r="A153" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B152" s="4" t="s">
+      <c r="B153" s="4" t="s">
         <v>7</v>
-      </c>
-      <c r="C152" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="D152" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E152" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="153" ht="18" spans="1:5">
-      <c r="A153" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="B153" s="4" t="s">
-        <v>178</v>
       </c>
       <c r="C153" s="9" t="s">
         <v>112</v>
@@ -3931,17 +3931,19 @@
       <c r="D153" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E153" s="4"/>
+      <c r="E153" s="5" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="154" ht="18" spans="1:5">
       <c r="A154" s="4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="C154" s="4" t="s">
-        <v>18</v>
+        <v>178</v>
+      </c>
+      <c r="C154" s="9" t="s">
+        <v>112</v>
       </c>
       <c r="D154" s="5" t="s">
         <v>9</v>
@@ -3950,10 +3952,10 @@
     </row>
     <row r="155" ht="18" spans="1:5">
       <c r="A155" s="4" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B155" s="4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C155" s="4" t="s">
         <v>18</v>
@@ -3965,10 +3967,10 @@
     </row>
     <row r="156" ht="18" spans="1:5">
       <c r="A156" s="4" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C156" s="4" t="s">
         <v>18</v>
@@ -3978,100 +3980,98 @@
       </c>
       <c r="E156" s="4"/>
     </row>
-    <row r="157" spans="1:5">
+    <row r="157" ht="18" spans="1:5">
       <c r="A157" s="4" t="s">
-        <v>35</v>
+        <v>183</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>36</v>
+        <v>184</v>
       </c>
       <c r="C157" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D157" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D157" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E157" s="4"/>
     </row>
     <row r="158" spans="1:5">
       <c r="A158" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B158" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C158" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D158" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E158" s="4"/>
+    </row>
+    <row r="159" spans="1:5">
+      <c r="A159" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B158" s="4" t="s">
+      <c r="B159" s="4" t="s">
         <v>39</v>
-      </c>
-      <c r="C158" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D158" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E158" s="4"/>
-    </row>
-    <row r="159" ht="18" spans="1:5">
-      <c r="A159" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B159" s="4" t="s">
-        <v>42</v>
       </c>
       <c r="C159" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D159" s="5" t="s">
+      <c r="D159" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E159" s="4"/>
+    </row>
+    <row r="160" ht="18" spans="1:5">
+      <c r="A160" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B160" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C160" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D160" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E159" s="4"/>
-    </row>
-    <row r="161" spans="1:5">
-      <c r="A161" s="6" t="s">
+      <c r="E160" s="4"/>
+    </row>
+    <row r="162" spans="1:5">
+      <c r="A162" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="B161" s="6"/>
-      <c r="C161" s="6"/>
-      <c r="D161" s="6"/>
-      <c r="E161" s="6"/>
-    </row>
-    <row r="162" ht="21" spans="1:5">
-      <c r="A162" s="7" t="s">
+      <c r="B162" s="6"/>
+      <c r="C162" s="6"/>
+      <c r="D162" s="6"/>
+      <c r="E162" s="6"/>
+    </row>
+    <row r="163" ht="21" spans="1:5">
+      <c r="A163" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B162" s="7" t="s">
+      <c r="B163" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C162" s="7" t="s">
+      <c r="C163" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D162" s="7" t="s">
+      <c r="D163" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E162" s="7" t="s">
+      <c r="E163" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="163" ht="18" spans="1:5">
-      <c r="A163" s="5" t="s">
+    <row r="164" ht="18" spans="1:5">
+      <c r="A164" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B163" s="4" t="s">
+      <c r="B164" s="4" t="s">
         <v>7</v>
-      </c>
-      <c r="C163" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="D163" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E163" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="164" ht="18" spans="1:5">
-      <c r="A164" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="B164" s="4" t="s">
-        <v>71</v>
       </c>
       <c r="C164" s="9" t="s">
         <v>112</v>
@@ -4079,17 +4079,19 @@
       <c r="D164" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E164" s="4"/>
+      <c r="E164" s="5" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="165" ht="18" spans="1:5">
       <c r="A165" s="4" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="B165" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="C165" s="4" t="s">
-        <v>83</v>
+        <v>71</v>
+      </c>
+      <c r="C165" s="9" t="s">
+        <v>112</v>
       </c>
       <c r="D165" s="5" t="s">
         <v>9</v>
@@ -4098,13 +4100,13 @@
     </row>
     <row r="166" ht="18" spans="1:5">
       <c r="A166" s="4" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B166" s="4" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C166" s="4" t="s">
-        <v>40</v>
+        <v>83</v>
       </c>
       <c r="D166" s="5" t="s">
         <v>9</v>
@@ -4113,10 +4115,10 @@
     </row>
     <row r="167" ht="18" spans="1:5">
       <c r="A167" s="4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B167" s="4" t="s">
-        <v>96</v>
+        <v>189</v>
       </c>
       <c r="C167" s="4" t="s">
         <v>40</v>
@@ -4126,30 +4128,30 @@
       </c>
       <c r="E167" s="4"/>
     </row>
-    <row r="168" spans="1:5">
+    <row r="168" ht="18" spans="1:5">
       <c r="A168" s="4" t="s">
-        <v>35</v>
+        <v>190</v>
       </c>
       <c r="B168" s="4" t="s">
-        <v>36</v>
+        <v>96</v>
       </c>
       <c r="C168" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="D168" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D168" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E168" s="4"/>
     </row>
     <row r="169" spans="1:5">
       <c r="A169" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B169" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C169" s="4" t="s">
-        <v>40</v>
+        <v>191</v>
       </c>
       <c r="D169" s="4" t="s">
         <v>9</v>
@@ -4158,83 +4160,83 @@
     </row>
     <row r="170" spans="1:5">
       <c r="A170" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B170" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C170" s="4" t="s">
         <v>40</v>
       </c>
       <c r="D170" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E170" s="4"/>
+    </row>
+    <row r="171" spans="1:5">
+      <c r="A171" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B171" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C171" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D171" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E170" s="4"/>
-    </row>
-    <row r="172" spans="1:5">
-      <c r="A172" s="6" t="s">
+      <c r="E171" s="4"/>
+    </row>
+    <row r="173" spans="1:5">
+      <c r="A173" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="B172" s="6"/>
-      <c r="C172" s="6"/>
-      <c r="D172" s="6"/>
-      <c r="E172" s="6"/>
-    </row>
-    <row r="173" ht="21" spans="1:5">
-      <c r="A173" s="7" t="s">
+      <c r="B173" s="6"/>
+      <c r="C173" s="6"/>
+      <c r="D173" s="6"/>
+      <c r="E173" s="6"/>
+    </row>
+    <row r="174" ht="21" spans="1:5">
+      <c r="A174" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B173" s="7" t="s">
+      <c r="B174" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C173" s="7" t="s">
+      <c r="C174" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D173" s="7" t="s">
+      <c r="D174" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E173" s="7" t="s">
+      <c r="E174" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="174" ht="18" spans="1:5">
-      <c r="A174" s="5" t="s">
+    <row r="175" ht="18" spans="1:5">
+      <c r="A175" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B174" s="4" t="s">
+      <c r="B175" s="4" t="s">
         <v>7</v>
-      </c>
-      <c r="C174" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="D174" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E174" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="175" ht="18" spans="1:5">
-      <c r="A175" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="B175" s="4" t="s">
-        <v>194</v>
       </c>
       <c r="C175" s="9" t="s">
         <v>112</v>
       </c>
       <c r="D175" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E175" s="4"/>
+        <v>9</v>
+      </c>
+      <c r="E175" s="5" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="176" ht="18" spans="1:5">
       <c r="A176" s="4" t="s">
-        <v>113</v>
+        <v>193</v>
       </c>
       <c r="B176" s="4" t="s">
-        <v>71</v>
+        <v>194</v>
       </c>
       <c r="C176" s="9" t="s">
         <v>112</v>
@@ -4246,28 +4248,28 @@
     </row>
     <row r="177" ht="18" spans="1:5">
       <c r="A177" s="4" t="s">
-        <v>195</v>
+        <v>113</v>
       </c>
       <c r="B177" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="C177" s="4" t="s">
-        <v>18</v>
+        <v>71</v>
+      </c>
+      <c r="C177" s="9" t="s">
+        <v>112</v>
       </c>
       <c r="D177" s="5" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="E177" s="4"/>
     </row>
     <row r="178" ht="18" spans="1:5">
       <c r="A178" s="4" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B178" s="4" t="s">
-        <v>96</v>
+        <v>196</v>
       </c>
       <c r="C178" s="4" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="D178" s="5" t="s">
         <v>9</v>
@@ -4276,58 +4278,58 @@
     </row>
     <row r="179" ht="18" spans="1:5">
       <c r="A179" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="B179" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C179" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D179" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E179" s="4"/>
+    </row>
+    <row r="180" ht="18" spans="1:5">
+      <c r="A180" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="B179" s="4" t="s">
+      <c r="B180" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="C179" s="9" t="s">
+      <c r="C180" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="D179" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E179" s="4"/>
-    </row>
-    <row r="180" spans="1:5">
-      <c r="A180" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="B180" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="C180" s="4" t="s">
-        <v>59</v>
-      </c>
       <c r="D180" s="4" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="E180" s="4"/>
     </row>
     <row r="181" spans="1:5">
       <c r="A181" s="4" t="s">
-        <v>35</v>
+        <v>199</v>
       </c>
       <c r="B181" s="4" t="s">
-        <v>36</v>
+        <v>200</v>
       </c>
       <c r="C181" s="4" t="s">
-        <v>191</v>
+        <v>59</v>
       </c>
       <c r="D181" s="4" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="E181" s="4"/>
     </row>
     <row r="182" spans="1:5">
       <c r="A182" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B182" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C182" s="4" t="s">
-        <v>40</v>
+        <v>191</v>
       </c>
       <c r="D182" s="4" t="s">
         <v>9</v>
@@ -4336,86 +4338,86 @@
     </row>
     <row r="183" spans="1:5">
       <c r="A183" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B183" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C183" s="4" t="s">
         <v>40</v>
       </c>
       <c r="D183" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E183" s="4"/>
+    </row>
+    <row r="184" spans="1:5">
+      <c r="A184" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B184" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C184" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D184" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E183" s="4"/>
-    </row>
-    <row r="185" spans="1:5">
-      <c r="A185" s="6" t="s">
+      <c r="E184" s="4"/>
+    </row>
+    <row r="186" spans="1:5">
+      <c r="A186" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="B185" s="6"/>
-      <c r="C185" s="6"/>
-      <c r="D185" s="6"/>
-      <c r="E185" s="6"/>
-    </row>
-    <row r="186" ht="21" spans="1:5">
-      <c r="A186" s="7" t="s">
+      <c r="B186" s="6"/>
+      <c r="C186" s="6"/>
+      <c r="D186" s="6"/>
+      <c r="E186" s="6"/>
+    </row>
+    <row r="187" ht="21" spans="1:5">
+      <c r="A187" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B186" s="7" t="s">
+      <c r="B187" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C186" s="7" t="s">
+      <c r="C187" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D186" s="7" t="s">
+      <c r="D187" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E186" s="7" t="s">
+      <c r="E187" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="187" ht="18" spans="1:5">
-      <c r="A187" s="5" t="s">
+    <row r="188" ht="18" spans="1:5">
+      <c r="A188" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B187" s="4" t="s">
+      <c r="B188" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C187" s="10" t="s">
+      <c r="C188" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="D187" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E187" s="5" t="s">
+      <c r="D188" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E188" s="5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="188" ht="18" spans="1:5">
-      <c r="A188" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="B188" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="C188" s="11" t="s">
-        <v>204</v>
-      </c>
-      <c r="D188" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E188" s="4"/>
     </row>
     <row r="189" ht="18" spans="1:5">
       <c r="A189" s="4" t="s">
-        <v>44</v>
+        <v>202</v>
       </c>
       <c r="B189" s="4" t="s">
-        <v>12</v>
+        <v>203</v>
       </c>
       <c r="C189" s="11" t="s">
-        <v>8</v>
+        <v>204</v>
       </c>
       <c r="D189" s="5" t="s">
         <v>9</v>
@@ -4424,10 +4426,10 @@
     </row>
     <row r="190" ht="18" spans="1:5">
       <c r="A190" s="4" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="B190" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C190" s="11" t="s">
         <v>8</v>
@@ -4439,13 +4441,13 @@
     </row>
     <row r="191" ht="18" spans="1:5">
       <c r="A191" s="4" t="s">
-        <v>205</v>
+        <v>13</v>
       </c>
       <c r="B191" s="4" t="s">
-        <v>206</v>
+        <v>14</v>
       </c>
       <c r="C191" s="11" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="D191" s="5" t="s">
         <v>9</v>
@@ -4454,40 +4456,40 @@
     </row>
     <row r="192" ht="18" spans="1:5">
       <c r="A192" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="B192" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="C192" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D192" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E192" s="4"/>
+    </row>
+    <row r="193" ht="18" spans="1:5">
+      <c r="A193" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="B192" s="4" t="s">
+      <c r="B193" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="C192" s="11" t="s">
+      <c r="C193" s="11" t="s">
         <v>204</v>
       </c>
-      <c r="D192" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E192" s="4"/>
-    </row>
-    <row r="193" spans="1:5">
-      <c r="A193" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="B193" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="C193" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="D193" s="4" t="s">
-        <v>22</v>
+      <c r="D193" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="E193" s="4"/>
     </row>
     <row r="194" spans="1:5">
       <c r="A194" s="4" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B194" s="4" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C194" s="11" t="s">
         <v>59</v>
@@ -4499,10 +4501,10 @@
     </row>
     <row r="195" spans="1:5">
       <c r="A195" s="4" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B195" s="4" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C195" s="11" t="s">
         <v>59</v>
@@ -4514,10 +4516,10 @@
     </row>
     <row r="196" spans="1:5">
       <c r="A196" s="4" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B196" s="4" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C196" s="11" t="s">
         <v>59</v>
@@ -4529,10 +4531,10 @@
     </row>
     <row r="197" spans="1:5">
       <c r="A197" s="4" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B197" s="4" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C197" s="11" t="s">
         <v>59</v>
@@ -4542,40 +4544,42 @@
       </c>
       <c r="E197" s="4"/>
     </row>
-    <row r="198" ht="18" spans="1:5">
+    <row r="198" spans="1:5">
       <c r="A198" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="B198" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C198" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="D198" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E198" s="4"/>
+    </row>
+    <row r="199" ht="18" spans="1:5">
+      <c r="A199" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="B198" s="4" t="s">
+      <c r="B199" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="C198" s="11" t="s">
+      <c r="C199" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D198" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E198" s="4"/>
-    </row>
-    <row r="199" spans="1:5">
-      <c r="A199" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="B199" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="C199" s="4"/>
-      <c r="D199" s="4" t="s">
-        <v>22</v>
+      <c r="D199" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="E199" s="4"/>
     </row>
     <row r="200" spans="1:5">
       <c r="A200" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B200" s="4" t="s">
-        <v>223</v>
+        <v>158</v>
       </c>
       <c r="C200" s="4"/>
       <c r="D200" s="4" t="s">
@@ -4585,10 +4589,10 @@
     </row>
     <row r="201" spans="1:5">
       <c r="A201" s="4" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B201" s="4" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C201" s="4"/>
       <c r="D201" s="4" t="s">
@@ -4598,28 +4602,26 @@
     </row>
     <row r="202" spans="1:5">
       <c r="A202" s="4" t="s">
-        <v>35</v>
+        <v>224</v>
       </c>
       <c r="B202" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C202" s="4" t="s">
-        <v>191</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="C202" s="4"/>
       <c r="D202" s="4" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="E202" s="4"/>
     </row>
     <row r="203" spans="1:5">
       <c r="A203" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B203" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C203" s="4" t="s">
-        <v>40</v>
+        <v>191</v>
       </c>
       <c r="D203" s="4" t="s">
         <v>9</v>
@@ -4628,18 +4630,33 @@
     </row>
     <row r="204" spans="1:5">
       <c r="A204" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B204" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C204" s="4" t="s">
         <v>40</v>
       </c>
       <c r="D204" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E204" s="4"/>
+    </row>
+    <row r="205" spans="1:5">
+      <c r="A205" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B205" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C205" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D205" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E204" s="4"/>
+      <c r="E205" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -4647,16 +4664,16 @@
     <mergeCell ref="A17:E17"/>
     <mergeCell ref="A30:E30"/>
     <mergeCell ref="A42:E42"/>
-    <mergeCell ref="A61:E61"/>
-    <mergeCell ref="A74:E74"/>
-    <mergeCell ref="A90:E90"/>
-    <mergeCell ref="A105:E105"/>
-    <mergeCell ref="A119:E119"/>
-    <mergeCell ref="A135:E135"/>
-    <mergeCell ref="A150:E150"/>
-    <mergeCell ref="A161:E161"/>
-    <mergeCell ref="A172:E172"/>
-    <mergeCell ref="A185:E185"/>
+    <mergeCell ref="A62:E62"/>
+    <mergeCell ref="A75:E75"/>
+    <mergeCell ref="A91:E91"/>
+    <mergeCell ref="A106:E106"/>
+    <mergeCell ref="A120:E120"/>
+    <mergeCell ref="A136:E136"/>
+    <mergeCell ref="A151:E151"/>
+    <mergeCell ref="A162:E162"/>
+    <mergeCell ref="A173:E173"/>
+    <mergeCell ref="A186:E186"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/document/叨叨帮表设计.xlsx
+++ b/document/叨叨帮表设计.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225">
   <si>
     <t>用户信息表 user_info</t>
   </si>
@@ -224,12 +224,6 @@
   </si>
   <si>
     <t>任务申请表 task_apply_info</t>
-  </si>
-  <si>
-    <t>任务编号</t>
-  </si>
-  <si>
-    <t>task_id</t>
   </si>
   <si>
     <t>任务类型id</t>
@@ -387,6 +381,9 @@
   </si>
   <si>
     <t>任务id</t>
+  </si>
+  <si>
+    <t>task_id</t>
   </si>
   <si>
     <t>reference to task_apply_info</t>
@@ -1786,10 +1783,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:E205"/>
+  <dimension ref="A1:E204"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="105" zoomScaleNormal="105" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="E47" sqref="E47"/>
+      <selection activeCell="H46" sqref="H46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelCol="4"/>
@@ -2413,10 +2410,10 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="4" t="s">
-        <v>70</v>
+        <v>44</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>8</v>
@@ -2424,14 +2421,16 @@
       <c r="D45" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E45" s="4"/>
+      <c r="E45" s="4" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="4" t="s">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>8</v>
@@ -2440,98 +2439,98 @@
         <v>9</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>45</v>
+        <v>72</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D47" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="48" ht="18" spans="1:5">
       <c r="A48" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>15</v>
+        <v>77</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>59</v>
       </c>
       <c r="D48" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="49" ht="18" spans="1:5">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
       <c r="A49" s="4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C49" s="5" t="s">
-        <v>59</v>
+        <v>80</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>81</v>
       </c>
       <c r="D49" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C50" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="B50" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>83</v>
-      </c>
       <c r="D50" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E50" s="4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>22</v>
+      </c>
+      <c r="E50" s="4"/>
+    </row>
+    <row r="51" ht="18" spans="1:5">
       <c r="A51" s="4" t="s">
         <v>85</v>
       </c>
       <c r="B51" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="C51" s="4" t="s">
-        <v>83</v>
+      <c r="C51" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E51" s="4"/>
+        <v>9</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="52" ht="18" spans="1:5">
       <c r="A52" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C52" s="5" t="s">
         <v>33</v>
@@ -2539,26 +2538,24 @@
       <c r="D52" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E52" s="4" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="53" ht="18" spans="1:5">
+      <c r="E52" s="12" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
       <c r="A53" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="C53" s="5" t="s">
-        <v>33</v>
+        <v>92</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="D53" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E53" s="12" t="s">
-        <v>92</v>
-      </c>
+      <c r="E53" s="4"/>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="4" t="s">
@@ -2576,117 +2573,117 @@
       <c r="E54" s="4"/>
     </row>
     <row r="55" spans="1:5">
-      <c r="A55" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="B55" s="4" t="s">
-        <v>96</v>
+      <c r="A55" t="s">
+        <v>35</v>
+      </c>
+      <c r="B55" t="s">
+        <v>36</v>
       </c>
       <c r="C55" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E55" s="4"/>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C56" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D55" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E55" s="4"/>
-    </row>
-    <row r="56" spans="1:5">
-      <c r="A56" t="s">
-        <v>35</v>
-      </c>
-      <c r="B56" t="s">
-        <v>36</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>37</v>
-      </c>
       <c r="D56" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E56" s="4"/>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57" ht="18" spans="1:5">
       <c r="A57" s="4" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C57" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D57" s="4" t="s">
-        <v>9</v>
+      <c r="D57" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="E57" s="4"/>
     </row>
-    <row r="58" ht="18" spans="1:5">
-      <c r="A58" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B58" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C58" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D58" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E58" s="4"/>
-    </row>
-    <row r="62" spans="1:5">
-      <c r="A62" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="B62" s="6"/>
-      <c r="C62" s="6"/>
-      <c r="D62" s="6"/>
-      <c r="E62" s="6"/>
-    </row>
-    <row r="63" ht="21" spans="1:5">
-      <c r="A63" s="7" t="s">
+    <row r="61" spans="1:5">
+      <c r="A61" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="B61" s="6"/>
+      <c r="C61" s="6"/>
+      <c r="D61" s="6"/>
+      <c r="E61" s="6"/>
+    </row>
+    <row r="62" ht="21" spans="1:5">
+      <c r="A62" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B63" s="7" t="s">
+      <c r="B62" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C63" s="7" t="s">
+      <c r="C62" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D63" s="7" t="s">
+      <c r="D62" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E63" s="7" t="s">
+      <c r="E62" s="7" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="63" ht="18" spans="1:5">
+      <c r="A63" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E63" s="5" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="64" ht="18" spans="1:5">
       <c r="A64" s="5" t="s">
-        <v>6</v>
+        <v>62</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>7</v>
+        <v>63</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>83</v>
+        <v>30</v>
       </c>
       <c r="D64" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E64" s="5" t="s">
-        <v>10</v>
-      </c>
+      <c r="E64" s="4"/>
     </row>
     <row r="65" ht="18" spans="1:5">
-      <c r="A65" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="B65" s="5" t="s">
-        <v>63</v>
+      <c r="A65" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>97</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>30</v>
+        <v>98</v>
       </c>
       <c r="D65" s="5" t="s">
         <v>9</v>
@@ -2695,13 +2692,13 @@
     </row>
     <row r="66" ht="18" spans="1:5">
       <c r="A66" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="D66" s="5" t="s">
         <v>9</v>
@@ -2709,260 +2706,260 @@
       <c r="E66" s="4"/>
     </row>
     <row r="67" ht="18" spans="1:5">
-      <c r="A67" s="4" t="s">
+      <c r="A67" s="5" t="s">
         <v>101</v>
       </c>
       <c r="B67" s="4" t="s">
         <v>102</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="E67" s="4"/>
     </row>
     <row r="68" ht="18" spans="1:5">
       <c r="A68" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B68" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="B68" s="4" t="s">
+      <c r="C68" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D68" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E68" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="C68" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="D68" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E68" s="4"/>
     </row>
     <row r="69" ht="18" spans="1:5">
       <c r="A69" s="5" t="s">
-        <v>95</v>
+        <v>51</v>
       </c>
       <c r="B69" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D69" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E69" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="C69" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="D69" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E69" s="4" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="70" ht="18" spans="1:5">
-      <c r="A70" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B70" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="C70" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D70" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E70" s="4" t="s">
-        <v>107</v>
-      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" t="s">
+        <v>35</v>
+      </c>
+      <c r="B70" t="s">
+        <v>36</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E70" s="4"/>
     </row>
     <row r="71" spans="1:5">
-      <c r="A71" t="s">
-        <v>35</v>
-      </c>
-      <c r="B71" t="s">
-        <v>36</v>
+      <c r="A71" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>39</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D71" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E71" s="4"/>
     </row>
-    <row r="72" spans="1:5">
+    <row r="72" ht="18" spans="1:5">
       <c r="A72" s="4" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C72" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D72" s="4" t="s">
-        <v>9</v>
+      <c r="D72" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="E72" s="4"/>
     </row>
-    <row r="73" ht="18" spans="1:5">
-      <c r="A73" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B73" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C73" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D73" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E73" s="4"/>
-    </row>
-    <row r="75" spans="1:5">
-      <c r="A75" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="B75" s="6"/>
-      <c r="C75" s="6"/>
-      <c r="D75" s="6"/>
-      <c r="E75" s="6"/>
-    </row>
-    <row r="76" ht="21" spans="1:5">
-      <c r="A76" s="7" t="s">
+    <row r="74" spans="1:5">
+      <c r="A74" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="B74" s="6"/>
+      <c r="C74" s="6"/>
+      <c r="D74" s="6"/>
+      <c r="E74" s="6"/>
+    </row>
+    <row r="75" ht="21" spans="1:5">
+      <c r="A75" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B76" s="7" t="s">
+      <c r="B75" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C76" s="7" t="s">
+      <c r="C75" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D76" s="7" t="s">
+      <c r="D75" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E76" s="7" t="s">
+      <c r="E75" s="7" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="76" ht="18" spans="1:5">
+      <c r="A76" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C76" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="D76" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E76" s="5" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="77" ht="18" spans="1:5">
       <c r="A77" s="5" t="s">
-        <v>6</v>
+        <v>108</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C77" s="8" t="s">
         <v>109</v>
       </c>
+      <c r="C77" s="9" t="s">
+        <v>110</v>
+      </c>
       <c r="D77" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E77" s="5" t="s">
-        <v>10</v>
-      </c>
+      <c r="E77" s="4"/>
     </row>
     <row r="78" ht="18" spans="1:5">
       <c r="A78" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C78" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="B78" s="5" t="s">
+      <c r="D78" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E78" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="79" ht="18" spans="1:5">
+      <c r="A79" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="C78" s="9" t="s">
+      <c r="B79" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="D78" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E78" s="4"/>
-    </row>
-    <row r="79" ht="18" spans="1:5">
-      <c r="A79" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B79" s="5" t="s">
-        <v>12</v>
-      </c>
       <c r="C79" s="9" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D79" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>45</v>
+        <v>113</v>
       </c>
     </row>
     <row r="80" ht="18" spans="1:5">
       <c r="A80" s="4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>71</v>
+        <v>115</v>
       </c>
       <c r="C80" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="D80" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E80" s="4" t="s">
-        <v>114</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="D80" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E80" s="4"/>
     </row>
     <row r="81" ht="18" spans="1:5">
       <c r="A81" s="4" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C81" s="9" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D81" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E81" s="4"/>
     </row>
-    <row r="82" ht="18" spans="1:5">
+    <row r="82" spans="1:5">
       <c r="A82" s="4" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="C82" s="9" t="s">
-        <v>112</v>
+        <v>119</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>120</v>
       </c>
       <c r="D82" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E82" s="4"/>
     </row>
-    <row r="83" spans="1:5">
+    <row r="83" ht="18" spans="1:5">
       <c r="A83" s="4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="C83" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
+      </c>
+      <c r="C83" s="8" t="s">
+        <v>107</v>
       </c>
       <c r="D83" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E83" s="4"/>
     </row>
-    <row r="84" ht="18" spans="1:5">
+    <row r="84" spans="1:5">
       <c r="A84" s="4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="C84" s="8" t="s">
-        <v>109</v>
+        <v>124</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>125</v>
       </c>
       <c r="D84" s="4" t="s">
         <v>9</v>
@@ -2971,13 +2968,13 @@
     </row>
     <row r="85" spans="1:5">
       <c r="A85" s="4" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>126</v>
+        <v>40</v>
       </c>
       <c r="D85" s="4" t="s">
         <v>9</v>
@@ -2986,13 +2983,13 @@
     </row>
     <row r="86" spans="1:5">
       <c r="A86" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="B86" s="4" t="s">
-        <v>96</v>
+        <v>35</v>
+      </c>
+      <c r="B86" t="s">
+        <v>36</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D86" s="4" t="s">
         <v>9</v>
@@ -3001,319 +2998,319 @@
     </row>
     <row r="87" spans="1:5">
       <c r="A87" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B87" t="s">
-        <v>36</v>
+        <v>38</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>39</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D87" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E87" s="4"/>
     </row>
-    <row r="88" spans="1:5">
+    <row r="88" ht="18" spans="1:5">
       <c r="A88" s="4" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C88" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D88" s="4" t="s">
-        <v>9</v>
+      <c r="D88" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="E88" s="4"/>
     </row>
-    <row r="89" ht="18" spans="1:5">
-      <c r="A89" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B89" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C89" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D89" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E89" s="4"/>
-    </row>
-    <row r="91" spans="1:5">
-      <c r="A91" s="6" t="s">
+    <row r="90" spans="1:5">
+      <c r="A90" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B90" s="6"/>
+      <c r="C90" s="6"/>
+      <c r="D90" s="6"/>
+      <c r="E90" s="6"/>
+    </row>
+    <row r="91" ht="21" spans="1:5">
+      <c r="A91" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B91" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C91" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D91" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E91" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" ht="18" spans="1:5">
+      <c r="A92" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B92" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C92" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D92" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E92" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="B91" s="6"/>
-      <c r="C91" s="6"/>
-      <c r="D91" s="6"/>
-      <c r="E91" s="6"/>
-    </row>
-    <row r="92" ht="21" spans="1:5">
-      <c r="A92" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B92" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C92" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D92" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E92" s="7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="93" ht="18" spans="1:5">
-      <c r="A93" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B93" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C93" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="D93" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E93" s="5" t="s">
-        <v>10</v>
+      <c r="B93" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C93" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D93" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E93" s="4" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="94" spans="1:5">
       <c r="A94" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C94" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D94" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E94" s="4" t="s">
         <v>129</v>
-      </c>
-      <c r="B94" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="C94" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="D94" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E94" s="4" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="95" spans="1:5">
       <c r="A95" s="4" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>83</v>
+        <v>15</v>
       </c>
       <c r="D95" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E95" s="4" t="s">
-        <v>130</v>
+        <v>45</v>
       </c>
     </row>
     <row r="96" spans="1:5">
       <c r="A96" s="4" t="s">
-        <v>13</v>
+        <v>130</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>14</v>
+        <v>131</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="D96" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E96" s="4" t="s">
-        <v>45</v>
-      </c>
+      <c r="E96" s="4"/>
     </row>
     <row r="97" spans="1:5">
       <c r="A97" s="4" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D97" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E97" s="4"/>
+      <c r="E97" s="4" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="98" spans="1:5">
       <c r="A98" s="4" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>30</v>
+        <v>81</v>
       </c>
       <c r="D98" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E98" s="4" t="s">
-        <v>135</v>
-      </c>
+      <c r="E98" s="4"/>
     </row>
     <row r="99" spans="1:5">
       <c r="A99" s="4" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>83</v>
+        <v>33</v>
       </c>
       <c r="D99" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E99" s="4"/>
+      <c r="E99" s="4" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="100" spans="1:5">
       <c r="A100" s="4" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E100" s="4" t="s">
-        <v>140</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="E100" s="4"/>
     </row>
     <row r="101" spans="1:5">
-      <c r="A101" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="B101" s="4" t="s">
-        <v>142</v>
+      <c r="A101" t="s">
+        <v>35</v>
+      </c>
+      <c r="B101" t="s">
+        <v>36</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="E101" s="4"/>
     </row>
     <row r="102" spans="1:5">
-      <c r="A102" t="s">
-        <v>35</v>
-      </c>
-      <c r="B102" t="s">
-        <v>36</v>
+      <c r="A102" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B102" s="4" t="s">
+        <v>39</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D102" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E102" s="4"/>
     </row>
-    <row r="103" spans="1:5">
+    <row r="103" ht="18" spans="1:5">
       <c r="A103" s="4" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C103" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D103" s="4" t="s">
-        <v>9</v>
+      <c r="D103" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="E103" s="4"/>
     </row>
-    <row r="104" ht="18" spans="1:5">
-      <c r="A104" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B104" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C104" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D104" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E104" s="4"/>
-    </row>
-    <row r="106" spans="1:5">
-      <c r="A106" s="6" t="s">
+    <row r="105" spans="1:5">
+      <c r="A105" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B105" s="6"/>
+      <c r="C105" s="6"/>
+      <c r="D105" s="6"/>
+      <c r="E105" s="6"/>
+    </row>
+    <row r="106" ht="21" spans="1:5">
+      <c r="A106" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B106" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C106" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D106" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E106" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="107" ht="18" spans="1:5">
+      <c r="A107" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B107" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C107" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D107" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E107" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="108" ht="18" spans="1:5">
+      <c r="A108" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="B106" s="6"/>
-      <c r="C106" s="6"/>
-      <c r="D106" s="6"/>
-      <c r="E106" s="6"/>
-    </row>
-    <row r="107" ht="21" spans="1:5">
-      <c r="A107" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B107" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C107" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D107" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E107" s="7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="108" ht="18" spans="1:5">
-      <c r="A108" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B108" s="5" t="s">
-        <v>7</v>
+      <c r="B108" s="4" t="s">
+        <v>144</v>
       </c>
       <c r="C108" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D108" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E108" s="5" t="s">
-        <v>10</v>
-      </c>
+      <c r="E108" s="4"/>
     </row>
     <row r="109" ht="18" spans="1:5">
       <c r="A109" s="4" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>145</v>
+        <v>112</v>
       </c>
       <c r="C109" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D109" s="5" t="s">
         <v>9</v>
@@ -3325,10 +3322,10 @@
         <v>146</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>71</v>
+        <v>147</v>
       </c>
       <c r="C110" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D110" s="5" t="s">
         <v>9</v>
@@ -3337,13 +3334,13 @@
     </row>
     <row r="111" ht="18" spans="1:5">
       <c r="A111" s="4" t="s">
-        <v>147</v>
+        <v>44</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>148</v>
+        <v>12</v>
       </c>
       <c r="C111" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D111" s="5" t="s">
         <v>9</v>
@@ -3352,13 +3349,13 @@
     </row>
     <row r="112" ht="18" spans="1:5">
       <c r="A112" s="4" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C112" s="5" t="s">
-        <v>83</v>
+        <v>14</v>
+      </c>
+      <c r="C112" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="D112" s="5" t="s">
         <v>9</v>
@@ -3367,148 +3364,148 @@
     </row>
     <row r="113" ht="18" spans="1:5">
       <c r="A113" s="4" t="s">
-        <v>13</v>
+        <v>148</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>14</v>
+        <v>149</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="D113" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E113" s="4"/>
-    </row>
-    <row r="114" ht="18" spans="1:5">
+      <c r="E113" s="4" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5">
       <c r="A114" s="4" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D114" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E114" s="4" t="s">
-        <v>140</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="D114" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E114" s="4"/>
     </row>
     <row r="115" spans="1:5">
-      <c r="A115" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="B115" s="4" t="s">
-        <v>142</v>
+      <c r="A115" t="s">
+        <v>35</v>
+      </c>
+      <c r="B115" t="s">
+        <v>36</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="D115" s="4" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="E115" s="4"/>
     </row>
     <row r="116" spans="1:5">
-      <c r="A116" t="s">
-        <v>35</v>
-      </c>
-      <c r="B116" t="s">
-        <v>36</v>
+      <c r="A116" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B116" s="4" t="s">
+        <v>39</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D116" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E116" s="4"/>
     </row>
-    <row r="117" spans="1:5">
+    <row r="117" ht="18" spans="1:5">
       <c r="A117" s="4" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C117" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D117" s="4" t="s">
-        <v>9</v>
+      <c r="D117" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="E117" s="4"/>
     </row>
-    <row r="118" ht="18" spans="1:5">
-      <c r="A118" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B118" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C118" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D118" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E118" s="4"/>
-    </row>
-    <row r="120" spans="1:5">
-      <c r="A120" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="B120" s="6"/>
-      <c r="C120" s="6"/>
-      <c r="D120" s="6"/>
-      <c r="E120" s="6"/>
-    </row>
-    <row r="121" ht="21" spans="1:5">
-      <c r="A121" s="7" t="s">
+    <row r="119" spans="1:5">
+      <c r="A119" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="B119" s="6"/>
+      <c r="C119" s="6"/>
+      <c r="D119" s="6"/>
+      <c r="E119" s="6"/>
+    </row>
+    <row r="120" ht="21" spans="1:5">
+      <c r="A120" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B121" s="7" t="s">
+      <c r="B120" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C121" s="7" t="s">
+      <c r="C120" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D121" s="7" t="s">
+      <c r="D120" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E121" s="7" t="s">
+      <c r="E120" s="7" t="s">
         <v>5</v>
       </c>
     </row>
+    <row r="121" ht="18" spans="1:5">
+      <c r="A121" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B121" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C121" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D121" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E121" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
     <row r="122" ht="18" spans="1:5">
-      <c r="A122" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B122" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C122" s="5" t="s">
-        <v>83</v>
+      <c r="A122" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B122" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C122" s="4" t="s">
+        <v>81</v>
       </c>
       <c r="D122" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E122" s="5" t="s">
-        <v>10</v>
-      </c>
+      <c r="E122" s="4"/>
     </row>
     <row r="123" ht="18" spans="1:5">
       <c r="A123" s="4" t="s">
-        <v>113</v>
+        <v>44</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D123" s="5" t="s">
         <v>9</v>
@@ -3517,13 +3514,13 @@
     </row>
     <row r="124" ht="18" spans="1:5">
       <c r="A124" s="4" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D124" s="5" t="s">
         <v>9</v>
@@ -3532,40 +3529,42 @@
     </row>
     <row r="125" ht="18" spans="1:5">
       <c r="A125" s="4" t="s">
-        <v>13</v>
+        <v>151</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>14</v>
+        <v>152</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="D125" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E125" s="4"/>
     </row>
-    <row r="126" ht="18" spans="1:5">
+    <row r="126" ht="36" spans="1:5">
       <c r="A126" s="4" t="s">
-        <v>152</v>
+        <v>88</v>
       </c>
       <c r="B126" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C126" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D126" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E126" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="C126" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="D126" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E126" s="4"/>
-    </row>
-    <row r="127" ht="36" spans="1:5">
+    </row>
+    <row r="127" ht="18" spans="1:5">
       <c r="A127" s="4" t="s">
-        <v>90</v>
+        <v>154</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>91</v>
+        <v>155</v>
       </c>
       <c r="C127" s="4" t="s">
         <v>33</v>
@@ -3573,19 +3572,17 @@
       <c r="D127" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E127" s="5" t="s">
-        <v>154</v>
-      </c>
+      <c r="E127" s="4"/>
     </row>
     <row r="128" ht="18" spans="1:5">
       <c r="A128" s="4" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>33</v>
+        <v>81</v>
       </c>
       <c r="D128" s="5" t="s">
         <v>9</v>
@@ -3594,45 +3591,45 @@
     </row>
     <row r="129" ht="18" spans="1:5">
       <c r="A129" s="4" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>83</v>
+        <v>125</v>
       </c>
       <c r="D129" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E129" s="4"/>
-    </row>
-    <row r="130" ht="18" spans="1:5">
+      <c r="E129" s="5" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5">
       <c r="A130" s="4" t="s">
-        <v>159</v>
+        <v>93</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>160</v>
+        <v>94</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="D130" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E130" s="5" t="s">
-        <v>161</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="D130" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E130" s="4"/>
     </row>
     <row r="131" spans="1:5">
       <c r="A131" s="4" t="s">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>96</v>
+        <v>36</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D131" s="4" t="s">
         <v>9</v>
@@ -3641,131 +3638,131 @@
     </row>
     <row r="132" spans="1:5">
       <c r="A132" s="4" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D132" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E132" s="4"/>
     </row>
-    <row r="133" spans="1:5">
+    <row r="133" ht="18" spans="1:5">
       <c r="A133" s="4" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C133" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D133" s="4" t="s">
-        <v>9</v>
+      <c r="D133" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="E133" s="4"/>
     </row>
-    <row r="134" ht="18" spans="1:5">
-      <c r="A134" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B134" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C134" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D134" s="5" t="s">
+    <row r="135" spans="1:5">
+      <c r="A135" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="B135" s="6"/>
+      <c r="C135" s="6"/>
+      <c r="D135" s="6"/>
+      <c r="E135" s="6"/>
+    </row>
+    <row r="136" ht="21" spans="1:5">
+      <c r="A136" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B136" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C136" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D136" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E136" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="137" ht="19" customHeight="1" spans="1:5">
+      <c r="A137" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B137" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C137" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="D137" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E137" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="138" ht="18" spans="1:5">
+      <c r="A138" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B138" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C138" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="D138" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E138" s="4"/>
+    </row>
+    <row r="139" ht="18" spans="1:5">
+      <c r="A139" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B139" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C139" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="D139" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E139" s="4"/>
+    </row>
+    <row r="140" ht="18" spans="1:5">
+      <c r="A140" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="B140" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="C140" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="D140" s="5" t="s">
         <v>22</v>
-      </c>
-      <c r="E134" s="4"/>
-    </row>
-    <row r="136" spans="1:5">
-      <c r="A136" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="B136" s="6"/>
-      <c r="C136" s="6"/>
-      <c r="D136" s="6"/>
-      <c r="E136" s="6"/>
-    </row>
-    <row r="137" ht="21" spans="1:5">
-      <c r="A137" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B137" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C137" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D137" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E137" s="7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="138" ht="19" customHeight="1" spans="1:5">
-      <c r="A138" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B138" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C138" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="D138" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E138" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="139" ht="18" spans="1:5">
-      <c r="A139" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B139" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C139" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="D139" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E139" s="4"/>
-    </row>
-    <row r="140" ht="18" spans="1:5">
-      <c r="A140" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B140" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C140" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="D140" s="5" t="s">
-        <v>9</v>
       </c>
       <c r="E140" s="4"/>
     </row>
     <row r="141" ht="18" spans="1:5">
       <c r="A141" s="4" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C141" s="9" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D141" s="5" t="s">
         <v>22</v>
@@ -3774,13 +3771,13 @@
     </row>
     <row r="142" ht="18" spans="1:5">
       <c r="A142" s="4" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="C142" s="9" t="s">
-        <v>112</v>
+        <v>168</v>
+      </c>
+      <c r="C142" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="D142" s="5" t="s">
         <v>22</v>
@@ -3789,10 +3786,10 @@
     </row>
     <row r="143" ht="18" spans="1:5">
       <c r="A143" s="4" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C143" s="4" t="s">
         <v>18</v>
@@ -3804,10 +3801,10 @@
     </row>
     <row r="144" ht="18" spans="1:5">
       <c r="A144" s="4" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C144" s="4" t="s">
         <v>18</v>
@@ -3819,10 +3816,10 @@
     </row>
     <row r="145" ht="18" spans="1:5">
       <c r="A145" s="4" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C145" s="4" t="s">
         <v>18</v>
@@ -3832,118 +3829,118 @@
       </c>
       <c r="E145" s="4"/>
     </row>
-    <row r="146" ht="18" spans="1:5">
+    <row r="146" spans="1:5">
       <c r="A146" s="4" t="s">
-        <v>174</v>
+        <v>35</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>175</v>
+        <v>36</v>
       </c>
       <c r="C146" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D146" s="5" t="s">
-        <v>22</v>
+        <v>37</v>
+      </c>
+      <c r="D146" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="E146" s="4"/>
     </row>
     <row r="147" spans="1:5">
       <c r="A147" s="4" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D147" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E147" s="4"/>
     </row>
-    <row r="148" spans="1:5">
+    <row r="148" ht="18" spans="1:5">
       <c r="A148" s="4" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C148" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D148" s="4" t="s">
-        <v>9</v>
+      <c r="D148" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="E148" s="4"/>
     </row>
-    <row r="149" ht="18" spans="1:5">
-      <c r="A149" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B149" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C149" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D149" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E149" s="4"/>
-    </row>
-    <row r="151" spans="1:5">
-      <c r="A151" s="6" t="s">
+    <row r="150" spans="1:5">
+      <c r="A150" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="B150" s="6"/>
+      <c r="C150" s="6"/>
+      <c r="D150" s="6"/>
+      <c r="E150" s="6"/>
+    </row>
+    <row r="151" ht="21" spans="1:5">
+      <c r="A151" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B151" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C151" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D151" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E151" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="152" ht="18" spans="1:5">
+      <c r="A152" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B152" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C152" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="D152" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E152" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="153" ht="18" spans="1:5">
+      <c r="A153" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="B151" s="6"/>
-      <c r="C151" s="6"/>
-      <c r="D151" s="6"/>
-      <c r="E151" s="6"/>
-    </row>
-    <row r="152" ht="21" spans="1:5">
-      <c r="A152" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B152" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C152" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D152" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E152" s="7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="153" ht="18" spans="1:5">
-      <c r="A153" s="5" t="s">
-        <v>6</v>
-      </c>
       <c r="B153" s="4" t="s">
-        <v>7</v>
+        <v>177</v>
       </c>
       <c r="C153" s="9" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D153" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E153" s="5" t="s">
-        <v>10</v>
-      </c>
+      <c r="E153" s="4"/>
     </row>
     <row r="154" ht="18" spans="1:5">
       <c r="A154" s="4" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="C154" s="9" t="s">
-        <v>112</v>
+        <v>179</v>
+      </c>
+      <c r="C154" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="D154" s="5" t="s">
         <v>9</v>
@@ -3952,10 +3949,10 @@
     </row>
     <row r="155" ht="18" spans="1:5">
       <c r="A155" s="4" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B155" s="4" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C155" s="4" t="s">
         <v>18</v>
@@ -3967,10 +3964,10 @@
     </row>
     <row r="156" ht="18" spans="1:5">
       <c r="A156" s="4" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C156" s="4" t="s">
         <v>18</v>
@@ -3980,118 +3977,118 @@
       </c>
       <c r="E156" s="4"/>
     </row>
-    <row r="157" ht="18" spans="1:5">
+    <row r="157" spans="1:5">
       <c r="A157" s="4" t="s">
-        <v>183</v>
+        <v>35</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>184</v>
+        <v>36</v>
       </c>
       <c r="C157" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D157" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D157" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E157" s="4"/>
     </row>
     <row r="158" spans="1:5">
       <c r="A158" s="4" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C158" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D158" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E158" s="4"/>
     </row>
-    <row r="159" spans="1:5">
+    <row r="159" ht="18" spans="1:5">
       <c r="A159" s="4" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C159" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D159" s="4" t="s">
-        <v>9</v>
+      <c r="D159" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="E159" s="4"/>
     </row>
-    <row r="160" ht="18" spans="1:5">
-      <c r="A160" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B160" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C160" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D160" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E160" s="4"/>
-    </row>
-    <row r="162" spans="1:5">
-      <c r="A162" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="B162" s="6"/>
-      <c r="C162" s="6"/>
-      <c r="D162" s="6"/>
-      <c r="E162" s="6"/>
-    </row>
-    <row r="163" ht="21" spans="1:5">
-      <c r="A163" s="7" t="s">
+    <row r="161" spans="1:5">
+      <c r="A161" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="B161" s="6"/>
+      <c r="C161" s="6"/>
+      <c r="D161" s="6"/>
+      <c r="E161" s="6"/>
+    </row>
+    <row r="162" ht="21" spans="1:5">
+      <c r="A162" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B163" s="7" t="s">
+      <c r="B162" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C163" s="7" t="s">
+      <c r="C162" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D163" s="7" t="s">
+      <c r="D162" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E163" s="7" t="s">
+      <c r="E162" s="7" t="s">
         <v>5</v>
       </c>
     </row>
+    <row r="163" ht="18" spans="1:5">
+      <c r="A163" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B163" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C163" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="D163" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E163" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
     <row r="164" ht="18" spans="1:5">
-      <c r="A164" s="5" t="s">
-        <v>6</v>
+      <c r="A164" s="4" t="s">
+        <v>176</v>
       </c>
       <c r="B164" s="4" t="s">
-        <v>7</v>
+        <v>112</v>
       </c>
       <c r="C164" s="9" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D164" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E164" s="5" t="s">
-        <v>10</v>
-      </c>
+      <c r="E164" s="4"/>
     </row>
     <row r="165" ht="18" spans="1:5">
       <c r="A165" s="4" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="B165" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C165" s="9" t="s">
-        <v>112</v>
+        <v>186</v>
+      </c>
+      <c r="C165" s="4" t="s">
+        <v>81</v>
       </c>
       <c r="D165" s="5" t="s">
         <v>9</v>
@@ -4100,13 +4097,13 @@
     </row>
     <row r="166" ht="18" spans="1:5">
       <c r="A166" s="4" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B166" s="4" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C166" s="4" t="s">
-        <v>83</v>
+        <v>40</v>
       </c>
       <c r="D166" s="5" t="s">
         <v>9</v>
@@ -4115,10 +4112,10 @@
     </row>
     <row r="167" ht="18" spans="1:5">
       <c r="A167" s="4" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B167" s="4" t="s">
-        <v>189</v>
+        <v>94</v>
       </c>
       <c r="C167" s="4" t="s">
         <v>40</v>
@@ -4128,30 +4125,30 @@
       </c>
       <c r="E167" s="4"/>
     </row>
-    <row r="168" ht="18" spans="1:5">
+    <row r="168" spans="1:5">
       <c r="A168" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B168" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C168" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="B168" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="C168" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D168" s="5" t="s">
+      <c r="D168" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E168" s="4"/>
     </row>
     <row r="169" spans="1:5">
       <c r="A169" s="4" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B169" s="4" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C169" s="4" t="s">
-        <v>191</v>
+        <v>40</v>
       </c>
       <c r="D169" s="4" t="s">
         <v>9</v>
@@ -4160,86 +4157,86 @@
     </row>
     <row r="170" spans="1:5">
       <c r="A170" s="4" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B170" s="4" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C170" s="4" t="s">
         <v>40</v>
       </c>
       <c r="D170" s="4" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="E170" s="4"/>
     </row>
-    <row r="171" spans="1:5">
-      <c r="A171" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B171" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C171" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D171" s="4" t="s">
+    <row r="172" spans="1:5">
+      <c r="A172" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="B172" s="6"/>
+      <c r="C172" s="6"/>
+      <c r="D172" s="6"/>
+      <c r="E172" s="6"/>
+    </row>
+    <row r="173" ht="21" spans="1:5">
+      <c r="A173" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B173" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C173" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D173" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E173" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="174" ht="18" spans="1:5">
+      <c r="A174" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B174" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C174" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="D174" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E174" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="175" ht="18" spans="1:5">
+      <c r="A175" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="B175" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="C175" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="D175" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E171" s="4"/>
-    </row>
-    <row r="173" spans="1:5">
-      <c r="A173" s="6" t="s">
-        <v>192</v>
-      </c>
-      <c r="B173" s="6"/>
-      <c r="C173" s="6"/>
-      <c r="D173" s="6"/>
-      <c r="E173" s="6"/>
-    </row>
-    <row r="174" ht="21" spans="1:5">
-      <c r="A174" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B174" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C174" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D174" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E174" s="7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="175" ht="18" spans="1:5">
-      <c r="A175" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B175" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C175" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="D175" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E175" s="5" t="s">
-        <v>10</v>
-      </c>
+      <c r="E175" s="4"/>
     </row>
     <row r="176" ht="18" spans="1:5">
       <c r="A176" s="4" t="s">
-        <v>193</v>
+        <v>111</v>
       </c>
       <c r="B176" s="4" t="s">
-        <v>194</v>
+        <v>112</v>
       </c>
       <c r="C176" s="9" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D176" s="5" t="s">
         <v>22</v>
@@ -4248,28 +4245,28 @@
     </row>
     <row r="177" ht="18" spans="1:5">
       <c r="A177" s="4" t="s">
-        <v>113</v>
+        <v>194</v>
       </c>
       <c r="B177" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C177" s="9" t="s">
-        <v>112</v>
+        <v>195</v>
+      </c>
+      <c r="C177" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="D177" s="5" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="E177" s="4"/>
     </row>
     <row r="178" ht="18" spans="1:5">
       <c r="A178" s="4" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B178" s="4" t="s">
-        <v>196</v>
+        <v>94</v>
       </c>
       <c r="C178" s="4" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="D178" s="5" t="s">
         <v>9</v>
@@ -4281,55 +4278,55 @@
         <v>197</v>
       </c>
       <c r="B179" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="C179" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D179" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="C179" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="D179" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E179" s="4"/>
     </row>
-    <row r="180" ht="18" spans="1:5">
+    <row r="180" spans="1:5">
       <c r="A180" s="4" t="s">
         <v>198</v>
       </c>
       <c r="B180" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="C180" s="9" t="s">
-        <v>112</v>
+        <v>199</v>
+      </c>
+      <c r="C180" s="4" t="s">
+        <v>59</v>
       </c>
       <c r="D180" s="4" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="E180" s="4"/>
     </row>
     <row r="181" spans="1:5">
       <c r="A181" s="4" t="s">
-        <v>199</v>
+        <v>35</v>
       </c>
       <c r="B181" s="4" t="s">
-        <v>200</v>
+        <v>36</v>
       </c>
       <c r="C181" s="4" t="s">
-        <v>59</v>
+        <v>190</v>
       </c>
       <c r="D181" s="4" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="E181" s="4"/>
     </row>
     <row r="182" spans="1:5">
       <c r="A182" s="4" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B182" s="4" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C182" s="4" t="s">
-        <v>191</v>
+        <v>40</v>
       </c>
       <c r="D182" s="4" t="s">
         <v>9</v>
@@ -4338,86 +4335,86 @@
     </row>
     <row r="183" spans="1:5">
       <c r="A183" s="4" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B183" s="4" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C183" s="4" t="s">
         <v>40</v>
       </c>
       <c r="D183" s="4" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="E183" s="4"/>
     </row>
-    <row r="184" spans="1:5">
-      <c r="A184" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B184" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C184" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D184" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E184" s="4"/>
-    </row>
-    <row r="186" spans="1:5">
-      <c r="A186" s="6" t="s">
+    <row r="185" spans="1:5">
+      <c r="A185" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="B185" s="6"/>
+      <c r="C185" s="6"/>
+      <c r="D185" s="6"/>
+      <c r="E185" s="6"/>
+    </row>
+    <row r="186" ht="21" spans="1:5">
+      <c r="A186" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B186" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C186" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D186" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E186" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="187" ht="18" spans="1:5">
+      <c r="A187" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B187" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C187" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="D187" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E187" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="188" ht="18" spans="1:5">
+      <c r="A188" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="B186" s="6"/>
-      <c r="C186" s="6"/>
-      <c r="D186" s="6"/>
-      <c r="E186" s="6"/>
-    </row>
-    <row r="187" ht="21" spans="1:5">
-      <c r="A187" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B187" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C187" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D187" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E187" s="7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="188" ht="18" spans="1:5">
-      <c r="A188" s="5" t="s">
-        <v>6</v>
-      </c>
       <c r="B188" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C188" s="10" t="s">
-        <v>83</v>
+        <v>202</v>
+      </c>
+      <c r="C188" s="11" t="s">
+        <v>203</v>
       </c>
       <c r="D188" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E188" s="5" t="s">
-        <v>10</v>
-      </c>
+      <c r="E188" s="4"/>
     </row>
     <row r="189" ht="18" spans="1:5">
       <c r="A189" s="4" t="s">
-        <v>202</v>
+        <v>44</v>
       </c>
       <c r="B189" s="4" t="s">
-        <v>203</v>
+        <v>12</v>
       </c>
       <c r="C189" s="11" t="s">
-        <v>204</v>
+        <v>8</v>
       </c>
       <c r="D189" s="5" t="s">
         <v>9</v>
@@ -4426,10 +4423,10 @@
     </row>
     <row r="190" ht="18" spans="1:5">
       <c r="A190" s="4" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="B190" s="4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C190" s="11" t="s">
         <v>8</v>
@@ -4441,13 +4438,13 @@
     </row>
     <row r="191" ht="18" spans="1:5">
       <c r="A191" s="4" t="s">
-        <v>13</v>
+        <v>204</v>
       </c>
       <c r="B191" s="4" t="s">
-        <v>14</v>
+        <v>205</v>
       </c>
       <c r="C191" s="11" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="D191" s="5" t="s">
         <v>9</v>
@@ -4456,40 +4453,40 @@
     </row>
     <row r="192" ht="18" spans="1:5">
       <c r="A192" s="4" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B192" s="4" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C192" s="11" t="s">
-        <v>30</v>
+        <v>203</v>
       </c>
       <c r="D192" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E192" s="4"/>
     </row>
-    <row r="193" ht="18" spans="1:5">
+    <row r="193" spans="1:5">
       <c r="A193" s="4" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B193" s="4" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C193" s="11" t="s">
-        <v>204</v>
-      </c>
-      <c r="D193" s="5" t="s">
-        <v>9</v>
+        <v>59</v>
+      </c>
+      <c r="D193" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="E193" s="4"/>
     </row>
     <row r="194" spans="1:5">
       <c r="A194" s="4" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B194" s="4" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C194" s="11" t="s">
         <v>59</v>
@@ -4501,10 +4498,10 @@
     </row>
     <row r="195" spans="1:5">
       <c r="A195" s="4" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B195" s="4" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C195" s="11" t="s">
         <v>59</v>
@@ -4516,10 +4513,10 @@
     </row>
     <row r="196" spans="1:5">
       <c r="A196" s="4" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B196" s="4" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C196" s="11" t="s">
         <v>59</v>
@@ -4531,10 +4528,10 @@
     </row>
     <row r="197" spans="1:5">
       <c r="A197" s="4" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B197" s="4" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C197" s="11" t="s">
         <v>59</v>
@@ -4544,33 +4541,31 @@
       </c>
       <c r="E197" s="4"/>
     </row>
-    <row r="198" spans="1:5">
+    <row r="198" ht="18" spans="1:5">
       <c r="A198" s="4" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B198" s="4" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C198" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="D198" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D198" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E198" s="4"/>
+    </row>
+    <row r="199" spans="1:5">
+      <c r="A199" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="B199" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C199" s="4"/>
+      <c r="D199" s="4" t="s">
         <v>22</v>
-      </c>
-      <c r="E198" s="4"/>
-    </row>
-    <row r="199" ht="18" spans="1:5">
-      <c r="A199" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="B199" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="C199" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D199" s="5" t="s">
-        <v>9</v>
       </c>
       <c r="E199" s="4"/>
     </row>
@@ -4579,7 +4574,7 @@
         <v>221</v>
       </c>
       <c r="B200" s="4" t="s">
-        <v>158</v>
+        <v>222</v>
       </c>
       <c r="C200" s="4"/>
       <c r="D200" s="4" t="s">
@@ -4589,10 +4584,10 @@
     </row>
     <row r="201" spans="1:5">
       <c r="A201" s="4" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B201" s="4" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C201" s="4"/>
       <c r="D201" s="4" t="s">
@@ -4602,26 +4597,28 @@
     </row>
     <row r="202" spans="1:5">
       <c r="A202" s="4" t="s">
-        <v>224</v>
+        <v>35</v>
       </c>
       <c r="B202" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="C202" s="4"/>
+        <v>36</v>
+      </c>
+      <c r="C202" s="4" t="s">
+        <v>190</v>
+      </c>
       <c r="D202" s="4" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="E202" s="4"/>
     </row>
     <row r="203" spans="1:5">
       <c r="A203" s="4" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B203" s="4" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C203" s="4" t="s">
-        <v>191</v>
+        <v>40</v>
       </c>
       <c r="D203" s="4" t="s">
         <v>9</v>
@@ -4630,33 +4627,18 @@
     </row>
     <row r="204" spans="1:5">
       <c r="A204" s="4" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B204" s="4" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C204" s="4" t="s">
         <v>40</v>
       </c>
       <c r="D204" s="4" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="E204" s="4"/>
-    </row>
-    <row r="205" spans="1:5">
-      <c r="A205" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B205" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C205" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D205" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E205" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -4664,16 +4646,16 @@
     <mergeCell ref="A17:E17"/>
     <mergeCell ref="A30:E30"/>
     <mergeCell ref="A42:E42"/>
-    <mergeCell ref="A62:E62"/>
-    <mergeCell ref="A75:E75"/>
-    <mergeCell ref="A91:E91"/>
-    <mergeCell ref="A106:E106"/>
-    <mergeCell ref="A120:E120"/>
-    <mergeCell ref="A136:E136"/>
-    <mergeCell ref="A151:E151"/>
-    <mergeCell ref="A162:E162"/>
-    <mergeCell ref="A173:E173"/>
-    <mergeCell ref="A186:E186"/>
+    <mergeCell ref="A61:E61"/>
+    <mergeCell ref="A74:E74"/>
+    <mergeCell ref="A90:E90"/>
+    <mergeCell ref="A105:E105"/>
+    <mergeCell ref="A119:E119"/>
+    <mergeCell ref="A135:E135"/>
+    <mergeCell ref="A150:E150"/>
+    <mergeCell ref="A161:E161"/>
+    <mergeCell ref="A172:E172"/>
+    <mergeCell ref="A185:E185"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/document/叨叨帮表设计.xlsx
+++ b/document/叨叨帮表设计.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyProject\git\yukz-yumi\pddHelp\document\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="28060" windowHeight="13920"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28065" windowHeight="13920"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="766" uniqueCount="229">
   <si>
     <t>用户信息表 user_info</t>
   </si>
@@ -342,6 +347,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>bigint</t>
@@ -350,6 +356,7 @@
       <rPr>
         <sz val="9"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>(20)</t>
@@ -366,6 +373,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>bigint</t>
@@ -374,6 +382,7 @@
       <rPr>
         <sz val="9"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>(20)</t>
@@ -532,6 +541,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>'是否放款 0:未放款/1:已放款'</t>
@@ -541,7 +551,7 @@
         <sz val="9"/>
         <color rgb="FFD4D4D4"/>
         <rFont val="Menlo"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>,</t>
     </r>
@@ -554,6 +564,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>varchar</t>
@@ -562,6 +573,7 @@
       <rPr>
         <sz val="9"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>(128)</t>
@@ -753,18 +765,28 @@
   <si>
     <t>handle_time</t>
   </si>
+  <si>
+    <t>任务单价</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>price</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="27">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="10">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -793,367 +815,55 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="9"/>
+      <color rgb="FFD4D4D4"/>
+      <name val="Menlo"/>
+      <family val="1"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
-      <color rgb="FFD4D4D4"/>
-      <name val="Menlo"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1176,263 +886,18 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1442,9 +907,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1461,65 +923,30 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1777,192 +1204,192 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1:E204"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E205"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="105" zoomScaleNormal="105" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="H46" sqref="H46"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="105" zoomScaleNormal="105" workbookViewId="0">
+      <selection activeCell="E69" sqref="E69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="26.6428571428571" customWidth="1"/>
+    <col min="1" max="1" width="26.625" customWidth="1"/>
     <col min="2" max="2" width="20.5" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="4" max="4" width="11.9285714285714" customWidth="1"/>
-    <col min="5" max="5" width="59.2857142857143" customWidth="1"/>
-    <col min="8" max="8" width="11.2857142857143" customWidth="1"/>
+    <col min="4" max="4" width="11.875" customWidth="1"/>
+    <col min="5" max="5" width="59.25" customWidth="1"/>
+    <col min="8" max="8" width="11.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-    </row>
-    <row r="2" ht="32" customHeight="1" spans="1:5">
-      <c r="A2" s="3" t="s">
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+    </row>
+    <row r="2" spans="1:5" ht="32.1" customHeight="1">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="4" t="s">
+      <c r="D3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="4"/>
+      <c r="D4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="3"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="4"/>
+      <c r="D5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="3"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="4"/>
+      <c r="D6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="3"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="4"/>
+      <c r="E7" s="3"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="4" t="s">
+      <c r="D8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B9" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="4"/>
+      <c r="D9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="3"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" s="4"/>
+      <c r="D10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="3"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" s="4" t="s">
+      <c r="D11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="3" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1970,607 +1397,607 @@
       <c r="A12" t="s">
         <v>35</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" s="4"/>
-    </row>
-    <row r="13" ht="18" spans="1:5">
-      <c r="A13" s="4" t="s">
+      <c r="D12" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="3"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E13" s="4"/>
-    </row>
-    <row r="14" ht="18" spans="1:5">
-      <c r="A14" s="4" t="s">
+      <c r="E13" s="3"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E14" s="4"/>
-    </row>
-    <row r="15" s="1" customFormat="1"/>
+      <c r="E14" s="3"/>
+    </row>
+    <row r="15" spans="1:5" s="1" customFormat="1"/>
     <row r="17" spans="1:5">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-    </row>
-    <row r="18" ht="32" customHeight="1" spans="1:5">
-      <c r="A18" s="3" t="s">
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+    </row>
+    <row r="18" spans="1:5" ht="32.1" customHeight="1">
+      <c r="A18" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="E18" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D19" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E19" s="4" t="s">
+      <c r="D19" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D20" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E20" s="4" t="s">
+      <c r="D20" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" s="3" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D21" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E21" s="4" t="s">
+      <c r="D21" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" s="3" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="4" t="s">
+      <c r="A22" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C22" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D22" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E22" s="4"/>
+      <c r="D22" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" s="3"/>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="4" t="s">
+      <c r="A23" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D23" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E23" s="4" t="s">
+      <c r="D23" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" s="3" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="4" t="s">
+      <c r="A24" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C24" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D24" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E24" s="4" t="s">
+      <c r="D24" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" s="3" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="4" t="s">
+      <c r="A25" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C25" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="D25" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E25" s="4" t="s">
+      <c r="D25" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25" s="3" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="4" t="s">
+      <c r="A26" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C26" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D26" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E26" s="4"/>
+      <c r="D26" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26" s="3"/>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="4" t="s">
+      <c r="A27" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="C27" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D27" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E27" s="4"/>
-    </row>
-    <row r="28" ht="18" spans="1:5">
-      <c r="A28" s="4" t="s">
+      <c r="D27" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E27" s="3"/>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C28" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="D28" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E28" s="4"/>
+      <c r="E28" s="3"/>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="6" t="s">
+      <c r="A30" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-    </row>
-    <row r="31" ht="21" spans="1:5">
-      <c r="A31" s="7" t="s">
+      <c r="B30" s="12"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+    </row>
+    <row r="31" spans="1:5" ht="18.75">
+      <c r="A31" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="B31" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C31" s="7" t="s">
+      <c r="C31" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D31" s="7" t="s">
+      <c r="D31" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E31" s="7" t="s">
+      <c r="E31" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="32" ht="18" spans="1:5">
-      <c r="A32" s="5" t="s">
+    <row r="32" spans="1:5">
+      <c r="A32" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="B32" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="C32" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D32" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E32" s="5" t="s">
+      <c r="D32" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E32" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="33" ht="18" spans="1:5">
-      <c r="A33" s="5" t="s">
+    <row r="33" spans="1:5">
+      <c r="A33" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="B33" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C33" s="5" t="s">
+      <c r="C33" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D33" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E33" s="5"/>
-    </row>
-    <row r="34" ht="18" spans="1:5">
-      <c r="A34" s="5" t="s">
+      <c r="D33" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E33" s="4"/>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="B34" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C34" s="5" t="s">
+      <c r="C34" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D34" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E34" s="5"/>
-    </row>
-    <row r="35" ht="18" spans="1:5">
-      <c r="A35" s="5" t="s">
+      <c r="D34" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E34" s="4"/>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="B35" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C35" s="5" t="s">
+      <c r="C35" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D35" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E35" s="5"/>
-    </row>
-    <row r="36" ht="18" spans="1:5">
-      <c r="A36" s="5" t="s">
+      <c r="D35" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E35" s="4"/>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B36" s="5" t="s">
+      <c r="B36" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C36" s="5" t="s">
+      <c r="C36" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="D36" s="5" t="s">
+      <c r="D36" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E36" s="5"/>
+      <c r="E36" s="4"/>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="4" t="s">
+      <c r="A37" s="3" t="s">
         <v>35</v>
       </c>
       <c r="B37" t="s">
         <v>36</v>
       </c>
-      <c r="C37" s="4" t="s">
+      <c r="C37" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D37" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E37" s="4"/>
-    </row>
-    <row r="38" ht="18" spans="1:5">
-      <c r="A38" s="5" t="s">
+      <c r="D37" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E37" s="3"/>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B38" s="5" t="s">
+      <c r="B38" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C38" s="5" t="s">
+      <c r="C38" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D38" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E38" s="5" t="s">
+      <c r="D38" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E38" s="4" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="4" t="s">
+      <c r="A39" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B39" s="4" t="s">
+      <c r="B39" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C39" s="4" t="s">
+      <c r="C39" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D39" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E39" s="4"/>
-    </row>
-    <row r="40" ht="18" spans="1:5">
-      <c r="A40" s="4" t="s">
+      <c r="D39" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E39" s="3"/>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B40" s="4" t="s">
+      <c r="B40" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C40" s="4" t="s">
+      <c r="C40" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D40" s="5" t="s">
+      <c r="D40" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E40" s="4"/>
+      <c r="E40" s="3"/>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42" s="6" t="s">
+      <c r="A42" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="B42" s="6"/>
-      <c r="C42" s="6"/>
-      <c r="D42" s="6"/>
-      <c r="E42" s="6"/>
-    </row>
-    <row r="43" ht="21" spans="1:5">
-      <c r="A43" s="7" t="s">
+      <c r="B42" s="12"/>
+      <c r="C42" s="12"/>
+      <c r="D42" s="12"/>
+      <c r="E42" s="12"/>
+    </row>
+    <row r="43" spans="1:5" ht="18.75">
+      <c r="A43" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B43" s="7" t="s">
+      <c r="B43" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C43" s="7" t="s">
+      <c r="C43" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D43" s="7" t="s">
+      <c r="D43" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E43" s="7" t="s">
+      <c r="E43" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="44" ht="18" spans="1:5">
-      <c r="A44" s="5" t="s">
+    <row r="44" spans="1:5">
+      <c r="A44" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B44" s="5" t="s">
+      <c r="B44" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C44" s="4" t="s">
+      <c r="C44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D44" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E44" s="5" t="s">
+      <c r="D44" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E44" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="45" spans="1:5">
-      <c r="A45" s="4" t="s">
+      <c r="A45" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B45" s="4" t="s">
+      <c r="B45" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C45" s="4" t="s">
+      <c r="C45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D45" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E45" s="4" t="s">
+      <c r="D45" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E45" s="3" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="46" spans="1:5">
-      <c r="A46" s="4" t="s">
+      <c r="A46" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B46" s="4" t="s">
+      <c r="B46" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C46" s="4" t="s">
+      <c r="C46" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D46" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E46" s="4" t="s">
+      <c r="D46" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E46" s="3" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="47" spans="1:5">
-      <c r="A47" s="4" t="s">
+      <c r="A47" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B47" s="4" t="s">
+      <c r="B47" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C47" s="4" t="s">
+      <c r="C47" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D47" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E47" s="4" t="s">
+      <c r="D47" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E47" s="3" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="48" ht="18" spans="1:5">
-      <c r="A48" s="4" t="s">
+    <row r="48" spans="1:5">
+      <c r="A48" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="B48" s="4" t="s">
+      <c r="B48" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="C48" s="5" t="s">
+      <c r="C48" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="D48" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E48" s="4" t="s">
+      <c r="D48" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E48" s="3" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="49" spans="1:5">
-      <c r="A49" s="4" t="s">
+      <c r="A49" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B49" s="4" t="s">
+      <c r="B49" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C49" s="4" t="s">
+      <c r="C49" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="D49" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E49" s="4" t="s">
+      <c r="D49" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E49" s="3" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="50" spans="1:5">
-      <c r="A50" s="4" t="s">
+      <c r="A50" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="B50" s="4" t="s">
+      <c r="B50" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="C50" s="4" t="s">
+      <c r="C50" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="D50" s="4" t="s">
+      <c r="D50" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E50" s="4"/>
-    </row>
-    <row r="51" ht="18" spans="1:5">
-      <c r="A51" s="4" t="s">
+      <c r="E50" s="3"/>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="B51" s="4" t="s">
+      <c r="B51" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C51" s="5" t="s">
+      <c r="C51" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D51" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E51" s="4" t="s">
+      <c r="D51" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E51" s="3" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="52" ht="18" spans="1:5">
-      <c r="A52" s="4" t="s">
+    <row r="52" spans="1:5">
+      <c r="A52" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="B52" s="4" t="s">
+      <c r="B52" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="C52" s="5" t="s">
+      <c r="C52" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D52" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E52" s="12" t="s">
+      <c r="D52" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E52" s="10" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="53" spans="1:5">
-      <c r="A53" s="4" t="s">
+      <c r="A53" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="B53" s="4" t="s">
+      <c r="B53" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C53" s="4" t="s">
+      <c r="C53" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D53" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E53" s="4"/>
+      <c r="D53" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E53" s="3"/>
     </row>
     <row r="54" spans="1:5">
-      <c r="A54" s="4" t="s">
+      <c r="A54" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="B54" s="4" t="s">
+      <c r="B54" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C54" s="4" t="s">
+      <c r="C54" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D54" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E54" s="4"/>
+      <c r="D54" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E54" s="3"/>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" t="s">
@@ -2579,502 +2006,500 @@
       <c r="B55" t="s">
         <v>36</v>
       </c>
-      <c r="C55" s="4" t="s">
+      <c r="C55" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D55" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E55" s="4"/>
+      <c r="D55" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E55" s="3"/>
     </row>
     <row r="56" spans="1:5">
-      <c r="A56" s="4" t="s">
+      <c r="A56" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B56" s="4" t="s">
+      <c r="B56" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C56" s="4" t="s">
+      <c r="C56" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D56" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E56" s="4"/>
-    </row>
-    <row r="57" ht="18" spans="1:5">
-      <c r="A57" s="4" t="s">
+      <c r="D56" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E56" s="3"/>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B57" s="4" t="s">
+      <c r="B57" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C57" s="4" t="s">
+      <c r="C57" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D57" s="5" t="s">
+      <c r="D57" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E57" s="4"/>
+      <c r="E57" s="3"/>
     </row>
     <row r="61" spans="1:5">
-      <c r="A61" s="6" t="s">
+      <c r="A61" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="B61" s="6"/>
-      <c r="C61" s="6"/>
-      <c r="D61" s="6"/>
-      <c r="E61" s="6"/>
-    </row>
-    <row r="62" ht="21" spans="1:5">
-      <c r="A62" s="7" t="s">
+      <c r="B61" s="12"/>
+      <c r="C61" s="12"/>
+      <c r="D61" s="12"/>
+      <c r="E61" s="12"/>
+    </row>
+    <row r="62" spans="1:5" ht="18.75">
+      <c r="A62" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B62" s="7" t="s">
+      <c r="B62" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C62" s="7" t="s">
+      <c r="C62" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D62" s="7" t="s">
+      <c r="D62" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E62" s="7" t="s">
+      <c r="E62" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="63" ht="18" spans="1:5">
-      <c r="A63" s="5" t="s">
+    <row r="63" spans="1:5">
+      <c r="A63" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B63" s="5" t="s">
+      <c r="B63" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C63" s="5" t="s">
+      <c r="C63" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="D63" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E63" s="5" t="s">
+      <c r="D63" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E63" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="64" ht="18" spans="1:5">
-      <c r="A64" s="5" t="s">
+    <row r="64" spans="1:5">
+      <c r="A64" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B64" s="5" t="s">
+      <c r="B64" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C64" s="5" t="s">
+      <c r="C64" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D64" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E64" s="4"/>
-    </row>
-    <row r="65" ht="18" spans="1:5">
-      <c r="A65" s="4" t="s">
+      <c r="D64" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E64" s="3"/>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="B65" s="4" t="s">
+      <c r="B65" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C65" s="5" t="s">
+      <c r="C65" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="D65" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E65" s="4"/>
-    </row>
-    <row r="66" ht="18" spans="1:5">
-      <c r="A66" s="4" t="s">
+      <c r="D65" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E65" s="3"/>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="B66" s="4" t="s">
+      <c r="B66" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="C66" s="5" t="s">
+      <c r="C66" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D66" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E66" s="4"/>
-    </row>
-    <row r="67" ht="18" spans="1:5">
-      <c r="A67" s="5" t="s">
+      <c r="D66" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E66" s="3"/>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="B67" s="4" t="s">
+      <c r="B67" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="C67" s="5" t="s">
+      <c r="C67" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="D67" s="5" t="s">
+      <c r="D67" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E67" s="4"/>
-    </row>
-    <row r="68" ht="18" spans="1:5">
-      <c r="A68" s="5" t="s">
+      <c r="E67" s="3"/>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="B68" s="5" t="s">
+      <c r="B68" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="C68" s="5" t="s">
+      <c r="C68" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="D68" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E68" s="4" t="s">
+      <c r="D68" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E68" s="3" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="69" ht="18" spans="1:5">
-      <c r="A69" s="5" t="s">
+    <row r="69" spans="1:5">
+      <c r="A69" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="B69" s="13" t="s">
+        <v>226</v>
+      </c>
+      <c r="C69" s="13" t="s">
+        <v>227</v>
+      </c>
+      <c r="D69" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="E69" s="3"/>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B69" s="5" t="s">
+      <c r="B70" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C69" s="5" t="s">
+      <c r="C70" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D69" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E69" s="4" t="s">
+      <c r="D70" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E70" s="3" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="70" spans="1:5">
-      <c r="A70" t="s">
+    <row r="71" spans="1:5">
+      <c r="A71" t="s">
         <v>35</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B71" t="s">
         <v>36</v>
       </c>
-      <c r="C70" s="4" t="s">
+      <c r="C71" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D70" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E70" s="4"/>
-    </row>
-    <row r="71" spans="1:5">
-      <c r="A71" s="4" t="s">
+      <c r="D71" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E71" s="3"/>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B71" s="4" t="s">
+      <c r="B72" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C71" s="4" t="s">
+      <c r="C72" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D71" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E71" s="4"/>
-    </row>
-    <row r="72" ht="18" spans="1:5">
-      <c r="A72" s="4" t="s">
+      <c r="D72" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E72" s="3"/>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B72" s="4" t="s">
+      <c r="B73" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C72" s="4" t="s">
+      <c r="C73" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D72" s="5" t="s">
+      <c r="D73" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E72" s="4"/>
-    </row>
-    <row r="74" spans="1:5">
-      <c r="A74" s="6" t="s">
+      <c r="E73" s="3"/>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="B74" s="6"/>
-      <c r="C74" s="6"/>
-      <c r="D74" s="6"/>
-      <c r="E74" s="6"/>
-    </row>
-    <row r="75" ht="21" spans="1:5">
-      <c r="A75" s="7" t="s">
+      <c r="B75" s="12"/>
+      <c r="C75" s="12"/>
+      <c r="D75" s="12"/>
+      <c r="E75" s="12"/>
+    </row>
+    <row r="76" spans="1:5" ht="18.75">
+      <c r="A76" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B75" s="7" t="s">
+      <c r="B76" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C75" s="7" t="s">
+      <c r="C76" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D75" s="7" t="s">
+      <c r="D76" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E75" s="7" t="s">
+      <c r="E76" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="76" ht="18" spans="1:5">
-      <c r="A76" s="5" t="s">
+    <row r="77" spans="1:5">
+      <c r="A77" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B76" s="5" t="s">
+      <c r="B77" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C76" s="8" t="s">
+      <c r="C77" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="D76" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E76" s="5" t="s">
+      <c r="D77" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E77" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="77" ht="18" spans="1:5">
-      <c r="A77" s="5" t="s">
+    <row r="78" spans="1:5">
+      <c r="A78" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="B77" s="5" t="s">
+      <c r="B78" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="C77" s="9" t="s">
+      <c r="C78" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="D77" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E77" s="4"/>
-    </row>
-    <row r="78" ht="18" spans="1:5">
-      <c r="A78" s="5" t="s">
+      <c r="D78" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E78" s="3"/>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B78" s="5" t="s">
+      <c r="B79" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C78" s="9" t="s">
+      <c r="C79" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="D78" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E78" s="4" t="s">
+      <c r="D79" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E79" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="79" ht="18" spans="1:5">
-      <c r="A79" s="4" t="s">
+    <row r="80" spans="1:5">
+      <c r="A80" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="B79" s="4" t="s">
+      <c r="B80" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="C79" s="9" t="s">
+      <c r="C80" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="D79" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E79" s="4" t="s">
+      <c r="D80" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E80" s="3" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="80" ht="18" spans="1:5">
-      <c r="A80" s="4" t="s">
+    <row r="81" spans="1:5">
+      <c r="A81" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="B80" s="4" t="s">
+      <c r="B81" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="C80" s="9" t="s">
+      <c r="C81" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="D80" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E80" s="4"/>
-    </row>
-    <row r="81" ht="18" spans="1:5">
-      <c r="A81" s="4" t="s">
+      <c r="D81" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E81" s="3"/>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="B81" s="4" t="s">
+      <c r="B82" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="C81" s="9" t="s">
+      <c r="C82" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="D81" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E81" s="4"/>
-    </row>
-    <row r="82" spans="1:5">
-      <c r="A82" s="4" t="s">
+      <c r="D82" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E82" s="3"/>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="B82" s="4" t="s">
+      <c r="B83" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="C82" s="4" t="s">
+      <c r="C83" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="D82" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E82" s="4"/>
-    </row>
-    <row r="83" ht="18" spans="1:5">
-      <c r="A83" s="4" t="s">
+      <c r="D83" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E83" s="3"/>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="B83" s="4" t="s">
+      <c r="B84" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="C83" s="8" t="s">
+      <c r="C84" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="D83" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E83" s="4"/>
-    </row>
-    <row r="84" spans="1:5">
-      <c r="A84" s="4" t="s">
+      <c r="D84" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E84" s="3"/>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="B84" s="4" t="s">
+      <c r="B85" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="C84" s="4" t="s">
+      <c r="C85" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="D84" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E84" s="4"/>
-    </row>
-    <row r="85" spans="1:5">
-      <c r="A85" s="4" t="s">
+      <c r="D85" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E85" s="3"/>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="B85" s="4" t="s">
+      <c r="B86" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C85" s="4" t="s">
+      <c r="C86" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D85" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E85" s="4"/>
-    </row>
-    <row r="86" spans="1:5">
-      <c r="A86" s="4" t="s">
+      <c r="D86" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E86" s="3"/>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B87" t="s">
         <v>36</v>
       </c>
-      <c r="C86" s="4" t="s">
+      <c r="C87" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D86" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E86" s="4"/>
-    </row>
-    <row r="87" spans="1:5">
-      <c r="A87" s="4" t="s">
+      <c r="D87" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E87" s="3"/>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B87" s="4" t="s">
+      <c r="B88" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C87" s="4" t="s">
+      <c r="C88" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D87" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E87" s="4"/>
-    </row>
-    <row r="88" ht="18" spans="1:5">
-      <c r="A88" s="4" t="s">
+      <c r="D88" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E88" s="3"/>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B88" s="4" t="s">
+      <c r="B89" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C88" s="4" t="s">
+      <c r="C89" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D88" s="5" t="s">
+      <c r="D89" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E88" s="4"/>
-    </row>
-    <row r="90" spans="1:5">
-      <c r="A90" s="6" t="s">
+      <c r="E89" s="3"/>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="B90" s="6"/>
-      <c r="C90" s="6"/>
-      <c r="D90" s="6"/>
-      <c r="E90" s="6"/>
-    </row>
-    <row r="91" ht="21" spans="1:5">
-      <c r="A91" s="7" t="s">
+      <c r="B91" s="12"/>
+      <c r="C91" s="12"/>
+      <c r="D91" s="12"/>
+      <c r="E91" s="12"/>
+    </row>
+    <row r="92" spans="1:5" ht="18.75">
+      <c r="A92" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B91" s="7" t="s">
+      <c r="B92" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C91" s="7" t="s">
+      <c r="C92" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D91" s="7" t="s">
+      <c r="D92" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E91" s="7" t="s">
+      <c r="E92" s="5" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="92" ht="18" spans="1:5">
-      <c r="A92" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B92" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C92" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="D92" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E92" s="5" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="93" spans="1:5">
       <c r="A93" s="4" t="s">
-        <v>128</v>
+        <v>6</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>109</v>
+        <v>7</v>
       </c>
       <c r="C93" s="4" t="s">
         <v>81</v>
@@ -3083,1581 +2508,1599 @@
         <v>9</v>
       </c>
       <c r="E93" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D94" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E94" s="3" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="94" spans="1:5">
-      <c r="A94" s="4" t="s">
+    <row r="95" spans="1:5">
+      <c r="A95" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B94" s="4" t="s">
+      <c r="B95" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C94" s="4" t="s">
+      <c r="C95" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="D94" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E94" s="4" t="s">
+      <c r="D95" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E95" s="3" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="95" spans="1:5">
-      <c r="A95" s="4" t="s">
+    <row r="96" spans="1:5">
+      <c r="A96" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B95" s="4" t="s">
+      <c r="B96" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C95" s="4" t="s">
+      <c r="C96" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D95" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E95" s="4" t="s">
+      <c r="D96" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E96" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="96" spans="1:5">
-      <c r="A96" s="4" t="s">
+    <row r="97" spans="1:5">
+      <c r="A97" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="B96" s="4" t="s">
+      <c r="B97" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="C96" s="4" t="s">
+      <c r="C97" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D96" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E96" s="4"/>
-    </row>
-    <row r="97" spans="1:5">
-      <c r="A97" s="4" t="s">
+      <c r="D97" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E97" s="3"/>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="B97" s="4" t="s">
+      <c r="B98" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="C97" s="4" t="s">
+      <c r="C98" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D97" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E97" s="4" t="s">
+      <c r="D98" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E98" s="3" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="98" spans="1:5">
-      <c r="A98" s="4" t="s">
+    <row r="99" spans="1:5">
+      <c r="A99" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="B98" s="4" t="s">
+      <c r="B99" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="C98" s="4" t="s">
+      <c r="C99" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="D98" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E98" s="4"/>
-    </row>
-    <row r="99" spans="1:5">
-      <c r="A99" s="4" t="s">
+      <c r="D99" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E99" s="3"/>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="B99" s="4" t="s">
+      <c r="B100" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="C99" s="4" t="s">
+      <c r="C100" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D99" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E99" s="4" t="s">
+      <c r="D100" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E100" s="3" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="100" spans="1:5">
-      <c r="A100" s="4" t="s">
+    <row r="101" spans="1:5">
+      <c r="A101" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="B100" s="4" t="s">
+      <c r="B101" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="C100" s="4" t="s">
+      <c r="C101" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="D100" s="4" t="s">
+      <c r="D101" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E100" s="4"/>
-    </row>
-    <row r="101" spans="1:5">
-      <c r="A101" t="s">
+      <c r="E101" s="3"/>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="A102" t="s">
         <v>35</v>
       </c>
-      <c r="B101" t="s">
+      <c r="B102" t="s">
         <v>36</v>
       </c>
-      <c r="C101" s="4" t="s">
+      <c r="C102" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D101" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E101" s="4"/>
-    </row>
-    <row r="102" spans="1:5">
-      <c r="A102" s="4" t="s">
+      <c r="D102" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E102" s="3"/>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="A103" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B102" s="4" t="s">
+      <c r="B103" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C102" s="4" t="s">
+      <c r="C103" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D102" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E102" s="4"/>
-    </row>
-    <row r="103" ht="18" spans="1:5">
-      <c r="A103" s="4" t="s">
+      <c r="D103" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E103" s="3"/>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="A104" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B103" s="4" t="s">
+      <c r="B104" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C103" s="4" t="s">
+      <c r="C104" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D103" s="5" t="s">
+      <c r="D104" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E103" s="4"/>
-    </row>
-    <row r="105" spans="1:5">
-      <c r="A105" s="6" t="s">
+      <c r="E104" s="3"/>
+    </row>
+    <row r="106" spans="1:5">
+      <c r="A106" s="12" t="s">
         <v>142</v>
       </c>
-      <c r="B105" s="6"/>
-      <c r="C105" s="6"/>
-      <c r="D105" s="6"/>
-      <c r="E105" s="6"/>
-    </row>
-    <row r="106" ht="21" spans="1:5">
-      <c r="A106" s="7" t="s">
+      <c r="B106" s="12"/>
+      <c r="C106" s="12"/>
+      <c r="D106" s="12"/>
+      <c r="E106" s="12"/>
+    </row>
+    <row r="107" spans="1:5" ht="18.75">
+      <c r="A107" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B106" s="7" t="s">
+      <c r="B107" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C106" s="7" t="s">
+      <c r="C107" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D106" s="7" t="s">
+      <c r="D107" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E106" s="7" t="s">
+      <c r="E107" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="107" ht="18" spans="1:5">
-      <c r="A107" s="5" t="s">
+    <row r="108" spans="1:5">
+      <c r="A108" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B107" s="5" t="s">
+      <c r="B108" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C107" s="5" t="s">
+      <c r="C108" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="D107" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E107" s="5" t="s">
+      <c r="D108" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E108" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="108" ht="18" spans="1:5">
-      <c r="A108" s="4" t="s">
+    <row r="109" spans="1:5">
+      <c r="A109" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="B108" s="4" t="s">
+      <c r="B109" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="C108" s="5" t="s">
+      <c r="C109" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="D108" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E108" s="4"/>
-    </row>
-    <row r="109" ht="18" spans="1:5">
-      <c r="A109" s="4" t="s">
+      <c r="D109" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E109" s="3"/>
+    </row>
+    <row r="110" spans="1:5">
+      <c r="A110" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="B109" s="4" t="s">
+      <c r="B110" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="C109" s="5" t="s">
+      <c r="C110" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="D109" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E109" s="4"/>
-    </row>
-    <row r="110" ht="18" spans="1:5">
-      <c r="A110" s="4" t="s">
+      <c r="D110" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E110" s="3"/>
+    </row>
+    <row r="111" spans="1:5">
+      <c r="A111" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="B110" s="4" t="s">
+      <c r="B111" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="C110" s="5" t="s">
+      <c r="C111" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="D110" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E110" s="4"/>
-    </row>
-    <row r="111" ht="18" spans="1:5">
-      <c r="A111" s="4" t="s">
+      <c r="D111" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E111" s="3"/>
+    </row>
+    <row r="112" spans="1:5">
+      <c r="A112" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B111" s="4" t="s">
+      <c r="B112" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C111" s="5" t="s">
+      <c r="C112" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="D111" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E111" s="4"/>
-    </row>
-    <row r="112" ht="18" spans="1:5">
-      <c r="A112" s="4" t="s">
+      <c r="D112" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E112" s="3"/>
+    </row>
+    <row r="113" spans="1:5">
+      <c r="A113" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B112" s="4" t="s">
+      <c r="B113" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C112" s="4" t="s">
+      <c r="C113" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D112" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E112" s="4"/>
-    </row>
-    <row r="113" ht="18" spans="1:5">
-      <c r="A113" s="4" t="s">
+      <c r="D113" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E113" s="3"/>
+    </row>
+    <row r="114" spans="1:5">
+      <c r="A114" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="B113" s="4" t="s">
+      <c r="B114" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="C113" s="4" t="s">
+      <c r="C114" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D113" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E113" s="4" t="s">
+      <c r="D114" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E114" s="3" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="114" spans="1:5">
-      <c r="A114" s="4" t="s">
+    <row r="115" spans="1:5">
+      <c r="A115" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="B114" s="4" t="s">
+      <c r="B115" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="C114" s="4" t="s">
+      <c r="C115" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="D114" s="4" t="s">
+      <c r="D115" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E114" s="4"/>
-    </row>
-    <row r="115" spans="1:5">
-      <c r="A115" t="s">
+      <c r="E115" s="3"/>
+    </row>
+    <row r="116" spans="1:5">
+      <c r="A116" t="s">
         <v>35</v>
       </c>
-      <c r="B115" t="s">
+      <c r="B116" t="s">
         <v>36</v>
       </c>
-      <c r="C115" s="4" t="s">
+      <c r="C116" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D115" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E115" s="4"/>
-    </row>
-    <row r="116" spans="1:5">
-      <c r="A116" s="4" t="s">
+      <c r="D116" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E116" s="3"/>
+    </row>
+    <row r="117" spans="1:5">
+      <c r="A117" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B116" s="4" t="s">
+      <c r="B117" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C116" s="4" t="s">
+      <c r="C117" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D116" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E116" s="4"/>
-    </row>
-    <row r="117" ht="18" spans="1:5">
-      <c r="A117" s="4" t="s">
+      <c r="D117" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E117" s="3"/>
+    </row>
+    <row r="118" spans="1:5">
+      <c r="A118" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B117" s="4" t="s">
+      <c r="B118" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C117" s="4" t="s">
+      <c r="C118" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D117" s="5" t="s">
+      <c r="D118" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E117" s="4"/>
-    </row>
-    <row r="119" spans="1:5">
-      <c r="A119" s="6" t="s">
+      <c r="E118" s="3"/>
+    </row>
+    <row r="120" spans="1:5">
+      <c r="A120" s="12" t="s">
         <v>150</v>
       </c>
-      <c r="B119" s="6"/>
-      <c r="C119" s="6"/>
-      <c r="D119" s="6"/>
-      <c r="E119" s="6"/>
-    </row>
-    <row r="120" ht="21" spans="1:5">
-      <c r="A120" s="7" t="s">
+      <c r="B120" s="12"/>
+      <c r="C120" s="12"/>
+      <c r="D120" s="12"/>
+      <c r="E120" s="12"/>
+    </row>
+    <row r="121" spans="1:5" ht="18.75">
+      <c r="A121" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B120" s="7" t="s">
+      <c r="B121" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C120" s="7" t="s">
+      <c r="C121" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D120" s="7" t="s">
+      <c r="D121" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E120" s="7" t="s">
+      <c r="E121" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="121" ht="18" spans="1:5">
-      <c r="A121" s="5" t="s">
+    <row r="122" spans="1:5">
+      <c r="A122" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B121" s="5" t="s">
+      <c r="B122" s="4" t="s">
         <v>7</v>
-      </c>
-      <c r="C121" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="D121" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E121" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="122" ht="18" spans="1:5">
-      <c r="A122" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="B122" s="4" t="s">
-        <v>112</v>
       </c>
       <c r="C122" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="D122" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E122" s="4"/>
-    </row>
-    <row r="123" ht="18" spans="1:5">
-      <c r="A123" s="4" t="s">
+      <c r="D122" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E122" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5">
+      <c r="A123" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B123" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C123" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D123" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E123" s="3"/>
+    </row>
+    <row r="124" spans="1:5">
+      <c r="A124" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B123" s="4" t="s">
+      <c r="B124" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C123" s="4" t="s">
+      <c r="C124" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="D123" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E123" s="4"/>
-    </row>
-    <row r="124" ht="18" spans="1:5">
-      <c r="A124" s="4" t="s">
+      <c r="D124" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E124" s="3"/>
+    </row>
+    <row r="125" spans="1:5">
+      <c r="A125" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B124" s="4" t="s">
+      <c r="B125" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C124" s="4" t="s">
+      <c r="C125" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="D124" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E124" s="4"/>
-    </row>
-    <row r="125" ht="18" spans="1:5">
-      <c r="A125" s="4" t="s">
+      <c r="D125" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E125" s="3"/>
+    </row>
+    <row r="126" spans="1:5">
+      <c r="A126" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="B125" s="4" t="s">
+      <c r="B126" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="C125" s="4" t="s">
+      <c r="C126" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="D125" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E125" s="4"/>
-    </row>
-    <row r="126" ht="36" spans="1:5">
-      <c r="A126" s="4" t="s">
+      <c r="D126" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E126" s="3"/>
+    </row>
+    <row r="127" spans="1:5">
+      <c r="A127" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="B126" s="4" t="s">
+      <c r="B127" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="C126" s="4" t="s">
+      <c r="C127" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D126" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E126" s="5" t="s">
+      <c r="D127" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E127" s="4" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="127" ht="18" spans="1:5">
-      <c r="A127" s="4" t="s">
+    <row r="128" spans="1:5">
+      <c r="A128" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="B127" s="4" t="s">
+      <c r="B128" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="C127" s="4" t="s">
+      <c r="C128" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D127" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E127" s="4"/>
-    </row>
-    <row r="128" ht="18" spans="1:5">
-      <c r="A128" s="4" t="s">
+      <c r="D128" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E128" s="3"/>
+    </row>
+    <row r="129" spans="1:5">
+      <c r="A129" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="B128" s="4" t="s">
+      <c r="B129" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="C128" s="4" t="s">
+      <c r="C129" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="D128" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E128" s="4"/>
-    </row>
-    <row r="129" ht="18" spans="1:5">
-      <c r="A129" s="4" t="s">
+      <c r="D129" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E129" s="3"/>
+    </row>
+    <row r="130" spans="1:5" ht="15">
+      <c r="A130" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="B129" s="4" t="s">
+      <c r="B130" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="C129" s="4" t="s">
+      <c r="C130" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="D129" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E129" s="5" t="s">
+      <c r="D130" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E130" s="4" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="130" spans="1:5">
-      <c r="A130" s="4" t="s">
+    <row r="131" spans="1:5">
+      <c r="A131" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="B130" s="4" t="s">
+      <c r="B131" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C130" s="4" t="s">
+      <c r="C131" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D130" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E130" s="4"/>
-    </row>
-    <row r="131" spans="1:5">
-      <c r="A131" s="4" t="s">
+      <c r="D131" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E131" s="3"/>
+    </row>
+    <row r="132" spans="1:5">
+      <c r="A132" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B131" s="4" t="s">
+      <c r="B132" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C131" s="4" t="s">
+      <c r="C132" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D131" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E131" s="4"/>
-    </row>
-    <row r="132" spans="1:5">
-      <c r="A132" s="4" t="s">
+      <c r="D132" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E132" s="3"/>
+    </row>
+    <row r="133" spans="1:5">
+      <c r="A133" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B132" s="4" t="s">
+      <c r="B133" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C132" s="4" t="s">
+      <c r="C133" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D132" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E132" s="4"/>
-    </row>
-    <row r="133" ht="18" spans="1:5">
-      <c r="A133" s="4" t="s">
+      <c r="D133" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E133" s="3"/>
+    </row>
+    <row r="134" spans="1:5">
+      <c r="A134" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B133" s="4" t="s">
+      <c r="B134" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C133" s="4" t="s">
+      <c r="C134" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D133" s="5" t="s">
+      <c r="D134" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E133" s="4"/>
-    </row>
-    <row r="135" spans="1:5">
-      <c r="A135" s="6" t="s">
+      <c r="E134" s="3"/>
+    </row>
+    <row r="136" spans="1:5">
+      <c r="A136" s="12" t="s">
         <v>161</v>
       </c>
-      <c r="B135" s="6"/>
-      <c r="C135" s="6"/>
-      <c r="D135" s="6"/>
-      <c r="E135" s="6"/>
-    </row>
-    <row r="136" ht="21" spans="1:5">
-      <c r="A136" s="7" t="s">
+      <c r="B136" s="12"/>
+      <c r="C136" s="12"/>
+      <c r="D136" s="12"/>
+      <c r="E136" s="12"/>
+    </row>
+    <row r="137" spans="1:5" ht="18.75">
+      <c r="A137" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B136" s="7" t="s">
+      <c r="B137" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C136" s="7" t="s">
+      <c r="C137" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D136" s="7" t="s">
+      <c r="D137" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E136" s="7" t="s">
+      <c r="E137" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="137" ht="19" customHeight="1" spans="1:5">
-      <c r="A137" s="5" t="s">
+    <row r="138" spans="1:5" ht="18.95" customHeight="1">
+      <c r="A138" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B137" s="4" t="s">
+      <c r="B138" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C137" s="9" t="s">
+      <c r="C138" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="D137" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E137" s="5" t="s">
+      <c r="D138" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E138" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="138" ht="18" spans="1:5">
-      <c r="A138" s="4" t="s">
+    <row r="139" spans="1:5">
+      <c r="A139" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B138" s="4" t="s">
+      <c r="B139" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C138" s="9" t="s">
+      <c r="C139" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="D138" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E138" s="4"/>
-    </row>
-    <row r="139" ht="18" spans="1:5">
-      <c r="A139" s="9" t="s">
+      <c r="D139" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E139" s="3"/>
+    </row>
+    <row r="140" spans="1:5">
+      <c r="A140" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B139" s="9" t="s">
+      <c r="B140" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C139" s="9" t="s">
+      <c r="C140" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="D139" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E139" s="4"/>
-    </row>
-    <row r="140" ht="18" spans="1:5">
-      <c r="A140" s="4" t="s">
+      <c r="D140" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E140" s="3"/>
+    </row>
+    <row r="141" spans="1:5">
+      <c r="A141" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="B140" s="4" t="s">
+      <c r="B141" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="C140" s="9" t="s">
+      <c r="C141" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="D140" s="5" t="s">
+      <c r="D141" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E140" s="4"/>
-    </row>
-    <row r="141" ht="18" spans="1:5">
-      <c r="A141" s="4" t="s">
+      <c r="E141" s="3"/>
+    </row>
+    <row r="142" spans="1:5">
+      <c r="A142" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="B141" s="4" t="s">
+      <c r="B142" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="C141" s="9" t="s">
+      <c r="C142" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="D141" s="5" t="s">
+      <c r="D142" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E141" s="4"/>
-    </row>
-    <row r="142" ht="18" spans="1:5">
-      <c r="A142" s="4" t="s">
+      <c r="E142" s="3"/>
+    </row>
+    <row r="143" spans="1:5">
+      <c r="A143" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="B142" s="4" t="s">
+      <c r="B143" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="C142" s="4" t="s">
+      <c r="C143" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D142" s="5" t="s">
+      <c r="D143" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E142" s="4"/>
-    </row>
-    <row r="143" ht="18" spans="1:5">
-      <c r="A143" s="4" t="s">
+      <c r="E143" s="3"/>
+    </row>
+    <row r="144" spans="1:5">
+      <c r="A144" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="B143" s="4" t="s">
+      <c r="B144" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="C143" s="4" t="s">
+      <c r="C144" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D143" s="5" t="s">
+      <c r="D144" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E143" s="4"/>
-    </row>
-    <row r="144" ht="18" spans="1:5">
-      <c r="A144" s="4" t="s">
+      <c r="E144" s="3"/>
+    </row>
+    <row r="145" spans="1:5">
+      <c r="A145" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="B144" s="4" t="s">
+      <c r="B145" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="C144" s="4" t="s">
+      <c r="C145" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D144" s="5" t="s">
+      <c r="D145" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E144" s="4"/>
-    </row>
-    <row r="145" ht="18" spans="1:5">
-      <c r="A145" s="4" t="s">
+      <c r="E145" s="3"/>
+    </row>
+    <row r="146" spans="1:5">
+      <c r="A146" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="B145" s="4" t="s">
+      <c r="B146" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="C145" s="4" t="s">
+      <c r="C146" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D145" s="5" t="s">
+      <c r="D146" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E145" s="4"/>
-    </row>
-    <row r="146" spans="1:5">
-      <c r="A146" s="4" t="s">
+      <c r="E146" s="3"/>
+    </row>
+    <row r="147" spans="1:5">
+      <c r="A147" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B146" s="4" t="s">
+      <c r="B147" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C146" s="4" t="s">
+      <c r="C147" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D146" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E146" s="4"/>
-    </row>
-    <row r="147" spans="1:5">
-      <c r="A147" s="4" t="s">
+      <c r="D147" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E147" s="3"/>
+    </row>
+    <row r="148" spans="1:5">
+      <c r="A148" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B147" s="4" t="s">
+      <c r="B148" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C147" s="4" t="s">
+      <c r="C148" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D147" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E147" s="4"/>
-    </row>
-    <row r="148" ht="18" spans="1:5">
-      <c r="A148" s="4" t="s">
+      <c r="D148" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E148" s="3"/>
+    </row>
+    <row r="149" spans="1:5">
+      <c r="A149" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B148" s="4" t="s">
+      <c r="B149" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C148" s="4" t="s">
+      <c r="C149" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D148" s="5" t="s">
+      <c r="D149" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E148" s="4"/>
-    </row>
-    <row r="150" spans="1:5">
-      <c r="A150" s="6" t="s">
+      <c r="E149" s="3"/>
+    </row>
+    <row r="151" spans="1:5">
+      <c r="A151" s="12" t="s">
         <v>175</v>
       </c>
-      <c r="B150" s="6"/>
-      <c r="C150" s="6"/>
-      <c r="D150" s="6"/>
-      <c r="E150" s="6"/>
-    </row>
-    <row r="151" ht="21" spans="1:5">
-      <c r="A151" s="7" t="s">
+      <c r="B151" s="12"/>
+      <c r="C151" s="12"/>
+      <c r="D151" s="12"/>
+      <c r="E151" s="12"/>
+    </row>
+    <row r="152" spans="1:5" ht="18.75">
+      <c r="A152" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B151" s="7" t="s">
+      <c r="B152" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C151" s="7" t="s">
+      <c r="C152" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D151" s="7" t="s">
+      <c r="D152" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E151" s="7" t="s">
+      <c r="E152" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="152" ht="18" spans="1:5">
-      <c r="A152" s="5" t="s">
+    <row r="153" spans="1:5">
+      <c r="A153" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B152" s="4" t="s">
+      <c r="B153" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C152" s="9" t="s">
+      <c r="C153" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="D152" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E152" s="5" t="s">
+      <c r="D153" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E153" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="153" ht="18" spans="1:5">
-      <c r="A153" s="4" t="s">
+    <row r="154" spans="1:5">
+      <c r="A154" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="B153" s="4" t="s">
+      <c r="B154" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="C153" s="9" t="s">
+      <c r="C154" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="D153" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E153" s="4"/>
-    </row>
-    <row r="154" ht="18" spans="1:5">
-      <c r="A154" s="4" t="s">
+      <c r="D154" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E154" s="3"/>
+    </row>
+    <row r="155" spans="1:5">
+      <c r="A155" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="B154" s="4" t="s">
+      <c r="B155" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="C154" s="4" t="s">
+      <c r="C155" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D154" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E154" s="4"/>
-    </row>
-    <row r="155" ht="18" spans="1:5">
-      <c r="A155" s="4" t="s">
+      <c r="D155" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E155" s="3"/>
+    </row>
+    <row r="156" spans="1:5">
+      <c r="A156" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="B155" s="4" t="s">
+      <c r="B156" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="C155" s="4" t="s">
+      <c r="C156" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D155" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E155" s="4"/>
-    </row>
-    <row r="156" ht="18" spans="1:5">
-      <c r="A156" s="4" t="s">
+      <c r="D156" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E156" s="3"/>
+    </row>
+    <row r="157" spans="1:5">
+      <c r="A157" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="B156" s="4" t="s">
+      <c r="B157" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="C156" s="4" t="s">
+      <c r="C157" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D156" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E156" s="4"/>
-    </row>
-    <row r="157" spans="1:5">
-      <c r="A157" s="4" t="s">
+      <c r="D157" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E157" s="3"/>
+    </row>
+    <row r="158" spans="1:5">
+      <c r="A158" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B157" s="4" t="s">
+      <c r="B158" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C157" s="4" t="s">
+      <c r="C158" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D157" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E157" s="4"/>
-    </row>
-    <row r="158" spans="1:5">
-      <c r="A158" s="4" t="s">
+      <c r="D158" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E158" s="3"/>
+    </row>
+    <row r="159" spans="1:5">
+      <c r="A159" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B158" s="4" t="s">
+      <c r="B159" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C158" s="4" t="s">
+      <c r="C159" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D158" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E158" s="4"/>
-    </row>
-    <row r="159" ht="18" spans="1:5">
-      <c r="A159" s="4" t="s">
+      <c r="D159" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E159" s="3"/>
+    </row>
+    <row r="160" spans="1:5">
+      <c r="A160" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B159" s="4" t="s">
+      <c r="B160" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C159" s="4" t="s">
+      <c r="C160" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D159" s="5" t="s">
+      <c r="D160" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E159" s="4"/>
-    </row>
-    <row r="161" spans="1:5">
-      <c r="A161" s="6" t="s">
+      <c r="E160" s="3"/>
+    </row>
+    <row r="162" spans="1:5">
+      <c r="A162" s="12" t="s">
         <v>184</v>
       </c>
-      <c r="B161" s="6"/>
-      <c r="C161" s="6"/>
-      <c r="D161" s="6"/>
-      <c r="E161" s="6"/>
-    </row>
-    <row r="162" ht="21" spans="1:5">
-      <c r="A162" s="7" t="s">
+      <c r="B162" s="12"/>
+      <c r="C162" s="12"/>
+      <c r="D162" s="12"/>
+      <c r="E162" s="12"/>
+    </row>
+    <row r="163" spans="1:5" ht="18.75">
+      <c r="A163" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B162" s="7" t="s">
+      <c r="B163" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C162" s="7" t="s">
+      <c r="C163" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D162" s="7" t="s">
+      <c r="D163" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E162" s="7" t="s">
+      <c r="E163" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="163" ht="18" spans="1:5">
-      <c r="A163" s="5" t="s">
+    <row r="164" spans="1:5">
+      <c r="A164" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B163" s="4" t="s">
+      <c r="B164" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C163" s="9" t="s">
+      <c r="C164" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="D163" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E163" s="5" t="s">
+      <c r="D164" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E164" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="164" ht="18" spans="1:5">
-      <c r="A164" s="4" t="s">
+    <row r="165" spans="1:5">
+      <c r="A165" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="B164" s="4" t="s">
+      <c r="B165" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="C164" s="9" t="s">
+      <c r="C165" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="D164" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E164" s="4"/>
-    </row>
-    <row r="165" ht="18" spans="1:5">
-      <c r="A165" s="4" t="s">
+      <c r="D165" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E165" s="3"/>
+    </row>
+    <row r="166" spans="1:5">
+      <c r="A166" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="B165" s="4" t="s">
+      <c r="B166" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="C165" s="4" t="s">
+      <c r="C166" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="D165" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E165" s="4"/>
-    </row>
-    <row r="166" ht="18" spans="1:5">
-      <c r="A166" s="4" t="s">
+      <c r="D166" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E166" s="3"/>
+    </row>
+    <row r="167" spans="1:5">
+      <c r="A167" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="B166" s="4" t="s">
+      <c r="B167" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="C166" s="4" t="s">
+      <c r="C167" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D166" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E166" s="4"/>
-    </row>
-    <row r="167" ht="18" spans="1:5">
-      <c r="A167" s="4" t="s">
+      <c r="D167" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E167" s="3"/>
+    </row>
+    <row r="168" spans="1:5">
+      <c r="A168" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="B167" s="4" t="s">
+      <c r="B168" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C167" s="4" t="s">
+      <c r="C168" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D167" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E167" s="4"/>
-    </row>
-    <row r="168" spans="1:5">
-      <c r="A168" s="4" t="s">
+      <c r="D168" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E168" s="3"/>
+    </row>
+    <row r="169" spans="1:5">
+      <c r="A169" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B168" s="4" t="s">
+      <c r="B169" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C168" s="4" t="s">
+      <c r="C169" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="D168" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E168" s="4"/>
-    </row>
-    <row r="169" spans="1:5">
-      <c r="A169" s="4" t="s">
+      <c r="D169" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E169" s="3"/>
+    </row>
+    <row r="170" spans="1:5">
+      <c r="A170" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B169" s="4" t="s">
+      <c r="B170" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C169" s="4" t="s">
+      <c r="C170" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D169" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E169" s="4"/>
-    </row>
-    <row r="170" spans="1:5">
-      <c r="A170" s="4" t="s">
+      <c r="D170" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E170" s="3"/>
+    </row>
+    <row r="171" spans="1:5">
+      <c r="A171" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B170" s="4" t="s">
+      <c r="B171" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C170" s="4" t="s">
+      <c r="C171" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D170" s="4" t="s">
+      <c r="D171" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E170" s="4"/>
-    </row>
-    <row r="172" spans="1:5">
-      <c r="A172" s="6" t="s">
+      <c r="E171" s="3"/>
+    </row>
+    <row r="173" spans="1:5">
+      <c r="A173" s="12" t="s">
         <v>191</v>
       </c>
-      <c r="B172" s="6"/>
-      <c r="C172" s="6"/>
-      <c r="D172" s="6"/>
-      <c r="E172" s="6"/>
-    </row>
-    <row r="173" ht="21" spans="1:5">
-      <c r="A173" s="7" t="s">
+      <c r="B173" s="12"/>
+      <c r="C173" s="12"/>
+      <c r="D173" s="12"/>
+      <c r="E173" s="12"/>
+    </row>
+    <row r="174" spans="1:5" ht="18.75">
+      <c r="A174" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B173" s="7" t="s">
+      <c r="B174" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C173" s="7" t="s">
+      <c r="C174" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D173" s="7" t="s">
+      <c r="D174" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E173" s="7" t="s">
+      <c r="E174" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="174" ht="18" spans="1:5">
-      <c r="A174" s="5" t="s">
+    <row r="175" spans="1:5">
+      <c r="A175" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B174" s="4" t="s">
+      <c r="B175" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C174" s="9" t="s">
+      <c r="C175" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="D174" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E174" s="5" t="s">
+      <c r="D175" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E175" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="175" ht="18" spans="1:5">
-      <c r="A175" s="4" t="s">
+    <row r="176" spans="1:5">
+      <c r="A176" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="B175" s="4" t="s">
+      <c r="B176" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="C175" s="9" t="s">
+      <c r="C176" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="D175" s="5" t="s">
+      <c r="D176" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E175" s="4"/>
-    </row>
-    <row r="176" ht="18" spans="1:5">
-      <c r="A176" s="4" t="s">
+      <c r="E176" s="3"/>
+    </row>
+    <row r="177" spans="1:5">
+      <c r="A177" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="B176" s="4" t="s">
+      <c r="B177" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="C176" s="9" t="s">
+      <c r="C177" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="D176" s="5" t="s">
+      <c r="D177" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E176" s="4"/>
-    </row>
-    <row r="177" ht="18" spans="1:5">
-      <c r="A177" s="4" t="s">
+      <c r="E177" s="3"/>
+    </row>
+    <row r="178" spans="1:5">
+      <c r="A178" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="B177" s="4" t="s">
+      <c r="B178" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="C177" s="4" t="s">
+      <c r="C178" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D177" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E177" s="4"/>
-    </row>
-    <row r="178" ht="18" spans="1:5">
-      <c r="A178" s="4" t="s">
+      <c r="D178" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E178" s="3"/>
+    </row>
+    <row r="179" spans="1:5">
+      <c r="A179" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="B178" s="4" t="s">
+      <c r="B179" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C178" s="4" t="s">
+      <c r="C179" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D178" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E178" s="4"/>
-    </row>
-    <row r="179" ht="18" spans="1:5">
-      <c r="A179" s="4" t="s">
+      <c r="D179" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E179" s="3"/>
+    </row>
+    <row r="180" spans="1:5">
+      <c r="A180" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="B179" s="4" t="s">
+      <c r="B180" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="C179" s="9" t="s">
+      <c r="C180" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="D179" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E179" s="4"/>
-    </row>
-    <row r="180" spans="1:5">
-      <c r="A180" s="4" t="s">
+      <c r="D180" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E180" s="3"/>
+    </row>
+    <row r="181" spans="1:5">
+      <c r="A181" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="B180" s="4" t="s">
+      <c r="B181" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="C180" s="4" t="s">
+      <c r="C181" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="D180" s="4" t="s">
+      <c r="D181" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E180" s="4"/>
-    </row>
-    <row r="181" spans="1:5">
-      <c r="A181" s="4" t="s">
+      <c r="E181" s="3"/>
+    </row>
+    <row r="182" spans="1:5">
+      <c r="A182" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B181" s="4" t="s">
+      <c r="B182" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C181" s="4" t="s">
+      <c r="C182" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="D181" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E181" s="4"/>
-    </row>
-    <row r="182" spans="1:5">
-      <c r="A182" s="4" t="s">
+      <c r="D182" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E182" s="3"/>
+    </row>
+    <row r="183" spans="1:5">
+      <c r="A183" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B182" s="4" t="s">
+      <c r="B183" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C182" s="4" t="s">
+      <c r="C183" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D182" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E182" s="4"/>
-    </row>
-    <row r="183" spans="1:5">
-      <c r="A183" s="4" t="s">
+      <c r="D183" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E183" s="3"/>
+    </row>
+    <row r="184" spans="1:5">
+      <c r="A184" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B183" s="4" t="s">
+      <c r="B184" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C183" s="4" t="s">
+      <c r="C184" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D183" s="4" t="s">
+      <c r="D184" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E183" s="4"/>
-    </row>
-    <row r="185" spans="1:5">
-      <c r="A185" s="6" t="s">
+      <c r="E184" s="3"/>
+    </row>
+    <row r="186" spans="1:5">
+      <c r="A186" s="12" t="s">
         <v>200</v>
       </c>
-      <c r="B185" s="6"/>
-      <c r="C185" s="6"/>
-      <c r="D185" s="6"/>
-      <c r="E185" s="6"/>
-    </row>
-    <row r="186" ht="21" spans="1:5">
-      <c r="A186" s="7" t="s">
+      <c r="B186" s="12"/>
+      <c r="C186" s="12"/>
+      <c r="D186" s="12"/>
+      <c r="E186" s="12"/>
+    </row>
+    <row r="187" spans="1:5" ht="18.75">
+      <c r="A187" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B186" s="7" t="s">
+      <c r="B187" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C186" s="7" t="s">
+      <c r="C187" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D186" s="7" t="s">
+      <c r="D187" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E186" s="7" t="s">
+      <c r="E187" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="187" ht="18" spans="1:5">
-      <c r="A187" s="5" t="s">
+    <row r="188" spans="1:5">
+      <c r="A188" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B187" s="4" t="s">
+      <c r="B188" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C187" s="10" t="s">
+      <c r="C188" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="D187" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E187" s="5" t="s">
+      <c r="D188" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E188" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="188" ht="18" spans="1:5">
-      <c r="A188" s="4" t="s">
+    <row r="189" spans="1:5">
+      <c r="A189" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="B188" s="4" t="s">
+      <c r="B189" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="C188" s="11" t="s">
+      <c r="C189" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="D188" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E188" s="4"/>
-    </row>
-    <row r="189" ht="18" spans="1:5">
-      <c r="A189" s="4" t="s">
+      <c r="D189" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E189" s="3"/>
+    </row>
+    <row r="190" spans="1:5">
+      <c r="A190" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B189" s="4" t="s">
+      <c r="B190" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C189" s="11" t="s">
+      <c r="C190" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D189" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E189" s="4"/>
-    </row>
-    <row r="190" ht="18" spans="1:5">
-      <c r="A190" s="4" t="s">
+      <c r="D190" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E190" s="3"/>
+    </row>
+    <row r="191" spans="1:5">
+      <c r="A191" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B190" s="4" t="s">
+      <c r="B191" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C190" s="11" t="s">
+      <c r="C191" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D190" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E190" s="4"/>
-    </row>
-    <row r="191" ht="18" spans="1:5">
-      <c r="A191" s="4" t="s">
+      <c r="D191" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E191" s="3"/>
+    </row>
+    <row r="192" spans="1:5">
+      <c r="A192" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="B191" s="4" t="s">
+      <c r="B192" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="C191" s="11" t="s">
+      <c r="C192" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D191" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E191" s="4"/>
-    </row>
-    <row r="192" ht="18" spans="1:5">
-      <c r="A192" s="4" t="s">
+      <c r="D192" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E192" s="3"/>
+    </row>
+    <row r="193" spans="1:5">
+      <c r="A193" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="B192" s="4" t="s">
+      <c r="B193" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="C192" s="11" t="s">
+      <c r="C193" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="D192" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E192" s="4"/>
-    </row>
-    <row r="193" spans="1:5">
-      <c r="A193" s="4" t="s">
+      <c r="D193" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E193" s="3"/>
+    </row>
+    <row r="194" spans="1:5">
+      <c r="A194" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="B193" s="4" t="s">
+      <c r="B194" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="C193" s="11" t="s">
+      <c r="C194" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="D193" s="4" t="s">
+      <c r="D194" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E193" s="4"/>
-    </row>
-    <row r="194" spans="1:5">
-      <c r="A194" s="4" t="s">
+      <c r="E194" s="3"/>
+    </row>
+    <row r="195" spans="1:5">
+      <c r="A195" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="B194" s="4" t="s">
+      <c r="B195" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="C194" s="11" t="s">
+      <c r="C195" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="D194" s="4" t="s">
+      <c r="D195" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E194" s="4"/>
-    </row>
-    <row r="195" spans="1:5">
-      <c r="A195" s="4" t="s">
+      <c r="E195" s="3"/>
+    </row>
+    <row r="196" spans="1:5">
+      <c r="A196" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="B195" s="4" t="s">
+      <c r="B196" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="C195" s="11" t="s">
+      <c r="C196" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="D195" s="4" t="s">
+      <c r="D196" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E195" s="4"/>
-    </row>
-    <row r="196" spans="1:5">
-      <c r="A196" s="4" t="s">
+      <c r="E196" s="3"/>
+    </row>
+    <row r="197" spans="1:5">
+      <c r="A197" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="B196" s="4" t="s">
+      <c r="B197" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="C196" s="11" t="s">
+      <c r="C197" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="D196" s="4" t="s">
+      <c r="D197" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E196" s="4"/>
-    </row>
-    <row r="197" spans="1:5">
-      <c r="A197" s="4" t="s">
+      <c r="E197" s="3"/>
+    </row>
+    <row r="198" spans="1:5">
+      <c r="A198" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="B197" s="4" t="s">
+      <c r="B198" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="C197" s="11" t="s">
+      <c r="C198" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="D197" s="4" t="s">
+      <c r="D198" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E197" s="4"/>
-    </row>
-    <row r="198" ht="18" spans="1:5">
-      <c r="A198" s="4" t="s">
+      <c r="E198" s="3"/>
+    </row>
+    <row r="199" spans="1:5">
+      <c r="A199" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="B198" s="4" t="s">
+      <c r="B199" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="C198" s="11" t="s">
+      <c r="C199" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D198" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E198" s="4"/>
-    </row>
-    <row r="199" spans="1:5">
-      <c r="A199" s="4" t="s">
+      <c r="D199" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E199" s="3"/>
+    </row>
+    <row r="200" spans="1:5">
+      <c r="A200" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="B199" s="4" t="s">
+      <c r="B200" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="C199" s="4"/>
-      <c r="D199" s="4" t="s">
+      <c r="C200" s="3"/>
+      <c r="D200" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E199" s="4"/>
-    </row>
-    <row r="200" spans="1:5">
-      <c r="A200" s="4" t="s">
+      <c r="E200" s="3"/>
+    </row>
+    <row r="201" spans="1:5">
+      <c r="A201" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="B200" s="4" t="s">
+      <c r="B201" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="C200" s="4"/>
-      <c r="D200" s="4" t="s">
+      <c r="C201" s="3"/>
+      <c r="D201" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E200" s="4"/>
-    </row>
-    <row r="201" spans="1:5">
-      <c r="A201" s="4" t="s">
+      <c r="E201" s="3"/>
+    </row>
+    <row r="202" spans="1:5">
+      <c r="A202" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="B201" s="4" t="s">
+      <c r="B202" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="C201" s="4"/>
-      <c r="D201" s="4" t="s">
+      <c r="C202" s="3"/>
+      <c r="D202" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E201" s="4"/>
-    </row>
-    <row r="202" spans="1:5">
-      <c r="A202" s="4" t="s">
+      <c r="E202" s="3"/>
+    </row>
+    <row r="203" spans="1:5">
+      <c r="A203" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B202" s="4" t="s">
+      <c r="B203" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C202" s="4" t="s">
+      <c r="C203" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="D202" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E202" s="4"/>
-    </row>
-    <row r="203" spans="1:5">
-      <c r="A203" s="4" t="s">
+      <c r="D203" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E203" s="3"/>
+    </row>
+    <row r="204" spans="1:5">
+      <c r="A204" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B203" s="4" t="s">
+      <c r="B204" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C203" s="4" t="s">
+      <c r="C204" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D203" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E203" s="4"/>
-    </row>
-    <row r="204" spans="1:5">
-      <c r="A204" s="4" t="s">
+      <c r="D204" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E204" s="3"/>
+    </row>
+    <row r="205" spans="1:5">
+      <c r="A205" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B204" s="4" t="s">
+      <c r="B205" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C204" s="4" t="s">
+      <c r="C205" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D204" s="4" t="s">
+      <c r="D205" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E204" s="4"/>
+      <c r="E205" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A151:E151"/>
+    <mergeCell ref="A162:E162"/>
+    <mergeCell ref="A173:E173"/>
+    <mergeCell ref="A186:E186"/>
+    <mergeCell ref="A75:E75"/>
+    <mergeCell ref="A91:E91"/>
+    <mergeCell ref="A106:E106"/>
+    <mergeCell ref="A120:E120"/>
+    <mergeCell ref="A136:E136"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A17:E17"/>
     <mergeCell ref="A30:E30"/>
     <mergeCell ref="A42:E42"/>
     <mergeCell ref="A61:E61"/>
-    <mergeCell ref="A74:E74"/>
-    <mergeCell ref="A90:E90"/>
-    <mergeCell ref="A105:E105"/>
-    <mergeCell ref="A119:E119"/>
-    <mergeCell ref="A135:E135"/>
-    <mergeCell ref="A150:E150"/>
-    <mergeCell ref="A161:E161"/>
-    <mergeCell ref="A172:E172"/>
-    <mergeCell ref="A185:E185"/>
   </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/document/叨叨帮表设计.xlsx
+++ b/document/叨叨帮表设计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28060" windowHeight="13920"/>
+    <workbookView windowWidth="28060" windowHeight="12020"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -759,10 +759,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -807,15 +807,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -830,17 +823,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -854,8 +838,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -870,15 +878,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -901,39 +916,24 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -974,6 +974,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -986,7 +998,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -998,13 +1034,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1016,139 +1148,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1186,15 +1186,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1206,41 +1197,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1274,147 +1230,191 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1785,8 +1785,8 @@
   <sheetPr/>
   <dimension ref="A1:E204"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="105" zoomScaleNormal="105" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="H46" sqref="H46"/>
+    <sheetView tabSelected="1" zoomScale="105" zoomScaleNormal="105" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelCol="4"/>
@@ -3542,7 +3542,7 @@
       </c>
       <c r="E125" s="4"/>
     </row>
-    <row r="126" ht="36" spans="1:5">
+    <row r="126" ht="18" spans="1:5">
       <c r="A126" s="4" t="s">
         <v>88</v>
       </c>

--- a/document/叨叨帮表设计.xlsx
+++ b/document/叨叨帮表设计.xlsx
@@ -759,10 +759,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -808,18 +808,33 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -838,17 +853,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -857,43 +864,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -908,7 +878,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -922,18 +915,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -974,162 +974,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1142,13 +986,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1186,17 +1186,50 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1216,50 +1249,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1279,142 +1279,142 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1785,8 +1785,8 @@
   <sheetPr/>
   <dimension ref="A1:E204"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="105" zoomScaleNormal="105" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" zoomScale="105" zoomScaleNormal="105" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="H46" sqref="H46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelCol="4"/>

--- a/document/叨叨帮表设计.xlsx
+++ b/document/叨叨帮表设计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28060" windowHeight="12020"/>
+    <workbookView windowWidth="13540" windowHeight="13920"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247">
   <si>
     <t>用户信息表 user_info</t>
   </si>
@@ -649,9 +649,6 @@
     <t>过期时间</t>
   </si>
   <si>
-    <t>varchar</t>
-  </si>
-  <si>
     <t>任务审核记录表  verify_record_info</t>
   </si>
   <si>
@@ -752,6 +749,75 @@
   </si>
   <si>
     <t>handle_time</t>
+  </si>
+  <si>
+    <t>任务折扣配置表 discount_config</t>
+  </si>
+  <si>
+    <t>折扣名称</t>
+  </si>
+  <si>
+    <t>discount_name</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>不对外展示</t>
+  </si>
+  <si>
+    <t>活动开始时间</t>
+  </si>
+  <si>
+    <t>活动开始时间只能往后修改，不能往前</t>
+  </si>
+  <si>
+    <t>活动结束时间</t>
+  </si>
+  <si>
+    <t>end_time</t>
+  </si>
+  <si>
+    <t>活动结束时间不能早于开始时间</t>
+  </si>
+  <si>
+    <t>活动状态</t>
+  </si>
+  <si>
+    <t>discount_status</t>
+  </si>
+  <si>
+    <t>upcoming，ongoing，end(此状态可以重新开启)，expired(不能再开始)</t>
+  </si>
+  <si>
+    <t>任务折扣信息 task_discount_info</t>
+  </si>
+  <si>
+    <t>折扣配置Id</t>
+  </si>
+  <si>
+    <t>discount_config_id</t>
+  </si>
+  <si>
+    <t>reference to task_discount_config</t>
+  </si>
+  <si>
+    <t>任务编号</t>
+  </si>
+  <si>
+    <t>折扣率</t>
+  </si>
+  <si>
+    <t>discount_rate</t>
+  </si>
+  <si>
+    <t>优惠比例 20% -&gt; 便宜20%</t>
+  </si>
+  <si>
+    <t>是否可用</t>
+  </si>
+  <si>
+    <t>yes/no</t>
   </si>
 </sst>
 </file>
@@ -1424,7 +1490,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1459,6 +1525,12 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" quotePrefix="1">
@@ -1783,10 +1855,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:E204"/>
+  <dimension ref="A1:E226"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="105" zoomScaleNormal="105" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="H46" sqref="H46"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" topLeftCell="A202" workbookViewId="0">
+      <selection activeCell="C220" sqref="C220"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelCol="4"/>
@@ -2538,7 +2610,7 @@
       <c r="D52" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E52" s="12" t="s">
+      <c r="E52" s="14" t="s">
         <v>90</v>
       </c>
     </row>
@@ -4133,7 +4205,7 @@
         <v>36</v>
       </c>
       <c r="C168" s="4" t="s">
-        <v>190</v>
+        <v>37</v>
       </c>
       <c r="D168" s="4" t="s">
         <v>9</v>
@@ -4172,7 +4244,7 @@
     </row>
     <row r="172" spans="1:5">
       <c r="A172" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B172" s="6"/>
       <c r="C172" s="6"/>
@@ -4215,10 +4287,10 @@
     </row>
     <row r="175" ht="18" spans="1:5">
       <c r="A175" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="B175" s="4" t="s">
         <v>192</v>
-      </c>
-      <c r="B175" s="4" t="s">
-        <v>193</v>
       </c>
       <c r="C175" s="9" t="s">
         <v>110</v>
@@ -4245,10 +4317,10 @@
     </row>
     <row r="177" ht="18" spans="1:5">
       <c r="A177" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="B177" s="4" t="s">
         <v>194</v>
-      </c>
-      <c r="B177" s="4" t="s">
-        <v>195</v>
       </c>
       <c r="C177" s="4" t="s">
         <v>18</v>
@@ -4260,7 +4332,7 @@
     </row>
     <row r="178" ht="18" spans="1:5">
       <c r="A178" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B178" s="4" t="s">
         <v>94</v>
@@ -4275,7 +4347,7 @@
     </row>
     <row r="179" ht="18" spans="1:5">
       <c r="A179" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B179" s="4" t="s">
         <v>157</v>
@@ -4290,10 +4362,10 @@
     </row>
     <row r="180" spans="1:5">
       <c r="A180" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="B180" s="4" t="s">
         <v>198</v>
-      </c>
-      <c r="B180" s="4" t="s">
-        <v>199</v>
       </c>
       <c r="C180" s="4" t="s">
         <v>59</v>
@@ -4311,7 +4383,7 @@
         <v>36</v>
       </c>
       <c r="C181" s="4" t="s">
-        <v>190</v>
+        <v>37</v>
       </c>
       <c r="D181" s="4" t="s">
         <v>9</v>
@@ -4350,7 +4422,7 @@
     </row>
     <row r="185" spans="1:5">
       <c r="A185" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B185" s="6"/>
       <c r="C185" s="6"/>
@@ -4393,13 +4465,13 @@
     </row>
     <row r="188" ht="18" spans="1:5">
       <c r="A188" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B188" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="B188" s="4" t="s">
+      <c r="C188" s="11" t="s">
         <v>202</v>
-      </c>
-      <c r="C188" s="11" t="s">
-        <v>203</v>
       </c>
       <c r="D188" s="5" t="s">
         <v>9</v>
@@ -4438,10 +4510,10 @@
     </row>
     <row r="191" ht="18" spans="1:5">
       <c r="A191" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="B191" s="4" t="s">
         <v>204</v>
-      </c>
-      <c r="B191" s="4" t="s">
-        <v>205</v>
       </c>
       <c r="C191" s="11" t="s">
         <v>30</v>
@@ -4453,13 +4525,13 @@
     </row>
     <row r="192" ht="18" spans="1:5">
       <c r="A192" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="B192" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="B192" s="4" t="s">
-        <v>207</v>
-      </c>
       <c r="C192" s="11" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D192" s="5" t="s">
         <v>9</v>
@@ -4468,10 +4540,10 @@
     </row>
     <row r="193" spans="1:5">
       <c r="A193" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="B193" s="4" t="s">
         <v>208</v>
-      </c>
-      <c r="B193" s="4" t="s">
-        <v>209</v>
       </c>
       <c r="C193" s="11" t="s">
         <v>59</v>
@@ -4483,10 +4555,10 @@
     </row>
     <row r="194" spans="1:5">
       <c r="A194" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="B194" s="4" t="s">
         <v>210</v>
-      </c>
-      <c r="B194" s="4" t="s">
-        <v>211</v>
       </c>
       <c r="C194" s="11" t="s">
         <v>59</v>
@@ -4498,10 +4570,10 @@
     </row>
     <row r="195" spans="1:5">
       <c r="A195" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="B195" s="4" t="s">
         <v>212</v>
-      </c>
-      <c r="B195" s="4" t="s">
-        <v>213</v>
       </c>
       <c r="C195" s="11" t="s">
         <v>59</v>
@@ -4513,10 +4585,10 @@
     </row>
     <row r="196" spans="1:5">
       <c r="A196" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="B196" s="4" t="s">
         <v>214</v>
-      </c>
-      <c r="B196" s="4" t="s">
-        <v>215</v>
       </c>
       <c r="C196" s="11" t="s">
         <v>59</v>
@@ -4528,10 +4600,10 @@
     </row>
     <row r="197" spans="1:5">
       <c r="A197" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="B197" s="4" t="s">
         <v>216</v>
-      </c>
-      <c r="B197" s="4" t="s">
-        <v>217</v>
       </c>
       <c r="C197" s="11" t="s">
         <v>59</v>
@@ -4543,10 +4615,10 @@
     </row>
     <row r="198" ht="18" spans="1:5">
       <c r="A198" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="B198" s="4" t="s">
         <v>218</v>
-      </c>
-      <c r="B198" s="4" t="s">
-        <v>219</v>
       </c>
       <c r="C198" s="11" t="s">
         <v>30</v>
@@ -4558,7 +4630,7 @@
     </row>
     <row r="199" spans="1:5">
       <c r="A199" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B199" s="4" t="s">
         <v>157</v>
@@ -4571,10 +4643,10 @@
     </row>
     <row r="200" spans="1:5">
       <c r="A200" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="B200" s="4" t="s">
         <v>221</v>
-      </c>
-      <c r="B200" s="4" t="s">
-        <v>222</v>
       </c>
       <c r="C200" s="4"/>
       <c r="D200" s="4" t="s">
@@ -4584,10 +4656,10 @@
     </row>
     <row r="201" spans="1:5">
       <c r="A201" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B201" s="4" t="s">
         <v>223</v>
-      </c>
-      <c r="B201" s="4" t="s">
-        <v>224</v>
       </c>
       <c r="C201" s="4"/>
       <c r="D201" s="4" t="s">
@@ -4603,7 +4675,7 @@
         <v>36</v>
       </c>
       <c r="C202" s="4" t="s">
-        <v>190</v>
+        <v>37</v>
       </c>
       <c r="D202" s="4" t="s">
         <v>9</v>
@@ -4640,8 +4712,303 @@
       </c>
       <c r="E204" s="4"/>
     </row>
+    <row r="207" spans="1:5">
+      <c r="A207" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="B207" s="6"/>
+      <c r="C207" s="6"/>
+      <c r="D207" s="6"/>
+      <c r="E207" s="6"/>
+    </row>
+    <row r="208" ht="21" spans="1:5">
+      <c r="A208" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B208" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C208" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D208" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E208" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="209" ht="18" spans="1:5">
+      <c r="A209" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B209" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C209" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D209" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E209" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5">
+      <c r="A210" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="B210" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="C210" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="D210" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E210" s="12" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5">
+      <c r="A211" s="12" t="s">
+        <v>229</v>
+      </c>
+      <c r="B211" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="C211" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D211" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E211" s="12" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5">
+      <c r="A212" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="B212" s="12" t="s">
+        <v>232</v>
+      </c>
+      <c r="C212" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D212" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E212" s="12" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="213" ht="36" spans="1:5">
+      <c r="A213" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="B213" s="12" t="s">
+        <v>235</v>
+      </c>
+      <c r="C213" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="D213" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E213" s="13" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5">
+      <c r="A214" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B214" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C214" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D214" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E214" s="12"/>
+    </row>
+    <row r="215" spans="1:5">
+      <c r="A215" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B215" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C215" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D215" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E215" s="12"/>
+    </row>
+    <row r="216" spans="1:5">
+      <c r="A216" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B216" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C216" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D216" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E216" s="12"/>
+    </row>
+    <row r="218" spans="1:5">
+      <c r="A218" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="B218" s="6"/>
+      <c r="C218" s="6"/>
+      <c r="D218" s="6"/>
+      <c r="E218" s="6"/>
+    </row>
+    <row r="219" ht="21" spans="1:5">
+      <c r="A219" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B219" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C219" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D219" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E219" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="220" ht="18" spans="1:5">
+      <c r="A220" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B220" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C220" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D220" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E220" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="221" ht="18" spans="1:5">
+      <c r="A221" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="B221" s="12" t="s">
+        <v>239</v>
+      </c>
+      <c r="C221" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="D221" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E221" s="12" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5">
+      <c r="A222" s="12" t="s">
+        <v>241</v>
+      </c>
+      <c r="B222" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="C222" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D222" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E222" s="12"/>
+    </row>
+    <row r="223" spans="1:5">
+      <c r="A223" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="B223" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="C223" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D223" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E223" s="12" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5">
+      <c r="A224" s="12" t="s">
+        <v>245</v>
+      </c>
+      <c r="B224" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C224" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="D224" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E224" s="12" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5">
+      <c r="A225" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B225" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C225" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D225" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E225" s="12"/>
+    </row>
+    <row r="226" spans="1:5">
+      <c r="A226" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B226" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C226" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D226" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E226" s="12"/>
+    </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="16">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A17:E17"/>
     <mergeCell ref="A30:E30"/>
@@ -4656,6 +5023,8 @@
     <mergeCell ref="A161:E161"/>
     <mergeCell ref="A172:E172"/>
     <mergeCell ref="A185:E185"/>
+    <mergeCell ref="A207:E207"/>
+    <mergeCell ref="A218:E218"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/document/叨叨帮表设计.xlsx
+++ b/document/叨叨帮表设计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="13540" windowHeight="13920"/>
+    <workbookView windowWidth="28060" windowHeight="13920"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245">
   <si>
     <t>用户信息表 user_info</t>
   </si>
@@ -407,9 +407,6 @@
     <t>discount</t>
   </si>
   <si>
-    <t>double(2)</t>
-  </si>
-  <si>
     <t>实际支付</t>
   </si>
   <si>
@@ -476,10 +473,7 @@
     <t>退款记录表 refund_info</t>
   </si>
   <si>
-    <t>退费id</t>
-  </si>
-  <si>
-    <t>refund_id</t>
+    <t>退费订单id</t>
   </si>
   <si>
     <t>退费任务id</t>
@@ -1857,8 +1851,8 @@
   <sheetPr/>
   <dimension ref="A1:E226"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" topLeftCell="A202" workbookViewId="0">
-      <selection activeCell="C220" sqref="C220"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" topLeftCell="A98" workbookViewId="0">
+      <selection activeCell="E108" sqref="E108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelCol="4"/>
@@ -3001,7 +2995,7 @@
         <v>119</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>120</v>
+        <v>81</v>
       </c>
       <c r="D82" s="4" t="s">
         <v>9</v>
@@ -3010,10 +3004,10 @@
     </row>
     <row r="83" ht="18" spans="1:5">
       <c r="A83" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="B83" s="4" t="s">
         <v>121</v>
-      </c>
-      <c r="B83" s="4" t="s">
-        <v>122</v>
       </c>
       <c r="C83" s="8" t="s">
         <v>107</v>
@@ -3025,13 +3019,13 @@
     </row>
     <row r="84" spans="1:5">
       <c r="A84" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B84" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="B84" s="4" t="s">
+      <c r="C84" s="4" t="s">
         <v>124</v>
-      </c>
-      <c r="C84" s="4" t="s">
-        <v>125</v>
       </c>
       <c r="D84" s="4" t="s">
         <v>9</v>
@@ -3040,7 +3034,7 @@
     </row>
     <row r="85" spans="1:5">
       <c r="A85" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B85" s="4" t="s">
         <v>94</v>
@@ -3100,7 +3094,7 @@
     </row>
     <row r="90" spans="1:5">
       <c r="A90" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B90" s="6"/>
       <c r="C90" s="6"/>
@@ -3143,7 +3137,7 @@
     </row>
     <row r="93" spans="1:5">
       <c r="A93" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B93" s="4" t="s">
         <v>109</v>
@@ -3155,7 +3149,7 @@
         <v>9</v>
       </c>
       <c r="E93" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -3172,7 +3166,7 @@
         <v>9</v>
       </c>
       <c r="E94" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -3194,10 +3188,10 @@
     </row>
     <row r="96" spans="1:5">
       <c r="A96" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B96" s="4" t="s">
         <v>130</v>
-      </c>
-      <c r="B96" s="4" t="s">
-        <v>131</v>
       </c>
       <c r="C96" s="4" t="s">
         <v>33</v>
@@ -3209,10 +3203,10 @@
     </row>
     <row r="97" spans="1:5">
       <c r="A97" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B97" s="4" t="s">
         <v>132</v>
-      </c>
-      <c r="B97" s="4" t="s">
-        <v>133</v>
       </c>
       <c r="C97" s="4" t="s">
         <v>30</v>
@@ -3221,15 +3215,15 @@
         <v>9</v>
       </c>
       <c r="E97" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="98" spans="1:5">
       <c r="A98" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="B98" s="4" t="s">
         <v>135</v>
-      </c>
-      <c r="B98" s="4" t="s">
-        <v>136</v>
       </c>
       <c r="C98" s="4" t="s">
         <v>81</v>
@@ -3241,10 +3235,10 @@
     </row>
     <row r="99" spans="1:5">
       <c r="A99" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="B99" s="4" t="s">
         <v>137</v>
-      </c>
-      <c r="B99" s="4" t="s">
-        <v>138</v>
       </c>
       <c r="C99" s="4" t="s">
         <v>33</v>
@@ -3253,15 +3247,15 @@
         <v>9</v>
       </c>
       <c r="E99" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="100" spans="1:5">
       <c r="A100" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="B100" s="4" t="s">
         <v>140</v>
-      </c>
-      <c r="B100" s="4" t="s">
-        <v>141</v>
       </c>
       <c r="C100" s="4" t="s">
         <v>59</v>
@@ -3318,7 +3312,7 @@
     </row>
     <row r="105" spans="1:5">
       <c r="A105" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B105" s="6"/>
       <c r="C105" s="6"/>
@@ -3361,10 +3355,10 @@
     </row>
     <row r="108" ht="18" spans="1:5">
       <c r="A108" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>144</v>
+        <v>109</v>
       </c>
       <c r="C108" s="5" t="s">
         <v>81</v>
@@ -3376,7 +3370,7 @@
     </row>
     <row r="109" ht="18" spans="1:5">
       <c r="A109" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B109" s="4" t="s">
         <v>112</v>
@@ -3391,10 +3385,10 @@
     </row>
     <row r="110" ht="18" spans="1:5">
       <c r="A110" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C110" s="5" t="s">
         <v>81</v>
@@ -3436,10 +3430,10 @@
     </row>
     <row r="113" ht="18" spans="1:5">
       <c r="A113" s="4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C113" s="4" t="s">
         <v>33</v>
@@ -3448,15 +3442,15 @@
         <v>9</v>
       </c>
       <c r="E113" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="114" spans="1:5">
       <c r="A114" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="B114" s="4" t="s">
         <v>140</v>
-      </c>
-      <c r="B114" s="4" t="s">
-        <v>141</v>
       </c>
       <c r="C114" s="4" t="s">
         <v>59</v>
@@ -3513,7 +3507,7 @@
     </row>
     <row r="119" spans="1:5">
       <c r="A119" s="6" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B119" s="6"/>
       <c r="C119" s="6"/>
@@ -3601,10 +3595,10 @@
     </row>
     <row r="125" ht="18" spans="1:5">
       <c r="A125" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C125" s="4" t="s">
         <v>59</v>
@@ -3628,15 +3622,15 @@
         <v>9</v>
       </c>
       <c r="E126" s="5" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="127" ht="18" spans="1:5">
       <c r="A127" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C127" s="4" t="s">
         <v>33</v>
@@ -3648,10 +3642,10 @@
     </row>
     <row r="128" ht="18" spans="1:5">
       <c r="A128" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C128" s="4" t="s">
         <v>81</v>
@@ -3663,19 +3657,19 @@
     </row>
     <row r="129" ht="18" spans="1:5">
       <c r="A129" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="B129" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C129" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="D129" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E129" s="5" t="s">
         <v>158</v>
-      </c>
-      <c r="B129" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="C129" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="D129" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E129" s="5" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -3740,7 +3734,7 @@
     </row>
     <row r="135" spans="1:5">
       <c r="A135" s="6" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B135" s="6"/>
       <c r="C135" s="6"/>
@@ -3804,7 +3798,7 @@
         <v>14</v>
       </c>
       <c r="C139" s="9" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D139" s="5" t="s">
         <v>9</v>
@@ -3813,10 +3807,10 @@
     </row>
     <row r="140" ht="18" spans="1:5">
       <c r="A140" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C140" s="9" t="s">
         <v>110</v>
@@ -3828,10 +3822,10 @@
     </row>
     <row r="141" ht="18" spans="1:5">
       <c r="A141" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C141" s="9" t="s">
         <v>110</v>
@@ -3843,10 +3837,10 @@
     </row>
     <row r="142" ht="18" spans="1:5">
       <c r="A142" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C142" s="4" t="s">
         <v>18</v>
@@ -3858,10 +3852,10 @@
     </row>
     <row r="143" ht="18" spans="1:5">
       <c r="A143" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C143" s="4" t="s">
         <v>18</v>
@@ -3873,10 +3867,10 @@
     </row>
     <row r="144" ht="18" spans="1:5">
       <c r="A144" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C144" s="4" t="s">
         <v>18</v>
@@ -3888,10 +3882,10 @@
     </row>
     <row r="145" ht="18" spans="1:5">
       <c r="A145" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C145" s="4" t="s">
         <v>18</v>
@@ -3948,7 +3942,7 @@
     </row>
     <row r="150" spans="1:5">
       <c r="A150" s="6" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B150" s="6"/>
       <c r="C150" s="6"/>
@@ -3991,10 +3985,10 @@
     </row>
     <row r="153" ht="18" spans="1:5">
       <c r="A153" s="4" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C153" s="9" t="s">
         <v>110</v>
@@ -4006,10 +4000,10 @@
     </row>
     <row r="154" ht="18" spans="1:5">
       <c r="A154" s="4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C154" s="4" t="s">
         <v>18</v>
@@ -4021,10 +4015,10 @@
     </row>
     <row r="155" ht="18" spans="1:5">
       <c r="A155" s="4" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B155" s="4" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C155" s="4" t="s">
         <v>18</v>
@@ -4036,10 +4030,10 @@
     </row>
     <row r="156" ht="18" spans="1:5">
       <c r="A156" s="4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C156" s="4" t="s">
         <v>18</v>
@@ -4096,7 +4090,7 @@
     </row>
     <row r="161" spans="1:5">
       <c r="A161" s="6" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B161" s="6"/>
       <c r="C161" s="6"/>
@@ -4139,7 +4133,7 @@
     </row>
     <row r="164" ht="18" spans="1:5">
       <c r="A164" s="4" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B164" s="4" t="s">
         <v>112</v>
@@ -4154,10 +4148,10 @@
     </row>
     <row r="165" ht="18" spans="1:5">
       <c r="A165" s="4" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B165" s="4" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C165" s="4" t="s">
         <v>81</v>
@@ -4169,10 +4163,10 @@
     </row>
     <row r="166" ht="18" spans="1:5">
       <c r="A166" s="4" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B166" s="4" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C166" s="4" t="s">
         <v>40</v>
@@ -4184,7 +4178,7 @@
     </row>
     <row r="167" ht="18" spans="1:5">
       <c r="A167" s="4" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B167" s="4" t="s">
         <v>94</v>
@@ -4244,7 +4238,7 @@
     </row>
     <row r="172" spans="1:5">
       <c r="A172" s="6" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B172" s="6"/>
       <c r="C172" s="6"/>
@@ -4287,10 +4281,10 @@
     </row>
     <row r="175" ht="18" spans="1:5">
       <c r="A175" s="4" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B175" s="4" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C175" s="9" t="s">
         <v>110</v>
@@ -4317,10 +4311,10 @@
     </row>
     <row r="177" ht="18" spans="1:5">
       <c r="A177" s="4" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B177" s="4" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C177" s="4" t="s">
         <v>18</v>
@@ -4332,7 +4326,7 @@
     </row>
     <row r="178" ht="18" spans="1:5">
       <c r="A178" s="4" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B178" s="4" t="s">
         <v>94</v>
@@ -4347,10 +4341,10 @@
     </row>
     <row r="179" ht="18" spans="1:5">
       <c r="A179" s="4" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B179" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C179" s="9" t="s">
         <v>110</v>
@@ -4362,10 +4356,10 @@
     </row>
     <row r="180" spans="1:5">
       <c r="A180" s="4" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B180" s="4" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C180" s="4" t="s">
         <v>59</v>
@@ -4422,7 +4416,7 @@
     </row>
     <row r="185" spans="1:5">
       <c r="A185" s="6" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B185" s="6"/>
       <c r="C185" s="6"/>
@@ -4465,13 +4459,13 @@
     </row>
     <row r="188" ht="18" spans="1:5">
       <c r="A188" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="B188" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C188" s="11" t="s">
         <v>200</v>
-      </c>
-      <c r="B188" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="C188" s="11" t="s">
-        <v>202</v>
       </c>
       <c r="D188" s="5" t="s">
         <v>9</v>
@@ -4510,10 +4504,10 @@
     </row>
     <row r="191" ht="18" spans="1:5">
       <c r="A191" s="4" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B191" s="4" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C191" s="11" t="s">
         <v>30</v>
@@ -4525,13 +4519,13 @@
     </row>
     <row r="192" ht="18" spans="1:5">
       <c r="A192" s="4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B192" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C192" s="11" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D192" s="5" t="s">
         <v>9</v>
@@ -4540,10 +4534,10 @@
     </row>
     <row r="193" spans="1:5">
       <c r="A193" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B193" s="4" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C193" s="11" t="s">
         <v>59</v>
@@ -4555,10 +4549,10 @@
     </row>
     <row r="194" spans="1:5">
       <c r="A194" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B194" s="4" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C194" s="11" t="s">
         <v>59</v>
@@ -4570,10 +4564,10 @@
     </row>
     <row r="195" spans="1:5">
       <c r="A195" s="4" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B195" s="4" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C195" s="11" t="s">
         <v>59</v>
@@ -4585,10 +4579,10 @@
     </row>
     <row r="196" spans="1:5">
       <c r="A196" s="4" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B196" s="4" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C196" s="11" t="s">
         <v>59</v>
@@ -4600,10 +4594,10 @@
     </row>
     <row r="197" spans="1:5">
       <c r="A197" s="4" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B197" s="4" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C197" s="11" t="s">
         <v>59</v>
@@ -4615,10 +4609,10 @@
     </row>
     <row r="198" ht="18" spans="1:5">
       <c r="A198" s="4" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B198" s="4" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C198" s="11" t="s">
         <v>30</v>
@@ -4630,10 +4624,10 @@
     </row>
     <row r="199" spans="1:5">
       <c r="A199" s="4" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B199" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C199" s="4"/>
       <c r="D199" s="4" t="s">
@@ -4643,10 +4637,10 @@
     </row>
     <row r="200" spans="1:5">
       <c r="A200" s="4" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B200" s="4" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C200" s="4"/>
       <c r="D200" s="4" t="s">
@@ -4656,10 +4650,10 @@
     </row>
     <row r="201" spans="1:5">
       <c r="A201" s="4" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B201" s="4" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C201" s="4"/>
       <c r="D201" s="4" t="s">
@@ -4714,7 +4708,7 @@
     </row>
     <row r="207" spans="1:5">
       <c r="A207" s="6" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B207" s="6"/>
       <c r="C207" s="6"/>
@@ -4757,24 +4751,24 @@
     </row>
     <row r="210" spans="1:5">
       <c r="A210" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="B210" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="C210" s="12" t="s">
         <v>225</v>
       </c>
-      <c r="B210" s="12" t="s">
+      <c r="D210" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E210" s="12" t="s">
         <v>226</v>
-      </c>
-      <c r="C210" s="12" t="s">
-        <v>227</v>
-      </c>
-      <c r="D210" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E210" s="12" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="211" spans="1:5">
       <c r="A211" s="12" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B211" s="12" t="s">
         <v>92</v>
@@ -4786,15 +4780,15 @@
         <v>9</v>
       </c>
       <c r="E211" s="12" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="212" spans="1:5">
       <c r="A212" s="12" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B212" s="12" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C212" s="12" t="s">
         <v>40</v>
@@ -4803,24 +4797,24 @@
         <v>9</v>
       </c>
       <c r="E212" s="12" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="213" ht="36" spans="1:5">
       <c r="A213" s="12" t="s">
+        <v>232</v>
+      </c>
+      <c r="B213" s="12" t="s">
+        <v>233</v>
+      </c>
+      <c r="C213" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="D213" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E213" s="13" t="s">
         <v>234</v>
-      </c>
-      <c r="B213" s="12" t="s">
-        <v>235</v>
-      </c>
-      <c r="C213" s="12" t="s">
-        <v>227</v>
-      </c>
-      <c r="D213" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E213" s="13" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="214" spans="1:5">
@@ -4870,7 +4864,7 @@
     </row>
     <row r="218" spans="1:5">
       <c r="A218" s="6" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B218" s="6"/>
       <c r="C218" s="6"/>
@@ -4913,10 +4907,10 @@
     </row>
     <row r="221" ht="18" spans="1:5">
       <c r="A221" s="12" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B221" s="12" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C221" s="10" t="s">
         <v>81</v>
@@ -4925,12 +4919,12 @@
         <v>9</v>
       </c>
       <c r="E221" s="12" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="222" spans="1:5">
       <c r="A222" s="12" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B222" s="12" t="s">
         <v>112</v>
@@ -4945,10 +4939,10 @@
     </row>
     <row r="223" spans="1:5">
       <c r="A223" s="12" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B223" s="12" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C223" s="12" t="s">
         <v>81</v>
@@ -4957,24 +4951,24 @@
         <v>9</v>
       </c>
       <c r="E223" s="12" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="224" spans="1:5">
       <c r="A224" s="12" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B224" s="12" t="s">
         <v>52</v>
       </c>
       <c r="C224" s="12" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D224" s="12" t="s">
         <v>9</v>
       </c>
       <c r="E224" s="12" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="225" spans="1:5">

--- a/document/叨叨帮表设计.xlsx
+++ b/document/叨叨帮表设计.xlsx
@@ -819,10 +819,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -867,6 +867,51 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -875,8 +920,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -890,16 +966,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -913,87 +989,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1034,13 +1034,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1052,31 +1082,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1088,91 +1100,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1190,25 +1124,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1246,15 +1246,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1266,6 +1257,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1289,6 +1289,17 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1323,158 +1334,147 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1484,7 +1484,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1509,6 +1509,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1519,12 +1522,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" quotePrefix="1">
@@ -1851,8 +1848,8 @@
   <sheetPr/>
   <dimension ref="A1:E226"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" topLeftCell="A98" workbookViewId="0">
-      <selection activeCell="E108" sqref="E108"/>
+    <sheetView tabSelected="1" zoomScale="109" zoomScaleNormal="109" topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="G126" sqref="G126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelCol="4"/>
@@ -2604,7 +2601,7 @@
       <c r="D52" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E52" s="14" t="s">
+      <c r="E52" s="13" t="s">
         <v>90</v>
       </c>
     </row>
@@ -2824,7 +2821,7 @@
       <c r="A70" t="s">
         <v>35</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B70" s="8" t="s">
         <v>36</v>
       </c>
       <c r="C70" s="4" t="s">
@@ -2898,7 +2895,7 @@
       <c r="B76" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C76" s="8" t="s">
+      <c r="C76" s="9" t="s">
         <v>107</v>
       </c>
       <c r="D76" s="5" t="s">
@@ -2915,7 +2912,7 @@
       <c r="B77" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="C77" s="9" t="s">
+      <c r="C77" s="10" t="s">
         <v>110</v>
       </c>
       <c r="D77" s="5" t="s">
@@ -2930,7 +2927,7 @@
       <c r="B78" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C78" s="9" t="s">
+      <c r="C78" s="10" t="s">
         <v>110</v>
       </c>
       <c r="D78" s="5" t="s">
@@ -2947,7 +2944,7 @@
       <c r="B79" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="C79" s="9" t="s">
+      <c r="C79" s="10" t="s">
         <v>110</v>
       </c>
       <c r="D79" s="5" t="s">
@@ -2964,7 +2961,7 @@
       <c r="B80" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="C80" s="9" t="s">
+      <c r="C80" s="10" t="s">
         <v>110</v>
       </c>
       <c r="D80" s="4" t="s">
@@ -2979,7 +2976,7 @@
       <c r="B81" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="C81" s="9" t="s">
+      <c r="C81" s="10" t="s">
         <v>110</v>
       </c>
       <c r="D81" s="4" t="s">
@@ -3009,7 +3006,7 @@
       <c r="B83" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="C83" s="8" t="s">
+      <c r="C83" s="9" t="s">
         <v>107</v>
       </c>
       <c r="D83" s="4" t="s">
@@ -3765,7 +3762,7 @@
       <c r="B137" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C137" s="9" t="s">
+      <c r="C137" s="10" t="s">
         <v>110</v>
       </c>
       <c r="D137" s="5" t="s">
@@ -3782,7 +3779,7 @@
       <c r="B138" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C138" s="9" t="s">
+      <c r="C138" s="10" t="s">
         <v>110</v>
       </c>
       <c r="D138" s="5" t="s">
@@ -3791,13 +3788,13 @@
       <c r="E138" s="4"/>
     </row>
     <row r="139" ht="18" spans="1:5">
-      <c r="A139" s="9" t="s">
+      <c r="A139" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B139" s="9" t="s">
+      <c r="B139" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C139" s="9" t="s">
+      <c r="C139" s="10" t="s">
         <v>160</v>
       </c>
       <c r="D139" s="5" t="s">
@@ -3812,7 +3809,7 @@
       <c r="B140" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="C140" s="9" t="s">
+      <c r="C140" s="10" t="s">
         <v>110</v>
       </c>
       <c r="D140" s="5" t="s">
@@ -3827,7 +3824,7 @@
       <c r="B141" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="C141" s="9" t="s">
+      <c r="C141" s="10" t="s">
         <v>110</v>
       </c>
       <c r="D141" s="5" t="s">
@@ -3973,7 +3970,7 @@
       <c r="B152" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C152" s="9" t="s">
+      <c r="C152" s="10" t="s">
         <v>110</v>
       </c>
       <c r="D152" s="5" t="s">
@@ -3990,7 +3987,7 @@
       <c r="B153" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="C153" s="9" t="s">
+      <c r="C153" s="10" t="s">
         <v>110</v>
       </c>
       <c r="D153" s="5" t="s">
@@ -4121,7 +4118,7 @@
       <c r="B163" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C163" s="9" t="s">
+      <c r="C163" s="10" t="s">
         <v>110</v>
       </c>
       <c r="D163" s="5" t="s">
@@ -4138,7 +4135,7 @@
       <c r="B164" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="C164" s="9" t="s">
+      <c r="C164" s="10" t="s">
         <v>110</v>
       </c>
       <c r="D164" s="5" t="s">
@@ -4269,7 +4266,7 @@
       <c r="B174" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C174" s="9" t="s">
+      <c r="C174" s="10" t="s">
         <v>110</v>
       </c>
       <c r="D174" s="5" t="s">
@@ -4286,7 +4283,7 @@
       <c r="B175" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="C175" s="9" t="s">
+      <c r="C175" s="10" t="s">
         <v>110</v>
       </c>
       <c r="D175" s="5" t="s">
@@ -4301,7 +4298,7 @@
       <c r="B176" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="C176" s="9" t="s">
+      <c r="C176" s="10" t="s">
         <v>110</v>
       </c>
       <c r="D176" s="5" t="s">
@@ -4346,7 +4343,7 @@
       <c r="B179" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="C179" s="9" t="s">
+      <c r="C179" s="10" t="s">
         <v>110</v>
       </c>
       <c r="D179" s="4" t="s">
@@ -4447,7 +4444,7 @@
       <c r="B187" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C187" s="10" t="s">
+      <c r="C187" s="11" t="s">
         <v>81</v>
       </c>
       <c r="D187" s="5" t="s">
@@ -4464,7 +4461,7 @@
       <c r="B188" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="C188" s="11" t="s">
+      <c r="C188" s="12" t="s">
         <v>200</v>
       </c>
       <c r="D188" s="5" t="s">
@@ -4479,7 +4476,7 @@
       <c r="B189" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C189" s="11" t="s">
+      <c r="C189" s="12" t="s">
         <v>8</v>
       </c>
       <c r="D189" s="5" t="s">
@@ -4494,7 +4491,7 @@
       <c r="B190" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C190" s="11" t="s">
+      <c r="C190" s="12" t="s">
         <v>8</v>
       </c>
       <c r="D190" s="5" t="s">
@@ -4509,7 +4506,7 @@
       <c r="B191" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="C191" s="11" t="s">
+      <c r="C191" s="12" t="s">
         <v>30</v>
       </c>
       <c r="D191" s="5" t="s">
@@ -4524,7 +4521,7 @@
       <c r="B192" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="C192" s="11" t="s">
+      <c r="C192" s="12" t="s">
         <v>200</v>
       </c>
       <c r="D192" s="5" t="s">
@@ -4539,7 +4536,7 @@
       <c r="B193" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="C193" s="11" t="s">
+      <c r="C193" s="12" t="s">
         <v>59</v>
       </c>
       <c r="D193" s="4" t="s">
@@ -4554,7 +4551,7 @@
       <c r="B194" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="C194" s="11" t="s">
+      <c r="C194" s="12" t="s">
         <v>59</v>
       </c>
       <c r="D194" s="4" t="s">
@@ -4569,7 +4566,7 @@
       <c r="B195" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="C195" s="11" t="s">
+      <c r="C195" s="12" t="s">
         <v>59</v>
       </c>
       <c r="D195" s="4" t="s">
@@ -4584,7 +4581,7 @@
       <c r="B196" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="C196" s="11" t="s">
+      <c r="C196" s="12" t="s">
         <v>59</v>
       </c>
       <c r="D196" s="4" t="s">
@@ -4599,7 +4596,7 @@
       <c r="B197" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="C197" s="11" t="s">
+      <c r="C197" s="12" t="s">
         <v>59</v>
       </c>
       <c r="D197" s="4" t="s">
@@ -4614,7 +4611,7 @@
       <c r="B198" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="C198" s="11" t="s">
+      <c r="C198" s="12" t="s">
         <v>30</v>
       </c>
       <c r="D198" s="5" t="s">
@@ -4750,70 +4747,70 @@
       </c>
     </row>
     <row r="210" spans="1:5">
-      <c r="A210" s="12" t="s">
+      <c r="A210" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="B210" s="12" t="s">
+      <c r="B210" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="C210" s="12" t="s">
+      <c r="C210" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="D210" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E210" s="12" t="s">
+      <c r="D210" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E210" s="4" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="211" spans="1:5">
-      <c r="A211" s="12" t="s">
+      <c r="A211" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="B211" s="12" t="s">
+      <c r="B211" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="C211" s="12" t="s">
+      <c r="C211" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D211" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E211" s="12" t="s">
+      <c r="D211" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E211" s="4" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="212" spans="1:5">
-      <c r="A212" s="12" t="s">
+      <c r="A212" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="B212" s="12" t="s">
+      <c r="B212" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="C212" s="12" t="s">
+      <c r="C212" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D212" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E212" s="12" t="s">
+      <c r="D212" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E212" s="4" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="213" ht="36" spans="1:5">
-      <c r="A213" s="12" t="s">
+      <c r="A213" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="B213" s="12" t="s">
+      <c r="B213" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="C213" s="12" t="s">
+      <c r="C213" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="D213" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E213" s="13" t="s">
+      <c r="D213" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E213" s="5" t="s">
         <v>234</v>
       </c>
     </row>
@@ -4830,7 +4827,7 @@
       <c r="D214" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E214" s="12"/>
+      <c r="E214" s="4"/>
     </row>
     <row r="215" spans="1:5">
       <c r="A215" s="4" t="s">
@@ -4845,7 +4842,7 @@
       <c r="D215" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E215" s="12"/>
+      <c r="E215" s="4"/>
     </row>
     <row r="216" spans="1:5">
       <c r="A216" s="4" t="s">
@@ -4860,7 +4857,7 @@
       <c r="D216" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E216" s="12"/>
+      <c r="E216" s="4"/>
     </row>
     <row r="218" spans="1:5">
       <c r="A218" s="6" t="s">
@@ -4906,68 +4903,68 @@
       </c>
     </row>
     <row r="221" ht="18" spans="1:5">
-      <c r="A221" s="12" t="s">
+      <c r="A221" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="B221" s="12" t="s">
+      <c r="B221" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="C221" s="10" t="s">
+      <c r="C221" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="D221" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E221" s="12" t="s">
+      <c r="D221" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E221" s="4" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="222" spans="1:5">
-      <c r="A222" s="12" t="s">
+      <c r="A222" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="B222" s="12" t="s">
+      <c r="B222" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="C222" s="12" t="s">
+      <c r="C222" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="D222" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E222" s="12"/>
+      <c r="D222" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E222" s="4"/>
     </row>
     <row r="223" spans="1:5">
-      <c r="A223" s="12" t="s">
+      <c r="A223" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="B223" s="12" t="s">
+      <c r="B223" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="C223" s="12" t="s">
+      <c r="C223" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="D223" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E223" s="12" t="s">
+      <c r="D223" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E223" s="4" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="224" spans="1:5">
-      <c r="A224" s="12" t="s">
+      <c r="A224" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="B224" s="12" t="s">
+      <c r="B224" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C224" s="12" t="s">
+      <c r="C224" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="D224" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E224" s="12" t="s">
+      <c r="D224" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E224" s="4" t="s">
         <v>244</v>
       </c>
     </row>
@@ -4984,7 +4981,7 @@
       <c r="D225" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E225" s="12"/>
+      <c r="E225" s="4"/>
     </row>
     <row r="226" spans="1:5">
       <c r="A226" s="4" t="s">
@@ -4999,7 +4996,7 @@
       <c r="D226" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E226" s="12"/>
+      <c r="E226" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="16">

--- a/document/叨叨帮表设计.xlsx
+++ b/document/叨叨帮表设计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28060" windowHeight="13920"/>
+    <workbookView windowWidth="28060" windowHeight="12020"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247">
   <si>
     <t>用户信息表 user_info</t>
   </si>
@@ -513,6 +513,12 @@
   </si>
   <si>
     <t>worker_id</t>
+  </si>
+  <si>
+    <t>任务金额</t>
+  </si>
+  <si>
+    <t>amount</t>
   </si>
   <si>
     <t>是否放款</t>
@@ -819,9 +825,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
@@ -860,6 +866,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -868,24 +882,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -905,6 +904,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -912,17 +926,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -937,7 +966,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -951,41 +987,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1028,7 +1034,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1040,7 +1154,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1052,13 +1172,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1070,73 +1196,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1148,67 +1214,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1246,17 +1252,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1285,11 +1285,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1306,16 +1312,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1339,152 +1345,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1508,9 +1514,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -1846,10 +1849,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:E226"/>
+  <dimension ref="A1:E227"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="109" zoomScaleNormal="109" topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="G126" sqref="G126"/>
+    <sheetView tabSelected="1" zoomScale="109" zoomScaleNormal="109" topLeftCell="A116" workbookViewId="0">
+      <selection activeCell="B129" sqref="B129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelCol="4"/>
@@ -2601,7 +2604,7 @@
       <c r="D52" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E52" s="13" t="s">
+      <c r="E52" s="12" t="s">
         <v>90</v>
       </c>
     </row>
@@ -2821,7 +2824,7 @@
       <c r="A70" t="s">
         <v>35</v>
       </c>
-      <c r="B70" s="8" t="s">
+      <c r="B70" s="4" t="s">
         <v>36</v>
       </c>
       <c r="C70" s="4" t="s">
@@ -2895,7 +2898,7 @@
       <c r="B76" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C76" s="9" t="s">
+      <c r="C76" s="8" t="s">
         <v>107</v>
       </c>
       <c r="D76" s="5" t="s">
@@ -2912,7 +2915,7 @@
       <c r="B77" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="C77" s="10" t="s">
+      <c r="C77" s="9" t="s">
         <v>110</v>
       </c>
       <c r="D77" s="5" t="s">
@@ -2927,7 +2930,7 @@
       <c r="B78" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C78" s="10" t="s">
+      <c r="C78" s="9" t="s">
         <v>110</v>
       </c>
       <c r="D78" s="5" t="s">
@@ -2944,7 +2947,7 @@
       <c r="B79" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="C79" s="10" t="s">
+      <c r="C79" s="9" t="s">
         <v>110</v>
       </c>
       <c r="D79" s="5" t="s">
@@ -2961,7 +2964,7 @@
       <c r="B80" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="C80" s="10" t="s">
+      <c r="C80" s="9" t="s">
         <v>110</v>
       </c>
       <c r="D80" s="4" t="s">
@@ -2976,7 +2979,7 @@
       <c r="B81" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="C81" s="10" t="s">
+      <c r="C81" s="9" t="s">
         <v>110</v>
       </c>
       <c r="D81" s="4" t="s">
@@ -3006,7 +3009,7 @@
       <c r="B83" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="C83" s="9" t="s">
+      <c r="C83" s="8" t="s">
         <v>107</v>
       </c>
       <c r="D83" s="4" t="s">
@@ -3660,39 +3663,41 @@
         <v>157</v>
       </c>
       <c r="C129" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D129" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E129" s="5" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="130" ht="18" spans="1:5">
+      <c r="A130" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="B130" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C130" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="D129" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E129" s="5" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5">
-      <c r="A130" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="B130" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="C130" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D130" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E130" s="4"/>
+      <c r="D130" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E130" s="5" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="131" spans="1:5">
       <c r="A131" s="4" t="s">
-        <v>35</v>
+        <v>93</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>36</v>
+        <v>94</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D131" s="4" t="s">
         <v>9</v>
@@ -3701,119 +3706,119 @@
     </row>
     <row r="132" spans="1:5">
       <c r="A132" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B132" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C132" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D132" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E132" s="4"/>
+    </row>
+    <row r="133" spans="1:5">
+      <c r="A133" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B132" s="4" t="s">
+      <c r="B133" s="4" t="s">
         <v>39</v>
-      </c>
-      <c r="C132" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D132" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E132" s="4"/>
-    </row>
-    <row r="133" ht="18" spans="1:5">
-      <c r="A133" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B133" s="4" t="s">
-        <v>42</v>
       </c>
       <c r="C133" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D133" s="5" t="s">
+      <c r="D133" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E133" s="4"/>
+    </row>
+    <row r="134" ht="18" spans="1:5">
+      <c r="A134" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B134" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C134" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D134" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E133" s="4"/>
-    </row>
-    <row r="135" spans="1:5">
-      <c r="A135" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="B135" s="6"/>
-      <c r="C135" s="6"/>
-      <c r="D135" s="6"/>
-      <c r="E135" s="6"/>
-    </row>
-    <row r="136" ht="21" spans="1:5">
-      <c r="A136" s="7" t="s">
+      <c r="E134" s="4"/>
+    </row>
+    <row r="136" spans="1:5">
+      <c r="A136" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="B136" s="6"/>
+      <c r="C136" s="6"/>
+      <c r="D136" s="6"/>
+      <c r="E136" s="6"/>
+    </row>
+    <row r="137" ht="21" spans="1:5">
+      <c r="A137" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B136" s="7" t="s">
+      <c r="B137" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C136" s="7" t="s">
+      <c r="C137" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D136" s="7" t="s">
+      <c r="D137" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E136" s="7" t="s">
+      <c r="E137" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="137" ht="19" customHeight="1" spans="1:5">
-      <c r="A137" s="5" t="s">
+    <row r="138" ht="19" customHeight="1" spans="1:5">
+      <c r="A138" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B137" s="4" t="s">
+      <c r="B138" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C137" s="10" t="s">
+      <c r="C138" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="D137" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E137" s="5" t="s">
+      <c r="D138" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E138" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="138" ht="18" spans="1:5">
-      <c r="A138" s="4" t="s">
+    <row r="139" ht="18" spans="1:5">
+      <c r="A139" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B138" s="4" t="s">
+      <c r="B139" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C138" s="10" t="s">
+      <c r="C139" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="D138" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E138" s="4"/>
-    </row>
-    <row r="139" ht="18" spans="1:5">
-      <c r="A139" s="10" t="s">
+      <c r="D139" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E139" s="4"/>
+    </row>
+    <row r="140" ht="18" spans="1:5">
+      <c r="A140" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B139" s="10" t="s">
+      <c r="B140" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C139" s="10" t="s">
-        <v>160</v>
-      </c>
-      <c r="D139" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E139" s="4"/>
-    </row>
-    <row r="140" ht="18" spans="1:5">
-      <c r="A140" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="B140" s="4" t="s">
+      <c r="C140" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="C140" s="10" t="s">
-        <v>110</v>
-      </c>
       <c r="D140" s="5" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="E140" s="4"/>
     </row>
@@ -3824,7 +3829,7 @@
       <c r="B141" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="C141" s="10" t="s">
+      <c r="C141" s="9" t="s">
         <v>110</v>
       </c>
       <c r="D141" s="5" t="s">
@@ -3839,8 +3844,8 @@
       <c r="B142" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="C142" s="4" t="s">
-        <v>18</v>
+      <c r="C142" s="9" t="s">
+        <v>110</v>
       </c>
       <c r="D142" s="5" t="s">
         <v>22</v>
@@ -3892,108 +3897,108 @@
       </c>
       <c r="E145" s="4"/>
     </row>
-    <row r="146" spans="1:5">
+    <row r="146" ht="18" spans="1:5">
       <c r="A146" s="4" t="s">
-        <v>35</v>
+        <v>173</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>36</v>
+        <v>174</v>
       </c>
       <c r="C146" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D146" s="4" t="s">
-        <v>9</v>
+        <v>18</v>
+      </c>
+      <c r="D146" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="E146" s="4"/>
     </row>
     <row r="147" spans="1:5">
       <c r="A147" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B147" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C147" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D147" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E147" s="4"/>
+    </row>
+    <row r="148" spans="1:5">
+      <c r="A148" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B147" s="4" t="s">
+      <c r="B148" s="4" t="s">
         <v>39</v>
-      </c>
-      <c r="C147" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D147" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E147" s="4"/>
-    </row>
-    <row r="148" ht="18" spans="1:5">
-      <c r="A148" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B148" s="4" t="s">
-        <v>42</v>
       </c>
       <c r="C148" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D148" s="5" t="s">
+      <c r="D148" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E148" s="4"/>
+    </row>
+    <row r="149" ht="18" spans="1:5">
+      <c r="A149" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B149" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C149" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D149" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E148" s="4"/>
-    </row>
-    <row r="150" spans="1:5">
-      <c r="A150" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="B150" s="6"/>
-      <c r="C150" s="6"/>
-      <c r="D150" s="6"/>
-      <c r="E150" s="6"/>
-    </row>
-    <row r="151" ht="21" spans="1:5">
-      <c r="A151" s="7" t="s">
+      <c r="E149" s="4"/>
+    </row>
+    <row r="151" spans="1:5">
+      <c r="A151" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="B151" s="6"/>
+      <c r="C151" s="6"/>
+      <c r="D151" s="6"/>
+      <c r="E151" s="6"/>
+    </row>
+    <row r="152" ht="21" spans="1:5">
+      <c r="A152" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B151" s="7" t="s">
+      <c r="B152" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C151" s="7" t="s">
+      <c r="C152" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D151" s="7" t="s">
+      <c r="D152" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E151" s="7" t="s">
+      <c r="E152" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="152" ht="18" spans="1:5">
-      <c r="A152" s="5" t="s">
+    <row r="153" ht="18" spans="1:5">
+      <c r="A153" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B152" s="4" t="s">
+      <c r="B153" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C152" s="10" t="s">
+      <c r="C153" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="D152" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E152" s="5" t="s">
+      <c r="D153" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E153" s="5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="153" ht="18" spans="1:5">
-      <c r="A153" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="B153" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="C153" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="D153" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E153" s="4"/>
     </row>
     <row r="154" ht="18" spans="1:5">
       <c r="A154" s="4" t="s">
@@ -4002,8 +4007,8 @@
       <c r="B154" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="C154" s="4" t="s">
-        <v>18</v>
+      <c r="C154" s="9" t="s">
+        <v>110</v>
       </c>
       <c r="D154" s="5" t="s">
         <v>9</v>
@@ -4040,118 +4045,118 @@
       </c>
       <c r="E156" s="4"/>
     </row>
-    <row r="157" spans="1:5">
+    <row r="157" ht="18" spans="1:5">
       <c r="A157" s="4" t="s">
-        <v>35</v>
+        <v>182</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>36</v>
+        <v>183</v>
       </c>
       <c r="C157" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D157" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D157" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E157" s="4"/>
     </row>
     <row r="158" spans="1:5">
       <c r="A158" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B158" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C158" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D158" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E158" s="4"/>
+    </row>
+    <row r="159" spans="1:5">
+      <c r="A159" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B158" s="4" t="s">
+      <c r="B159" s="4" t="s">
         <v>39</v>
-      </c>
-      <c r="C158" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D158" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E158" s="4"/>
-    </row>
-    <row r="159" ht="18" spans="1:5">
-      <c r="A159" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B159" s="4" t="s">
-        <v>42</v>
       </c>
       <c r="C159" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D159" s="5" t="s">
+      <c r="D159" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E159" s="4"/>
+    </row>
+    <row r="160" ht="18" spans="1:5">
+      <c r="A160" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B160" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C160" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D160" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E159" s="4"/>
-    </row>
-    <row r="161" spans="1:5">
-      <c r="A161" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="B161" s="6"/>
-      <c r="C161" s="6"/>
-      <c r="D161" s="6"/>
-      <c r="E161" s="6"/>
-    </row>
-    <row r="162" ht="21" spans="1:5">
-      <c r="A162" s="7" t="s">
+      <c r="E160" s="4"/>
+    </row>
+    <row r="162" spans="1:5">
+      <c r="A162" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="B162" s="6"/>
+      <c r="C162" s="6"/>
+      <c r="D162" s="6"/>
+      <c r="E162" s="6"/>
+    </row>
+    <row r="163" ht="21" spans="1:5">
+      <c r="A163" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B162" s="7" t="s">
+      <c r="B163" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C162" s="7" t="s">
+      <c r="C163" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D162" s="7" t="s">
+      <c r="D163" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E162" s="7" t="s">
+      <c r="E163" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="163" ht="18" spans="1:5">
-      <c r="A163" s="5" t="s">
+    <row r="164" ht="18" spans="1:5">
+      <c r="A164" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B163" s="4" t="s">
+      <c r="B164" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C163" s="10" t="s">
+      <c r="C164" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="D163" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E163" s="5" t="s">
+      <c r="D164" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E164" s="5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="164" ht="18" spans="1:5">
-      <c r="A164" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="B164" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="C164" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="D164" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E164" s="4"/>
     </row>
     <row r="165" ht="18" spans="1:5">
       <c r="A165" s="4" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="B165" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="C165" s="4" t="s">
-        <v>81</v>
+        <v>112</v>
+      </c>
+      <c r="C165" s="9" t="s">
+        <v>110</v>
       </c>
       <c r="D165" s="5" t="s">
         <v>9</v>
@@ -4166,7 +4171,7 @@
         <v>186</v>
       </c>
       <c r="C166" s="4" t="s">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="D166" s="5" t="s">
         <v>9</v>
@@ -4178,7 +4183,7 @@
         <v>187</v>
       </c>
       <c r="B167" s="4" t="s">
-        <v>94</v>
+        <v>188</v>
       </c>
       <c r="C167" s="4" t="s">
         <v>40</v>
@@ -4188,30 +4193,30 @@
       </c>
       <c r="E167" s="4"/>
     </row>
-    <row r="168" spans="1:5">
+    <row r="168" ht="18" spans="1:5">
       <c r="A168" s="4" t="s">
-        <v>35</v>
+        <v>189</v>
       </c>
       <c r="B168" s="4" t="s">
-        <v>36</v>
+        <v>94</v>
       </c>
       <c r="C168" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D168" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D168" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E168" s="4"/>
     </row>
     <row r="169" spans="1:5">
       <c r="A169" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B169" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C169" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D169" s="4" t="s">
         <v>9</v>
@@ -4220,85 +4225,85 @@
     </row>
     <row r="170" spans="1:5">
       <c r="A170" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B170" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C170" s="4" t="s">
         <v>40</v>
       </c>
       <c r="D170" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E170" s="4"/>
+    </row>
+    <row r="171" spans="1:5">
+      <c r="A171" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B171" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C171" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D171" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E170" s="4"/>
-    </row>
-    <row r="172" spans="1:5">
-      <c r="A172" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="B172" s="6"/>
-      <c r="C172" s="6"/>
-      <c r="D172" s="6"/>
-      <c r="E172" s="6"/>
-    </row>
-    <row r="173" ht="21" spans="1:5">
-      <c r="A173" s="7" t="s">
+      <c r="E171" s="4"/>
+    </row>
+    <row r="173" spans="1:5">
+      <c r="A173" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B173" s="6"/>
+      <c r="C173" s="6"/>
+      <c r="D173" s="6"/>
+      <c r="E173" s="6"/>
+    </row>
+    <row r="174" ht="21" spans="1:5">
+      <c r="A174" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B173" s="7" t="s">
+      <c r="B174" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C173" s="7" t="s">
+      <c r="C174" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D173" s="7" t="s">
+      <c r="D174" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E173" s="7" t="s">
+      <c r="E174" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="174" ht="18" spans="1:5">
-      <c r="A174" s="5" t="s">
+    <row r="175" ht="18" spans="1:5">
+      <c r="A175" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B174" s="4" t="s">
+      <c r="B175" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C174" s="10" t="s">
+      <c r="C175" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="D174" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E174" s="5" t="s">
+      <c r="D175" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E175" s="5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="175" ht="18" spans="1:5">
-      <c r="A175" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="B175" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="C175" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="D175" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E175" s="4"/>
     </row>
     <row r="176" ht="18" spans="1:5">
       <c r="A176" s="4" t="s">
-        <v>111</v>
+        <v>191</v>
       </c>
       <c r="B176" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="C176" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="C176" s="9" t="s">
         <v>110</v>
       </c>
       <c r="D176" s="5" t="s">
@@ -4308,16 +4313,16 @@
     </row>
     <row r="177" ht="18" spans="1:5">
       <c r="A177" s="4" t="s">
-        <v>191</v>
+        <v>111</v>
       </c>
       <c r="B177" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="C177" s="4" t="s">
-        <v>18</v>
+        <v>112</v>
+      </c>
+      <c r="C177" s="9" t="s">
+        <v>110</v>
       </c>
       <c r="D177" s="5" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="E177" s="4"/>
     </row>
@@ -4326,10 +4331,10 @@
         <v>193</v>
       </c>
       <c r="B178" s="4" t="s">
-        <v>94</v>
+        <v>194</v>
       </c>
       <c r="C178" s="4" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="D178" s="5" t="s">
         <v>9</v>
@@ -4338,58 +4343,58 @@
     </row>
     <row r="179" ht="18" spans="1:5">
       <c r="A179" s="4" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B179" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C179" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D179" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E179" s="4"/>
+    </row>
+    <row r="180" ht="18" spans="1:5">
+      <c r="A180" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="B180" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="C179" s="10" t="s">
+      <c r="C180" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="D179" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E179" s="4"/>
-    </row>
-    <row r="180" spans="1:5">
-      <c r="A180" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="B180" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="C180" s="4" t="s">
-        <v>59</v>
-      </c>
       <c r="D180" s="4" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="E180" s="4"/>
     </row>
     <row r="181" spans="1:5">
       <c r="A181" s="4" t="s">
-        <v>35</v>
+        <v>197</v>
       </c>
       <c r="B181" s="4" t="s">
-        <v>36</v>
+        <v>198</v>
       </c>
       <c r="C181" s="4" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="D181" s="4" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="E181" s="4"/>
     </row>
     <row r="182" spans="1:5">
       <c r="A182" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B182" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C182" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D182" s="4" t="s">
         <v>9</v>
@@ -4398,86 +4403,86 @@
     </row>
     <row r="183" spans="1:5">
       <c r="A183" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B183" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C183" s="4" t="s">
         <v>40</v>
       </c>
       <c r="D183" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E183" s="4"/>
+    </row>
+    <row r="184" spans="1:5">
+      <c r="A184" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B184" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C184" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D184" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E183" s="4"/>
-    </row>
-    <row r="185" spans="1:5">
-      <c r="A185" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="B185" s="6"/>
-      <c r="C185" s="6"/>
-      <c r="D185" s="6"/>
-      <c r="E185" s="6"/>
-    </row>
-    <row r="186" ht="21" spans="1:5">
-      <c r="A186" s="7" t="s">
+      <c r="E184" s="4"/>
+    </row>
+    <row r="186" spans="1:5">
+      <c r="A186" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="B186" s="6"/>
+      <c r="C186" s="6"/>
+      <c r="D186" s="6"/>
+      <c r="E186" s="6"/>
+    </row>
+    <row r="187" ht="21" spans="1:5">
+      <c r="A187" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B186" s="7" t="s">
+      <c r="B187" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C186" s="7" t="s">
+      <c r="C187" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D186" s="7" t="s">
+      <c r="D187" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E186" s="7" t="s">
+      <c r="E187" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="187" ht="18" spans="1:5">
-      <c r="A187" s="5" t="s">
+    <row r="188" ht="18" spans="1:5">
+      <c r="A188" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B187" s="4" t="s">
+      <c r="B188" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C187" s="11" t="s">
+      <c r="C188" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="D187" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E187" s="5" t="s">
+      <c r="D188" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E188" s="5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="188" ht="18" spans="1:5">
-      <c r="A188" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="B188" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="C188" s="12" t="s">
-        <v>200</v>
-      </c>
-      <c r="D188" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E188" s="4"/>
     </row>
     <row r="189" ht="18" spans="1:5">
       <c r="A189" s="4" t="s">
-        <v>44</v>
+        <v>200</v>
       </c>
       <c r="B189" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C189" s="12" t="s">
-        <v>8</v>
+        <v>201</v>
+      </c>
+      <c r="C189" s="11" t="s">
+        <v>202</v>
       </c>
       <c r="D189" s="5" t="s">
         <v>9</v>
@@ -4486,12 +4491,12 @@
     </row>
     <row r="190" ht="18" spans="1:5">
       <c r="A190" s="4" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="B190" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C190" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C190" s="11" t="s">
         <v>8</v>
       </c>
       <c r="D190" s="5" t="s">
@@ -4501,13 +4506,13 @@
     </row>
     <row r="191" ht="18" spans="1:5">
       <c r="A191" s="4" t="s">
-        <v>201</v>
+        <v>13</v>
       </c>
       <c r="B191" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="C191" s="12" t="s">
-        <v>30</v>
+        <v>14</v>
+      </c>
+      <c r="C191" s="11" t="s">
+        <v>8</v>
       </c>
       <c r="D191" s="5" t="s">
         <v>9</v>
@@ -4521,26 +4526,26 @@
       <c r="B192" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="C192" s="12" t="s">
-        <v>200</v>
+      <c r="C192" s="11" t="s">
+        <v>30</v>
       </c>
       <c r="D192" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E192" s="4"/>
     </row>
-    <row r="193" spans="1:5">
+    <row r="193" ht="18" spans="1:5">
       <c r="A193" s="4" t="s">
         <v>205</v>
       </c>
       <c r="B193" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="C193" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="D193" s="4" t="s">
-        <v>22</v>
+      <c r="C193" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="D193" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="E193" s="4"/>
     </row>
@@ -4551,7 +4556,7 @@
       <c r="B194" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="C194" s="12" t="s">
+      <c r="C194" s="11" t="s">
         <v>59</v>
       </c>
       <c r="D194" s="4" t="s">
@@ -4566,7 +4571,7 @@
       <c r="B195" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="C195" s="12" t="s">
+      <c r="C195" s="11" t="s">
         <v>59</v>
       </c>
       <c r="D195" s="4" t="s">
@@ -4581,7 +4586,7 @@
       <c r="B196" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="C196" s="12" t="s">
+      <c r="C196" s="11" t="s">
         <v>59</v>
       </c>
       <c r="D196" s="4" t="s">
@@ -4596,7 +4601,7 @@
       <c r="B197" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="C197" s="12" t="s">
+      <c r="C197" s="11" t="s">
         <v>59</v>
       </c>
       <c r="D197" s="4" t="s">
@@ -4604,40 +4609,42 @@
       </c>
       <c r="E197" s="4"/>
     </row>
-    <row r="198" ht="18" spans="1:5">
+    <row r="198" spans="1:5">
       <c r="A198" s="4" t="s">
         <v>215</v>
       </c>
       <c r="B198" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="C198" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="D198" s="5" t="s">
-        <v>9</v>
+      <c r="C198" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="D198" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="E198" s="4"/>
     </row>
-    <row r="199" spans="1:5">
+    <row r="199" ht="18" spans="1:5">
       <c r="A199" s="4" t="s">
         <v>217</v>
       </c>
       <c r="B199" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="C199" s="4"/>
-      <c r="D199" s="4" t="s">
-        <v>22</v>
+        <v>218</v>
+      </c>
+      <c r="C199" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D199" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="E199" s="4"/>
     </row>
     <row r="200" spans="1:5">
       <c r="A200" s="4" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B200" s="4" t="s">
-        <v>219</v>
+        <v>155</v>
       </c>
       <c r="C200" s="4"/>
       <c r="D200" s="4" t="s">
@@ -4660,28 +4667,26 @@
     </row>
     <row r="202" spans="1:5">
       <c r="A202" s="4" t="s">
-        <v>35</v>
+        <v>222</v>
       </c>
       <c r="B202" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C202" s="4" t="s">
-        <v>37</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="C202" s="4"/>
       <c r="D202" s="4" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="E202" s="4"/>
     </row>
     <row r="203" spans="1:5">
       <c r="A203" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B203" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C203" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D203" s="4" t="s">
         <v>9</v>
@@ -4690,88 +4695,86 @@
     </row>
     <row r="204" spans="1:5">
       <c r="A204" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B204" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C204" s="4" t="s">
         <v>40</v>
       </c>
       <c r="D204" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E204" s="4"/>
+    </row>
+    <row r="205" spans="1:5">
+      <c r="A205" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B205" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C205" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D205" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E204" s="4"/>
-    </row>
-    <row r="207" spans="1:5">
-      <c r="A207" s="6" t="s">
-        <v>222</v>
-      </c>
-      <c r="B207" s="6"/>
-      <c r="C207" s="6"/>
-      <c r="D207" s="6"/>
-      <c r="E207" s="6"/>
-    </row>
-    <row r="208" ht="21" spans="1:5">
-      <c r="A208" s="7" t="s">
+      <c r="E205" s="4"/>
+    </row>
+    <row r="208" spans="1:5">
+      <c r="A208" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="B208" s="6"/>
+      <c r="C208" s="6"/>
+      <c r="D208" s="6"/>
+      <c r="E208" s="6"/>
+    </row>
+    <row r="209" ht="21" spans="1:5">
+      <c r="A209" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B208" s="7" t="s">
+      <c r="B209" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C208" s="7" t="s">
+      <c r="C209" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D208" s="7" t="s">
+      <c r="D209" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E208" s="7" t="s">
+      <c r="E209" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="209" ht="18" spans="1:5">
-      <c r="A209" s="5" t="s">
+    <row r="210" ht="18" spans="1:5">
+      <c r="A210" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B209" s="4" t="s">
+      <c r="B210" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C209" s="4" t="s">
+      <c r="C210" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D209" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E209" s="5" t="s">
+      <c r="D210" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E210" s="5" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="210" spans="1:5">
-      <c r="A210" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="B210" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="C210" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="D210" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E210" s="4" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="211" spans="1:5">
       <c r="A211" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="B211" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="C211" s="4" t="s">
         <v>227</v>
-      </c>
-      <c r="B211" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="C211" s="4" t="s">
-        <v>40</v>
       </c>
       <c r="D211" s="4" t="s">
         <v>9</v>
@@ -4785,7 +4788,7 @@
         <v>229</v>
       </c>
       <c r="B212" s="4" t="s">
-        <v>230</v>
+        <v>92</v>
       </c>
       <c r="C212" s="4" t="s">
         <v>40</v>
@@ -4794,50 +4797,52 @@
         <v>9</v>
       </c>
       <c r="E212" s="4" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5">
+      <c r="A213" s="4" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="213" ht="36" spans="1:5">
-      <c r="A213" s="4" t="s">
+      <c r="B213" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="B213" s="4" t="s">
+      <c r="C213" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D213" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E213" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="C213" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="D213" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E213" s="5" t="s">
+    </row>
+    <row r="214" ht="36" spans="1:5">
+      <c r="A214" s="4" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="214" spans="1:5">
-      <c r="A214" s="4" t="s">
-        <v>35</v>
-      </c>
       <c r="B214" s="4" t="s">
-        <v>36</v>
+        <v>235</v>
       </c>
       <c r="C214" s="4" t="s">
-        <v>37</v>
+        <v>227</v>
       </c>
       <c r="D214" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E214" s="4"/>
+      <c r="E214" s="5" t="s">
+        <v>236</v>
+      </c>
     </row>
     <row r="215" spans="1:5">
       <c r="A215" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B215" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C215" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D215" s="4" t="s">
         <v>9</v>
@@ -4846,100 +4851,100 @@
     </row>
     <row r="216" spans="1:5">
       <c r="A216" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B216" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C216" s="4" t="s">
         <v>40</v>
       </c>
       <c r="D216" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E216" s="4"/>
+    </row>
+    <row r="217" spans="1:5">
+      <c r="A217" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B217" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C217" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D217" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E216" s="4"/>
-    </row>
-    <row r="218" spans="1:5">
-      <c r="A218" s="6" t="s">
-        <v>235</v>
-      </c>
-      <c r="B218" s="6"/>
-      <c r="C218" s="6"/>
-      <c r="D218" s="6"/>
-      <c r="E218" s="6"/>
-    </row>
-    <row r="219" ht="21" spans="1:5">
-      <c r="A219" s="7" t="s">
+      <c r="E217" s="4"/>
+    </row>
+    <row r="219" spans="1:5">
+      <c r="A219" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="B219" s="6"/>
+      <c r="C219" s="6"/>
+      <c r="D219" s="6"/>
+      <c r="E219" s="6"/>
+    </row>
+    <row r="220" ht="21" spans="1:5">
+      <c r="A220" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B219" s="7" t="s">
+      <c r="B220" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C219" s="7" t="s">
+      <c r="C220" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D219" s="7" t="s">
+      <c r="D220" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E219" s="7" t="s">
+      <c r="E220" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="220" ht="18" spans="1:5">
-      <c r="A220" s="5" t="s">
+    <row r="221" ht="18" spans="1:5">
+      <c r="A221" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B220" s="4" t="s">
+      <c r="B221" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C220" s="4" t="s">
+      <c r="C221" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D220" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E220" s="5" t="s">
+      <c r="D221" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E221" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="221" ht="18" spans="1:5">
-      <c r="A221" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="B221" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="C221" s="11" t="s">
+    <row r="222" ht="18" spans="1:5">
+      <c r="A222" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="B222" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="C222" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="D221" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E221" s="4" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="222" spans="1:5">
-      <c r="A222" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="B222" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="C222" s="4" t="s">
-        <v>81</v>
-      </c>
       <c r="D222" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E222" s="4"/>
+      <c r="E222" s="4" t="s">
+        <v>240</v>
+      </c>
     </row>
     <row r="223" spans="1:5">
       <c r="A223" s="4" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B223" s="4" t="s">
-        <v>241</v>
+        <v>112</v>
       </c>
       <c r="C223" s="4" t="s">
         <v>81</v>
@@ -4947,19 +4952,17 @@
       <c r="D223" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E223" s="4" t="s">
-        <v>242</v>
-      </c>
+      <c r="E223" s="4"/>
     </row>
     <row r="224" spans="1:5">
       <c r="A224" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="B224" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="B224" s="4" t="s">
-        <v>52</v>
-      </c>
       <c r="C224" s="4" t="s">
-        <v>225</v>
+        <v>81</v>
       </c>
       <c r="D224" s="4" t="s">
         <v>9</v>
@@ -4970,33 +4973,50 @@
     </row>
     <row r="225" spans="1:5">
       <c r="A225" s="4" t="s">
-        <v>38</v>
+        <v>245</v>
       </c>
       <c r="B225" s="4" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="C225" s="4" t="s">
-        <v>40</v>
+        <v>227</v>
       </c>
       <c r="D225" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E225" s="4"/>
+      <c r="E225" s="4" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="226" spans="1:5">
       <c r="A226" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B226" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C226" s="4" t="s">
         <v>40</v>
       </c>
       <c r="D226" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E226" s="4"/>
+    </row>
+    <row r="227" spans="1:5">
+      <c r="A227" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B227" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C227" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D227" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E226" s="4"/>
+      <c r="E227" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="16">
@@ -5009,13 +5029,13 @@
     <mergeCell ref="A90:E90"/>
     <mergeCell ref="A105:E105"/>
     <mergeCell ref="A119:E119"/>
-    <mergeCell ref="A135:E135"/>
-    <mergeCell ref="A150:E150"/>
-    <mergeCell ref="A161:E161"/>
-    <mergeCell ref="A172:E172"/>
-    <mergeCell ref="A185:E185"/>
-    <mergeCell ref="A207:E207"/>
-    <mergeCell ref="A218:E218"/>
+    <mergeCell ref="A136:E136"/>
+    <mergeCell ref="A151:E151"/>
+    <mergeCell ref="A162:E162"/>
+    <mergeCell ref="A173:E173"/>
+    <mergeCell ref="A186:E186"/>
+    <mergeCell ref="A208:E208"/>
+    <mergeCell ref="A219:E219"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/document/叨叨帮表设计.xlsx
+++ b/document/叨叨帮表设计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28060" windowHeight="12020"/>
+    <workbookView windowWidth="28060" windowHeight="13920"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1851,8 +1851,8 @@
   <sheetPr/>
   <dimension ref="A1:E227"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="109" zoomScaleNormal="109" topLeftCell="A116" workbookViewId="0">
-      <selection activeCell="B129" sqref="B129"/>
+    <sheetView tabSelected="1" zoomScale="114" zoomScaleNormal="114" topLeftCell="A113" workbookViewId="0">
+      <selection activeCell="B127" sqref="B127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelCol="4"/>

--- a/document/叨叨帮表设计.xlsx
+++ b/document/叨叨帮表设计.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyProject\git\yukz-yumi\pddHelp\document\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="28060" windowHeight="13920"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28065" windowHeight="13920"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="895" uniqueCount="262">
   <si>
     <t>用户信息表 user_info</t>
   </si>
@@ -342,6 +347,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>bigint</t>
@@ -350,6 +356,7 @@
       <rPr>
         <sz val="9"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>(20)</t>
@@ -366,6 +373,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>bigint</t>
@@ -374,6 +382,7 @@
       <rPr>
         <sz val="9"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>(20)</t>
@@ -532,6 +541,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>'是否放款 0:未放款/1:已放款'</t>
@@ -541,7 +551,7 @@
         <sz val="9"/>
         <color rgb="FFD4D4D4"/>
         <rFont val="Menlo"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>,</t>
     </r>
@@ -554,6 +564,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>varchar</t>
@@ -562,6 +573,7 @@
       <rPr>
         <sz val="9"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>(128)</t>
@@ -819,18 +831,94 @@
   <si>
     <t>yes/no</t>
   </si>
+  <si>
+    <r>
+      <t>系统设置信息 ddp_sys_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>set</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>set_key</t>
+  </si>
+  <si>
+    <t>设置key</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置value</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>机构编号</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>平台编码</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务类型</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>扩展1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>扩展2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>set_value</t>
+  </si>
+  <si>
+    <t>set_type</t>
+  </si>
+  <si>
+    <t>ext1</t>
+  </si>
+  <si>
+    <r>
+      <t>ext</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>bigint(8)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="27">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="9">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -843,162 +931,21 @@
       <sz val="14"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1006,220 +953,45 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FFD4D4D4"/>
       <name val="Menlo"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1242,263 +1014,18 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1508,9 +1035,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1527,65 +1051,33 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1843,192 +1335,192 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1:E227"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E240"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="114" zoomScaleNormal="114" topLeftCell="A113" workbookViewId="0">
-      <selection activeCell="B127" sqref="B127"/>
+    <sheetView tabSelected="1" topLeftCell="A218" zoomScale="114" zoomScaleNormal="114" workbookViewId="0">
+      <selection activeCell="D235" sqref="D235:D238"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="26.6428571428571" customWidth="1"/>
+    <col min="1" max="1" width="26.625" customWidth="1"/>
     <col min="2" max="2" width="20.5" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="4" max="4" width="11.9285714285714" customWidth="1"/>
-    <col min="5" max="5" width="59.2857142857143" customWidth="1"/>
-    <col min="8" max="8" width="11.2857142857143" customWidth="1"/>
+    <col min="4" max="4" width="11.875" customWidth="1"/>
+    <col min="5" max="5" width="59.25" customWidth="1"/>
+    <col min="8" max="8" width="11.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-    </row>
-    <row r="2" ht="32" customHeight="1" spans="1:5">
-      <c r="A2" s="3" t="s">
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+    </row>
+    <row r="2" spans="1:5" ht="32.1" customHeight="1">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="4" t="s">
+      <c r="D3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="4"/>
+      <c r="D4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="3"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="4"/>
+      <c r="D5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="3"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="4"/>
+      <c r="D6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="3"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="4"/>
+      <c r="E7" s="3"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="4" t="s">
+      <c r="D8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B9" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="4"/>
+      <c r="D9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="3"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" s="4"/>
+      <c r="D10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="3"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" s="4" t="s">
+      <c r="D11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="3" t="s">
         <v>34</v>
       </c>
     </row>
@@ -2036,607 +1528,607 @@
       <c r="A12" t="s">
         <v>35</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" s="4"/>
-    </row>
-    <row r="13" ht="18" spans="1:5">
-      <c r="A13" s="4" t="s">
+      <c r="D12" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="3"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E13" s="4"/>
-    </row>
-    <row r="14" ht="18" spans="1:5">
-      <c r="A14" s="4" t="s">
+      <c r="E13" s="3"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E14" s="4"/>
-    </row>
-    <row r="15" s="1" customFormat="1"/>
+      <c r="E14" s="3"/>
+    </row>
+    <row r="15" spans="1:5" s="1" customFormat="1"/>
     <row r="17" spans="1:5">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-    </row>
-    <row r="18" ht="32" customHeight="1" spans="1:5">
-      <c r="A18" s="3" t="s">
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+    </row>
+    <row r="18" spans="1:5" ht="32.1" customHeight="1">
+      <c r="A18" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="E18" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D19" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E19" s="4" t="s">
+      <c r="D19" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D20" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E20" s="4" t="s">
+      <c r="D20" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" s="3" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D21" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E21" s="4" t="s">
+      <c r="D21" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" s="3" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="4" t="s">
+      <c r="A22" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C22" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D22" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E22" s="4"/>
+      <c r="D22" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" s="3"/>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="4" t="s">
+      <c r="A23" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D23" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E23" s="4" t="s">
+      <c r="D23" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" s="3" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="4" t="s">
+      <c r="A24" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C24" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D24" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E24" s="4" t="s">
+      <c r="D24" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" s="3" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="4" t="s">
+      <c r="A25" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C25" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="D25" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E25" s="4" t="s">
+      <c r="D25" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25" s="3" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="4" t="s">
+      <c r="A26" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C26" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D26" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E26" s="4"/>
+      <c r="D26" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26" s="3"/>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="4" t="s">
+      <c r="A27" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="C27" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D27" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E27" s="4"/>
-    </row>
-    <row r="28" ht="18" spans="1:5">
-      <c r="A28" s="4" t="s">
+      <c r="D27" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E27" s="3"/>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C28" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="D28" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E28" s="4"/>
+      <c r="E28" s="3"/>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="6" t="s">
+      <c r="A30" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-    </row>
-    <row r="31" ht="21" spans="1:5">
-      <c r="A31" s="7" t="s">
+      <c r="B30" s="12"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+    </row>
+    <row r="31" spans="1:5" ht="18.75">
+      <c r="A31" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="B31" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C31" s="7" t="s">
+      <c r="C31" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D31" s="7" t="s">
+      <c r="D31" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E31" s="7" t="s">
+      <c r="E31" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="32" ht="18" spans="1:5">
-      <c r="A32" s="5" t="s">
+    <row r="32" spans="1:5">
+      <c r="A32" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="B32" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="C32" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D32" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E32" s="5" t="s">
+      <c r="D32" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E32" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="33" ht="18" spans="1:5">
-      <c r="A33" s="5" t="s">
+    <row r="33" spans="1:5">
+      <c r="A33" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="B33" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C33" s="5" t="s">
+      <c r="C33" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D33" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E33" s="5"/>
-    </row>
-    <row r="34" ht="18" spans="1:5">
-      <c r="A34" s="5" t="s">
+      <c r="D33" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E33" s="4"/>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="B34" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C34" s="5" t="s">
+      <c r="C34" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D34" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E34" s="5"/>
-    </row>
-    <row r="35" ht="18" spans="1:5">
-      <c r="A35" s="5" t="s">
+      <c r="D34" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E34" s="4"/>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="B35" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C35" s="5" t="s">
+      <c r="C35" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D35" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E35" s="5"/>
-    </row>
-    <row r="36" ht="18" spans="1:5">
-      <c r="A36" s="5" t="s">
+      <c r="D35" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E35" s="4"/>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B36" s="5" t="s">
+      <c r="B36" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C36" s="5" t="s">
+      <c r="C36" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="D36" s="5" t="s">
+      <c r="D36" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E36" s="5"/>
+      <c r="E36" s="4"/>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="4" t="s">
+      <c r="A37" s="3" t="s">
         <v>35</v>
       </c>
       <c r="B37" t="s">
         <v>36</v>
       </c>
-      <c r="C37" s="4" t="s">
+      <c r="C37" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D37" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E37" s="4"/>
-    </row>
-    <row r="38" ht="18" spans="1:5">
-      <c r="A38" s="5" t="s">
+      <c r="D37" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E37" s="3"/>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B38" s="5" t="s">
+      <c r="B38" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C38" s="5" t="s">
+      <c r="C38" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D38" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E38" s="5" t="s">
+      <c r="D38" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E38" s="4" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="4" t="s">
+      <c r="A39" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B39" s="4" t="s">
+      <c r="B39" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C39" s="4" t="s">
+      <c r="C39" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D39" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E39" s="4"/>
-    </row>
-    <row r="40" ht="18" spans="1:5">
-      <c r="A40" s="4" t="s">
+      <c r="D39" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E39" s="3"/>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B40" s="4" t="s">
+      <c r="B40" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C40" s="4" t="s">
+      <c r="C40" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D40" s="5" t="s">
+      <c r="D40" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E40" s="4"/>
+      <c r="E40" s="3"/>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42" s="6" t="s">
+      <c r="A42" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="B42" s="6"/>
-      <c r="C42" s="6"/>
-      <c r="D42" s="6"/>
-      <c r="E42" s="6"/>
-    </row>
-    <row r="43" ht="21" spans="1:5">
-      <c r="A43" s="7" t="s">
+      <c r="B42" s="12"/>
+      <c r="C42" s="12"/>
+      <c r="D42" s="12"/>
+      <c r="E42" s="12"/>
+    </row>
+    <row r="43" spans="1:5" ht="18.75">
+      <c r="A43" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B43" s="7" t="s">
+      <c r="B43" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C43" s="7" t="s">
+      <c r="C43" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D43" s="7" t="s">
+      <c r="D43" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E43" s="7" t="s">
+      <c r="E43" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="44" ht="18" spans="1:5">
-      <c r="A44" s="5" t="s">
+    <row r="44" spans="1:5">
+      <c r="A44" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B44" s="5" t="s">
+      <c r="B44" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C44" s="4" t="s">
+      <c r="C44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D44" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E44" s="5" t="s">
+      <c r="D44" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E44" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="45" spans="1:5">
-      <c r="A45" s="4" t="s">
+      <c r="A45" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B45" s="4" t="s">
+      <c r="B45" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C45" s="4" t="s">
+      <c r="C45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D45" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E45" s="4" t="s">
+      <c r="D45" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E45" s="3" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="46" spans="1:5">
-      <c r="A46" s="4" t="s">
+      <c r="A46" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B46" s="4" t="s">
+      <c r="B46" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C46" s="4" t="s">
+      <c r="C46" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D46" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E46" s="4" t="s">
+      <c r="D46" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E46" s="3" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="47" spans="1:5">
-      <c r="A47" s="4" t="s">
+      <c r="A47" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B47" s="4" t="s">
+      <c r="B47" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C47" s="4" t="s">
+      <c r="C47" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D47" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E47" s="4" t="s">
+      <c r="D47" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E47" s="3" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="48" ht="18" spans="1:5">
-      <c r="A48" s="4" t="s">
+    <row r="48" spans="1:5">
+      <c r="A48" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="B48" s="4" t="s">
+      <c r="B48" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="C48" s="5" t="s">
+      <c r="C48" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="D48" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E48" s="4" t="s">
+      <c r="D48" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E48" s="3" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="49" spans="1:5">
-      <c r="A49" s="4" t="s">
+      <c r="A49" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B49" s="4" t="s">
+      <c r="B49" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C49" s="4" t="s">
+      <c r="C49" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="D49" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E49" s="4" t="s">
+      <c r="D49" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E49" s="3" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="50" spans="1:5">
-      <c r="A50" s="4" t="s">
+      <c r="A50" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="B50" s="4" t="s">
+      <c r="B50" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="C50" s="4" t="s">
+      <c r="C50" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="D50" s="4" t="s">
+      <c r="D50" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E50" s="4"/>
-    </row>
-    <row r="51" ht="18" spans="1:5">
-      <c r="A51" s="4" t="s">
+      <c r="E50" s="3"/>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="B51" s="4" t="s">
+      <c r="B51" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C51" s="5" t="s">
+      <c r="C51" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D51" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E51" s="4" t="s">
+      <c r="D51" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E51" s="3" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="52" ht="18" spans="1:5">
-      <c r="A52" s="4" t="s">
+    <row r="52" spans="1:5">
+      <c r="A52" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="B52" s="4" t="s">
+      <c r="B52" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="C52" s="5" t="s">
+      <c r="C52" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D52" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E52" s="12" t="s">
+      <c r="D52" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E52" s="10" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="53" spans="1:5">
-      <c r="A53" s="4" t="s">
+      <c r="A53" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="B53" s="4" t="s">
+      <c r="B53" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C53" s="4" t="s">
+      <c r="C53" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D53" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E53" s="4"/>
+      <c r="D53" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E53" s="3"/>
     </row>
     <row r="54" spans="1:5">
-      <c r="A54" s="4" t="s">
+      <c r="A54" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="B54" s="4" t="s">
+      <c r="B54" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C54" s="4" t="s">
+      <c r="C54" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D54" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E54" s="4"/>
+      <c r="D54" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E54" s="3"/>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" t="s">
@@ -2645,178 +2137,178 @@
       <c r="B55" t="s">
         <v>36</v>
       </c>
-      <c r="C55" s="4" t="s">
+      <c r="C55" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D55" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E55" s="4"/>
+      <c r="D55" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E55" s="3"/>
     </row>
     <row r="56" spans="1:5">
-      <c r="A56" s="4" t="s">
+      <c r="A56" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B56" s="4" t="s">
+      <c r="B56" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C56" s="4" t="s">
+      <c r="C56" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D56" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E56" s="4"/>
-    </row>
-    <row r="57" ht="18" spans="1:5">
-      <c r="A57" s="4" t="s">
+      <c r="D56" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E56" s="3"/>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B57" s="4" t="s">
+      <c r="B57" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C57" s="4" t="s">
+      <c r="C57" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D57" s="5" t="s">
+      <c r="D57" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E57" s="4"/>
+      <c r="E57" s="3"/>
     </row>
     <row r="61" spans="1:5">
-      <c r="A61" s="6" t="s">
+      <c r="A61" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="B61" s="6"/>
-      <c r="C61" s="6"/>
-      <c r="D61" s="6"/>
-      <c r="E61" s="6"/>
-    </row>
-    <row r="62" ht="21" spans="1:5">
-      <c r="A62" s="7" t="s">
+      <c r="B61" s="12"/>
+      <c r="C61" s="12"/>
+      <c r="D61" s="12"/>
+      <c r="E61" s="12"/>
+    </row>
+    <row r="62" spans="1:5" ht="18.75">
+      <c r="A62" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B62" s="7" t="s">
+      <c r="B62" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C62" s="7" t="s">
+      <c r="C62" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D62" s="7" t="s">
+      <c r="D62" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E62" s="7" t="s">
+      <c r="E62" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="63" ht="18" spans="1:5">
-      <c r="A63" s="5" t="s">
+    <row r="63" spans="1:5">
+      <c r="A63" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B63" s="5" t="s">
+      <c r="B63" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C63" s="5" t="s">
+      <c r="C63" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="D63" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E63" s="5" t="s">
+      <c r="D63" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E63" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="64" ht="18" spans="1:5">
-      <c r="A64" s="5" t="s">
+    <row r="64" spans="1:5">
+      <c r="A64" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B64" s="5" t="s">
+      <c r="B64" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C64" s="5" t="s">
+      <c r="C64" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D64" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E64" s="4"/>
-    </row>
-    <row r="65" ht="18" spans="1:5">
-      <c r="A65" s="4" t="s">
+      <c r="D64" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E64" s="3"/>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="B65" s="4" t="s">
+      <c r="B65" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C65" s="5" t="s">
+      <c r="C65" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="D65" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E65" s="4"/>
-    </row>
-    <row r="66" ht="18" spans="1:5">
-      <c r="A66" s="4" t="s">
+      <c r="D65" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E65" s="3"/>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="B66" s="4" t="s">
+      <c r="B66" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="C66" s="5" t="s">
+      <c r="C66" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D66" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E66" s="4"/>
-    </row>
-    <row r="67" ht="18" spans="1:5">
-      <c r="A67" s="5" t="s">
+      <c r="D66" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E66" s="3"/>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="B67" s="4" t="s">
+      <c r="B67" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="C67" s="5" t="s">
+      <c r="C67" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="D67" s="5" t="s">
+      <c r="D67" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E67" s="4"/>
-    </row>
-    <row r="68" ht="18" spans="1:5">
-      <c r="A68" s="5" t="s">
+      <c r="E67" s="3"/>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="B68" s="5" t="s">
+      <c r="B68" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="C68" s="5" t="s">
+      <c r="C68" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="D68" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E68" s="4" t="s">
+      <c r="D68" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E68" s="3" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="69" ht="18" spans="1:5">
-      <c r="A69" s="5" t="s">
+    <row r="69" spans="1:5">
+      <c r="A69" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B69" s="5" t="s">
+      <c r="B69" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C69" s="5" t="s">
+      <c r="C69" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D69" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E69" s="4" t="s">
+      <c r="D69" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E69" s="3" t="s">
         <v>105</v>
       </c>
     </row>
@@ -2824,446 +2316,446 @@
       <c r="A70" t="s">
         <v>35</v>
       </c>
-      <c r="B70" s="4" t="s">
+      <c r="B70" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C70" s="4" t="s">
+      <c r="C70" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D70" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E70" s="4"/>
+      <c r="D70" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E70" s="3"/>
     </row>
     <row r="71" spans="1:5">
-      <c r="A71" s="4" t="s">
+      <c r="A71" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B71" s="4" t="s">
+      <c r="B71" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C71" s="4" t="s">
+      <c r="C71" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D71" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E71" s="4"/>
-    </row>
-    <row r="72" ht="18" spans="1:5">
-      <c r="A72" s="4" t="s">
+      <c r="D71" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E71" s="3"/>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B72" s="4" t="s">
+      <c r="B72" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C72" s="4" t="s">
+      <c r="C72" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D72" s="5" t="s">
+      <c r="D72" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E72" s="4"/>
+      <c r="E72" s="3"/>
     </row>
     <row r="74" spans="1:5">
-      <c r="A74" s="6" t="s">
+      <c r="A74" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="B74" s="6"/>
-      <c r="C74" s="6"/>
-      <c r="D74" s="6"/>
-      <c r="E74" s="6"/>
-    </row>
-    <row r="75" ht="21" spans="1:5">
-      <c r="A75" s="7" t="s">
+      <c r="B74" s="12"/>
+      <c r="C74" s="12"/>
+      <c r="D74" s="12"/>
+      <c r="E74" s="12"/>
+    </row>
+    <row r="75" spans="1:5" ht="18.75">
+      <c r="A75" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B75" s="7" t="s">
+      <c r="B75" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C75" s="7" t="s">
+      <c r="C75" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D75" s="7" t="s">
+      <c r="D75" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E75" s="7" t="s">
+      <c r="E75" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="76" ht="18" spans="1:5">
-      <c r="A76" s="5" t="s">
+    <row r="76" spans="1:5">
+      <c r="A76" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B76" s="5" t="s">
+      <c r="B76" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C76" s="8" t="s">
+      <c r="C76" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="D76" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E76" s="5" t="s">
+      <c r="D76" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E76" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="77" ht="18" spans="1:5">
-      <c r="A77" s="5" t="s">
+    <row r="77" spans="1:5">
+      <c r="A77" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="B77" s="5" t="s">
+      <c r="B77" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="C77" s="9" t="s">
+      <c r="C77" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="D77" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E77" s="4"/>
-    </row>
-    <row r="78" ht="18" spans="1:5">
-      <c r="A78" s="5" t="s">
+      <c r="D77" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E77" s="3"/>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B78" s="5" t="s">
+      <c r="B78" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C78" s="9" t="s">
+      <c r="C78" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="D78" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E78" s="4" t="s">
+      <c r="D78" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E78" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="79" ht="18" spans="1:5">
-      <c r="A79" s="4" t="s">
+    <row r="79" spans="1:5">
+      <c r="A79" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="B79" s="4" t="s">
+      <c r="B79" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="C79" s="9" t="s">
+      <c r="C79" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="D79" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E79" s="4" t="s">
+      <c r="D79" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E79" s="3" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="80" ht="18" spans="1:5">
-      <c r="A80" s="4" t="s">
+    <row r="80" spans="1:5">
+      <c r="A80" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="B80" s="4" t="s">
+      <c r="B80" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="C80" s="9" t="s">
+      <c r="C80" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="D80" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E80" s="4"/>
-    </row>
-    <row r="81" ht="18" spans="1:5">
-      <c r="A81" s="4" t="s">
+      <c r="D80" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E80" s="3"/>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="B81" s="4" t="s">
+      <c r="B81" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="C81" s="9" t="s">
+      <c r="C81" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="D81" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E81" s="4"/>
+      <c r="D81" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E81" s="3"/>
     </row>
     <row r="82" spans="1:5">
-      <c r="A82" s="4" t="s">
+      <c r="A82" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="B82" s="4" t="s">
+      <c r="B82" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="C82" s="4" t="s">
+      <c r="C82" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="D82" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E82" s="4"/>
-    </row>
-    <row r="83" ht="18" spans="1:5">
-      <c r="A83" s="4" t="s">
+      <c r="D82" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E82" s="3"/>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="B83" s="4" t="s">
+      <c r="B83" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="C83" s="8" t="s">
+      <c r="C83" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="D83" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E83" s="4"/>
+      <c r="D83" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E83" s="3"/>
     </row>
     <row r="84" spans="1:5">
-      <c r="A84" s="4" t="s">
+      <c r="A84" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="B84" s="4" t="s">
+      <c r="B84" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="C84" s="4" t="s">
+      <c r="C84" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="D84" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E84" s="4"/>
+      <c r="D84" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E84" s="3"/>
     </row>
     <row r="85" spans="1:5">
-      <c r="A85" s="4" t="s">
+      <c r="A85" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="B85" s="4" t="s">
+      <c r="B85" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C85" s="4" t="s">
+      <c r="C85" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D85" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E85" s="4"/>
+      <c r="D85" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E85" s="3"/>
     </row>
     <row r="86" spans="1:5">
-      <c r="A86" s="4" t="s">
+      <c r="A86" s="3" t="s">
         <v>35</v>
       </c>
       <c r="B86" t="s">
         <v>36</v>
       </c>
-      <c r="C86" s="4" t="s">
+      <c r="C86" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D86" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E86" s="4"/>
+      <c r="D86" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E86" s="3"/>
     </row>
     <row r="87" spans="1:5">
-      <c r="A87" s="4" t="s">
+      <c r="A87" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B87" s="4" t="s">
+      <c r="B87" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C87" s="4" t="s">
+      <c r="C87" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D87" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E87" s="4"/>
-    </row>
-    <row r="88" ht="18" spans="1:5">
-      <c r="A88" s="4" t="s">
+      <c r="D87" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E87" s="3"/>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B88" s="4" t="s">
+      <c r="B88" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C88" s="4" t="s">
+      <c r="C88" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D88" s="5" t="s">
+      <c r="D88" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E88" s="4"/>
+      <c r="E88" s="3"/>
     </row>
     <row r="90" spans="1:5">
-      <c r="A90" s="6" t="s">
+      <c r="A90" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="B90" s="6"/>
-      <c r="C90" s="6"/>
-      <c r="D90" s="6"/>
-      <c r="E90" s="6"/>
-    </row>
-    <row r="91" ht="21" spans="1:5">
-      <c r="A91" s="7" t="s">
+      <c r="B90" s="12"/>
+      <c r="C90" s="12"/>
+      <c r="D90" s="12"/>
+      <c r="E90" s="12"/>
+    </row>
+    <row r="91" spans="1:5" ht="18.75">
+      <c r="A91" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B91" s="7" t="s">
+      <c r="B91" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C91" s="7" t="s">
+      <c r="C91" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D91" s="7" t="s">
+      <c r="D91" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E91" s="7" t="s">
+      <c r="E91" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="92" ht="18" spans="1:5">
-      <c r="A92" s="5" t="s">
+    <row r="92" spans="1:5">
+      <c r="A92" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B92" s="5" t="s">
+      <c r="B92" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C92" s="5" t="s">
+      <c r="C92" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="D92" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E92" s="5" t="s">
+      <c r="D92" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E92" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="93" spans="1:5">
-      <c r="A93" s="4" t="s">
+      <c r="A93" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="B93" s="4" t="s">
+      <c r="B93" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="C93" s="4" t="s">
+      <c r="C93" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="D93" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E93" s="4" t="s">
+      <c r="D93" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E93" s="3" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="94" spans="1:5">
-      <c r="A94" s="4" t="s">
+      <c r="A94" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B94" s="4" t="s">
+      <c r="B94" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C94" s="4" t="s">
+      <c r="C94" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="D94" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E94" s="4" t="s">
+      <c r="D94" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E94" s="3" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="95" spans="1:5">
-      <c r="A95" s="4" t="s">
+      <c r="A95" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B95" s="4" t="s">
+      <c r="B95" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C95" s="4" t="s">
+      <c r="C95" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D95" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E95" s="4" t="s">
+      <c r="D95" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E95" s="3" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="96" spans="1:5">
-      <c r="A96" s="4" t="s">
+      <c r="A96" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="B96" s="4" t="s">
+      <c r="B96" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="C96" s="4" t="s">
+      <c r="C96" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D96" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E96" s="4"/>
+      <c r="D96" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E96" s="3"/>
     </row>
     <row r="97" spans="1:5">
-      <c r="A97" s="4" t="s">
+      <c r="A97" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="B97" s="4" t="s">
+      <c r="B97" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="C97" s="4" t="s">
+      <c r="C97" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D97" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E97" s="4" t="s">
+      <c r="D97" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E97" s="3" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="98" spans="1:5">
-      <c r="A98" s="4" t="s">
+      <c r="A98" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="B98" s="4" t="s">
+      <c r="B98" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="C98" s="4" t="s">
+      <c r="C98" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="D98" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E98" s="4"/>
+      <c r="D98" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E98" s="3"/>
     </row>
     <row r="99" spans="1:5">
-      <c r="A99" s="4" t="s">
+      <c r="A99" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="B99" s="4" t="s">
+      <c r="B99" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="C99" s="4" t="s">
+      <c r="C99" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D99" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E99" s="4" t="s">
+      <c r="D99" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E99" s="3" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="100" spans="1:5">
-      <c r="A100" s="4" t="s">
+      <c r="A100" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="B100" s="4" t="s">
+      <c r="B100" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="C100" s="4" t="s">
+      <c r="C100" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="D100" s="4" t="s">
+      <c r="D100" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E100" s="4"/>
+      <c r="E100" s="3"/>
     </row>
     <row r="101" spans="1:5">
       <c r="A101" t="s">
@@ -3272,193 +2764,193 @@
       <c r="B101" t="s">
         <v>36</v>
       </c>
-      <c r="C101" s="4" t="s">
+      <c r="C101" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D101" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E101" s="4"/>
+      <c r="D101" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E101" s="3"/>
     </row>
     <row r="102" spans="1:5">
-      <c r="A102" s="4" t="s">
+      <c r="A102" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B102" s="4" t="s">
+      <c r="B102" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C102" s="4" t="s">
+      <c r="C102" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D102" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E102" s="4"/>
-    </row>
-    <row r="103" ht="18" spans="1:5">
-      <c r="A103" s="4" t="s">
+      <c r="D102" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E102" s="3"/>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="A103" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B103" s="4" t="s">
+      <c r="B103" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C103" s="4" t="s">
+      <c r="C103" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D103" s="5" t="s">
+      <c r="D103" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E103" s="4"/>
+      <c r="E103" s="3"/>
     </row>
     <row r="105" spans="1:5">
-      <c r="A105" s="6" t="s">
+      <c r="A105" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="B105" s="6"/>
-      <c r="C105" s="6"/>
-      <c r="D105" s="6"/>
-      <c r="E105" s="6"/>
-    </row>
-    <row r="106" ht="21" spans="1:5">
-      <c r="A106" s="7" t="s">
+      <c r="B105" s="12"/>
+      <c r="C105" s="12"/>
+      <c r="D105" s="12"/>
+      <c r="E105" s="12"/>
+    </row>
+    <row r="106" spans="1:5" ht="18.75">
+      <c r="A106" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B106" s="7" t="s">
+      <c r="B106" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C106" s="7" t="s">
+      <c r="C106" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D106" s="7" t="s">
+      <c r="D106" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E106" s="7" t="s">
+      <c r="E106" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="107" ht="18" spans="1:5">
-      <c r="A107" s="5" t="s">
+    <row r="107" spans="1:5">
+      <c r="A107" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B107" s="5" t="s">
+      <c r="B107" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C107" s="5" t="s">
+      <c r="C107" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="D107" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E107" s="5" t="s">
+      <c r="D107" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E107" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="108" ht="18" spans="1:5">
-      <c r="A108" s="4" t="s">
+    <row r="108" spans="1:5">
+      <c r="A108" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="B108" s="4" t="s">
+      <c r="B108" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="C108" s="5" t="s">
+      <c r="C108" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="D108" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E108" s="4"/>
-    </row>
-    <row r="109" ht="18" spans="1:5">
-      <c r="A109" s="4" t="s">
+      <c r="D108" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E108" s="3"/>
+    </row>
+    <row r="109" spans="1:5">
+      <c r="A109" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="B109" s="4" t="s">
+      <c r="B109" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="C109" s="5" t="s">
+      <c r="C109" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="D109" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E109" s="4"/>
-    </row>
-    <row r="110" ht="18" spans="1:5">
-      <c r="A110" s="4" t="s">
+      <c r="D109" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E109" s="3"/>
+    </row>
+    <row r="110" spans="1:5">
+      <c r="A110" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="B110" s="4" t="s">
+      <c r="B110" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="C110" s="5" t="s">
+      <c r="C110" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="D110" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E110" s="4"/>
-    </row>
-    <row r="111" ht="18" spans="1:5">
-      <c r="A111" s="4" t="s">
+      <c r="D110" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E110" s="3"/>
+    </row>
+    <row r="111" spans="1:5">
+      <c r="A111" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B111" s="4" t="s">
+      <c r="B111" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C111" s="5" t="s">
+      <c r="C111" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="D111" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E111" s="4"/>
-    </row>
-    <row r="112" ht="18" spans="1:5">
-      <c r="A112" s="4" t="s">
+      <c r="D111" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E111" s="3"/>
+    </row>
+    <row r="112" spans="1:5">
+      <c r="A112" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B112" s="4" t="s">
+      <c r="B112" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C112" s="4" t="s">
+      <c r="C112" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D112" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E112" s="4"/>
-    </row>
-    <row r="113" ht="18" spans="1:5">
-      <c r="A113" s="4" t="s">
+      <c r="D112" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E112" s="3"/>
+    </row>
+    <row r="113" spans="1:5">
+      <c r="A113" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="B113" s="4" t="s">
+      <c r="B113" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="C113" s="4" t="s">
+      <c r="C113" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D113" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E113" s="4" t="s">
+      <c r="D113" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E113" s="3" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="114" spans="1:5">
-      <c r="A114" s="4" t="s">
+      <c r="A114" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="B114" s="4" t="s">
+      <c r="B114" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="C114" s="4" t="s">
+      <c r="C114" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="D114" s="4" t="s">
+      <c r="D114" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E114" s="4"/>
+      <c r="E114" s="3"/>
     </row>
     <row r="115" spans="1:5">
       <c r="A115" t="s">
@@ -3467,1577 +2959,1756 @@
       <c r="B115" t="s">
         <v>36</v>
       </c>
-      <c r="C115" s="4" t="s">
+      <c r="C115" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D115" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E115" s="4"/>
+      <c r="D115" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E115" s="3"/>
     </row>
     <row r="116" spans="1:5">
-      <c r="A116" s="4" t="s">
+      <c r="A116" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B116" s="4" t="s">
+      <c r="B116" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C116" s="4" t="s">
+      <c r="C116" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D116" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E116" s="4"/>
-    </row>
-    <row r="117" ht="18" spans="1:5">
-      <c r="A117" s="4" t="s">
+      <c r="D116" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E116" s="3"/>
+    </row>
+    <row r="117" spans="1:5">
+      <c r="A117" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B117" s="4" t="s">
+      <c r="B117" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C117" s="4" t="s">
+      <c r="C117" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D117" s="5" t="s">
+      <c r="D117" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E117" s="4"/>
+      <c r="E117" s="3"/>
     </row>
     <row r="119" spans="1:5">
-      <c r="A119" s="6" t="s">
+      <c r="A119" s="12" t="s">
         <v>148</v>
       </c>
-      <c r="B119" s="6"/>
-      <c r="C119" s="6"/>
-      <c r="D119" s="6"/>
-      <c r="E119" s="6"/>
-    </row>
-    <row r="120" ht="21" spans="1:5">
-      <c r="A120" s="7" t="s">
+      <c r="B119" s="12"/>
+      <c r="C119" s="12"/>
+      <c r="D119" s="12"/>
+      <c r="E119" s="12"/>
+    </row>
+    <row r="120" spans="1:5" ht="18.75">
+      <c r="A120" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B120" s="7" t="s">
+      <c r="B120" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C120" s="7" t="s">
+      <c r="C120" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D120" s="7" t="s">
+      <c r="D120" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E120" s="7" t="s">
+      <c r="E120" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="121" ht="18" spans="1:5">
-      <c r="A121" s="5" t="s">
+    <row r="121" spans="1:5">
+      <c r="A121" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B121" s="5" t="s">
+      <c r="B121" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C121" s="5" t="s">
+      <c r="C121" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="D121" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E121" s="5" t="s">
+      <c r="D121" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E121" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="122" ht="18" spans="1:5">
-      <c r="A122" s="4" t="s">
+    <row r="122" spans="1:5">
+      <c r="A122" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="B122" s="4" t="s">
+      <c r="B122" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="C122" s="4" t="s">
+      <c r="C122" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="D122" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E122" s="4"/>
-    </row>
-    <row r="123" ht="18" spans="1:5">
-      <c r="A123" s="4" t="s">
+      <c r="D122" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E122" s="3"/>
+    </row>
+    <row r="123" spans="1:5">
+      <c r="A123" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B123" s="4" t="s">
+      <c r="B123" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C123" s="4" t="s">
+      <c r="C123" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="D123" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E123" s="4"/>
-    </row>
-    <row r="124" ht="18" spans="1:5">
-      <c r="A124" s="4" t="s">
+      <c r="D123" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E123" s="3"/>
+    </row>
+    <row r="124" spans="1:5">
+      <c r="A124" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B124" s="4" t="s">
+      <c r="B124" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C124" s="4" t="s">
+      <c r="C124" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="D124" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E124" s="4"/>
-    </row>
-    <row r="125" ht="18" spans="1:5">
-      <c r="A125" s="4" t="s">
+      <c r="D124" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E124" s="3"/>
+    </row>
+    <row r="125" spans="1:5">
+      <c r="A125" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B125" s="4" t="s">
+      <c r="B125" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="C125" s="4" t="s">
+      <c r="C125" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="D125" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E125" s="4"/>
-    </row>
-    <row r="126" ht="18" spans="1:5">
-      <c r="A126" s="4" t="s">
+      <c r="D125" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E125" s="3"/>
+    </row>
+    <row r="126" spans="1:5">
+      <c r="A126" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="B126" s="4" t="s">
+      <c r="B126" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="C126" s="4" t="s">
+      <c r="C126" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D126" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E126" s="5" t="s">
+      <c r="D126" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E126" s="4" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="127" ht="18" spans="1:5">
-      <c r="A127" s="4" t="s">
+    <row r="127" spans="1:5">
+      <c r="A127" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="B127" s="4" t="s">
+      <c r="B127" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="C127" s="4" t="s">
+      <c r="C127" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D127" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E127" s="4"/>
-    </row>
-    <row r="128" ht="18" spans="1:5">
-      <c r="A128" s="4" t="s">
+      <c r="D127" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E127" s="3"/>
+    </row>
+    <row r="128" spans="1:5">
+      <c r="A128" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="B128" s="4" t="s">
+      <c r="B128" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="C128" s="4" t="s">
+      <c r="C128" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="D128" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E128" s="4"/>
-    </row>
-    <row r="129" ht="18" spans="1:5">
-      <c r="A129" s="4" t="s">
+      <c r="D128" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E128" s="3"/>
+    </row>
+    <row r="129" spans="1:5">
+      <c r="A129" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="B129" s="4" t="s">
+      <c r="B129" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="C129" s="4" t="s">
+      <c r="C129" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="D129" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E129" s="5" t="s">
+      <c r="D129" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E129" s="4" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="130" ht="18" spans="1:5">
-      <c r="A130" s="4" t="s">
+    <row r="130" spans="1:5" ht="15">
+      <c r="A130" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="B130" s="4" t="s">
+      <c r="B130" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="C130" s="4" t="s">
+      <c r="C130" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="D130" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E130" s="5" t="s">
+      <c r="D130" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E130" s="4" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="131" spans="1:5">
-      <c r="A131" s="4" t="s">
+      <c r="A131" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="B131" s="4" t="s">
+      <c r="B131" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C131" s="4" t="s">
+      <c r="C131" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D131" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E131" s="4"/>
+      <c r="D131" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E131" s="3"/>
     </row>
     <row r="132" spans="1:5">
-      <c r="A132" s="4" t="s">
+      <c r="A132" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B132" s="4" t="s">
+      <c r="B132" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C132" s="4" t="s">
+      <c r="C132" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D132" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E132" s="4"/>
+      <c r="D132" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E132" s="3"/>
     </row>
     <row r="133" spans="1:5">
-      <c r="A133" s="4" t="s">
+      <c r="A133" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B133" s="4" t="s">
+      <c r="B133" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C133" s="4" t="s">
+      <c r="C133" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D133" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E133" s="4"/>
-    </row>
-    <row r="134" ht="18" spans="1:5">
-      <c r="A134" s="4" t="s">
+      <c r="D133" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E133" s="3"/>
+    </row>
+    <row r="134" spans="1:5">
+      <c r="A134" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B134" s="4" t="s">
+      <c r="B134" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C134" s="4" t="s">
+      <c r="C134" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D134" s="5" t="s">
+      <c r="D134" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E134" s="4"/>
+      <c r="E134" s="3"/>
     </row>
     <row r="136" spans="1:5">
-      <c r="A136" s="6" t="s">
+      <c r="A136" s="12" t="s">
         <v>161</v>
       </c>
-      <c r="B136" s="6"/>
-      <c r="C136" s="6"/>
-      <c r="D136" s="6"/>
-      <c r="E136" s="6"/>
-    </row>
-    <row r="137" ht="21" spans="1:5">
-      <c r="A137" s="7" t="s">
+      <c r="B136" s="12"/>
+      <c r="C136" s="12"/>
+      <c r="D136" s="12"/>
+      <c r="E136" s="12"/>
+    </row>
+    <row r="137" spans="1:5" ht="18.75">
+      <c r="A137" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B137" s="7" t="s">
+      <c r="B137" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C137" s="7" t="s">
+      <c r="C137" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D137" s="7" t="s">
+      <c r="D137" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E137" s="7" t="s">
+      <c r="E137" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="138" ht="19" customHeight="1" spans="1:5">
-      <c r="A138" s="5" t="s">
+    <row r="138" spans="1:5" ht="18.95" customHeight="1">
+      <c r="A138" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B138" s="4" t="s">
+      <c r="B138" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C138" s="9" t="s">
+      <c r="C138" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="D138" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E138" s="5" t="s">
+      <c r="D138" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E138" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="139" ht="18" spans="1:5">
-      <c r="A139" s="4" t="s">
+    <row r="139" spans="1:5">
+      <c r="A139" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B139" s="4" t="s">
+      <c r="B139" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C139" s="9" t="s">
+      <c r="C139" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="D139" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E139" s="4"/>
-    </row>
-    <row r="140" ht="18" spans="1:5">
-      <c r="A140" s="9" t="s">
+      <c r="D139" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E139" s="3"/>
+    </row>
+    <row r="140" spans="1:5">
+      <c r="A140" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B140" s="9" t="s">
+      <c r="B140" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C140" s="9" t="s">
+      <c r="C140" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="D140" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E140" s="4"/>
-    </row>
-    <row r="141" ht="18" spans="1:5">
-      <c r="A141" s="4" t="s">
+      <c r="D140" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E140" s="3"/>
+    </row>
+    <row r="141" spans="1:5">
+      <c r="A141" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="B141" s="4" t="s">
+      <c r="B141" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="C141" s="9" t="s">
+      <c r="C141" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="D141" s="5" t="s">
+      <c r="D141" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E141" s="4"/>
-    </row>
-    <row r="142" ht="18" spans="1:5">
-      <c r="A142" s="4" t="s">
+      <c r="E141" s="3"/>
+    </row>
+    <row r="142" spans="1:5">
+      <c r="A142" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="B142" s="4" t="s">
+      <c r="B142" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="C142" s="9" t="s">
+      <c r="C142" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="D142" s="5" t="s">
+      <c r="D142" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E142" s="4"/>
-    </row>
-    <row r="143" ht="18" spans="1:5">
-      <c r="A143" s="4" t="s">
+      <c r="E142" s="3"/>
+    </row>
+    <row r="143" spans="1:5">
+      <c r="A143" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="B143" s="4" t="s">
+      <c r="B143" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="C143" s="4" t="s">
+      <c r="C143" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D143" s="5" t="s">
+      <c r="D143" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E143" s="4"/>
-    </row>
-    <row r="144" ht="18" spans="1:5">
-      <c r="A144" s="4" t="s">
+      <c r="E143" s="3"/>
+    </row>
+    <row r="144" spans="1:5">
+      <c r="A144" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="B144" s="4" t="s">
+      <c r="B144" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="C144" s="4" t="s">
+      <c r="C144" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D144" s="5" t="s">
+      <c r="D144" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E144" s="4"/>
-    </row>
-    <row r="145" ht="18" spans="1:5">
-      <c r="A145" s="4" t="s">
+      <c r="E144" s="3"/>
+    </row>
+    <row r="145" spans="1:5">
+      <c r="A145" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="B145" s="4" t="s">
+      <c r="B145" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="C145" s="4" t="s">
+      <c r="C145" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D145" s="5" t="s">
+      <c r="D145" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E145" s="4"/>
-    </row>
-    <row r="146" ht="18" spans="1:5">
-      <c r="A146" s="4" t="s">
+      <c r="E145" s="3"/>
+    </row>
+    <row r="146" spans="1:5">
+      <c r="A146" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="B146" s="4" t="s">
+      <c r="B146" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="C146" s="4" t="s">
+      <c r="C146" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D146" s="5" t="s">
+      <c r="D146" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E146" s="4"/>
+      <c r="E146" s="3"/>
     </row>
     <row r="147" spans="1:5">
-      <c r="A147" s="4" t="s">
+      <c r="A147" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B147" s="4" t="s">
+      <c r="B147" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C147" s="4" t="s">
+      <c r="C147" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D147" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E147" s="4"/>
+      <c r="D147" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E147" s="3"/>
     </row>
     <row r="148" spans="1:5">
-      <c r="A148" s="4" t="s">
+      <c r="A148" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B148" s="4" t="s">
+      <c r="B148" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C148" s="4" t="s">
+      <c r="C148" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D148" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E148" s="4"/>
-    </row>
-    <row r="149" ht="18" spans="1:5">
-      <c r="A149" s="4" t="s">
+      <c r="D148" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E148" s="3"/>
+    </row>
+    <row r="149" spans="1:5">
+      <c r="A149" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B149" s="4" t="s">
+      <c r="B149" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C149" s="4" t="s">
+      <c r="C149" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D149" s="5" t="s">
+      <c r="D149" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E149" s="4"/>
+      <c r="E149" s="3"/>
     </row>
     <row r="151" spans="1:5">
-      <c r="A151" s="6" t="s">
+      <c r="A151" s="12" t="s">
         <v>175</v>
       </c>
-      <c r="B151" s="6"/>
-      <c r="C151" s="6"/>
-      <c r="D151" s="6"/>
-      <c r="E151" s="6"/>
-    </row>
-    <row r="152" ht="21" spans="1:5">
-      <c r="A152" s="7" t="s">
+      <c r="B151" s="12"/>
+      <c r="C151" s="12"/>
+      <c r="D151" s="12"/>
+      <c r="E151" s="12"/>
+    </row>
+    <row r="152" spans="1:5" ht="18.75">
+      <c r="A152" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B152" s="7" t="s">
+      <c r="B152" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C152" s="7" t="s">
+      <c r="C152" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D152" s="7" t="s">
+      <c r="D152" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E152" s="7" t="s">
+      <c r="E152" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="153" ht="18" spans="1:5">
-      <c r="A153" s="5" t="s">
+    <row r="153" spans="1:5">
+      <c r="A153" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B153" s="4" t="s">
+      <c r="B153" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C153" s="9" t="s">
+      <c r="C153" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="D153" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E153" s="5" t="s">
+      <c r="D153" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E153" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="154" ht="18" spans="1:5">
-      <c r="A154" s="4" t="s">
+    <row r="154" spans="1:5">
+      <c r="A154" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="B154" s="4" t="s">
+      <c r="B154" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="C154" s="9" t="s">
+      <c r="C154" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="D154" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E154" s="4"/>
-    </row>
-    <row r="155" ht="18" spans="1:5">
-      <c r="A155" s="4" t="s">
+      <c r="D154" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E154" s="3"/>
+    </row>
+    <row r="155" spans="1:5">
+      <c r="A155" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="B155" s="4" t="s">
+      <c r="B155" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="C155" s="4" t="s">
+      <c r="C155" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D155" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E155" s="4"/>
-    </row>
-    <row r="156" ht="18" spans="1:5">
-      <c r="A156" s="4" t="s">
+      <c r="D155" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E155" s="3"/>
+    </row>
+    <row r="156" spans="1:5">
+      <c r="A156" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="B156" s="4" t="s">
+      <c r="B156" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="C156" s="4" t="s">
+      <c r="C156" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D156" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E156" s="4"/>
-    </row>
-    <row r="157" ht="18" spans="1:5">
-      <c r="A157" s="4" t="s">
+      <c r="D156" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E156" s="3"/>
+    </row>
+    <row r="157" spans="1:5">
+      <c r="A157" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="B157" s="4" t="s">
+      <c r="B157" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="C157" s="4" t="s">
+      <c r="C157" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D157" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E157" s="4"/>
+      <c r="D157" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E157" s="3"/>
     </row>
     <row r="158" spans="1:5">
-      <c r="A158" s="4" t="s">
+      <c r="A158" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B158" s="4" t="s">
+      <c r="B158" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C158" s="4" t="s">
+      <c r="C158" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D158" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E158" s="4"/>
+      <c r="D158" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E158" s="3"/>
     </row>
     <row r="159" spans="1:5">
-      <c r="A159" s="4" t="s">
+      <c r="A159" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B159" s="4" t="s">
+      <c r="B159" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C159" s="4" t="s">
+      <c r="C159" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D159" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E159" s="4"/>
-    </row>
-    <row r="160" ht="18" spans="1:5">
-      <c r="A160" s="4" t="s">
+      <c r="D159" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E159" s="3"/>
+    </row>
+    <row r="160" spans="1:5">
+      <c r="A160" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B160" s="4" t="s">
+      <c r="B160" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C160" s="4" t="s">
+      <c r="C160" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D160" s="5" t="s">
+      <c r="D160" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E160" s="4"/>
+      <c r="E160" s="3"/>
     </row>
     <row r="162" spans="1:5">
-      <c r="A162" s="6" t="s">
+      <c r="A162" s="12" t="s">
         <v>184</v>
       </c>
-      <c r="B162" s="6"/>
-      <c r="C162" s="6"/>
-      <c r="D162" s="6"/>
-      <c r="E162" s="6"/>
-    </row>
-    <row r="163" ht="21" spans="1:5">
-      <c r="A163" s="7" t="s">
+      <c r="B162" s="12"/>
+      <c r="C162" s="12"/>
+      <c r="D162" s="12"/>
+      <c r="E162" s="12"/>
+    </row>
+    <row r="163" spans="1:5" ht="18.75">
+      <c r="A163" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B163" s="7" t="s">
+      <c r="B163" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C163" s="7" t="s">
+      <c r="C163" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D163" s="7" t="s">
+      <c r="D163" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E163" s="7" t="s">
+      <c r="E163" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="164" ht="18" spans="1:5">
-      <c r="A164" s="5" t="s">
+    <row r="164" spans="1:5">
+      <c r="A164" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B164" s="4" t="s">
+      <c r="B164" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C164" s="9" t="s">
+      <c r="C164" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="D164" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E164" s="5" t="s">
+      <c r="D164" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E164" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="165" ht="18" spans="1:5">
-      <c r="A165" s="4" t="s">
+    <row r="165" spans="1:5">
+      <c r="A165" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="B165" s="4" t="s">
+      <c r="B165" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="C165" s="9" t="s">
+      <c r="C165" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="D165" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E165" s="4"/>
-    </row>
-    <row r="166" ht="18" spans="1:5">
-      <c r="A166" s="4" t="s">
+      <c r="D165" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E165" s="3"/>
+    </row>
+    <row r="166" spans="1:5">
+      <c r="A166" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="B166" s="4" t="s">
+      <c r="B166" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="C166" s="4" t="s">
+      <c r="C166" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="D166" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E166" s="4"/>
-    </row>
-    <row r="167" ht="18" spans="1:5">
-      <c r="A167" s="4" t="s">
+      <c r="D166" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E166" s="3"/>
+    </row>
+    <row r="167" spans="1:5">
+      <c r="A167" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="B167" s="4" t="s">
+      <c r="B167" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="C167" s="4" t="s">
+      <c r="C167" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D167" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E167" s="4"/>
-    </row>
-    <row r="168" ht="18" spans="1:5">
-      <c r="A168" s="4" t="s">
+      <c r="D167" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E167" s="3"/>
+    </row>
+    <row r="168" spans="1:5">
+      <c r="A168" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="B168" s="4" t="s">
+      <c r="B168" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C168" s="4" t="s">
+      <c r="C168" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D168" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E168" s="4"/>
+      <c r="D168" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E168" s="3"/>
     </row>
     <row r="169" spans="1:5">
-      <c r="A169" s="4" t="s">
+      <c r="A169" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B169" s="4" t="s">
+      <c r="B169" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C169" s="4" t="s">
+      <c r="C169" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D169" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E169" s="4"/>
+      <c r="D169" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E169" s="3"/>
     </row>
     <row r="170" spans="1:5">
-      <c r="A170" s="4" t="s">
+      <c r="A170" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B170" s="4" t="s">
+      <c r="B170" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C170" s="4" t="s">
+      <c r="C170" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D170" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E170" s="4"/>
+      <c r="D170" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E170" s="3"/>
     </row>
     <row r="171" spans="1:5">
-      <c r="A171" s="4" t="s">
+      <c r="A171" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B171" s="4" t="s">
+      <c r="B171" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C171" s="4" t="s">
+      <c r="C171" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D171" s="4" t="s">
+      <c r="D171" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E171" s="4"/>
+      <c r="E171" s="3"/>
     </row>
     <row r="173" spans="1:5">
-      <c r="A173" s="6" t="s">
+      <c r="A173" s="12" t="s">
         <v>190</v>
       </c>
-      <c r="B173" s="6"/>
-      <c r="C173" s="6"/>
-      <c r="D173" s="6"/>
-      <c r="E173" s="6"/>
-    </row>
-    <row r="174" ht="21" spans="1:5">
-      <c r="A174" s="7" t="s">
+      <c r="B173" s="12"/>
+      <c r="C173" s="12"/>
+      <c r="D173" s="12"/>
+      <c r="E173" s="12"/>
+    </row>
+    <row r="174" spans="1:5" ht="18.75">
+      <c r="A174" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B174" s="7" t="s">
+      <c r="B174" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C174" s="7" t="s">
+      <c r="C174" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D174" s="7" t="s">
+      <c r="D174" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E174" s="7" t="s">
+      <c r="E174" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="175" ht="18" spans="1:5">
-      <c r="A175" s="5" t="s">
+    <row r="175" spans="1:5">
+      <c r="A175" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B175" s="4" t="s">
+      <c r="B175" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C175" s="9" t="s">
+      <c r="C175" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="D175" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E175" s="5" t="s">
+      <c r="D175" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E175" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="176" ht="18" spans="1:5">
-      <c r="A176" s="4" t="s">
+    <row r="176" spans="1:5">
+      <c r="A176" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="B176" s="4" t="s">
+      <c r="B176" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="C176" s="9" t="s">
+      <c r="C176" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="D176" s="5" t="s">
+      <c r="D176" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E176" s="4"/>
-    </row>
-    <row r="177" ht="18" spans="1:5">
-      <c r="A177" s="4" t="s">
+      <c r="E176" s="3"/>
+    </row>
+    <row r="177" spans="1:5">
+      <c r="A177" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="B177" s="4" t="s">
+      <c r="B177" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="C177" s="9" t="s">
+      <c r="C177" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="D177" s="5" t="s">
+      <c r="D177" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E177" s="4"/>
-    </row>
-    <row r="178" ht="18" spans="1:5">
-      <c r="A178" s="4" t="s">
+      <c r="E177" s="3"/>
+    </row>
+    <row r="178" spans="1:5">
+      <c r="A178" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="B178" s="4" t="s">
+      <c r="B178" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="C178" s="4" t="s">
+      <c r="C178" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D178" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E178" s="4"/>
-    </row>
-    <row r="179" ht="18" spans="1:5">
-      <c r="A179" s="4" t="s">
+      <c r="D178" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E178" s="3"/>
+    </row>
+    <row r="179" spans="1:5">
+      <c r="A179" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="B179" s="4" t="s">
+      <c r="B179" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C179" s="4" t="s">
+      <c r="C179" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D179" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E179" s="4"/>
-    </row>
-    <row r="180" ht="18" spans="1:5">
-      <c r="A180" s="4" t="s">
+      <c r="D179" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E179" s="3"/>
+    </row>
+    <row r="180" spans="1:5">
+      <c r="A180" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="B180" s="4" t="s">
+      <c r="B180" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="C180" s="9" t="s">
+      <c r="C180" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="D180" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E180" s="4"/>
+      <c r="D180" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E180" s="3"/>
     </row>
     <row r="181" spans="1:5">
-      <c r="A181" s="4" t="s">
+      <c r="A181" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="B181" s="4" t="s">
+      <c r="B181" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="C181" s="4" t="s">
+      <c r="C181" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="D181" s="4" t="s">
+      <c r="D181" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E181" s="4"/>
+      <c r="E181" s="3"/>
     </row>
     <row r="182" spans="1:5">
-      <c r="A182" s="4" t="s">
+      <c r="A182" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B182" s="4" t="s">
+      <c r="B182" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C182" s="4" t="s">
+      <c r="C182" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D182" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E182" s="4"/>
+      <c r="D182" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E182" s="3"/>
     </row>
     <row r="183" spans="1:5">
-      <c r="A183" s="4" t="s">
+      <c r="A183" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B183" s="4" t="s">
+      <c r="B183" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C183" s="4" t="s">
+      <c r="C183" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D183" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E183" s="4"/>
+      <c r="D183" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E183" s="3"/>
     </row>
     <row r="184" spans="1:5">
-      <c r="A184" s="4" t="s">
+      <c r="A184" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B184" s="4" t="s">
+      <c r="B184" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C184" s="4" t="s">
+      <c r="C184" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D184" s="4" t="s">
+      <c r="D184" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E184" s="4"/>
+      <c r="E184" s="3"/>
     </row>
     <row r="186" spans="1:5">
-      <c r="A186" s="6" t="s">
+      <c r="A186" s="12" t="s">
         <v>199</v>
       </c>
-      <c r="B186" s="6"/>
-      <c r="C186" s="6"/>
-      <c r="D186" s="6"/>
-      <c r="E186" s="6"/>
-    </row>
-    <row r="187" ht="21" spans="1:5">
-      <c r="A187" s="7" t="s">
+      <c r="B186" s="12"/>
+      <c r="C186" s="12"/>
+      <c r="D186" s="12"/>
+      <c r="E186" s="12"/>
+    </row>
+    <row r="187" spans="1:5" ht="18.75">
+      <c r="A187" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B187" s="7" t="s">
+      <c r="B187" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C187" s="7" t="s">
+      <c r="C187" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D187" s="7" t="s">
+      <c r="D187" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E187" s="7" t="s">
+      <c r="E187" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="188" ht="18" spans="1:5">
-      <c r="A188" s="5" t="s">
+    <row r="188" spans="1:5">
+      <c r="A188" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B188" s="4" t="s">
+      <c r="B188" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C188" s="10" t="s">
+      <c r="C188" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="D188" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E188" s="5" t="s">
+      <c r="D188" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E188" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="189" ht="18" spans="1:5">
-      <c r="A189" s="4" t="s">
+    <row r="189" spans="1:5">
+      <c r="A189" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="B189" s="4" t="s">
+      <c r="B189" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="C189" s="11" t="s">
+      <c r="C189" s="9" t="s">
         <v>202</v>
       </c>
-      <c r="D189" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E189" s="4"/>
-    </row>
-    <row r="190" ht="18" spans="1:5">
-      <c r="A190" s="4" t="s">
+      <c r="D189" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E189" s="3"/>
+    </row>
+    <row r="190" spans="1:5">
+      <c r="A190" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B190" s="4" t="s">
+      <c r="B190" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C190" s="11" t="s">
+      <c r="C190" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D190" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E190" s="4"/>
-    </row>
-    <row r="191" ht="18" spans="1:5">
-      <c r="A191" s="4" t="s">
+      <c r="D190" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E190" s="3"/>
+    </row>
+    <row r="191" spans="1:5">
+      <c r="A191" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B191" s="4" t="s">
+      <c r="B191" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C191" s="11" t="s">
+      <c r="C191" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D191" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E191" s="4"/>
-    </row>
-    <row r="192" ht="18" spans="1:5">
-      <c r="A192" s="4" t="s">
+      <c r="D191" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E191" s="3"/>
+    </row>
+    <row r="192" spans="1:5">
+      <c r="A192" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="B192" s="4" t="s">
+      <c r="B192" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="C192" s="11" t="s">
+      <c r="C192" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D192" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E192" s="4"/>
-    </row>
-    <row r="193" ht="18" spans="1:5">
-      <c r="A193" s="4" t="s">
+      <c r="D192" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E192" s="3"/>
+    </row>
+    <row r="193" spans="1:5">
+      <c r="A193" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="B193" s="4" t="s">
+      <c r="B193" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="C193" s="11" t="s">
+      <c r="C193" s="9" t="s">
         <v>202</v>
       </c>
-      <c r="D193" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E193" s="4"/>
+      <c r="D193" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E193" s="3"/>
     </row>
     <row r="194" spans="1:5">
-      <c r="A194" s="4" t="s">
+      <c r="A194" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="B194" s="4" t="s">
+      <c r="B194" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="C194" s="11" t="s">
+      <c r="C194" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="D194" s="4" t="s">
+      <c r="D194" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E194" s="4"/>
+      <c r="E194" s="3"/>
     </row>
     <row r="195" spans="1:5">
-      <c r="A195" s="4" t="s">
+      <c r="A195" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="B195" s="4" t="s">
+      <c r="B195" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="C195" s="11" t="s">
+      <c r="C195" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="D195" s="4" t="s">
+      <c r="D195" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E195" s="4"/>
+      <c r="E195" s="3"/>
     </row>
     <row r="196" spans="1:5">
-      <c r="A196" s="4" t="s">
+      <c r="A196" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="B196" s="4" t="s">
+      <c r="B196" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="C196" s="11" t="s">
+      <c r="C196" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="D196" s="4" t="s">
+      <c r="D196" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E196" s="4"/>
+      <c r="E196" s="3"/>
     </row>
     <row r="197" spans="1:5">
-      <c r="A197" s="4" t="s">
+      <c r="A197" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="B197" s="4" t="s">
+      <c r="B197" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="C197" s="11" t="s">
+      <c r="C197" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="D197" s="4" t="s">
+      <c r="D197" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E197" s="4"/>
+      <c r="E197" s="3"/>
     </row>
     <row r="198" spans="1:5">
-      <c r="A198" s="4" t="s">
+      <c r="A198" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="B198" s="4" t="s">
+      <c r="B198" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="C198" s="11" t="s">
+      <c r="C198" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="D198" s="4" t="s">
+      <c r="D198" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E198" s="4"/>
-    </row>
-    <row r="199" ht="18" spans="1:5">
-      <c r="A199" s="4" t="s">
+      <c r="E198" s="3"/>
+    </row>
+    <row r="199" spans="1:5">
+      <c r="A199" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="B199" s="4" t="s">
+      <c r="B199" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="C199" s="11" t="s">
+      <c r="C199" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D199" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E199" s="4"/>
+      <c r="D199" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E199" s="3"/>
     </row>
     <row r="200" spans="1:5">
-      <c r="A200" s="4" t="s">
+      <c r="A200" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="B200" s="4" t="s">
+      <c r="B200" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="C200" s="4"/>
-      <c r="D200" s="4" t="s">
+      <c r="C200" s="3"/>
+      <c r="D200" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E200" s="4"/>
+      <c r="E200" s="3"/>
     </row>
     <row r="201" spans="1:5">
-      <c r="A201" s="4" t="s">
+      <c r="A201" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="B201" s="4" t="s">
+      <c r="B201" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="C201" s="4"/>
-      <c r="D201" s="4" t="s">
+      <c r="C201" s="3"/>
+      <c r="D201" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E201" s="4"/>
+      <c r="E201" s="3"/>
     </row>
     <row r="202" spans="1:5">
-      <c r="A202" s="4" t="s">
+      <c r="A202" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="B202" s="4" t="s">
+      <c r="B202" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="C202" s="4"/>
-      <c r="D202" s="4" t="s">
+      <c r="C202" s="3"/>
+      <c r="D202" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E202" s="4"/>
+      <c r="E202" s="3"/>
     </row>
     <row r="203" spans="1:5">
-      <c r="A203" s="4" t="s">
+      <c r="A203" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B203" s="4" t="s">
+      <c r="B203" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C203" s="4" t="s">
+      <c r="C203" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D203" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E203" s="4"/>
+      <c r="D203" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E203" s="3"/>
     </row>
     <row r="204" spans="1:5">
-      <c r="A204" s="4" t="s">
+      <c r="A204" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B204" s="4" t="s">
+      <c r="B204" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C204" s="4" t="s">
+      <c r="C204" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D204" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E204" s="4"/>
+      <c r="D204" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E204" s="3"/>
     </row>
     <row r="205" spans="1:5">
-      <c r="A205" s="4" t="s">
+      <c r="A205" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B205" s="4" t="s">
+      <c r="B205" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C205" s="4" t="s">
+      <c r="C205" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D205" s="4" t="s">
+      <c r="D205" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E205" s="4"/>
+      <c r="E205" s="3"/>
     </row>
     <row r="208" spans="1:5">
-      <c r="A208" s="6" t="s">
+      <c r="A208" s="12" t="s">
         <v>224</v>
       </c>
-      <c r="B208" s="6"/>
-      <c r="C208" s="6"/>
-      <c r="D208" s="6"/>
-      <c r="E208" s="6"/>
-    </row>
-    <row r="209" ht="21" spans="1:5">
-      <c r="A209" s="7" t="s">
+      <c r="B208" s="12"/>
+      <c r="C208" s="12"/>
+      <c r="D208" s="12"/>
+      <c r="E208" s="12"/>
+    </row>
+    <row r="209" spans="1:5" ht="18.75">
+      <c r="A209" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B209" s="7" t="s">
+      <c r="B209" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C209" s="7" t="s">
+      <c r="C209" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D209" s="7" t="s">
+      <c r="D209" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E209" s="7" t="s">
+      <c r="E209" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="210" ht="18" spans="1:5">
-      <c r="A210" s="5" t="s">
+    <row r="210" spans="1:5">
+      <c r="A210" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B210" s="4" t="s">
+      <c r="B210" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C210" s="4" t="s">
+      <c r="C210" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D210" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E210" s="5" t="s">
+      <c r="D210" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E210" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="211" spans="1:5">
-      <c r="A211" s="4" t="s">
+      <c r="A211" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="B211" s="4" t="s">
+      <c r="B211" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="C211" s="4" t="s">
+      <c r="C211" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="D211" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E211" s="4" t="s">
+      <c r="D211" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E211" s="3" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="212" spans="1:5">
-      <c r="A212" s="4" t="s">
+      <c r="A212" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="B212" s="4" t="s">
+      <c r="B212" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C212" s="4" t="s">
+      <c r="C212" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D212" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E212" s="4" t="s">
+      <c r="D212" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E212" s="3" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="213" spans="1:5">
-      <c r="A213" s="4" t="s">
+      <c r="A213" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="B213" s="4" t="s">
+      <c r="B213" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="C213" s="4" t="s">
+      <c r="C213" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D213" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E213" s="4" t="s">
+      <c r="D213" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E213" s="3" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="214" ht="36" spans="1:5">
-      <c r="A214" s="4" t="s">
+    <row r="214" spans="1:5" ht="28.5">
+      <c r="A214" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="B214" s="4" t="s">
+      <c r="B214" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="C214" s="4" t="s">
+      <c r="C214" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="D214" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E214" s="5" t="s">
+      <c r="D214" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E214" s="4" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="215" spans="1:5">
-      <c r="A215" s="4" t="s">
+      <c r="A215" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B215" s="4" t="s">
+      <c r="B215" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C215" s="4" t="s">
+      <c r="C215" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D215" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E215" s="4"/>
+      <c r="D215" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E215" s="3"/>
     </row>
     <row r="216" spans="1:5">
-      <c r="A216" s="4" t="s">
+      <c r="A216" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B216" s="4" t="s">
+      <c r="B216" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C216" s="4" t="s">
+      <c r="C216" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D216" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E216" s="4"/>
+      <c r="D216" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E216" s="3"/>
     </row>
     <row r="217" spans="1:5">
-      <c r="A217" s="4" t="s">
+      <c r="A217" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B217" s="4" t="s">
+      <c r="B217" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C217" s="4" t="s">
+      <c r="C217" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D217" s="4" t="s">
+      <c r="D217" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E217" s="4"/>
+      <c r="E217" s="3"/>
     </row>
     <row r="219" spans="1:5">
-      <c r="A219" s="6" t="s">
+      <c r="A219" s="12" t="s">
         <v>237</v>
       </c>
-      <c r="B219" s="6"/>
-      <c r="C219" s="6"/>
-      <c r="D219" s="6"/>
-      <c r="E219" s="6"/>
-    </row>
-    <row r="220" ht="21" spans="1:5">
-      <c r="A220" s="7" t="s">
+      <c r="B219" s="12"/>
+      <c r="C219" s="12"/>
+      <c r="D219" s="12"/>
+      <c r="E219" s="12"/>
+    </row>
+    <row r="220" spans="1:5" ht="18.75">
+      <c r="A220" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B220" s="7" t="s">
+      <c r="B220" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C220" s="7" t="s">
+      <c r="C220" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D220" s="7" t="s">
+      <c r="D220" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E220" s="7" t="s">
+      <c r="E220" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="221" ht="18" spans="1:5">
-      <c r="A221" s="5" t="s">
+    <row r="221" spans="1:5">
+      <c r="A221" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B221" s="4" t="s">
+      <c r="B221" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C221" s="4" t="s">
+      <c r="C221" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D221" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E221" s="5" t="s">
+      <c r="D221" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E221" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="222" ht="18" spans="1:5">
-      <c r="A222" s="4" t="s">
+    <row r="222" spans="1:5">
+      <c r="A222" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="B222" s="4" t="s">
+      <c r="B222" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="C222" s="10" t="s">
+      <c r="C222" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="D222" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E222" s="4" t="s">
+      <c r="D222" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E222" s="3" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="223" spans="1:5">
-      <c r="A223" s="4" t="s">
+      <c r="A223" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="B223" s="4" t="s">
+      <c r="B223" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="C223" s="4" t="s">
+      <c r="C223" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="D223" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E223" s="4"/>
+      <c r="D223" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E223" s="3"/>
     </row>
     <row r="224" spans="1:5">
-      <c r="A224" s="4" t="s">
+      <c r="A224" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="B224" s="4" t="s">
+      <c r="B224" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="C224" s="4" t="s">
+      <c r="C224" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="D224" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E224" s="4" t="s">
+      <c r="D224" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E224" s="3" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="225" spans="1:5">
-      <c r="A225" s="4" t="s">
+      <c r="A225" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="B225" s="4" t="s">
+      <c r="B225" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C225" s="4" t="s">
+      <c r="C225" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="D225" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E225" s="4" t="s">
+      <c r="D225" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E225" s="3" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="226" spans="1:5">
-      <c r="A226" s="4" t="s">
+      <c r="A226" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B226" s="4" t="s">
+      <c r="B226" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C226" s="4" t="s">
+      <c r="C226" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D226" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E226" s="4"/>
+      <c r="D226" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E226" s="3"/>
     </row>
     <row r="227" spans="1:5">
-      <c r="A227" s="4" t="s">
+      <c r="A227" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B227" s="4" t="s">
+      <c r="B227" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C227" s="4" t="s">
+      <c r="C227" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D227" s="4" t="s">
+      <c r="D227" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E227" s="4"/>
+      <c r="E227" s="3"/>
+    </row>
+    <row r="229" spans="1:5">
+      <c r="A229" s="13" t="s">
+        <v>247</v>
+      </c>
+      <c r="B229" s="12"/>
+      <c r="C229" s="12"/>
+      <c r="D229" s="12"/>
+      <c r="E229" s="12"/>
+    </row>
+    <row r="230" spans="1:5" ht="18.75">
+      <c r="A230" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B230" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C230" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D230" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E230" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5">
+      <c r="A231" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B231" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C231" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D231" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E231" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5">
+      <c r="A232" s="14" t="s">
+        <v>249</v>
+      </c>
+      <c r="B232" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="C232" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="D232" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E232" s="3"/>
+    </row>
+    <row r="233" spans="1:5">
+      <c r="A233" s="14" t="s">
+        <v>250</v>
+      </c>
+      <c r="B233" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="C233" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="D233" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E233" s="3"/>
+    </row>
+    <row r="234" spans="1:5">
+      <c r="A234" s="14" t="s">
+        <v>251</v>
+      </c>
+      <c r="B234" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C234" s="14" t="s">
+        <v>260</v>
+      </c>
+      <c r="D234" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E234" s="3"/>
+    </row>
+    <row r="235" spans="1:5">
+      <c r="A235" s="14" t="s">
+        <v>252</v>
+      </c>
+      <c r="B235" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C235" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="D235" s="14" t="s">
+        <v>261</v>
+      </c>
+      <c r="E235" s="3"/>
+    </row>
+    <row r="236" spans="1:5">
+      <c r="A236" s="14" t="s">
+        <v>253</v>
+      </c>
+      <c r="B236" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="C236" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="D236" s="14" t="s">
+        <v>261</v>
+      </c>
+      <c r="E236" s="3"/>
+    </row>
+    <row r="237" spans="1:5">
+      <c r="A237" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="B237" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="C237" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="D237" s="14" t="s">
+        <v>261</v>
+      </c>
+      <c r="E237" s="3"/>
+    </row>
+    <row r="238" spans="1:5">
+      <c r="A238" s="14" t="s">
+        <v>255</v>
+      </c>
+      <c r="B238" s="14" t="s">
+        <v>259</v>
+      </c>
+      <c r="C238" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="D238" s="14" t="s">
+        <v>261</v>
+      </c>
+      <c r="E238" s="3"/>
+    </row>
+    <row r="239" spans="1:5">
+      <c r="A239" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B239" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C239" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D239" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E239" s="3"/>
+    </row>
+    <row r="240" spans="1:5">
+      <c r="A240" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B240" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C240" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D240" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E240" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="16">
+  <mergeCells count="17">
+    <mergeCell ref="A219:E219"/>
+    <mergeCell ref="A229:E229"/>
+    <mergeCell ref="A151:E151"/>
+    <mergeCell ref="A162:E162"/>
+    <mergeCell ref="A173:E173"/>
+    <mergeCell ref="A186:E186"/>
+    <mergeCell ref="A208:E208"/>
+    <mergeCell ref="A74:E74"/>
+    <mergeCell ref="A90:E90"/>
+    <mergeCell ref="A105:E105"/>
+    <mergeCell ref="A119:E119"/>
+    <mergeCell ref="A136:E136"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A17:E17"/>
     <mergeCell ref="A30:E30"/>
     <mergeCell ref="A42:E42"/>
     <mergeCell ref="A61:E61"/>
-    <mergeCell ref="A74:E74"/>
-    <mergeCell ref="A90:E90"/>
-    <mergeCell ref="A105:E105"/>
-    <mergeCell ref="A119:E119"/>
-    <mergeCell ref="A136:E136"/>
-    <mergeCell ref="A151:E151"/>
-    <mergeCell ref="A162:E162"/>
-    <mergeCell ref="A173:E173"/>
-    <mergeCell ref="A186:E186"/>
-    <mergeCell ref="A208:E208"/>
-    <mergeCell ref="A219:E219"/>
   </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>